--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -15431,7 +15431,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$D$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$O$442</definedName>
   </definedNames>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4728" uniqueCount="2118">
   <si>
     <t>Name</t>
   </si>
@@ -10991,6 +10992,9 @@
   </si>
   <si>
     <t>77666_A</t>
+  </si>
+  <si>
+    <t>ankit</t>
   </si>
 </sst>
 </file>
@@ -15430,7 +15434,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -16364,7 +16368,7 @@
   <dimension ref="A1:O442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30946,124 +30950,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="149" customWidth="1"/>
-    <col min="4" max="4" width="74.44140625" customWidth="1"/>
+    <col min="1" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="149" customWidth="1"/>
+    <col min="7" max="7" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>2112</v>
       </c>
       <c r="B1" s="41" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>2111</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>2110</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2109</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2108</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>2107</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2106</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2105</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>2104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2103</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>2101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>2099</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="F5" s="22" t="s">
         <v>2098</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2097</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>2096</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="F6" s="22" t="s">
         <v>2095</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>2093</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="F7" s="22" t="s">
         <v>2092</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>2091</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>2090</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="F8" s="22" t="s">
         <v>2089</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -16417,8 +16417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32266,8 +32266,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="21075" windowHeight="8895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -34,7 +29,7 @@
     <author>Ankit Agarwal1</author>
   </authors>
   <commentList>
-    <comment ref="A38" authorId="0" shapeId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5147" uniqueCount="2135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="2136">
   <si>
     <t>Name</t>
   </si>
@@ -11046,6 +11041,9 @@
   </si>
   <si>
     <t>TM/Server/Upgrade related</t>
+  </si>
+  <si>
+    <t>MiniEPG Covered</t>
   </si>
 </sst>
 </file>
@@ -11341,7 +11339,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11368,6 +11366,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11375,6 +11374,7 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -11503,6 +11503,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11595,7 +11596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11630,7 +11631,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11845,12 +11846,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>496</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>497</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>501</v>
       </c>
@@ -11893,19 +11894,19 @@
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="50.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="50.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="114.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="10" width="114.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.45" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
@@ -11967,7 +11968,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
@@ -11997,7 +11998,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="53.45" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>420</v>
       </c>
@@ -12027,7 +12028,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>421</v>
       </c>
@@ -12087,7 +12088,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="79.900000000000006" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>425</v>
       </c>
@@ -12181,7 +12182,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>427</v>
       </c>
@@ -12211,7 +12212,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>428</v>
       </c>
@@ -12241,7 +12242,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>429</v>
       </c>
@@ -12299,7 +12300,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>431</v>
       </c>
@@ -12329,7 +12330,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>432</v>
       </c>
@@ -12387,7 +12388,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -12415,7 +12416,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>435</v>
       </c>
@@ -12445,7 +12446,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>422</v>
       </c>
@@ -12503,7 +12504,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>437</v>
       </c>
@@ -12533,7 +12534,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>437</v>
       </c>
@@ -12563,7 +12564,7 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>436</v>
       </c>
@@ -12623,7 +12624,7 @@
       </c>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>439</v>
       </c>
@@ -12653,7 +12654,7 @@
       </c>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>496</v>
@@ -12743,7 +12744,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>466</v>
       </c>
@@ -12773,7 +12774,7 @@
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>467</v>
       </c>
@@ -12833,7 +12834,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>501</v>
@@ -12859,7 +12860,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>469</v>
       </c>
@@ -12889,7 +12890,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>501</v>
@@ -12917,7 +12918,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>485</v>
       </c>
@@ -13035,7 +13036,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>473</v>
       </c>
@@ -13065,7 +13066,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>474</v>
       </c>
@@ -13095,7 +13096,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>475</v>
       </c>
@@ -13125,7 +13126,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>476</v>
       </c>
@@ -13155,7 +13156,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>477</v>
       </c>
@@ -13185,7 +13186,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>478</v>
       </c>
@@ -13215,7 +13216,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>479</v>
       </c>
@@ -13245,7 +13246,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>440</v>
       </c>
@@ -13275,7 +13276,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="s">
         <v>496</v>
@@ -13303,7 +13304,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
         <v>496</v>
@@ -13331,7 +13332,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
         <v>496</v>
@@ -13359,7 +13360,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -13387,7 +13388,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="s">
         <v>496</v>
@@ -13415,7 +13416,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>441</v>
       </c>
@@ -13445,7 +13446,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="9" t="s">
         <v>496</v>
@@ -13473,7 +13474,7 @@
       </c>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="9" t="s">
         <v>496</v>
@@ -13501,7 +13502,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="9" t="s">
         <v>496</v>
@@ -13559,7 +13560,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="9" t="s">
         <v>496</v>
@@ -13587,7 +13588,7 @@
       </c>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="9" t="s">
         <v>496</v>
@@ -13615,7 +13616,7 @@
       </c>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="9" t="s">
         <v>496</v>
@@ -13671,7 +13672,7 @@
       </c>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>480</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>483</v>
       </c>
@@ -13789,7 +13790,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>484</v>
       </c>
@@ -13819,7 +13820,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>442</v>
       </c>
@@ -13849,7 +13850,7 @@
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
@@ -13909,7 +13910,7 @@
       </c>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>445</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
         <v>501</v>
@@ -13965,7 +13966,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15" t="s">
         <v>501</v>
@@ -13991,7 +13992,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="9" t="s">
         <v>496</v>
@@ -14021,7 +14022,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="9" t="s">
         <v>496</v>
@@ -14049,7 +14050,7 @@
       </c>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>446</v>
       </c>
@@ -14107,7 +14108,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>448</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>501</v>
@@ -14161,7 +14162,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>501</v>
@@ -14187,7 +14188,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>501</v>
@@ -14213,7 +14214,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>449</v>
       </c>
@@ -14241,7 +14242,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15" t="s">
         <v>501</v>
@@ -14267,7 +14268,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>501</v>
@@ -14293,7 +14294,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="251.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="9" t="s">
         <v>496</v>
@@ -14321,7 +14322,7 @@
       </c>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="211.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="9" t="s">
         <v>496</v>
@@ -14349,7 +14350,7 @@
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="9" t="s">
         <v>496</v>
@@ -14377,7 +14378,7 @@
       </c>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="211.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="9" t="s">
         <v>496</v>
@@ -14433,7 +14434,7 @@
       </c>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>450</v>
       </c>
@@ -14461,7 +14462,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>501</v>
@@ -14487,7 +14488,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>501</v>
@@ -14513,7 +14514,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>451</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -14631,7 +14632,7 @@
       </c>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>455</v>
       </c>
@@ -14661,7 +14662,7 @@
       </c>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -14691,7 +14692,7 @@
       </c>
       <c r="J96" s="17"/>
     </row>
-    <row r="97" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>457</v>
       </c>
@@ -14719,7 +14720,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>458</v>
       </c>
@@ -14777,7 +14778,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>460</v>
       </c>
@@ -14805,7 +14806,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>461</v>
       </c>
@@ -14915,7 +14916,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="93" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
         <v>496</v>
@@ -14941,7 +14942,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
         <v>496</v>
@@ -14965,7 +14966,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
         <v>496</v>
@@ -15174,7 +15175,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
         <v>496</v>
@@ -15198,7 +15199,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="9" t="s">
         <v>496</v>
@@ -15222,7 +15223,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="9" t="s">
         <v>496</v>
@@ -15246,7 +15247,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="9" t="s">
         <v>496</v>
@@ -15390,7 +15391,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="251.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="9" t="s">
         <v>496</v>
@@ -15482,29 +15483,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="24" customWidth="1"/>
-    <col min="7" max="7" width="126.109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="126.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>77661</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>77673</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>77660</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>660</v>
       </c>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>658</v>
       </c>
@@ -15836,7 +15836,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>77669</v>
       </c>
@@ -15857,7 +15857,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>2113</v>
       </c>
@@ -15878,7 +15878,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>77668</v>
       </c>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>2114</v>
       </c>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>77667</v>
       </c>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>2115</v>
       </c>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>77666</v>
       </c>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>77664</v>
       </c>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>77665</v>
       </c>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>77675</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>77672</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>77659</v>
       </c>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>77676</v>
       </c>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>77656</v>
       </c>
@@ -16128,7 +16128,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>627</v>
       </c>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>625</v>
       </c>
@@ -16170,7 +16170,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>623</v>
       </c>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>621</v>
       </c>
@@ -16212,7 +16212,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>619</v>
       </c>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>77681</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>77674</v>
       </c>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>77671</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>688</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>77670</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>690</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>77666</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="86.45" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>2116</v>
       </c>
@@ -16395,18 +16395,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J42">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Complete"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Ankit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -16417,25 +16406,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.109375" customWidth="1"/>
-    <col min="3" max="4" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" customWidth="1"/>
-    <col min="10" max="11" width="39.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="55.28515625" customWidth="1"/>
+    <col min="10" max="11" width="39.42578125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2086</v>
       </c>
@@ -16522,7 +16512,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16559,7 +16549,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -16596,7 +16586,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42</v>
       </c>
@@ -16633,7 +16623,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>43</v>
       </c>
@@ -16670,7 +16660,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>44</v>
       </c>
@@ -16707,7 +16697,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -16744,7 +16734,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>46</v>
       </c>
@@ -16781,7 +16771,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="40.15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -16818,7 +16808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
@@ -16888,7 +16878,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>54</v>
       </c>
@@ -16925,7 +16915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -16962,7 +16952,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56</v>
       </c>
@@ -16999,7 +16989,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>57</v>
       </c>
@@ -17036,7 +17026,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>58</v>
       </c>
@@ -17073,7 +17063,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>59</v>
       </c>
@@ -17110,7 +17100,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>60</v>
       </c>
@@ -17147,7 +17137,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>61</v>
       </c>
@@ -17184,7 +17174,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>62</v>
       </c>
@@ -17221,7 +17211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>63</v>
       </c>
@@ -17258,7 +17248,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>64</v>
       </c>
@@ -17295,7 +17285,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>65</v>
       </c>
@@ -17332,7 +17322,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>67</v>
       </c>
@@ -17369,7 +17359,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>68</v>
       </c>
@@ -17406,7 +17396,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>69</v>
       </c>
@@ -17443,7 +17433,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>70</v>
       </c>
@@ -17480,7 +17470,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>71</v>
       </c>
@@ -17517,7 +17507,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>72</v>
       </c>
@@ -17554,7 +17544,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>73</v>
       </c>
@@ -17591,7 +17581,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>74</v>
       </c>
@@ -17628,7 +17618,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>75</v>
       </c>
@@ -17665,7 +17655,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>76</v>
       </c>
@@ -17702,7 +17692,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>77</v>
       </c>
@@ -17739,7 +17729,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>78</v>
       </c>
@@ -17776,7 +17766,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>79</v>
       </c>
@@ -17813,7 +17803,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>80</v>
       </c>
@@ -17850,7 +17840,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>82</v>
       </c>
@@ -17887,7 +17877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>83</v>
       </c>
@@ -17924,7 +17914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>84</v>
       </c>
@@ -17961,7 +17951,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>85</v>
       </c>
@@ -17998,7 +17988,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>86</v>
       </c>
@@ -18035,7 +18025,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>87</v>
       </c>
@@ -18072,7 +18062,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>88</v>
       </c>
@@ -18109,7 +18099,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>89</v>
       </c>
@@ -18146,7 +18136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90</v>
       </c>
@@ -18183,7 +18173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>91</v>
       </c>
@@ -18218,7 +18208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>92</v>
       </c>
@@ -18253,7 +18243,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>93</v>
       </c>
@@ -18288,7 +18278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>94</v>
       </c>
@@ -18323,7 +18313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -18358,7 +18348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>96</v>
       </c>
@@ -18393,7 +18383,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>97</v>
       </c>
@@ -18428,7 +18418,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>98</v>
       </c>
@@ -18463,7 +18453,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>99</v>
       </c>
@@ -18498,7 +18488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>100</v>
       </c>
@@ -18535,7 +18525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>101</v>
       </c>
@@ -18572,7 +18562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102</v>
       </c>
@@ -18609,7 +18599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>103</v>
       </c>
@@ -18646,7 +18636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>104</v>
       </c>
@@ -18683,7 +18673,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>105</v>
       </c>
@@ -18720,7 +18710,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
@@ -18757,7 +18747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>107</v>
       </c>
@@ -18794,7 +18784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>108</v>
       </c>
@@ -18831,7 +18821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>109</v>
       </c>
@@ -18868,7 +18858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>110</v>
       </c>
@@ -18905,7 +18895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>111</v>
       </c>
@@ -18942,7 +18932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>112</v>
       </c>
@@ -18979,7 +18969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>113</v>
       </c>
@@ -19016,7 +19006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>114</v>
       </c>
@@ -19053,7 +19043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>115</v>
       </c>
@@ -19090,7 +19080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>116</v>
       </c>
@@ -19127,7 +19117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>117</v>
       </c>
@@ -19164,7 +19154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>118</v>
       </c>
@@ -19201,7 +19191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>119</v>
       </c>
@@ -19238,7 +19228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>120</v>
       </c>
@@ -19275,7 +19265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>121</v>
       </c>
@@ -19312,7 +19302,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>122</v>
       </c>
@@ -19349,7 +19339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>123</v>
       </c>
@@ -19386,7 +19376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>127</v>
       </c>
@@ -19423,7 +19413,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>128</v>
       </c>
@@ -19460,7 +19450,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>129</v>
       </c>
@@ -19497,7 +19487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>130</v>
       </c>
@@ -19536,7 +19526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>131</v>
       </c>
@@ -19571,7 +19561,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>132</v>
       </c>
@@ -19606,7 +19596,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="357.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>133</v>
       </c>
@@ -19641,7 +19631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>134</v>
       </c>
@@ -19676,7 +19666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>135</v>
       </c>
@@ -19711,7 +19701,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>136</v>
       </c>
@@ -19746,7 +19736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>137</v>
       </c>
@@ -19781,7 +19771,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>138</v>
       </c>
@@ -19818,7 +19808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>139</v>
       </c>
@@ -19855,7 +19845,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>140</v>
       </c>
@@ -19892,7 +19882,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>141</v>
       </c>
@@ -19929,7 +19919,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>142</v>
       </c>
@@ -19966,7 +19956,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>143</v>
       </c>
@@ -20003,7 +19993,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>144</v>
       </c>
@@ -20040,7 +20030,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>145</v>
       </c>
@@ -20077,7 +20067,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>146</v>
       </c>
@@ -20114,7 +20104,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>147</v>
       </c>
@@ -20151,7 +20141,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>148</v>
       </c>
@@ -20188,7 +20178,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>149</v>
       </c>
@@ -20225,7 +20215,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>153</v>
       </c>
@@ -20260,7 +20250,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>154</v>
       </c>
@@ -20295,7 +20285,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>155</v>
       </c>
@@ -20330,7 +20320,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>156</v>
       </c>
@@ -20365,7 +20355,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>158</v>
       </c>
@@ -20400,7 +20390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>159</v>
       </c>
@@ -20435,7 +20425,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>166</v>
       </c>
@@ -20470,7 +20460,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>167</v>
       </c>
@@ -20507,7 +20497,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>170</v>
       </c>
@@ -20542,7 +20532,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>171</v>
       </c>
@@ -20577,7 +20567,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="294" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>172</v>
       </c>
@@ -20612,7 +20602,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>173</v>
       </c>
@@ -20651,7 +20641,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="294" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>174</v>
       </c>
@@ -20690,7 +20680,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>175</v>
       </c>
@@ -20729,7 +20719,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>176</v>
       </c>
@@ -20768,7 +20758,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>177</v>
       </c>
@@ -20808,7 +20798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>178</v>
       </c>
@@ -20848,7 +20838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>179</v>
       </c>
@@ -20887,7 +20877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>180</v>
       </c>
@@ -20927,7 +20917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>182</v>
       </c>
@@ -20967,7 +20957,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>183</v>
       </c>
@@ -21002,7 +20992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>185</v>
       </c>
@@ -21037,7 +21027,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>187</v>
       </c>
@@ -21072,7 +21062,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>189</v>
       </c>
@@ -21107,7 +21097,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>192</v>
       </c>
@@ -21142,7 +21132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>193</v>
       </c>
@@ -21181,7 +21171,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>194</v>
       </c>
@@ -21220,7 +21210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>196</v>
       </c>
@@ -21259,7 +21249,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>197</v>
       </c>
@@ -21296,7 +21286,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>199</v>
       </c>
@@ -21333,7 +21323,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>200</v>
       </c>
@@ -21370,7 +21360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>202</v>
       </c>
@@ -21407,7 +21397,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>203</v>
       </c>
@@ -21444,7 +21434,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>204</v>
       </c>
@@ -21481,7 +21471,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>205</v>
       </c>
@@ -21521,7 +21511,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>206</v>
       </c>
@@ -21561,7 +21551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="345" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>207</v>
       </c>
@@ -21601,7 +21591,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>208</v>
       </c>
@@ -21638,7 +21628,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>209</v>
       </c>
@@ -21675,7 +21665,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>210</v>
       </c>
@@ -21716,7 +21706,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>211</v>
       </c>
@@ -21757,7 +21747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>212</v>
       </c>
@@ -21798,7 +21788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>213</v>
       </c>
@@ -21836,7 +21826,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>214</v>
       </c>
@@ -21874,7 +21864,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>221</v>
       </c>
@@ -21915,7 +21905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>222</v>
       </c>
@@ -21956,7 +21946,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>223</v>
       </c>
@@ -21991,7 +21981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>224</v>
       </c>
@@ -22029,7 +22019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22064,7 +22054,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>227</v>
       </c>
@@ -22102,7 +22092,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>228</v>
       </c>
@@ -22140,7 +22130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>231</v>
       </c>
@@ -22178,7 +22168,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>232</v>
       </c>
@@ -22213,7 +22203,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>233</v>
       </c>
@@ -22248,7 +22238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>234</v>
       </c>
@@ -22283,7 +22273,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>235</v>
       </c>
@@ -22318,7 +22308,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>236</v>
       </c>
@@ -22353,7 +22343,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>237</v>
       </c>
@@ -22388,7 +22378,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>238</v>
       </c>
@@ -22423,7 +22413,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>239</v>
       </c>
@@ -22461,7 +22451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>240</v>
       </c>
@@ -22499,7 +22489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>241</v>
       </c>
@@ -22534,7 +22524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>242</v>
       </c>
@@ -22572,7 +22562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>243</v>
       </c>
@@ -22607,7 +22597,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>244</v>
       </c>
@@ -22645,7 +22635,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>245</v>
       </c>
@@ -22680,7 +22670,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>246</v>
       </c>
@@ -22715,7 +22705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>247</v>
       </c>
@@ -22750,7 +22740,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>248</v>
       </c>
@@ -22785,7 +22775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>249</v>
       </c>
@@ -22820,7 +22810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>250</v>
       </c>
@@ -22855,7 +22845,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>251</v>
       </c>
@@ -22890,7 +22880,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>252</v>
       </c>
@@ -22925,7 +22915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>253</v>
       </c>
@@ -22963,7 +22953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>256</v>
       </c>
@@ -23001,7 +22991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>257</v>
       </c>
@@ -23036,7 +23026,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>258</v>
       </c>
@@ -23071,7 +23061,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>259</v>
       </c>
@@ -23106,7 +23096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>260</v>
       </c>
@@ -23141,7 +23131,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>261</v>
       </c>
@@ -23176,7 +23166,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>262</v>
       </c>
@@ -23211,7 +23201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>263</v>
       </c>
@@ -23246,7 +23236,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>264</v>
       </c>
@@ -23281,7 +23271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>274</v>
       </c>
@@ -23314,7 +23304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>275</v>
       </c>
@@ -23347,7 +23337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>276</v>
       </c>
@@ -23380,7 +23370,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>277</v>
       </c>
@@ -23413,7 +23403,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>278</v>
       </c>
@@ -23446,7 +23436,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>279</v>
       </c>
@@ -23479,7 +23469,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>280</v>
       </c>
@@ -23512,7 +23502,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>281</v>
       </c>
@@ -23545,7 +23535,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>282</v>
       </c>
@@ -23578,7 +23568,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>283</v>
       </c>
@@ -23611,7 +23601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>284</v>
       </c>
@@ -23644,7 +23634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>285</v>
       </c>
@@ -23677,7 +23667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>286</v>
       </c>
@@ -23712,7 +23702,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>287</v>
       </c>
@@ -23747,7 +23737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>288</v>
       </c>
@@ -23782,7 +23772,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>289</v>
       </c>
@@ -23817,7 +23807,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>290</v>
       </c>
@@ -23852,7 +23842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>291</v>
       </c>
@@ -23887,7 +23877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>292</v>
       </c>
@@ -23922,7 +23912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>295</v>
       </c>
@@ -23955,7 +23945,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>296</v>
       </c>
@@ -23988,7 +23978,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>297</v>
       </c>
@@ -24023,7 +24013,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>298</v>
       </c>
@@ -24058,7 +24048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>299</v>
       </c>
@@ -24093,7 +24083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>300</v>
       </c>
@@ -24128,7 +24118,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>301</v>
       </c>
@@ -24163,7 +24153,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>302</v>
       </c>
@@ -24198,7 +24188,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>303</v>
       </c>
@@ -24231,7 +24221,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>304</v>
       </c>
@@ -24264,7 +24254,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>305</v>
       </c>
@@ -24297,7 +24287,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>306</v>
       </c>
@@ -24330,7 +24320,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>307</v>
       </c>
@@ -24363,7 +24353,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>308</v>
       </c>
@@ -24396,7 +24386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>309</v>
       </c>
@@ -24429,7 +24419,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>310</v>
       </c>
@@ -24462,7 +24452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>311</v>
       </c>
@@ -24495,7 +24485,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>312</v>
       </c>
@@ -24528,7 +24518,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>313</v>
       </c>
@@ -24561,7 +24551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>314</v>
       </c>
@@ -24596,7 +24586,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>315</v>
       </c>
@@ -24631,7 +24621,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>316</v>
       </c>
@@ -24664,7 +24654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>317</v>
       </c>
@@ -24699,7 +24689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>318</v>
       </c>
@@ -24732,7 +24722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>319</v>
       </c>
@@ -24765,7 +24755,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>320</v>
       </c>
@@ -24798,7 +24788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>321</v>
       </c>
@@ -24831,7 +24821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>322</v>
       </c>
@@ -24864,7 +24854,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>323</v>
       </c>
@@ -24897,7 +24887,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>324</v>
       </c>
@@ -24936,7 +24926,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>325</v>
       </c>
@@ -24975,7 +24965,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>328</v>
       </c>
@@ -25014,7 +25004,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>329</v>
       </c>
@@ -25053,7 +25043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>331</v>
       </c>
@@ -25092,7 +25082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>332</v>
       </c>
@@ -25127,7 +25117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>333</v>
       </c>
@@ -25165,7 +25155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>334</v>
       </c>
@@ -25200,7 +25190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>335</v>
       </c>
@@ -25238,7 +25228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>336</v>
       </c>
@@ -25276,7 +25266,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>337</v>
       </c>
@@ -25311,7 +25301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>338</v>
       </c>
@@ -25346,7 +25336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>339</v>
       </c>
@@ -25381,7 +25371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>341</v>
       </c>
@@ -25419,7 +25409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>342</v>
       </c>
@@ -25457,7 +25447,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>343</v>
       </c>
@@ -25492,7 +25482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>344</v>
       </c>
@@ -25527,7 +25517,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>345</v>
       </c>
@@ -25565,7 +25555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>346</v>
       </c>
@@ -25603,7 +25593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>347</v>
       </c>
@@ -25638,7 +25628,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>348</v>
       </c>
@@ -25676,7 +25666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>349</v>
       </c>
@@ -25714,7 +25704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>350</v>
       </c>
@@ -25749,7 +25739,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>351</v>
       </c>
@@ -25784,7 +25774,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>352</v>
       </c>
@@ -25817,7 +25807,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>354</v>
       </c>
@@ -25852,7 +25842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>355</v>
       </c>
@@ -25887,7 +25877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>356</v>
       </c>
@@ -25922,7 +25912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>359</v>
       </c>
@@ -25957,7 +25947,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>360</v>
       </c>
@@ -25992,7 +25982,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26027,7 +26017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26062,7 +26052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>364</v>
       </c>
@@ -26097,7 +26087,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>365</v>
       </c>
@@ -26132,7 +26122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>366</v>
       </c>
@@ -26170,7 +26160,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>367</v>
       </c>
@@ -26208,7 +26198,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>368</v>
       </c>
@@ -26246,7 +26236,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>369</v>
       </c>
@@ -26281,7 +26271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>370</v>
       </c>
@@ -26316,7 +26306,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>371</v>
       </c>
@@ -26354,7 +26344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>372</v>
       </c>
@@ -26392,7 +26382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>373</v>
       </c>
@@ -26427,7 +26417,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>374</v>
       </c>
@@ -26462,7 +26452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>375</v>
       </c>
@@ -26497,7 +26487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>376</v>
       </c>
@@ -26532,7 +26522,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>377</v>
       </c>
@@ -26567,7 +26557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>378</v>
       </c>
@@ -26602,7 +26592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>379</v>
       </c>
@@ -26637,7 +26627,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>380</v>
       </c>
@@ -26670,7 +26660,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>381</v>
       </c>
@@ -26703,7 +26693,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>382</v>
       </c>
@@ -26738,7 +26728,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>385</v>
       </c>
@@ -26771,12 +26761,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>386</v>
       </c>
       <c r="B287" s="18" t="s">
         <v>1165</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2135</v>
       </c>
       <c r="F287" s="18" t="s">
         <v>1106</v>
@@ -26804,7 +26797,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>387</v>
       </c>
@@ -26837,7 +26830,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>388</v>
       </c>
@@ -26872,7 +26865,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>389</v>
       </c>
@@ -26907,7 +26900,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>390</v>
       </c>
@@ -26942,7 +26935,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>391</v>
       </c>
@@ -26977,7 +26970,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27012,7 +27005,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>393</v>
       </c>
@@ -27047,7 +27040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>394</v>
       </c>
@@ -27088,7 +27081,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>395</v>
       </c>
@@ -27129,7 +27122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>396</v>
       </c>
@@ -27164,7 +27157,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>397</v>
       </c>
@@ -27205,7 +27198,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>398</v>
       </c>
@@ -27240,7 +27233,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>399</v>
       </c>
@@ -27275,7 +27268,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>400</v>
       </c>
@@ -27310,7 +27303,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>401</v>
       </c>
@@ -27351,7 +27344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>402</v>
       </c>
@@ -27388,7 +27381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>403</v>
       </c>
@@ -27425,7 +27418,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>404</v>
       </c>
@@ -27462,7 +27455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>405</v>
       </c>
@@ -27499,7 +27492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>406</v>
       </c>
@@ -27536,7 +27529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>407</v>
       </c>
@@ -27573,7 +27566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>408</v>
       </c>
@@ -27610,7 +27603,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>409</v>
       </c>
@@ -27647,7 +27640,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>410</v>
       </c>
@@ -27684,7 +27677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>411</v>
       </c>
@@ -27721,7 +27714,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>412</v>
       </c>
@@ -27758,7 +27751,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>413</v>
       </c>
@@ -27793,7 +27786,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>415</v>
       </c>
@@ -27828,7 +27821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>417</v>
       </c>
@@ -27865,7 +27858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>418</v>
       </c>
@@ -27900,7 +27893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>419</v>
       </c>
@@ -27935,7 +27928,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>420</v>
       </c>
@@ -27970,7 +27963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>421</v>
       </c>
@@ -28005,7 +27998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>422</v>
       </c>
@@ -28040,7 +28033,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>423</v>
       </c>
@@ -28075,7 +28068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>424</v>
       </c>
@@ -28110,7 +28103,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>426</v>
       </c>
@@ -28145,7 +28138,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>427</v>
       </c>
@@ -28180,7 +28173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>429</v>
       </c>
@@ -28215,7 +28208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>430</v>
       </c>
@@ -28250,7 +28243,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>431</v>
       </c>
@@ -28287,7 +28280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>432</v>
       </c>
@@ -28322,7 +28315,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>433</v>
       </c>
@@ -28357,7 +28350,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>434</v>
       </c>
@@ -28394,7 +28387,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>435</v>
       </c>
@@ -28429,7 +28422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>436</v>
       </c>
@@ -28464,7 +28457,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>437</v>
       </c>
@@ -28499,7 +28492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>440</v>
       </c>
@@ -28534,7 +28527,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>441</v>
       </c>
@@ -28569,7 +28562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>442</v>
       </c>
@@ -28604,7 +28597,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>443</v>
       </c>
@@ -28639,7 +28632,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>444</v>
       </c>
@@ -28674,7 +28667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>445</v>
       </c>
@@ -28711,7 +28704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>448</v>
       </c>
@@ -28748,7 +28741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>449</v>
       </c>
@@ -28783,7 +28776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>450</v>
       </c>
@@ -28818,7 +28811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="141" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>451</v>
       </c>
@@ -28855,7 +28848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>452</v>
       </c>
@@ -28890,7 +28883,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>453</v>
       </c>
@@ -28925,7 +28918,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>455</v>
       </c>
@@ -28960,7 +28953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>456</v>
       </c>
@@ -28995,7 +28988,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>457</v>
       </c>
@@ -29030,7 +29023,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>458</v>
       </c>
@@ -29065,7 +29058,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>459</v>
       </c>
@@ -29100,7 +29093,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>460</v>
       </c>
@@ -29137,7 +29130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>461</v>
       </c>
@@ -29174,7 +29167,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>463</v>
       </c>
@@ -29209,7 +29202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>464</v>
       </c>
@@ -29244,7 +29237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>465</v>
       </c>
@@ -29279,7 +29272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>469</v>
       </c>
@@ -29314,7 +29307,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>470</v>
       </c>
@@ -29349,7 +29342,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>471</v>
       </c>
@@ -29384,7 +29377,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>472</v>
       </c>
@@ -29419,7 +29412,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>473</v>
       </c>
@@ -29456,7 +29449,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>474</v>
       </c>
@@ -29491,7 +29484,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>475</v>
       </c>
@@ -29528,7 +29521,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>476</v>
       </c>
@@ -29565,7 +29558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>477</v>
       </c>
@@ -29600,14 +29593,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>479</v>
       </c>
       <c r="B366" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="C366" s="28"/>
+      <c r="C366" t="s">
+        <v>2135</v>
+      </c>
       <c r="D366" s="28"/>
       <c r="F366" s="21" t="s">
         <v>1106</v>
@@ -29633,14 +29628,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>480</v>
       </c>
       <c r="B367" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="C367" s="27"/>
+      <c r="C367" t="s">
+        <v>2135</v>
+      </c>
       <c r="D367" s="27"/>
       <c r="F367" s="18" t="s">
         <v>1106</v>
@@ -29666,14 +29663,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>481</v>
       </c>
       <c r="B368" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="C368" s="28"/>
+      <c r="C368" t="s">
+        <v>2135</v>
+      </c>
       <c r="D368" s="28"/>
       <c r="F368" s="21" t="s">
         <v>1106</v>
@@ -29699,14 +29698,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="319.5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>482</v>
       </c>
       <c r="B369" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="C369" s="27"/>
+      <c r="C369" t="s">
+        <v>2135</v>
+      </c>
       <c r="D369" s="27"/>
       <c r="F369" s="18" t="s">
         <v>1106</v>
@@ -29732,14 +29733,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>483</v>
       </c>
       <c r="B370" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C370" s="28"/>
+      <c r="C370" t="s">
+        <v>2135</v>
+      </c>
       <c r="D370" s="28"/>
       <c r="F370" s="21" t="s">
         <v>1106</v>
@@ -29767,14 +29770,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>484</v>
       </c>
       <c r="B371" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="C371" s="27"/>
+      <c r="C371" t="s">
+        <v>2135</v>
+      </c>
       <c r="D371" s="27"/>
       <c r="F371" s="18" t="s">
         <v>1106</v>
@@ -29800,14 +29805,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>485</v>
       </c>
       <c r="B372" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="C372" s="28"/>
+      <c r="C372" t="s">
+        <v>2135</v>
+      </c>
       <c r="D372" s="28"/>
       <c r="F372" s="21" t="s">
         <v>1106</v>
@@ -29833,14 +29840,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>486</v>
       </c>
       <c r="B373" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="C373" s="27"/>
+      <c r="C373" t="s">
+        <v>2135</v>
+      </c>
       <c r="D373" s="27"/>
       <c r="F373" s="18" t="s">
         <v>1106</v>
@@ -29866,14 +29875,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>487</v>
       </c>
       <c r="B374" s="21" t="s">
         <v>875</v>
       </c>
-      <c r="C374" s="28"/>
+      <c r="C374" t="s">
+        <v>2135</v>
+      </c>
       <c r="D374" s="28"/>
       <c r="F374" s="21" t="s">
         <v>1106</v>
@@ -29899,14 +29910,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>489</v>
       </c>
       <c r="B375" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="C375" s="28"/>
+      <c r="C375" t="s">
+        <v>2135</v>
+      </c>
       <c r="D375" s="28"/>
       <c r="F375" s="21" t="s">
         <v>1106</v>
@@ -29932,14 +29945,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>490</v>
       </c>
       <c r="B376" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="C376" s="27"/>
+      <c r="C376" t="s">
+        <v>2135</v>
+      </c>
       <c r="D376" s="27"/>
       <c r="F376" s="18" t="s">
         <v>1106</v>
@@ -29965,14 +29980,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>491</v>
       </c>
       <c r="B377" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="C377" s="28"/>
+      <c r="C377" t="s">
+        <v>2135</v>
+      </c>
       <c r="D377" s="28"/>
       <c r="F377" s="21" t="s">
         <v>1106</v>
@@ -29998,14 +30015,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>492</v>
       </c>
       <c r="B378" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="C378" s="27"/>
+      <c r="C378" t="s">
+        <v>2135</v>
+      </c>
       <c r="D378" s="27"/>
       <c r="F378" s="18" t="s">
         <v>1106</v>
@@ -30031,14 +30050,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>493</v>
       </c>
       <c r="B379" s="21" t="s">
         <v>865</v>
       </c>
-      <c r="C379" s="28"/>
+      <c r="C379" t="s">
+        <v>2135</v>
+      </c>
       <c r="D379" s="28"/>
       <c r="F379" s="21" t="s">
         <v>1106</v>
@@ -30064,14 +30085,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>494</v>
       </c>
       <c r="B380" s="18" t="s">
         <v>862</v>
       </c>
-      <c r="C380" s="27"/>
+      <c r="C380" t="s">
+        <v>2135</v>
+      </c>
       <c r="D380" s="27"/>
       <c r="F380" s="18" t="s">
         <v>1106</v>
@@ -30097,14 +30120,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>495</v>
       </c>
       <c r="B381" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="C381" s="28"/>
+      <c r="C381" t="s">
+        <v>2135</v>
+      </c>
       <c r="D381" s="28"/>
       <c r="F381" s="21" t="s">
         <v>1106</v>
@@ -30130,14 +30155,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>498</v>
       </c>
       <c r="B382" s="18" t="s">
         <v>858</v>
       </c>
-      <c r="C382" s="27"/>
+      <c r="C382" t="s">
+        <v>2135</v>
+      </c>
       <c r="D382" s="27"/>
       <c r="F382" s="18" t="s">
         <v>1106</v>
@@ -30163,14 +30190,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>499</v>
       </c>
       <c r="B383" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="C383" s="28"/>
+      <c r="C383" t="s">
+        <v>2135</v>
+      </c>
       <c r="D383" s="28"/>
       <c r="F383" s="21" t="s">
         <v>1106</v>
@@ -30196,14 +30225,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>500</v>
       </c>
       <c r="B384" s="18" t="s">
         <v>854</v>
       </c>
-      <c r="C384" s="27"/>
+      <c r="C384" t="s">
+        <v>2135</v>
+      </c>
       <c r="D384" s="27"/>
       <c r="F384" s="18" t="s">
         <v>1106</v>
@@ -30229,14 +30260,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>501</v>
       </c>
       <c r="B385" s="21" t="s">
         <v>852</v>
       </c>
-      <c r="C385" s="28"/>
+      <c r="C385" t="s">
+        <v>2135</v>
+      </c>
       <c r="D385" s="28"/>
       <c r="F385" s="21" t="s">
         <v>1106</v>
@@ -30262,14 +30295,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>503</v>
       </c>
       <c r="B386" s="21" t="s">
         <v>850</v>
       </c>
-      <c r="C386" s="28"/>
+      <c r="C386" t="s">
+        <v>2135</v>
+      </c>
       <c r="D386" s="28"/>
       <c r="F386" s="21" t="s">
         <v>1106</v>
@@ -30295,14 +30330,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>504</v>
       </c>
       <c r="B387" s="18" t="s">
         <v>848</v>
       </c>
-      <c r="C387" s="27"/>
+      <c r="C387" t="s">
+        <v>2135</v>
+      </c>
       <c r="D387" s="27"/>
       <c r="F387" s="18" t="s">
         <v>1106</v>
@@ -30328,14 +30365,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>505</v>
       </c>
       <c r="B388" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C388" s="28"/>
+      <c r="C388" t="s">
+        <v>2135</v>
+      </c>
       <c r="D388" s="28"/>
       <c r="F388" s="21" t="s">
         <v>1106</v>
@@ -30361,7 +30400,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>506</v>
       </c>
@@ -30392,7 +30431,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>507</v>
       </c>
@@ -30423,7 +30462,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>508</v>
       </c>
@@ -30454,7 +30493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>509</v>
       </c>
@@ -30489,7 +30528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>510</v>
       </c>
@@ -30524,7 +30563,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>511</v>
       </c>
@@ -30559,7 +30598,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>512</v>
       </c>
@@ -30594,7 +30633,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>513</v>
       </c>
@@ -30629,7 +30668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>514</v>
       </c>
@@ -30664,7 +30703,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>515</v>
       </c>
@@ -30699,7 +30738,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>516</v>
       </c>
@@ -30734,7 +30773,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>517</v>
       </c>
@@ -30769,7 +30808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>518</v>
       </c>
@@ -30804,7 +30843,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>529</v>
       </c>
@@ -30841,7 +30880,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>541</v>
       </c>
@@ -30872,7 +30911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>547</v>
       </c>
@@ -30903,7 +30942,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>548</v>
       </c>
@@ -30934,7 +30973,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>564</v>
       </c>
@@ -30969,7 +31008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>565</v>
       </c>
@@ -31006,7 +31045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>570</v>
       </c>
@@ -31041,7 +31080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>571</v>
       </c>
@@ -31076,7 +31115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>574</v>
       </c>
@@ -31113,7 +31152,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>575</v>
       </c>
@@ -31150,7 +31189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>576</v>
       </c>
@@ -31187,7 +31226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>577</v>
       </c>
@@ -31224,7 +31263,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>580</v>
       </c>
@@ -31261,7 +31300,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>581</v>
       </c>
@@ -31298,7 +31337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>582</v>
       </c>
@@ -31333,7 +31372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>583</v>
       </c>
@@ -31368,7 +31407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>584</v>
       </c>
@@ -31403,7 +31442,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>585</v>
       </c>
@@ -31438,7 +31477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>586</v>
       </c>
@@ -31473,7 +31512,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>587</v>
       </c>
@@ -31510,7 +31549,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>588</v>
       </c>
@@ -31545,7 +31584,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>589</v>
       </c>
@@ -31580,7 +31619,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>590</v>
       </c>
@@ -31615,7 +31654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>591</v>
       </c>
@@ -31650,7 +31689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>592</v>
       </c>
@@ -31685,7 +31724,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>593</v>
       </c>
@@ -31720,7 +31759,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>594</v>
       </c>
@@ -31755,7 +31794,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>595</v>
       </c>
@@ -31790,7 +31829,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>596</v>
       </c>
@@ -31825,7 +31864,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>597</v>
       </c>
@@ -31860,7 +31899,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>598</v>
       </c>
@@ -31897,7 +31936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>599</v>
       </c>
@@ -31934,7 +31973,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>600</v>
       </c>
@@ -31969,7 +32008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>601</v>
       </c>
@@ -32004,7 +32043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>602</v>
       </c>
@@ -32041,7 +32080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>603</v>
       </c>
@@ -32078,7 +32117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>604</v>
       </c>
@@ -32115,7 +32154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>605</v>
       </c>
@@ -32150,7 +32189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>606</v>
       </c>
@@ -32185,7 +32224,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>607</v>
       </c>
@@ -32220,7 +32259,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>608</v>
       </c>
@@ -32266,19 +32305,19 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
+    <col min="1" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
     <col min="6" max="6" width="149" customWidth="1"/>
-    <col min="7" max="7" width="74.44140625" customWidth="1"/>
+    <col min="7" max="7" width="74.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>2112</v>
       </c>
@@ -32298,7 +32337,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2109</v>
       </c>
@@ -32314,7 +32353,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="172.9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2106</v>
       </c>
@@ -32346,7 +32385,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="244.9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2100</v>
       </c>
@@ -32362,7 +32401,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="158.44999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2097</v>
       </c>
@@ -32410,7 +32449,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -32418,7 +32457,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -32426,7 +32465,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -11043,7 +11043,7 @@
     <t>TM/Server/Upgrade related</t>
   </si>
   <si>
-    <t>MiniEPG Already Covered</t>
+    <t>MiniEPG already Covered</t>
   </si>
 </sst>
 </file>
@@ -32297,7 +32297,7 @@
   <autoFilter ref="A1:P442">
     <filterColumn colId="2">
       <filters>
-        <filter val="MiniEPG Covered"/>
+        <filter val="MiniEPG Already Covered"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="21075" windowHeight="8895" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,7 +34,7 @@
     <author>Ankit Agarwal1</author>
   </authors>
   <commentList>
-    <comment ref="A38" authorId="0">
+    <comment ref="A38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -11339,7 +11344,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-IN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11366,6 +11371,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11373,7 +11379,6 @@
       <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -11450,7 +11455,9 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11502,6 +11509,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11594,7 +11602,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11629,7 +11637,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11844,12 +11852,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>496</v>
       </c>
@@ -11858,7 +11866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>497</v>
       </c>
@@ -11867,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>501</v>
       </c>
@@ -11888,23 +11896,23 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="50.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="50.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="114.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="114.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -11936,7 +11944,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
@@ -11966,7 +11974,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
@@ -11996,7 +12004,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="53.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>420</v>
       </c>
@@ -12026,7 +12034,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>421</v>
       </c>
@@ -12086,7 +12094,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="79.900000000000006" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -12118,7 +12126,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>425</v>
       </c>
@@ -12180,7 +12188,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>427</v>
       </c>
@@ -12210,7 +12218,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="40.15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>428</v>
       </c>
@@ -12240,7 +12248,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>429</v>
       </c>
@@ -12298,7 +12306,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>431</v>
       </c>
@@ -12328,7 +12336,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>432</v>
       </c>
@@ -12386,7 +12394,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -12414,7 +12422,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>435</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>422</v>
       </c>
@@ -12472,7 +12480,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="93" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>436</v>
       </c>
@@ -12502,7 +12510,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>437</v>
       </c>
@@ -12532,7 +12540,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>437</v>
       </c>
@@ -12562,7 +12570,7 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>436</v>
       </c>
@@ -12592,7 +12600,7 @@
       </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>438</v>
       </c>
@@ -12622,7 +12630,7 @@
       </c>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>439</v>
       </c>
@@ -12652,7 +12660,7 @@
       </c>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>496</v>
@@ -12682,7 +12690,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>464</v>
       </c>
@@ -12712,7 +12720,7 @@
       </c>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>465</v>
       </c>
@@ -12742,7 +12750,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>466</v>
       </c>
@@ -12772,7 +12780,7 @@
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>467</v>
       </c>
@@ -12802,7 +12810,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>468</v>
       </c>
@@ -12832,7 +12840,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>501</v>
@@ -12858,7 +12866,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>469</v>
       </c>
@@ -12888,7 +12896,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>501</v>
@@ -12916,7 +12924,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>485</v>
       </c>
@@ -12944,7 +12952,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>470</v>
       </c>
@@ -12974,7 +12982,7 @@
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>471</v>
       </c>
@@ -13004,7 +13012,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>472</v>
       </c>
@@ -13034,7 +13042,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>473</v>
       </c>
@@ -13064,7 +13072,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>474</v>
       </c>
@@ -13094,7 +13102,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>475</v>
       </c>
@@ -13124,7 +13132,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>476</v>
       </c>
@@ -13154,7 +13162,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>477</v>
       </c>
@@ -13184,7 +13192,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>478</v>
       </c>
@@ -13214,7 +13222,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>479</v>
       </c>
@@ -13244,7 +13252,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>440</v>
       </c>
@@ -13274,7 +13282,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="s">
         <v>496</v>
@@ -13302,7 +13310,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
         <v>496</v>
@@ -13330,7 +13338,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
         <v>496</v>
@@ -13358,7 +13366,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -13386,7 +13394,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="s">
         <v>496</v>
@@ -13414,7 +13422,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>441</v>
       </c>
@@ -13444,7 +13452,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="9" t="s">
         <v>496</v>
@@ -13472,7 +13480,7 @@
       </c>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="9" t="s">
         <v>496</v>
@@ -13500,7 +13508,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="9" t="s">
         <v>496</v>
@@ -13528,7 +13536,7 @@
       </c>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:10" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="9" t="s">
         <v>496</v>
@@ -13558,7 +13566,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="9" t="s">
         <v>496</v>
@@ -13586,7 +13594,7 @@
       </c>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="9" t="s">
         <v>496</v>
@@ -13614,7 +13622,7 @@
       </c>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="9" t="s">
         <v>496</v>
@@ -13642,7 +13650,7 @@
       </c>
       <c r="J59" s="17"/>
     </row>
-    <row r="60" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="9" t="s">
         <v>496</v>
@@ -13670,7 +13678,7 @@
       </c>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>480</v>
       </c>
@@ -13758,7 +13766,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>483</v>
       </c>
@@ -13788,7 +13796,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>484</v>
       </c>
@@ -13818,7 +13826,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>442</v>
       </c>
@@ -13848,7 +13856,7 @@
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
@@ -13878,7 +13886,7 @@
       </c>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
@@ -13908,7 +13916,7 @@
       </c>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>445</v>
       </c>
@@ -13938,7 +13946,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
         <v>501</v>
@@ -13964,7 +13972,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="106.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15" t="s">
         <v>501</v>
@@ -13990,7 +13998,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="9" t="s">
         <v>496</v>
@@ -14020,7 +14028,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="9" t="s">
         <v>496</v>
@@ -14048,7 +14056,7 @@
       </c>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>446</v>
       </c>
@@ -14106,7 +14114,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>448</v>
       </c>
@@ -14134,7 +14142,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>501</v>
@@ -14160,7 +14168,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>501</v>
@@ -14186,7 +14194,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>501</v>
@@ -14212,7 +14220,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>449</v>
       </c>
@@ -14240,7 +14248,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15" t="s">
         <v>501</v>
@@ -14266,7 +14274,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>501</v>
@@ -14292,7 +14300,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="251.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="9" t="s">
         <v>496</v>
@@ -14320,7 +14328,7 @@
       </c>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:10" ht="211.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="9" t="s">
         <v>496</v>
@@ -14348,7 +14356,7 @@
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:10" ht="238.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="9" t="s">
         <v>496</v>
@@ -14376,7 +14384,7 @@
       </c>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="1:10" ht="211.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="9" t="s">
         <v>496</v>
@@ -14404,7 +14412,7 @@
       </c>
       <c r="J86" s="17"/>
     </row>
-    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="9" t="s">
         <v>496</v>
@@ -14432,7 +14440,7 @@
       </c>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>450</v>
       </c>
@@ -14460,7 +14468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>501</v>
@@ -14486,7 +14494,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>501</v>
@@ -14512,7 +14520,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>451</v>
       </c>
@@ -14542,7 +14550,7 @@
       </c>
       <c r="J91" s="17"/>
     </row>
-    <row r="92" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>452</v>
       </c>
@@ -14600,7 +14608,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -14630,7 +14638,7 @@
       </c>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>455</v>
       </c>
@@ -14660,7 +14668,7 @@
       </c>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="53.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -14690,7 +14698,7 @@
       </c>
       <c r="J96" s="17"/>
     </row>
-    <row r="97" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>457</v>
       </c>
@@ -14718,7 +14726,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>458</v>
       </c>
@@ -14776,7 +14784,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>460</v>
       </c>
@@ -14804,7 +14812,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="79.900000000000006" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>461</v>
       </c>
@@ -14914,7 +14922,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="93" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
         <v>496</v>
@@ -14940,7 +14948,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
         <v>496</v>
@@ -14964,7 +14972,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
         <v>496</v>
@@ -14988,7 +14996,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="93" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="9" t="s">
         <v>496</v>
@@ -15036,7 +15044,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="9" t="s">
         <v>496</v>
@@ -15108,7 +15116,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="9" t="s">
         <v>496</v>
@@ -15132,7 +15140,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="9" t="s">
         <v>496</v>
@@ -15173,7 +15181,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
         <v>496</v>
@@ -15197,7 +15205,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="9" t="s">
         <v>496</v>
@@ -15221,7 +15229,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="9" t="s">
         <v>496</v>
@@ -15245,7 +15253,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="119.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="9" t="s">
         <v>496</v>
@@ -15317,7 +15325,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="159" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="9" t="s">
         <v>496</v>
@@ -15389,7 +15397,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="251.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="9" t="s">
         <v>496</v>
@@ -15413,7 +15421,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="9" t="s">
         <v>496</v>
@@ -15437,7 +15445,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="9" t="s">
         <v>496</v>
@@ -15466,11 +15474,6 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Completed"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Rahul"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15487,22 +15490,22 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="24" customWidth="1"/>
-    <col min="7" max="7" width="126.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="126.109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -15792,7 +15795,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>660</v>
       </c>
@@ -15813,7 +15816,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>658</v>
       </c>
@@ -15834,7 +15837,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>77669</v>
       </c>
@@ -15855,7 +15858,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>2113</v>
       </c>
@@ -15876,7 +15879,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>77668</v>
       </c>
@@ -15897,7 +15900,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>2114</v>
       </c>
@@ -15918,7 +15921,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>77667</v>
       </c>
@@ -15939,7 +15942,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>2115</v>
       </c>
@@ -15960,7 +15963,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>77666</v>
       </c>
@@ -15981,7 +15984,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>77664</v>
       </c>
@@ -16002,7 +16005,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>77665</v>
       </c>
@@ -16023,7 +16026,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>77675</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>77672</v>
       </c>
@@ -16063,7 +16066,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>77659</v>
       </c>
@@ -16084,7 +16087,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>77676</v>
       </c>
@@ -16105,7 +16108,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>77656</v>
       </c>
@@ -16126,7 +16129,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>627</v>
       </c>
@@ -16147,7 +16150,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>625</v>
       </c>
@@ -16168,7 +16171,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>623</v>
       </c>
@@ -16189,7 +16192,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>621</v>
       </c>
@@ -16210,7 +16213,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>619</v>
       </c>
@@ -16231,7 +16234,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>77681</v>
       </c>
@@ -16251,7 +16254,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>77674</v>
       </c>
@@ -16272,7 +16275,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>77671</v>
       </c>
@@ -16292,7 +16295,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>688</v>
       </c>
@@ -16312,7 +16315,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>77670</v>
       </c>
@@ -16332,7 +16335,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>690</v>
       </c>
@@ -16352,7 +16355,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>77666</v>
       </c>
@@ -16372,7 +16375,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>2116</v>
       </c>
@@ -16405,26 +16408,26 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C366" sqref="C366:C388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" customWidth="1"/>
-    <col min="10" max="11" width="39.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" customWidth="1"/>
+    <col min="10" max="11" width="39.44140625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2086</v>
       </c>
@@ -16511,7 +16514,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -16548,7 +16551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -16585,7 +16588,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42</v>
       </c>
@@ -16622,7 +16625,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>43</v>
       </c>
@@ -16659,7 +16662,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>44</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>46</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -16807,7 +16810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
@@ -16877,7 +16880,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>54</v>
       </c>
@@ -16914,7 +16917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>55</v>
       </c>
@@ -16951,7 +16954,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>56</v>
       </c>
@@ -16988,7 +16991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>57</v>
       </c>
@@ -17025,7 +17028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>58</v>
       </c>
@@ -17062,7 +17065,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>59</v>
       </c>
@@ -17099,7 +17102,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60</v>
       </c>
@@ -17136,7 +17139,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>61</v>
       </c>
@@ -17173,7 +17176,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>62</v>
       </c>
@@ -17210,7 +17213,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>63</v>
       </c>
@@ -17247,7 +17250,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>64</v>
       </c>
@@ -17284,7 +17287,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>65</v>
       </c>
@@ -17321,7 +17324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>67</v>
       </c>
@@ -17358,7 +17361,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>68</v>
       </c>
@@ -17395,7 +17398,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>69</v>
       </c>
@@ -17432,7 +17435,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>70</v>
       </c>
@@ -17469,7 +17472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>71</v>
       </c>
@@ -17506,7 +17509,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>72</v>
       </c>
@@ -17543,7 +17546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>73</v>
       </c>
@@ -17580,7 +17583,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>74</v>
       </c>
@@ -17617,7 +17620,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>75</v>
       </c>
@@ -17654,7 +17657,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>76</v>
       </c>
@@ -17691,7 +17694,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>77</v>
       </c>
@@ -17728,7 +17731,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>78</v>
       </c>
@@ -17765,7 +17768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>79</v>
       </c>
@@ -17802,7 +17805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>80</v>
       </c>
@@ -17839,7 +17842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>82</v>
       </c>
@@ -17876,7 +17879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>83</v>
       </c>
@@ -17913,7 +17916,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>84</v>
       </c>
@@ -17950,7 +17953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>85</v>
       </c>
@@ -17987,7 +17990,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>86</v>
       </c>
@@ -18024,7 +18027,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>87</v>
       </c>
@@ -18061,7 +18064,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>88</v>
       </c>
@@ -18098,7 +18101,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>89</v>
       </c>
@@ -18135,7 +18138,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>90</v>
       </c>
@@ -18172,7 +18175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>91</v>
       </c>
@@ -18207,7 +18210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>92</v>
       </c>
@@ -18242,7 +18245,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>93</v>
       </c>
@@ -18277,7 +18280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>94</v>
       </c>
@@ -18312,7 +18315,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>95</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>96</v>
       </c>
@@ -18382,7 +18385,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>97</v>
       </c>
@@ -18417,7 +18420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>98</v>
       </c>
@@ -18452,7 +18455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>99</v>
       </c>
@@ -18487,7 +18490,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -18524,7 +18527,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>101</v>
       </c>
@@ -18561,7 +18564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>102</v>
       </c>
@@ -18598,7 +18601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>103</v>
       </c>
@@ -18635,7 +18638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>104</v>
       </c>
@@ -18672,7 +18675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>105</v>
       </c>
@@ -18709,7 +18712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>106</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>107</v>
       </c>
@@ -18783,7 +18786,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>108</v>
       </c>
@@ -18820,7 +18823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>109</v>
       </c>
@@ -18857,7 +18860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>110</v>
       </c>
@@ -18894,7 +18897,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>111</v>
       </c>
@@ -18931,7 +18934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>112</v>
       </c>
@@ -18968,7 +18971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>113</v>
       </c>
@@ -19005,7 +19008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>114</v>
       </c>
@@ -19042,7 +19045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>115</v>
       </c>
@@ -19079,7 +19082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>116</v>
       </c>
@@ -19116,7 +19119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>117</v>
       </c>
@@ -19153,7 +19156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>118</v>
       </c>
@@ -19190,7 +19193,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>119</v>
       </c>
@@ -19227,7 +19230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>120</v>
       </c>
@@ -19264,7 +19267,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>121</v>
       </c>
@@ -19301,7 +19304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>122</v>
       </c>
@@ -19338,7 +19341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>123</v>
       </c>
@@ -19375,7 +19378,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>127</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>128</v>
       </c>
@@ -19449,7 +19452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>129</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>130</v>
       </c>
@@ -19525,7 +19528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>131</v>
       </c>
@@ -19560,7 +19563,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>132</v>
       </c>
@@ -19595,7 +19598,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="357.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>133</v>
       </c>
@@ -19630,7 +19633,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>134</v>
       </c>
@@ -19665,7 +19668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>135</v>
       </c>
@@ -19700,7 +19703,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>136</v>
       </c>
@@ -19735,7 +19738,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>137</v>
       </c>
@@ -19770,7 +19773,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>138</v>
       </c>
@@ -19807,7 +19810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>139</v>
       </c>
@@ -19844,7 +19847,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>140</v>
       </c>
@@ -19881,7 +19884,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>141</v>
       </c>
@@ -19918,7 +19921,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>142</v>
       </c>
@@ -19955,7 +19958,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>143</v>
       </c>
@@ -19992,7 +19995,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>144</v>
       </c>
@@ -20029,7 +20032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>145</v>
       </c>
@@ -20066,7 +20069,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>146</v>
       </c>
@@ -20103,7 +20106,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>147</v>
       </c>
@@ -20140,7 +20143,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>148</v>
       </c>
@@ -20177,7 +20180,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>149</v>
       </c>
@@ -20214,7 +20217,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>153</v>
       </c>
@@ -20249,7 +20252,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>154</v>
       </c>
@@ -20284,7 +20287,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>155</v>
       </c>
@@ -20319,7 +20322,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>156</v>
       </c>
@@ -20354,7 +20357,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>158</v>
       </c>
@@ -20389,7 +20392,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>159</v>
       </c>
@@ -20424,7 +20427,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>166</v>
       </c>
@@ -20459,7 +20462,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>167</v>
       </c>
@@ -20496,7 +20499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>170</v>
       </c>
@@ -20531,7 +20534,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>171</v>
       </c>
@@ -20566,7 +20569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>172</v>
       </c>
@@ -20601,7 +20604,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>173</v>
       </c>
@@ -20640,7 +20643,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>174</v>
       </c>
@@ -20679,7 +20682,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>175</v>
       </c>
@@ -20718,7 +20721,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>176</v>
       </c>
@@ -20757,7 +20760,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>177</v>
       </c>
@@ -20797,7 +20800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>178</v>
       </c>
@@ -20837,7 +20840,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>179</v>
       </c>
@@ -20876,7 +20879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>180</v>
       </c>
@@ -20916,7 +20919,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>182</v>
       </c>
@@ -20956,7 +20959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>183</v>
       </c>
@@ -20991,7 +20994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>185</v>
       </c>
@@ -21026,7 +21029,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>187</v>
       </c>
@@ -21061,7 +21064,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>189</v>
       </c>
@@ -21096,7 +21099,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -21131,7 +21134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>193</v>
       </c>
@@ -21170,7 +21173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>194</v>
       </c>
@@ -21209,7 +21212,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>196</v>
       </c>
@@ -21248,7 +21251,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
@@ -21285,7 +21288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -21322,7 +21325,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -21359,7 +21362,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -21396,7 +21399,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>203</v>
       </c>
@@ -21433,7 +21436,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>204</v>
       </c>
@@ -21470,7 +21473,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>205</v>
       </c>
@@ -21510,7 +21513,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>206</v>
       </c>
@@ -21550,7 +21553,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>207</v>
       </c>
@@ -21590,7 +21593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>208</v>
       </c>
@@ -21627,7 +21630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>209</v>
       </c>
@@ -21664,7 +21667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>210</v>
       </c>
@@ -21705,7 +21708,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>211</v>
       </c>
@@ -21746,7 +21749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>212</v>
       </c>
@@ -21787,7 +21790,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>213</v>
       </c>
@@ -21825,7 +21828,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>214</v>
       </c>
@@ -21863,7 +21866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>221</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>222</v>
       </c>
@@ -21945,7 +21948,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>223</v>
       </c>
@@ -21980,7 +21983,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>224</v>
       </c>
@@ -22018,7 +22021,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22053,7 +22056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>227</v>
       </c>
@@ -22091,7 +22094,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>228</v>
       </c>
@@ -22129,7 +22132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>231</v>
       </c>
@@ -22167,7 +22170,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
@@ -22202,7 +22205,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
@@ -22237,7 +22240,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
@@ -22272,7 +22275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
@@ -22307,7 +22310,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
@@ -22342,7 +22345,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
@@ -22377,7 +22380,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>238</v>
       </c>
@@ -22412,7 +22415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>239</v>
       </c>
@@ -22450,7 +22453,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>240</v>
       </c>
@@ -22488,7 +22491,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -22523,7 +22526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>242</v>
       </c>
@@ -22561,7 +22564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -22596,7 +22599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>244</v>
       </c>
@@ -22634,7 +22637,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
@@ -22669,7 +22672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
@@ -22704,7 +22707,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
@@ -22739,7 +22742,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>248</v>
       </c>
@@ -22774,7 +22777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>249</v>
       </c>
@@ -22809,7 +22812,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>250</v>
       </c>
@@ -22844,7 +22847,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>251</v>
       </c>
@@ -22879,7 +22882,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="306.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>252</v>
       </c>
@@ -22914,7 +22917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>253</v>
       </c>
@@ -22952,7 +22955,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>256</v>
       </c>
@@ -22990,7 +22993,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>257</v>
       </c>
@@ -23025,7 +23028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>258</v>
       </c>
@@ -23060,7 +23063,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>259</v>
       </c>
@@ -23095,7 +23098,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>260</v>
       </c>
@@ -23130,7 +23133,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>261</v>
       </c>
@@ -23165,7 +23168,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>262</v>
       </c>
@@ -23200,7 +23203,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>263</v>
       </c>
@@ -23235,7 +23238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>264</v>
       </c>
@@ -23270,7 +23273,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>274</v>
       </c>
@@ -23303,7 +23306,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>275</v>
       </c>
@@ -23336,7 +23339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>276</v>
       </c>
@@ -23369,7 +23372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>277</v>
       </c>
@@ -23402,7 +23405,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>278</v>
       </c>
@@ -23435,7 +23438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>279</v>
       </c>
@@ -23468,7 +23471,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>280</v>
       </c>
@@ -23501,7 +23504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>281</v>
       </c>
@@ -23534,7 +23537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>282</v>
       </c>
@@ -23567,7 +23570,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>283</v>
       </c>
@@ -23600,7 +23603,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>284</v>
       </c>
@@ -23633,7 +23636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>285</v>
       </c>
@@ -23666,7 +23669,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>286</v>
       </c>
@@ -23701,7 +23704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>287</v>
       </c>
@@ -23736,7 +23739,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>288</v>
       </c>
@@ -23771,7 +23774,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>289</v>
       </c>
@@ -23806,7 +23809,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>290</v>
       </c>
@@ -23841,7 +23844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>291</v>
       </c>
@@ -23876,7 +23879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>292</v>
       </c>
@@ -23911,7 +23914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>295</v>
       </c>
@@ -23944,7 +23947,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>296</v>
       </c>
@@ -23977,7 +23980,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>297</v>
       </c>
@@ -24012,7 +24015,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>298</v>
       </c>
@@ -24047,7 +24050,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>299</v>
       </c>
@@ -24082,7 +24085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>300</v>
       </c>
@@ -24117,7 +24120,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>301</v>
       </c>
@@ -24152,7 +24155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>302</v>
       </c>
@@ -24187,7 +24190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>303</v>
       </c>
@@ -24220,7 +24223,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>304</v>
       </c>
@@ -24253,7 +24256,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>305</v>
       </c>
@@ -24286,7 +24289,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>306</v>
       </c>
@@ -24319,7 +24322,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>307</v>
       </c>
@@ -24352,7 +24355,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>308</v>
       </c>
@@ -24385,7 +24388,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>309</v>
       </c>
@@ -24418,7 +24421,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>310</v>
       </c>
@@ -24451,7 +24454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>311</v>
       </c>
@@ -24484,7 +24487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>312</v>
       </c>
@@ -24517,7 +24520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>313</v>
       </c>
@@ -24550,7 +24553,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>314</v>
       </c>
@@ -24585,7 +24588,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>315</v>
       </c>
@@ -24620,7 +24623,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>316</v>
       </c>
@@ -24653,7 +24656,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>317</v>
       </c>
@@ -24688,7 +24691,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>318</v>
       </c>
@@ -24721,7 +24724,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>319</v>
       </c>
@@ -24754,7 +24757,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>320</v>
       </c>
@@ -24787,7 +24790,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>321</v>
       </c>
@@ -24820,7 +24823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>322</v>
       </c>
@@ -24853,7 +24856,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>323</v>
       </c>
@@ -24886,7 +24889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>324</v>
       </c>
@@ -24925,7 +24928,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>325</v>
       </c>
@@ -24964,7 +24967,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>328</v>
       </c>
@@ -25003,7 +25006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>329</v>
       </c>
@@ -25042,7 +25045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>331</v>
       </c>
@@ -25081,7 +25084,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>332</v>
       </c>
@@ -25116,7 +25119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>333</v>
       </c>
@@ -25154,7 +25157,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>334</v>
       </c>
@@ -25189,7 +25192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>335</v>
       </c>
@@ -25227,7 +25230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>336</v>
       </c>
@@ -25265,7 +25268,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>337</v>
       </c>
@@ -25300,7 +25303,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>338</v>
       </c>
@@ -25335,7 +25338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>339</v>
       </c>
@@ -25370,7 +25373,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>341</v>
       </c>
@@ -25408,7 +25411,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>342</v>
       </c>
@@ -25446,7 +25449,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>343</v>
       </c>
@@ -25481,7 +25484,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>344</v>
       </c>
@@ -25516,7 +25519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>345</v>
       </c>
@@ -25554,7 +25557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>346</v>
       </c>
@@ -25592,7 +25595,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>347</v>
       </c>
@@ -25627,7 +25630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>348</v>
       </c>
@@ -25665,7 +25668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>349</v>
       </c>
@@ -25703,7 +25706,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>350</v>
       </c>
@@ -25738,7 +25741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>351</v>
       </c>
@@ -25773,7 +25776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>352</v>
       </c>
@@ -25806,7 +25809,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>354</v>
       </c>
@@ -25841,7 +25844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
@@ -25876,7 +25879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
@@ -25911,7 +25914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>359</v>
       </c>
@@ -25946,7 +25949,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>360</v>
       </c>
@@ -25981,7 +25984,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26016,7 +26019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26051,7 +26054,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>364</v>
       </c>
@@ -26086,7 +26089,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
@@ -26121,7 +26124,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>366</v>
       </c>
@@ -26159,7 +26162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>367</v>
       </c>
@@ -26197,7 +26200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>368</v>
       </c>
@@ -26235,7 +26238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
@@ -26270,7 +26273,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>370</v>
       </c>
@@ -26305,7 +26308,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>371</v>
       </c>
@@ -26343,7 +26346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>372</v>
       </c>
@@ -26381,7 +26384,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -26416,7 +26419,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>374</v>
       </c>
@@ -26451,7 +26454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>375</v>
       </c>
@@ -26486,7 +26489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>376</v>
       </c>
@@ -26521,7 +26524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>377</v>
       </c>
@@ -26556,7 +26559,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>378</v>
       </c>
@@ -26591,7 +26594,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>379</v>
       </c>
@@ -26626,7 +26629,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>380</v>
       </c>
@@ -26659,7 +26662,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>381</v>
       </c>
@@ -26692,7 +26695,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>382</v>
       </c>
@@ -26727,7 +26730,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>385</v>
       </c>
@@ -26760,7 +26763,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>386</v>
       </c>
@@ -26796,7 +26799,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>387</v>
       </c>
@@ -26829,7 +26832,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>388</v>
       </c>
@@ -26864,7 +26867,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -26899,7 +26902,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>390</v>
       </c>
@@ -26934,7 +26937,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>391</v>
       </c>
@@ -26969,7 +26972,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27004,7 +27007,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -27039,7 +27042,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>394</v>
       </c>
@@ -27080,7 +27083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>395</v>
       </c>
@@ -27121,7 +27124,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -27156,7 +27159,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>397</v>
       </c>
@@ -27197,7 +27200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -27232,7 +27235,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>399</v>
       </c>
@@ -27267,7 +27270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -27302,7 +27305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>401</v>
       </c>
@@ -27343,7 +27346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>402</v>
       </c>
@@ -27380,7 +27383,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>403</v>
       </c>
@@ -27417,7 +27420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>404</v>
       </c>
@@ -27454,7 +27457,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>405</v>
       </c>
@@ -27491,7 +27494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>406</v>
       </c>
@@ -27528,7 +27531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>407</v>
       </c>
@@ -27565,7 +27568,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>408</v>
       </c>
@@ -27602,7 +27605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>409</v>
       </c>
@@ -27639,7 +27642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>410</v>
       </c>
@@ -27676,7 +27679,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>411</v>
       </c>
@@ -27713,7 +27716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>412</v>
       </c>
@@ -27750,7 +27753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -27785,7 +27788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>415</v>
       </c>
@@ -27820,7 +27823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>417</v>
       </c>
@@ -27857,7 +27860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>418</v>
       </c>
@@ -27892,7 +27895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>419</v>
       </c>
@@ -27927,7 +27930,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>420</v>
       </c>
@@ -27962,7 +27965,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>421</v>
       </c>
@@ -27997,7 +28000,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>422</v>
       </c>
@@ -28032,7 +28035,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>423</v>
       </c>
@@ -28067,7 +28070,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>424</v>
       </c>
@@ -28102,7 +28105,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>426</v>
       </c>
@@ -28137,7 +28140,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>427</v>
       </c>
@@ -28172,7 +28175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>429</v>
       </c>
@@ -28207,7 +28210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>430</v>
       </c>
@@ -28242,7 +28245,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>431</v>
       </c>
@@ -28279,7 +28282,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>432</v>
       </c>
@@ -28314,7 +28317,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>433</v>
       </c>
@@ -28349,7 +28352,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>434</v>
       </c>
@@ -28386,7 +28389,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>435</v>
       </c>
@@ -28421,7 +28424,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>436</v>
       </c>
@@ -28456,7 +28459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>437</v>
       </c>
@@ -28491,7 +28494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>440</v>
       </c>
@@ -28526,7 +28529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>441</v>
       </c>
@@ -28561,7 +28564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>442</v>
       </c>
@@ -28596,7 +28599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>443</v>
       </c>
@@ -28631,7 +28634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>444</v>
       </c>
@@ -28666,7 +28669,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>445</v>
       </c>
@@ -28703,7 +28706,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>448</v>
       </c>
@@ -28740,7 +28743,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>449</v>
       </c>
@@ -28775,7 +28778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>450</v>
       </c>
@@ -28810,7 +28813,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>451</v>
       </c>
@@ -28847,7 +28850,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>452</v>
       </c>
@@ -28882,7 +28885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>453</v>
       </c>
@@ -28917,7 +28920,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>455</v>
       </c>
@@ -28952,7 +28955,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>456</v>
       </c>
@@ -28987,7 +28990,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>457</v>
       </c>
@@ -29022,7 +29025,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>458</v>
       </c>
@@ -29057,7 +29060,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>459</v>
       </c>
@@ -29092,7 +29095,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>460</v>
       </c>
@@ -29129,7 +29132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>461</v>
       </c>
@@ -29166,7 +29169,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>463</v>
       </c>
@@ -29201,7 +29204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>464</v>
       </c>
@@ -29236,7 +29239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>465</v>
       </c>
@@ -29271,7 +29274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>469</v>
       </c>
@@ -29306,7 +29309,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>470</v>
       </c>
@@ -29341,7 +29344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>471</v>
       </c>
@@ -29376,7 +29379,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>472</v>
       </c>
@@ -29411,7 +29414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>473</v>
       </c>
@@ -29448,7 +29451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>474</v>
       </c>
@@ -29483,7 +29486,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>475</v>
       </c>
@@ -29520,7 +29523,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>476</v>
       </c>
@@ -29557,7 +29560,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>477</v>
       </c>
@@ -29592,7 +29595,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>479</v>
       </c>
@@ -29627,7 +29630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>480</v>
       </c>
@@ -29662,7 +29665,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>481</v>
       </c>
@@ -29697,7 +29700,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="319.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>482</v>
       </c>
@@ -29732,7 +29735,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>483</v>
       </c>
@@ -29769,7 +29772,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>484</v>
       </c>
@@ -29804,7 +29807,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>485</v>
       </c>
@@ -29839,7 +29842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="192" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>486</v>
       </c>
@@ -29874,7 +29877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>487</v>
       </c>
@@ -29909,7 +29912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>489</v>
       </c>
@@ -29944,7 +29947,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>490</v>
       </c>
@@ -29979,7 +29982,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>491</v>
       </c>
@@ -30014,7 +30017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>492</v>
       </c>
@@ -30049,7 +30052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>493</v>
       </c>
@@ -30084,7 +30087,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>494</v>
       </c>
@@ -30119,7 +30122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>495</v>
       </c>
@@ -30154,7 +30157,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="268.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>498</v>
       </c>
@@ -30189,7 +30192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>499</v>
       </c>
@@ -30224,7 +30227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>500</v>
       </c>
@@ -30259,7 +30262,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>501</v>
       </c>
@@ -30294,7 +30297,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="306.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>503</v>
       </c>
@@ -30329,7 +30332,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>504</v>
       </c>
@@ -30364,7 +30367,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>505</v>
       </c>
@@ -30399,7 +30402,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>506</v>
       </c>
@@ -30430,7 +30433,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>507</v>
       </c>
@@ -30461,7 +30464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>508</v>
       </c>
@@ -30492,7 +30495,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>509</v>
       </c>
@@ -30527,7 +30530,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>510</v>
       </c>
@@ -30562,7 +30565,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>511</v>
       </c>
@@ -30597,7 +30600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>512</v>
       </c>
@@ -30632,7 +30635,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="306.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>513</v>
       </c>
@@ -30667,7 +30670,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>514</v>
       </c>
@@ -30702,7 +30705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>515</v>
       </c>
@@ -30737,7 +30740,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>516</v>
       </c>
@@ -30772,7 +30775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>517</v>
       </c>
@@ -30807,7 +30810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>518</v>
       </c>
@@ -30842,7 +30845,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>529</v>
       </c>
@@ -30879,7 +30882,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>541</v>
       </c>
@@ -30910,7 +30913,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>547</v>
       </c>
@@ -30941,7 +30944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>548</v>
       </c>
@@ -30972,7 +30975,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>564</v>
       </c>
@@ -31007,7 +31010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>565</v>
       </c>
@@ -31044,7 +31047,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>570</v>
       </c>
@@ -31079,7 +31082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>571</v>
       </c>
@@ -31114,7 +31117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>574</v>
       </c>
@@ -31151,7 +31154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>575</v>
       </c>
@@ -31188,7 +31191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>576</v>
       </c>
@@ -31225,7 +31228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>577</v>
       </c>
@@ -31262,7 +31265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>580</v>
       </c>
@@ -31299,7 +31302,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>581</v>
       </c>
@@ -31336,7 +31339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>582</v>
       </c>
@@ -31371,7 +31374,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>583</v>
       </c>
@@ -31406,7 +31409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>584</v>
       </c>
@@ -31441,7 +31444,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>585</v>
       </c>
@@ -31476,7 +31479,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>586</v>
       </c>
@@ -31511,7 +31514,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>587</v>
       </c>
@@ -31548,7 +31551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>588</v>
       </c>
@@ -31583,7 +31586,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>589</v>
       </c>
@@ -31618,7 +31621,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>590</v>
       </c>
@@ -31653,7 +31656,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>591</v>
       </c>
@@ -31688,7 +31691,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>592</v>
       </c>
@@ -31723,7 +31726,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>593</v>
       </c>
@@ -31758,7 +31761,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>594</v>
       </c>
@@ -31793,7 +31796,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>595</v>
       </c>
@@ -31828,7 +31831,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>596</v>
       </c>
@@ -31863,7 +31866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>597</v>
       </c>
@@ -31898,7 +31901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>598</v>
       </c>
@@ -31935,7 +31938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>599</v>
       </c>
@@ -31972,7 +31975,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>600</v>
       </c>
@@ -32007,7 +32010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>601</v>
       </c>
@@ -32042,7 +32045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>602</v>
       </c>
@@ -32079,7 +32082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>603</v>
       </c>
@@ -32116,7 +32119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>604</v>
       </c>
@@ -32153,7 +32156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>605</v>
       </c>
@@ -32188,7 +32191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>606</v>
       </c>
@@ -32223,7 +32226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>607</v>
       </c>
@@ -32258,7 +32261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>608</v>
       </c>
@@ -32319,15 +32322,15 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="1" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" customWidth="1"/>
     <col min="6" max="6" width="149" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" customWidth="1"/>
+    <col min="7" max="7" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>2112</v>
       </c>
@@ -32347,7 +32350,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="100.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2109</v>
       </c>
@@ -32363,7 +32366,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="172.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2106</v>
       </c>
@@ -32395,7 +32398,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="244.9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2100</v>
       </c>
@@ -32411,7 +32414,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="158.44999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2097</v>
       </c>
@@ -32459,7 +32462,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -32467,7 +32470,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -32475,7 +32478,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -11371,7 +11371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11455,9 +11454,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -11509,7 +11506,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11896,8 +11892,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="F119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32318,8 +32314,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -32314,8 +32314,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -16,11 +16,10 @@
     <sheet name="BVT" sheetId="1" r:id="rId2"/>
     <sheet name="Mini_EPG" sheetId="3" r:id="rId3"/>
     <sheet name="Regression" sheetId="4" r:id="rId4"/>
-    <sheet name="EPG" sheetId="5" r:id="rId5"/>
+    <sheet name="EPG" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$D$1:$D$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5171" uniqueCount="2136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5327" uniqueCount="2234">
   <si>
     <t>Name</t>
   </si>
@@ -10844,26 +10843,455 @@
     <t>Sprint 5 - 18/8/2017</t>
   </si>
   <si>
-    <t>Steps:
-1. Open EPG.
-2. Check the current time line gradient details.
-Expected Result:
+    <t>EPG_Current_Time_Line</t>
+  </si>
+  <si>
+    <t>EPG007</t>
+  </si>
+  <si>
+    <t>EPG_Channel_List_Cell_Details</t>
+  </si>
+  <si>
+    <t>EPG006</t>
+  </si>
+  <si>
+    <t>EPG_Day_Navigator_Details</t>
+  </si>
+  <si>
+    <t>EPG005</t>
+  </si>
+  <si>
+    <t>EPG_Focused_Program_Info_Details</t>
+  </si>
+  <si>
+    <t>EPG004</t>
+  </si>
+  <si>
+    <t>EPG _Non_Focused_Program_Cell_Details</t>
+  </si>
+  <si>
+    <t>EPG003</t>
+  </si>
+  <si>
+    <t>EPG _Focused_Program_Cell_Details</t>
+  </si>
+  <si>
+    <t>EPG002</t>
+  </si>
+  <si>
+    <t>EPG _Currently_Tuned_Focused_Program</t>
+  </si>
+  <si>
+    <t>EPG001</t>
+  </si>
+  <si>
+    <t>77669_A</t>
+  </si>
+  <si>
+    <t>77668_A</t>
+  </si>
+  <si>
+    <t>77667_A</t>
+  </si>
+  <si>
+    <t>77666_A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reboot/Standby related test cases can not be automated.</t>
+  </si>
+  <si>
+    <t>Test cases related to RETVOD/VQE/VMX can not be automated.</t>
+  </si>
+  <si>
+    <t>Extended CUTV/oNPVR</t>
+  </si>
+  <si>
+    <t>TM/Server update required</t>
+  </si>
+  <si>
+    <t>Hardware Dependent test case</t>
+  </si>
+  <si>
+    <t>Test cases which requires TM/Server changes can not be automated.</t>
+  </si>
+  <si>
+    <t>Audio/Video Related Test cases</t>
+  </si>
+  <si>
+    <t>Test case with 24+ hours or duration.</t>
+  </si>
+  <si>
+    <t>TM Applet related test cases can not be automated.</t>
+  </si>
+  <si>
+    <t>Test cases related to VFD can not be automated.</t>
+  </si>
+  <si>
+    <t>Multiple Subscriber</t>
+  </si>
+  <si>
+    <t>Long key presses can not be automated.</t>
+  </si>
+  <si>
+    <t>VFD</t>
+  </si>
+  <si>
+    <t>Multiple STBs related</t>
+  </si>
+  <si>
+    <t>VQE</t>
+  </si>
+  <si>
+    <t>TM/Server/Upgrade related</t>
+  </si>
+  <si>
+    <t>MiniEPG already Covered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. EPG should display
+</t>
+  </si>
+  <si>
+    <t>1. Open EPG through TV filter layer</t>
+  </si>
+  <si>
+    <t>EPG_TV filter layer</t>
+  </si>
+  <si>
+    <t>EPG030</t>
+  </si>
+  <si>
+    <t>1. Open EPG through MiniEpg</t>
+  </si>
+  <si>
+    <t>EPG_Mini-EPG</t>
+  </si>
+  <si>
+    <t>1) Icons will get the priority. As the icons will get increased text will get removed inn grid view.
+But in case of Top info zone if program length is too large , it should display all icon.</t>
+  </si>
+  <si>
+    <t>1. Check if program duration is short (5min.)/ or title is lengthy . Then schedule a recording, set a reminder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPG_Priority_icons_short programs </t>
+  </si>
+  <si>
+    <t>EPG029</t>
+  </si>
+  <si>
+    <t>1. If a program is blacklisted it should display blacklisted icon on ongoing as well as future program.
+2. If a program is replyable , it should display replay icon on the ongoing as well as past program.</t>
+  </si>
+  <si>
+    <t>1.  check blacklisted program icon. 
+2. Check Replay programs icon.</t>
+  </si>
+  <si>
+    <t>EPG_Replay_blacklisted_icon.</t>
+  </si>
+  <si>
+    <t>EPG028</t>
+  </si>
+  <si>
+    <t>1) All non replay channels should have the text in the program blocks in the past slightly faded.
+2) All replay channels should have the text in the program blocks in the past And not replayable are slightly faded.</t>
+  </si>
+  <si>
+    <t>1. Check the non replay channels in the past.
+2.  Check all the replay channels in the past.</t>
+  </si>
+  <si>
+    <t>EPG_Blacklist_Backprogram_faded</t>
+  </si>
+  <si>
+    <t>EPG027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Check the order of icons in the top zone info of EPG.
+</t>
+  </si>
+  <si>
+    <t>EPG_Top zone_ICON_Order</t>
+  </si>
+  <si>
+    <t>EPG026</t>
+  </si>
+  <si>
+    <t>1) EPG should display
+2) Only recording, reminder, replay (state) icon should display.</t>
+  </si>
+  <si>
+    <t>1) Open EPG.
+2) Verify the icons in the grid view</t>
+  </si>
+  <si>
+    <t>EPG_Grid view_icons</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. It should update the genre. When we navigate in the epg</t>
+  </si>
+  <si>
+    <t>1. Open EPG
+2. Check the display of genre while navigation</t>
+  </si>
+  <si>
+    <t>EPG_Genre</t>
+  </si>
+  <si>
+    <t>EPG025</t>
+  </si>
+  <si>
+    <t>1.  EPG should display.
+2. Program description should display below the time duration.
+3.  Program description get update  according to the program.</t>
+  </si>
+  <si>
+    <t>1.  Open EPG.
+2. Check the the program description below the program duration 
+3. Navigate left or right in epg</t>
+  </si>
+  <si>
+    <t>EPG_Program_description</t>
+  </si>
+  <si>
+    <t>EPG024</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. Program duration should display between program title and program description.
+3. Program duration get update according to the program.</t>
+  </si>
+  <si>
+    <t>1.  Open EPG.
+2. Check the the program duration  between program title and program description.
+3. Navigate left or right in epg</t>
+  </si>
+  <si>
+    <t>EPG_Program_Duration</t>
+  </si>
+  <si>
+    <t>EPG023</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. Program title should display above the time duration in Bold letters
+3. Program title get change according to the program.</t>
+  </si>
+  <si>
+    <t>1.  Open EPG.
+2. Check the program title above the time duration.
+3.Navigate left or right in epg</t>
+  </si>
+  <si>
+    <t>EPG_Program_title</t>
+  </si>
+  <si>
+    <t>EPG022</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. Program poster should get update according to the change of  program
+and if season number and episode number exist , it should display at the bottom on the poster.</t>
+  </si>
+  <si>
+    <t>1. Open EPG 
+2. Navigate left and right in the EPG and check the program poster</t>
+  </si>
+  <si>
+    <t>EPG_Program_poster</t>
+  </si>
+  <si>
+    <t>EPG021</t>
+  </si>
+  <si>
+    <t>1. Language should changed to NL.
+2. Day should display in NL language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. change STB language  to NL.
+2. Open EPG through RC and Check the language of day.
+</t>
+  </si>
+  <si>
+    <t>EPG_NL_Language_Day</t>
+  </si>
+  <si>
+    <t>EPG020</t>
+  </si>
+  <si>
+    <t>1. Language should changed to FR.
+2. Day should display in french language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. change STB language  to FR .
+2. Open EPG through RC and  Check the language of day.
+</t>
+  </si>
+  <si>
+    <t>EPG_FR_Language_Day</t>
+  </si>
+  <si>
+    <t>EPG019</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. Next Day programs should display and updated day should display.
+3. Previous Day programs should display and updated day should display</t>
+  </si>
+  <si>
+    <t>1.Open EPG through RC
+2. Press forward key and check the day.
+3.Press reverse key and check the day.</t>
+  </si>
+  <si>
+    <t>EPG_Day_Forward key_Reverse key</t>
+  </si>
+  <si>
+    <t>EPG018</t>
+  </si>
+  <si>
+    <t>1. Action menu of the program will open.
+2. Reminder should get set and reminder symbol will show in the program title and program info. in EPG.</t>
+  </si>
+  <si>
+    <t>1. Select a future program.
+2. Press reminder</t>
+  </si>
+  <si>
+    <t>EPG_Reminder</t>
+  </si>
+  <si>
+    <t>EPG017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Action menu of the program will open.
+2. Recording will get schedule and display small white icon with the program tiltle in grid epg view  and  large white icon on the top zone of epg.
+</t>
+  </si>
+  <si>
+    <t>1. Select a future program and press OK.
+2. Press"Record "</t>
+  </si>
+  <si>
+    <t>EPG_Schedule recording</t>
+  </si>
+  <si>
+    <t>EPG016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Action menu of the program will open.
+2. Recording will get start and display small red icon with the program tiltle in grid epg view and  large red icon on the top zone of epg.
+</t>
+  </si>
+  <si>
+    <t>1. Select a Current program and press OK.
+2. Press "Record"</t>
+  </si>
+  <si>
+    <t>EPG_Current Recording</t>
+  </si>
+  <si>
+    <t>EPG015</t>
+  </si>
+  <si>
+    <t>1.EPG should display.
+2. Program description should get update according to the selected program.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open EPG through RC
+2. Navigate left and right and check program description.
+</t>
+  </si>
+  <si>
+    <t>EPG014</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. VISU should appear at Righside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open EPG through RC
+2. Check the VISU
+</t>
+  </si>
+  <si>
+    <t>EPG_VISU</t>
+  </si>
+  <si>
+    <t>EPG013</t>
+  </si>
+  <si>
+    <t>1. EPG should display.
+2. Breadcrumb should appear at Top in leftside .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open EPG through RC
+2. Check the breadcrumb
+</t>
+  </si>
+  <si>
+    <t>EPG_Breadcrumb</t>
+  </si>
+  <si>
+    <t>EPG012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. When pressing TV guide from RC, TV guide must be opened immediately, Navigation should be smooth ,action menu should be shown, should return to HUB.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. On RC press the TV guide button and check that client get EPG
+Navigate to EPG Guide and using Up/Down &amp; Left/Right  arrow keys in RC 
+choose program  Then press back key.       </t>
+  </si>
+  <si>
+    <t>'EPG_via_Hotkey</t>
+  </si>
+  <si>
+    <t>EPG011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User has made changes in the EPG like reminder, schedule recording, current recording etc
+1. Reboot the STB and navigate to TV guide to verify the changes made by User.
+</t>
+  </si>
+  <si>
+    <t>EPG010</t>
+  </si>
+  <si>
+    <t>1. Channel bar should fast scroll and program info should not be painted till button is released.
+2. Channel bar should fast scroll and program info should not be painted till button is released.
+3. Only date and time info should be updated and program info should not be painted till button is released.
+4. Only date and time info should be updated and program info should not be painted till button is released</t>
+  </si>
+  <si>
+    <t>EPG009</t>
+  </si>
+  <si>
+    <t>EPG008</t>
+  </si>
+  <si>
+    <t>Expected Result:
 1. EPG should open.
 2. Current time line (section#div id= "currentTimeLine") should be displayed using blue gradient with the following details:
 a) 170px width with 30% transparency.
 B) Shadow with 16px width with no transparency.</t>
   </si>
   <si>
-    <t>EPG_Current_Time_Line</t>
-  </si>
-  <si>
-    <t>EPG007</t>
-  </si>
-  <si>
     <t>Steps:
 1. Open EPG.
-2. Check the details of channel cells.
-Expected Result:
+2. Check the current time line gradient details.</t>
+  </si>
+  <si>
+    <t>Expected Result:
 1. EPG should open.
 2. Channel cells should have following details:
 a) Channel logos should be shown in channel cell with size 46*80 px starting from x=124px.
@@ -10875,15 +11303,12 @@
 g) Top margin of channel logo w.r.t. channel cell should be 6px.</t>
   </si>
   <si>
-    <t>EPG_Channel_List_Cell_Details</t>
-  </si>
-  <si>
-    <t>EPG006</t>
-  </si>
-  <si>
     <t>Steps:
 1. Open EPG.
-2. Check the availablity of day navigator.
+2. Check the details of channel cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Expected Result:
 1. EPG should open.
 2. 
@@ -10893,10 +11318,16 @@
 d) Transparency of text should be 70%.</t>
   </si>
   <si>
-    <t>EPG_Day_Navigator_Details</t>
-  </si>
-  <si>
-    <t>EPG005</t>
+    <t>Steps:
+1. Open EPG.
+2. Check the availablity of day navigator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Expected Result:
+1. EPG should open and currently tuned program should be focused.
+2. Focused program info should be available over the area above EPG cells.
+3. Focused program info details should match as mentioned above.</t>
   </si>
   <si>
     <t>Steps:
@@ -10910,17 +11341,13 @@
 e) Program summary should be shown below program time info in Proximux Regular fonts of size 22. 
 f) Summary's text max width should be 672 px.
 g) Icons next to Title should be of size 20 px with space between icons should be 5px.
-h) Space between last icon and remaining duration should be 30 px
+h) Space between last icon and remaining duration should be 30 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Expected Result:
-1. EPG should open and currently tuned program should be focused.
-2. Focused program info should be available over the area above EPG cells.
-3. Focused program info details should match as mentioned above.</t>
-  </si>
-  <si>
-    <t>EPG_Focused_Program_Info_Details</t>
-  </si>
-  <si>
-    <t>EPG004</t>
+1. EPG should open.
+2. Non Focused program details should match as mentioned above.</t>
   </si>
   <si>
     <t>Steps:
@@ -10929,16 +11356,13 @@
 a) Title of the programs shoule be shown in Proximux Regular fonts of size 24 starting from the position x=246 px
 b) No indicator (time, date or duration, summary etc) should be shown in program cells.
 c) All the icons should be of size 10*10 px (except blacklist 4*14 px)
-d) Title &amp; icons should be vertical centrally aligned w.r.t. cell.
+d) Title &amp; icons should be vertical centrally aligned w.r.t. cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Expected Result:
-1. EPG should open.
-2. Non Focused program details should match as mentioned above.</t>
-  </si>
-  <si>
-    <t>EPG _Non_Focused_Program_Cell_Details</t>
-  </si>
-  <si>
-    <t>EPG003</t>
+1. EPG should open and currently tuned program should be focused.
+2. Focused program details should match as mentioned above.</t>
   </si>
   <si>
     <t>Steps:
@@ -10947,108 +11371,36 @@
 a) Title of the program shoule be shown in Proximux Extra Bold fonts of size 24 starting from the position x=246 px
 b) No indicator (time, date or duration, summary etc) should be shown in program cell.
 c) All the icons should be of size 10*10 px (except blacklist 4*14 px)
-d) Title &amp; icons should be vertical centrally aligned w.r.t. cell.
-Expected Result:
-1. EPG should open and currently tuned program should be focused.
-2. Focused program details should match as mentioned above.</t>
-  </si>
-  <si>
-    <t>EPG _Focused_Program_Cell_Details</t>
-  </si>
-  <si>
-    <t>EPG002</t>
-  </si>
-  <si>
-    <t>Steps:
-1. Open EPG.
-2. Check the focused program info availablity over the area above EPG cells.
+d) Title &amp; icons should be vertical centrally aligned w.r.t. cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Expected Result:
 1. EPG should open and currently tuned program should be focused in EPG program cell.
 2. Focused program info should be available over the area above EPG cells.</t>
   </si>
   <si>
-    <t>EPG _Currently_Tuned_Focused_Program</t>
-  </si>
-  <si>
-    <t>EPG001</t>
-  </si>
-  <si>
-    <t>Steps &amp; Expected Result</t>
-  </si>
-  <si>
-    <t>Test Case Title</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>77669_A</t>
-  </si>
-  <si>
-    <t>77668_A</t>
-  </si>
-  <si>
-    <t>77667_A</t>
-  </si>
-  <si>
-    <t>77666_A</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Reboot/Standby related test cases can not be automated.</t>
-  </si>
-  <si>
-    <t>Test cases related to RETVOD/VQE/VMX can not be automated.</t>
-  </si>
-  <si>
-    <t>Extended CUTV/oNPVR</t>
-  </si>
-  <si>
-    <t>TM/Server update required</t>
-  </si>
-  <si>
-    <t>Hardware Dependent test case</t>
-  </si>
-  <si>
-    <t>Test cases which requires TM/Server changes can not be automated.</t>
-  </si>
-  <si>
-    <t>Audio/Video Related Test cases</t>
-  </si>
-  <si>
-    <t>Test case with 24+ hours or duration.</t>
-  </si>
-  <si>
-    <t>TM Applet related test cases can not be automated.</t>
-  </si>
-  <si>
-    <t>Test cases related to VFD can not be automated.</t>
-  </si>
-  <si>
-    <t>Multiple Subscriber</t>
-  </si>
-  <si>
-    <t>Long key presses can not be automated.</t>
-  </si>
-  <si>
-    <t>VFD</t>
-  </si>
-  <si>
-    <t>Multiple STBs related</t>
-  </si>
-  <si>
-    <t>VQE</t>
-  </si>
-  <si>
-    <t>TM/Server/Upgrade related</t>
-  </si>
-  <si>
-    <t>MiniEPG already Covered</t>
+    <t>Steps:
+1. Open EPG.
+2. Check the focused program info availablity over the area above EPG cells.</t>
+  </si>
+  <si>
+    <t>Fault Report ID</t>
+  </si>
+  <si>
+    <t>Planned Exec Time</t>
+  </si>
+  <si>
+    <t>Planned Exec Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Exec Date</t>
+  </si>
+  <si>
+    <t>S.NO.</t>
   </si>
 </sst>
 </file>
@@ -11103,7 +11455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11146,8 +11498,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -11205,12 +11563,243 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11322,6 +11911,117 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11552,6 +12252,136 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6063193</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>497418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2742143</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>935568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2436073" y="5122758"/>
+          <a:ext cx="610870" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1. Order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> in the top view</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> should display like :-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Age rating | Recording |</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> reminder | replay</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6028267</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>947207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2972858" cy="333375"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2439247" y="5122967"/>
+          <a:ext cx="2972858" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15856,7 +16686,7 @@
     </row>
     <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>599</v>
@@ -15898,7 +16728,7 @@
     </row>
     <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>2114</v>
+        <v>2104</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>599</v>
@@ -15940,7 +16770,7 @@
     </row>
     <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>2115</v>
+        <v>2105</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>599</v>
@@ -16373,7 +17203,7 @@
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>2116</v>
+        <v>2106</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>599</v>
@@ -16443,7 +17273,7 @@
         <v>2085</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2118</v>
+        <v>2108</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>2084</v>
@@ -16486,7 +17316,7 @@
         <v>1215</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
@@ -16523,7 +17353,7 @@
         <v>1215</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21" t="s">
@@ -16560,7 +17390,7 @@
         <v>1215</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
@@ -16597,7 +17427,7 @@
         <v>1215</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
@@ -16634,7 +17464,7 @@
         <v>1215</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
@@ -16671,7 +17501,7 @@
         <v>1215</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
@@ -16708,7 +17538,7 @@
         <v>1215</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
@@ -16745,7 +17575,7 @@
         <v>1215</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
@@ -16782,7 +17612,7 @@
         <v>1215</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
@@ -16889,7 +17719,7 @@
         <v>1215</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
@@ -16926,7 +17756,7 @@
         <v>1215</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
@@ -16963,7 +17793,7 @@
         <v>1215</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
@@ -17000,7 +17830,7 @@
         <v>1215</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
@@ -17037,7 +17867,7 @@
         <v>1215</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
@@ -17074,7 +17904,7 @@
         <v>1215</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
@@ -17111,7 +17941,7 @@
         <v>1215</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
@@ -17148,7 +17978,7 @@
         <v>1215</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
@@ -17185,7 +18015,7 @@
         <v>1215</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
@@ -17222,7 +18052,7 @@
         <v>1215</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
@@ -17259,7 +18089,7 @@
         <v>1215</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
@@ -17296,7 +18126,7 @@
         <v>1215</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
@@ -17333,7 +18163,7 @@
         <v>1215</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
@@ -17370,7 +18200,7 @@
         <v>1215</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
@@ -17407,7 +18237,7 @@
         <v>1215</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
@@ -17444,7 +18274,7 @@
         <v>1215</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
@@ -17481,7 +18311,7 @@
         <v>1215</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21" t="s">
@@ -17518,7 +18348,7 @@
         <v>1215</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
@@ -17555,7 +18385,7 @@
         <v>1215</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
@@ -17592,7 +18422,7 @@
         <v>1215</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
@@ -17629,7 +18459,7 @@
         <v>1215</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
@@ -17666,7 +18496,7 @@
         <v>1215</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
@@ -17703,7 +18533,7 @@
         <v>1215</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
@@ -17740,7 +18570,7 @@
         <v>1215</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
@@ -17777,7 +18607,7 @@
         <v>1215</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
@@ -17814,7 +18644,7 @@
         <v>1215</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
@@ -17851,7 +18681,7 @@
         <v>1215</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
@@ -17888,7 +18718,7 @@
         <v>1215</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
@@ -17925,7 +18755,7 @@
         <v>1215</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18" t="s">
@@ -17962,7 +18792,7 @@
         <v>1215</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
@@ -17999,7 +18829,7 @@
         <v>1215</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
@@ -18036,7 +18866,7 @@
         <v>1215</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
@@ -18073,7 +18903,7 @@
         <v>1215</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
@@ -18110,7 +18940,7 @@
         <v>1215</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21" t="s">
@@ -18147,7 +18977,7 @@
         <v>1215</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
@@ -18496,10 +19326,10 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="F57" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="18" t="s">
@@ -18533,10 +19363,10 @@
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="F58" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
@@ -18570,10 +19400,10 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="F59" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="18" t="s">
@@ -18607,10 +19437,10 @@
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="F60" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
@@ -18644,10 +19474,10 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="F61" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="18" t="s">
@@ -18681,10 +19511,10 @@
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="F62" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
@@ -18718,10 +19548,10 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="F63" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="18" t="s">
@@ -18755,10 +19585,10 @@
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="F64" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
@@ -18792,10 +19622,10 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="F65" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="18" t="s">
@@ -18829,10 +19659,10 @@
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="F66" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
@@ -18866,10 +19696,10 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="F67" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="18" t="s">
@@ -18903,10 +19733,10 @@
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="F68" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
@@ -18940,10 +19770,10 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="F69" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="18" t="s">
@@ -18977,10 +19807,10 @@
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="F70" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
@@ -19014,10 +19844,10 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="F71" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="18" t="s">
@@ -19051,10 +19881,10 @@
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="F72" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
@@ -19088,10 +19918,10 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="F73" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="18" t="s">
@@ -19125,10 +19955,10 @@
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="F74" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
@@ -19162,10 +19992,10 @@
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="F75" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="18" t="s">
@@ -19199,10 +20029,10 @@
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="F76" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
@@ -19236,10 +20066,10 @@
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="F77" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="18" t="s">
@@ -19273,10 +20103,10 @@
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="F78" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
@@ -19310,10 +20140,10 @@
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="F79" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="18" t="s">
@@ -19350,7 +20180,7 @@
         <v>1215</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21" t="s">
@@ -19384,10 +20214,10 @@
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="F81" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21" t="s">
@@ -19421,10 +20251,10 @@
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="F82" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H82" s="18"/>
       <c r="I82" s="18" t="s">
@@ -19458,10 +20288,10 @@
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="F83" s="21" t="s">
-        <v>2117</v>
+        <v>2107</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
@@ -19782,7 +20612,7 @@
         <v>1215</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="18" t="s">
@@ -19819,7 +20649,7 @@
         <v>1215</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21" t="s">
@@ -19856,7 +20686,7 @@
         <v>1215</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18" t="s">
@@ -19893,7 +20723,7 @@
         <v>1215</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
@@ -19930,7 +20760,7 @@
         <v>1215</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -19967,7 +20797,7 @@
         <v>1215</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
@@ -20004,7 +20834,7 @@
         <v>1215</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -20041,7 +20871,7 @@
         <v>1215</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21" t="s">
@@ -20078,7 +20908,7 @@
         <v>1215</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18" t="s">
@@ -20115,7 +20945,7 @@
         <v>1215</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21" t="s">
@@ -20152,7 +20982,7 @@
         <v>1215</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
@@ -20189,7 +21019,7 @@
         <v>1215</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21" t="s">
@@ -20471,7 +21301,7 @@
         <v>1215</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21" t="s">
@@ -21445,7 +22275,7 @@
         <v>1215</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18" t="s">
@@ -21955,7 +22785,7 @@
         <v>1215</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21" t="s">
@@ -22387,7 +23217,7 @@
         <v>1215</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
@@ -22784,7 +23614,7 @@
         <v>1215</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H173" s="18"/>
       <c r="I173" s="21" t="s">
@@ -22819,7 +23649,7 @@
         <v>1215</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H174" s="18"/>
       <c r="I174" s="18" t="s">
@@ -22854,7 +23684,7 @@
         <v>1215</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="21" t="s">
@@ -23000,7 +23830,7 @@
         <v>1215</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H179" s="18"/>
       <c r="I179" s="21" t="s">
@@ -23035,7 +23865,7 @@
         <v>1215</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H180" s="18"/>
       <c r="I180" s="18" t="s">
@@ -23070,7 +23900,7 @@
         <v>1215</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H181" s="18"/>
       <c r="I181" s="21" t="s">
@@ -23140,7 +23970,7 @@
         <v>1215</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="21" t="s">
@@ -23175,7 +24005,7 @@
         <v>1215</v>
       </c>
       <c r="G184" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="18" t="s">
@@ -23210,7 +24040,7 @@
         <v>1215</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H185" s="18"/>
       <c r="I185" s="21" t="s">
@@ -23245,7 +24075,7 @@
         <v>1215</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H186" s="18"/>
       <c r="I186" s="18" t="s">
@@ -23676,7 +24506,7 @@
         <v>1215</v>
       </c>
       <c r="G199" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H199" s="18"/>
       <c r="I199" s="18" t="s">
@@ -23711,7 +24541,7 @@
         <v>1215</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H200" s="18"/>
       <c r="I200" s="21" t="s">
@@ -23746,7 +24576,7 @@
         <v>1215</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H201" s="18"/>
       <c r="I201" s="18" t="s">
@@ -23781,7 +24611,7 @@
         <v>1215</v>
       </c>
       <c r="G202" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H202" s="21"/>
       <c r="I202" s="21" t="s">
@@ -23816,7 +24646,7 @@
         <v>1215</v>
       </c>
       <c r="G203" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H203" s="18"/>
       <c r="I203" s="18" t="s">
@@ -23851,7 +24681,7 @@
         <v>1215</v>
       </c>
       <c r="G204" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H204" s="21"/>
       <c r="I204" s="21" t="s">
@@ -23886,7 +24716,7 @@
         <v>1215</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H205" s="18"/>
       <c r="I205" s="18" t="s">
@@ -23987,7 +24817,7 @@
         <v>1215</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H208" s="21"/>
       <c r="I208" s="21" t="s">
@@ -24022,7 +24852,7 @@
         <v>1215</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H209" s="18"/>
       <c r="I209" s="18" t="s">
@@ -24057,7 +24887,7 @@
         <v>1215</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H210" s="21"/>
       <c r="I210" s="21" t="s">
@@ -24092,7 +24922,7 @@
         <v>1215</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H211" s="18"/>
       <c r="I211" s="18" t="s">
@@ -24127,7 +24957,7 @@
         <v>1215</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H212" s="21"/>
       <c r="I212" s="21" t="s">
@@ -24162,7 +24992,7 @@
         <v>1215</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H213" s="18"/>
       <c r="I213" s="18" t="s">
@@ -24560,7 +25390,7 @@
         <v>1215</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H225" s="18"/>
       <c r="I225" s="18" t="s">
@@ -24595,7 +25425,7 @@
         <v>1215</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="H226" s="21"/>
       <c r="I226" s="21" t="s">
@@ -24663,7 +25493,7 @@
         <v>1215</v>
       </c>
       <c r="G228" s="21" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="H228" s="21"/>
       <c r="I228" s="21" t="s">
@@ -25164,7 +25994,7 @@
         <v>1215</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="H242" s="18"/>
       <c r="I242" s="18" t="s">
@@ -25310,7 +26140,7 @@
         <v>1215</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H246" s="18"/>
       <c r="I246" s="18" t="s">
@@ -25491,7 +26321,7 @@
         <v>1215</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>2126</v>
+        <v>2116</v>
       </c>
       <c r="H251" s="18"/>
       <c r="I251" s="18" t="s">
@@ -25748,7 +26578,7 @@
         <v>1215</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="H258" s="21"/>
       <c r="I258" s="21" t="s">
@@ -25921,7 +26751,7 @@
         <v>1215</v>
       </c>
       <c r="G263" s="21" t="s">
-        <v>2128</v>
+        <v>2118</v>
       </c>
       <c r="H263" s="21"/>
       <c r="I263" s="21" t="s">
@@ -25956,7 +26786,7 @@
         <v>1215</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H264" s="18"/>
       <c r="I264" s="18" t="s">
@@ -26280,7 +27110,7 @@
         <v>1215</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>2120</v>
+        <v>2110</v>
       </c>
       <c r="H273" s="18"/>
       <c r="I273" s="18" t="s">
@@ -26426,7 +27256,7 @@
         <v>1215</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H277" s="18"/>
       <c r="I277" s="18" t="s">
@@ -26461,7 +27291,7 @@
         <v>1215</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H278" s="21"/>
       <c r="I278" s="21" t="s">
@@ -26496,7 +27326,7 @@
         <v>1215</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H279" s="18"/>
       <c r="I279" s="18" t="s">
@@ -26531,7 +27361,7 @@
         <v>1215</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H280" s="21"/>
       <c r="I280" s="21" t="s">
@@ -26566,7 +27396,7 @@
         <v>1215</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H281" s="18"/>
       <c r="I281" s="18" t="s">
@@ -26601,7 +27431,7 @@
         <v>1215</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H282" s="21"/>
       <c r="I282" s="21" t="s">
@@ -26702,7 +27532,7 @@
         <v>1215</v>
       </c>
       <c r="G285" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H285" s="18"/>
       <c r="I285" s="18" t="s">
@@ -26767,7 +27597,7 @@
         <v>1165</v>
       </c>
       <c r="C287" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="F287" s="18" t="s">
         <v>1106</v>
@@ -27355,7 +28185,7 @@
         <v>1215</v>
       </c>
       <c r="G303" s="18" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="H303" s="18"/>
       <c r="I303" s="18" t="s">
@@ -27392,7 +28222,7 @@
         <v>1215</v>
       </c>
       <c r="G304" s="18" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="H304" s="21"/>
       <c r="I304" s="21" t="s">
@@ -27429,7 +28259,7 @@
         <v>1215</v>
       </c>
       <c r="G305" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H305" s="18"/>
       <c r="I305" s="18" t="s">
@@ -27466,7 +28296,7 @@
         <v>1215</v>
       </c>
       <c r="G306" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H306" s="21"/>
       <c r="I306" s="21" t="s">
@@ -27503,7 +28333,7 @@
         <v>1215</v>
       </c>
       <c r="G307" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H307" s="18"/>
       <c r="I307" s="18" t="s">
@@ -27540,7 +28370,7 @@
         <v>1215</v>
       </c>
       <c r="G308" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H308" s="21"/>
       <c r="I308" s="21" t="s">
@@ -27577,7 +28407,7 @@
         <v>1215</v>
       </c>
       <c r="G309" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H309" s="18"/>
       <c r="I309" s="18" t="s">
@@ -27614,7 +28444,7 @@
         <v>1215</v>
       </c>
       <c r="G310" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H310" s="21"/>
       <c r="I310" s="21" t="s">
@@ -27651,7 +28481,7 @@
         <v>1215</v>
       </c>
       <c r="G311" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H311" s="18"/>
       <c r="I311" s="18" t="s">
@@ -27688,7 +28518,7 @@
         <v>1215</v>
       </c>
       <c r="G312" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H312" s="21"/>
       <c r="I312" s="21" t="s">
@@ -27725,7 +28555,7 @@
         <v>1215</v>
       </c>
       <c r="G313" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H313" s="18"/>
       <c r="I313" s="18" t="s">
@@ -27832,7 +28662,7 @@
         <v>1215</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H316" s="21"/>
       <c r="I316" s="21" t="s">
@@ -28254,7 +29084,7 @@
         <v>1215</v>
       </c>
       <c r="G328" s="21" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H328" s="21"/>
       <c r="I328" s="21" t="s">
@@ -28361,7 +29191,7 @@
         <v>1215</v>
       </c>
       <c r="G331" s="18" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H331" s="18"/>
       <c r="I331" s="18" t="s">
@@ -28678,7 +29508,7 @@
         <v>1215</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H340" s="21"/>
       <c r="I340" s="21" t="s">
@@ -28715,7 +29545,7 @@
         <v>1215</v>
       </c>
       <c r="G341" s="18" t="s">
-        <v>2125</v>
+        <v>2115</v>
       </c>
       <c r="H341" s="18"/>
       <c r="I341" s="18" t="s">
@@ -28822,7 +29652,7 @@
         <v>1215</v>
       </c>
       <c r="G344" s="21" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="H344" s="21"/>
       <c r="I344" s="21" t="s">
@@ -29104,7 +29934,7 @@
         <v>1215</v>
       </c>
       <c r="G352" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H352" s="18"/>
       <c r="I352" s="18" t="s">
@@ -29141,7 +29971,7 @@
         <v>1215</v>
       </c>
       <c r="G353" s="18" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H353" s="21"/>
       <c r="I353" s="21" t="s">
@@ -29423,7 +30253,7 @@
         <v>1215</v>
       </c>
       <c r="G361" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H361" s="21"/>
       <c r="I361" s="21" t="s">
@@ -29495,7 +30325,7 @@
         <v>1215</v>
       </c>
       <c r="G363" s="21" t="s">
-        <v>2122</v>
+        <v>2112</v>
       </c>
       <c r="H363" s="21"/>
       <c r="I363" s="21" t="s">
@@ -29532,7 +30362,7 @@
         <v>1215</v>
       </c>
       <c r="G364" s="18" t="s">
-        <v>2130</v>
+        <v>2120</v>
       </c>
       <c r="H364" s="18"/>
       <c r="I364" s="18" t="s">
@@ -29599,7 +30429,7 @@
         <v>891</v>
       </c>
       <c r="C366" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D366" s="28"/>
       <c r="F366" s="21" t="s">
@@ -29634,7 +30464,7 @@
         <v>889</v>
       </c>
       <c r="C367" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D367" s="27"/>
       <c r="F367" s="18" t="s">
@@ -29669,7 +30499,7 @@
         <v>887</v>
       </c>
       <c r="C368" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D368" s="28"/>
       <c r="F368" s="21" t="s">
@@ -29704,7 +30534,7 @@
         <v>885</v>
       </c>
       <c r="C369" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D369" s="27"/>
       <c r="F369" s="18" t="s">
@@ -29739,7 +30569,7 @@
         <v>112</v>
       </c>
       <c r="C370" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D370" s="28"/>
       <c r="F370" s="21" t="s">
@@ -29776,7 +30606,7 @@
         <v>881</v>
       </c>
       <c r="C371" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D371" s="27"/>
       <c r="F371" s="18" t="s">
@@ -29811,7 +30641,7 @@
         <v>879</v>
       </c>
       <c r="C372" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D372" s="28"/>
       <c r="F372" s="21" t="s">
@@ -29846,7 +30676,7 @@
         <v>877</v>
       </c>
       <c r="C373" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D373" s="27"/>
       <c r="F373" s="18" t="s">
@@ -29881,7 +30711,7 @@
         <v>875</v>
       </c>
       <c r="C374" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D374" s="28"/>
       <c r="F374" s="21" t="s">
@@ -29916,7 +30746,7 @@
         <v>873</v>
       </c>
       <c r="C375" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D375" s="28"/>
       <c r="F375" s="21" t="s">
@@ -29951,7 +30781,7 @@
         <v>871</v>
       </c>
       <c r="C376" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D376" s="27"/>
       <c r="F376" s="18" t="s">
@@ -29986,7 +30816,7 @@
         <v>869</v>
       </c>
       <c r="C377" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D377" s="28"/>
       <c r="F377" s="21" t="s">
@@ -30021,7 +30851,7 @@
         <v>867</v>
       </c>
       <c r="C378" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D378" s="27"/>
       <c r="F378" s="18" t="s">
@@ -30056,7 +30886,7 @@
         <v>865</v>
       </c>
       <c r="C379" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D379" s="28"/>
       <c r="F379" s="21" t="s">
@@ -30091,7 +30921,7 @@
         <v>862</v>
       </c>
       <c r="C380" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D380" s="27"/>
       <c r="F380" s="18" t="s">
@@ -30126,7 +30956,7 @@
         <v>860</v>
       </c>
       <c r="C381" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D381" s="28"/>
       <c r="F381" s="21" t="s">
@@ -30161,7 +30991,7 @@
         <v>858</v>
       </c>
       <c r="C382" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D382" s="27"/>
       <c r="F382" s="18" t="s">
@@ -30196,7 +31026,7 @@
         <v>856</v>
       </c>
       <c r="C383" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D383" s="28"/>
       <c r="F383" s="21" t="s">
@@ -30231,7 +31061,7 @@
         <v>854</v>
       </c>
       <c r="C384" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D384" s="27"/>
       <c r="F384" s="18" t="s">
@@ -30266,7 +31096,7 @@
         <v>852</v>
       </c>
       <c r="C385" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D385" s="28"/>
       <c r="F385" s="21" t="s">
@@ -30301,7 +31131,7 @@
         <v>850</v>
       </c>
       <c r="C386" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D386" s="28"/>
       <c r="F386" s="21" t="s">
@@ -30336,7 +31166,7 @@
         <v>848</v>
       </c>
       <c r="C387" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D387" s="27"/>
       <c r="F387" s="18" t="s">
@@ -30371,7 +31201,7 @@
         <v>115</v>
       </c>
       <c r="C388" t="s">
-        <v>2135</v>
+        <v>2125</v>
       </c>
       <c r="D388" s="28"/>
       <c r="F388" s="21" t="s">
@@ -30854,7 +31684,7 @@
         <v>1215</v>
       </c>
       <c r="G402" s="21" t="s">
-        <v>2131</v>
+        <v>2121</v>
       </c>
       <c r="H402" s="21"/>
       <c r="I402" s="21" t="s">
@@ -31019,7 +31849,7 @@
         <v>1215</v>
       </c>
       <c r="G407" s="21" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="H407" s="21"/>
       <c r="I407" s="21" t="s">
@@ -31126,7 +31956,7 @@
         <v>1215</v>
       </c>
       <c r="G410" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H410" s="18"/>
       <c r="I410" s="18" t="s">
@@ -31163,7 +31993,7 @@
         <v>1215</v>
       </c>
       <c r="G411" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H411" s="21"/>
       <c r="I411" s="21" t="s">
@@ -31200,7 +32030,7 @@
         <v>1215</v>
       </c>
       <c r="G412" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H412" s="18"/>
       <c r="I412" s="18" t="s">
@@ -31237,7 +32067,7 @@
         <v>1215</v>
       </c>
       <c r="G413" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H413" s="21"/>
       <c r="I413" s="21" t="s">
@@ -31274,7 +32104,7 @@
         <v>1215</v>
       </c>
       <c r="G414" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H414" s="18"/>
       <c r="I414" s="18" t="s">
@@ -31311,7 +32141,7 @@
         <v>1215</v>
       </c>
       <c r="G415" s="18" t="s">
-        <v>2133</v>
+        <v>2123</v>
       </c>
       <c r="H415" s="21"/>
       <c r="I415" s="21" t="s">
@@ -31523,7 +32353,7 @@
         <v>1215</v>
       </c>
       <c r="G421" s="21" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H421" s="21"/>
       <c r="I421" s="21" t="s">
@@ -31910,7 +32740,7 @@
         <v>1215</v>
       </c>
       <c r="G432" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H432" s="18"/>
       <c r="I432" s="18" t="s">
@@ -31947,7 +32777,7 @@
         <v>1215</v>
       </c>
       <c r="G433" s="21" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="H433" s="21"/>
       <c r="I433" s="21" t="s">
@@ -32054,7 +32884,7 @@
         <v>1215</v>
       </c>
       <c r="G436" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H436" s="18"/>
       <c r="I436" s="18" t="s">
@@ -32091,7 +32921,7 @@
         <v>1215</v>
       </c>
       <c r="G437" s="21" t="s">
-        <v>2134</v>
+        <v>2124</v>
       </c>
       <c r="H437" s="21"/>
       <c r="I437" s="21" t="s">
@@ -32128,7 +32958,7 @@
         <v>1215</v>
       </c>
       <c r="G438" s="18" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="H438" s="18"/>
       <c r="I438" s="18" t="s">
@@ -32311,186 +33141,1136 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" customWidth="1"/>
-    <col min="6" max="6" width="149" customWidth="1"/>
-    <col min="7" max="7" width="74.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="43"/>
+    <col min="3" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="73.44140625" customWidth="1"/>
+    <col min="7" max="7" width="91" style="42" customWidth="1"/>
+    <col min="8" max="8" width="65.6640625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:20" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>2085</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>2077</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E1" s="41" t="s">
         <v>2084</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>2111</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>2109</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="F1" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>2082</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>2081</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>2080</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>2079</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>2078</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>2232</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>2231</v>
+      </c>
+      <c r="P1" s="79" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Q1" s="79" t="s">
+        <v>2229</v>
+      </c>
+      <c r="R1" s="79" t="s">
+        <v>490</v>
+      </c>
+      <c r="S1" s="79" t="s">
+        <v>2228</v>
+      </c>
+      <c r="T1" s="78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2102</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>2108</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B3" s="6"/>
+      <c r="F2" s="77" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>2226</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2100</v>
+      </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>2105</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="F3" s="77" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>2224</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="73"/>
+    </row>
+    <row r="4" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2098</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>2102</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="244.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="F4" s="77" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="73"/>
+    </row>
+    <row r="5" spans="1:20" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>2096</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>2099</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>2097</v>
-      </c>
-      <c r="B6" s="6"/>
+      <c r="F5" s="76" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="73"/>
+    </row>
+    <row r="6" spans="1:20" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>2094</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="201.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B7" s="6"/>
+      <c r="F6" s="76" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="73"/>
+    </row>
+    <row r="7" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2092</v>
+      </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="76" t="s">
         <v>2091</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="G7" s="75" t="s">
+        <v>2217</v>
+      </c>
+      <c r="H7" s="74" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="73"/>
+    </row>
+    <row r="8" spans="1:20" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2090</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="76" t="s">
         <v>2089</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="G8" s="75" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>2214</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="73"/>
+    </row>
+    <row r="9" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>2213</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>898</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="59"/>
+    </row>
+    <row r="10" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>2212</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>2211</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="59"/>
+    </row>
+    <row r="11" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
+        <v>10</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>2210</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="59"/>
+    </row>
+    <row r="12" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>2206</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>2205</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="59"/>
+    </row>
+    <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>612</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>2203</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="59"/>
+    </row>
+    <row r="14" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
+        <v>13</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>2198</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="59"/>
+    </row>
+    <row r="15" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>14</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="59"/>
+    </row>
+    <row r="16" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51">
+        <v>15</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>612</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="59"/>
+    </row>
+    <row r="17" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="51">
+        <v>16</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E17" t="s">
+        <v>598</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="59"/>
+    </row>
+    <row r="18" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>17</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>2184</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H18" s="62" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="59"/>
+    </row>
+    <row r="19" spans="1:20" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51">
+        <v>18</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="59"/>
+    </row>
+    <row r="20" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="51">
+        <v>19</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>2175</v>
+      </c>
+      <c r="H20" s="62" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="59"/>
+    </row>
+    <row r="21" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51">
+        <v>20</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="59"/>
+    </row>
+    <row r="22" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51">
+        <v>21</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E22" t="s">
+        <v>604</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="59"/>
+    </row>
+    <row r="23" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="51">
+        <v>22</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>598</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="60"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="59"/>
+    </row>
+    <row r="24" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51">
+        <v>23</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E24" t="s">
+        <v>604</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>2159</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="59"/>
+    </row>
+    <row r="25" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51">
+        <v>24</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="59"/>
+    </row>
+    <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="51">
+        <v>25</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F26" s="63" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>2150</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>693</v>
+      </c>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="59"/>
+    </row>
+    <row r="27" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="51">
+        <v>26</v>
+      </c>
+      <c r="B27" s="58"/>
+      <c r="F27" s="57" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="53"/>
+    </row>
+    <row r="28" spans="1:20" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="51">
+        <v>27</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H28" s="52"/>
+      <c r="I28" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="44"/>
+    </row>
+    <row r="29" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="51">
+        <v>28</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>2140</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="51">
+        <v>29</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="44"/>
+    </row>
+    <row r="31" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="51">
+        <v>30</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>2133</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>2132</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="44"/>
+    </row>
+    <row r="32" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="51">
+        <v>31</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E32" t="s">
+        <v>604</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="44"/>
+    </row>
+    <row r="33" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="51">
+        <v>32</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>612</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>2127</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D11">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Ankit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$D$1:$D$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5327" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="2234">
   <si>
     <t>Name</t>
   </si>
@@ -33143,8 +33144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33262,7 +33264,9 @@
         <v>2100</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>604</v>
       </c>
@@ -33370,7 +33374,9 @@
         <v>2094</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E6" s="6" t="s">
         <v>604</v>
       </c>
@@ -33669,6 +33675,9 @@
       <c r="B15" s="64" t="s">
         <v>2196</v>
       </c>
+      <c r="D15" t="s">
+        <v>599</v>
+      </c>
       <c r="E15" t="s">
         <v>604</v>
       </c>
@@ -34027,6 +34036,12 @@
       </c>
       <c r="B26" s="64" t="s">
         <v>2153</v>
+      </c>
+      <c r="D26" t="s">
+        <v>599</v>
+      </c>
+      <c r="E26" t="s">
+        <v>604</v>
       </c>
       <c r="F26" s="63" t="s">
         <v>2152</v>
@@ -34208,6 +34223,9 @@
       <c r="B32" s="50" t="s">
         <v>2129</v>
       </c>
+      <c r="D32" t="s">
+        <v>599</v>
+      </c>
       <c r="E32" t="s">
         <v>604</v>
       </c>
@@ -34270,6 +34288,7 @@
       <c r="T33" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$D$1:$D$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$T$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="2234">
   <si>
     <t>Name</t>
   </si>
@@ -17236,7 +17236,7 @@
   <dimension ref="A1:P442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C366" sqref="C366:C388"/>
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33144,9 +33144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33228,7 +33228,9 @@
         <v>2102</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>598</v>
       </c>
@@ -33302,7 +33304,9 @@
         <v>2098</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E4" s="6" t="s">
         <v>612</v>
       </c>
@@ -33338,7 +33342,9 @@
         <v>2096</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>689</v>
       </c>
@@ -33410,7 +33416,9 @@
         <v>2092</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E7" s="6" t="s">
         <v>612</v>
       </c>
@@ -33610,6 +33618,9 @@
       <c r="B13" s="64" t="s">
         <v>2204</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E13" t="s">
         <v>612</v>
       </c>
@@ -33712,6 +33723,9 @@
       <c r="B16" s="64" t="s">
         <v>2193</v>
       </c>
+      <c r="D16" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E16" t="s">
         <v>612</v>
       </c>
@@ -33842,6 +33856,12 @@
       <c r="B20" s="64" t="s">
         <v>2177</v>
       </c>
+      <c r="D20" t="s">
+        <v>599</v>
+      </c>
+      <c r="E20" t="s">
+        <v>598</v>
+      </c>
       <c r="F20" s="63" t="s">
         <v>2176</v>
       </c>
@@ -33873,6 +33893,12 @@
       <c r="B21" s="64" t="s">
         <v>2173</v>
       </c>
+      <c r="D21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E21" t="s">
+        <v>598</v>
+      </c>
       <c r="F21" s="63" t="s">
         <v>2172</v>
       </c>
@@ -33937,6 +33963,9 @@
       </c>
       <c r="B23" s="64" t="s">
         <v>2165</v>
+      </c>
+      <c r="D23" t="s">
+        <v>599</v>
       </c>
       <c r="E23" t="s">
         <v>598</v>
@@ -34260,6 +34289,9 @@
       <c r="B33" s="50" t="s">
         <v>2129</v>
       </c>
+      <c r="D33" s="6" t="s">
+        <v>599</v>
+      </c>
       <c r="E33" t="s">
         <v>612</v>
       </c>
@@ -34288,7 +34320,6 @@
       <c r="T33" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -16313,8 +16313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33144,9 +33144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$T$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$U$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="2235">
   <si>
     <t>Name</t>
   </si>
@@ -11402,6 +11402,9 @@
   </si>
   <si>
     <t>S.NO.</t>
+  </si>
+  <si>
+    <t>Coverd In Regression</t>
   </si>
 </sst>
 </file>
@@ -11800,7 +11803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -12023,6 +12026,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12260,16 +12278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6063193</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509060</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>497418</xdr:rowOff>
+      <xdr:rowOff>328085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2742143</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3427943</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>935568</xdr:rowOff>
+      <xdr:rowOff>766235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12278,8 +12296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2436073" y="5122758"/>
-          <a:ext cx="610870" cy="0"/>
+          <a:off x="17645593" y="9133418"/>
+          <a:ext cx="2918883" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12335,10 +12353,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>6028267</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448734</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>947207</xdr:rowOff>
+      <xdr:rowOff>769407</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2972858" cy="333375"/>
     <xdr:pic>
@@ -12363,7 +12381,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2439247" y="5122967"/>
+          <a:off x="17585267" y="9574740"/>
           <a:ext cx="2972858" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16313,8 +16331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16323,7 +16341,7 @@
     <col min="2" max="2" width="40.88671875" style="22" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="24" customWidth="1"/>
     <col min="7" max="7" width="126.109375" style="24" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
@@ -17235,8 +17253,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView tabSelected="1" topLeftCell="G132" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21961,7 +21979,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>193</v>
       </c>
@@ -22000,7 +22018,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>194</v>
       </c>
@@ -22039,7 +22057,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>196</v>
       </c>
@@ -22078,7 +22096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
@@ -22115,7 +22133,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -22152,7 +22170,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -22189,7 +22207,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -22810,7 +22828,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>224</v>
       </c>
@@ -22848,7 +22866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22883,7 +22901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>227</v>
       </c>
@@ -22921,7 +22939,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>228</v>
       </c>
@@ -22959,7 +22977,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>231</v>
       </c>
@@ -22997,7 +23015,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
@@ -23032,7 +23050,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
@@ -23067,7 +23085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
@@ -23102,7 +23120,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
@@ -23137,7 +23155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
@@ -23172,7 +23190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
@@ -23280,7 +23298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>240</v>
       </c>
@@ -23318,7 +23336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -23353,7 +23371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>242</v>
       </c>
@@ -23391,7 +23409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -23426,7 +23444,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>244</v>
       </c>
@@ -23464,7 +23482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
@@ -23499,7 +23517,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
@@ -23534,7 +23552,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
@@ -26671,7 +26689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
@@ -26706,7 +26724,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
@@ -26811,7 +26829,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26846,7 +26864,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26916,7 +26934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
@@ -27065,7 +27083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
@@ -27211,7 +27229,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -27590,7 +27608,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>386</v>
       </c>
@@ -30422,7 +30440,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>479</v>
       </c>
@@ -30457,7 +30475,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>480</v>
       </c>
@@ -30492,7 +30510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>481</v>
       </c>
@@ -30527,7 +30545,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>482</v>
       </c>
@@ -30562,7 +30580,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>483</v>
       </c>
@@ -30599,7 +30617,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>484</v>
       </c>
@@ -30634,7 +30652,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>485</v>
       </c>
@@ -30669,7 +30687,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>486</v>
       </c>
@@ -30704,7 +30722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>487</v>
       </c>
@@ -30739,7 +30757,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>489</v>
       </c>
@@ -30774,7 +30792,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>490</v>
       </c>
@@ -30809,7 +30827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>491</v>
       </c>
@@ -30844,7 +30862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>492</v>
       </c>
@@ -30879,7 +30897,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>493</v>
       </c>
@@ -30914,7 +30932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>494</v>
       </c>
@@ -30949,7 +30967,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>495</v>
       </c>
@@ -30984,7 +31002,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>498</v>
       </c>
@@ -31019,7 +31037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>499</v>
       </c>
@@ -31054,7 +31072,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>500</v>
       </c>
@@ -31089,7 +31107,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>501</v>
       </c>
@@ -31124,7 +31142,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>503</v>
       </c>
@@ -31159,7 +31177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>504</v>
       </c>
@@ -31194,7 +31212,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>505</v>
       </c>
@@ -33125,14 +33143,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="MiniEPG Already Covered"/>
-      </filters>
+    <filterColumn colId="4">
+      <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Rahul"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -33142,23 +33163,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T33"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="43"/>
-    <col min="3" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="73.44140625" customWidth="1"/>
-    <col min="7" max="7" width="91" style="42" customWidth="1"/>
-    <col min="8" max="8" width="65.6640625" style="42" customWidth="1"/>
+    <col min="3" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="73.44140625" customWidth="1"/>
+    <col min="8" max="8" width="91" style="42" customWidth="1"/>
+    <col min="9" max="9" width="65.6640625" style="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="s">
         <v>2233</v>
       </c>
@@ -33172,81 +33194,86 @@
         <v>2077</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>2234</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>2084</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="G1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="I1" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>2082</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="K1" s="79" t="s">
         <v>2081</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="L1" s="79" t="s">
         <v>2080</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="M1" s="80" t="s">
         <v>2079</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="N1" s="80" t="s">
         <v>2078</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="O1" s="79" t="s">
         <v>2232</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="P1" s="79" t="s">
         <v>2231</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="Q1" s="79" t="s">
         <v>2230</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="R1" s="79" t="s">
         <v>2229</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="S1" s="79" t="s">
         <v>490</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="T1" s="79" t="s">
         <v>2228</v>
       </c>
-      <c r="T1" s="78" t="s">
+      <c r="U1" s="78" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="51">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="G2" s="77" t="s">
         <v>2101</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="H2" s="75" t="s">
         <v>2227</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="I2" s="74" t="s">
         <v>2226</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -33256,35 +33283,38 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="73"/>
-    </row>
-    <row r="3" spans="1:20" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T2" s="1"/>
+      <c r="U2" s="73"/>
+    </row>
+    <row r="3" spans="1:21" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="G3" s="77" t="s">
         <v>2099</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="H3" s="75" t="s">
         <v>2225</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="I3" s="74" t="s">
         <v>2224</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -33294,35 +33324,38 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="73"/>
-    </row>
-    <row r="4" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+      <c r="U3" s="73"/>
+    </row>
+    <row r="4" spans="1:21" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2098</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="G4" s="77" t="s">
         <v>2097</v>
       </c>
-      <c r="G4" s="75" t="s">
+      <c r="H4" s="75" t="s">
         <v>2223</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="I4" s="74" t="s">
         <v>2222</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -33332,35 +33365,38 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="73"/>
-    </row>
-    <row r="5" spans="1:20" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T4" s="1"/>
+      <c r="U4" s="73"/>
+    </row>
+    <row r="5" spans="1:21" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>2096</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="G5" s="76" t="s">
         <v>2095</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="75" t="s">
         <v>2221</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="I5" s="74" t="s">
         <v>2220</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -33370,32 +33406,35 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="73"/>
-    </row>
-    <row r="6" spans="1:20" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="1"/>
+      <c r="U5" s="73"/>
+    </row>
+    <row r="6" spans="1:21" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D6" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="G6" s="76" t="s">
         <v>2093</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="H6" s="75" t="s">
         <v>2219</v>
       </c>
-      <c r="H6" s="74" t="s">
+      <c r="I6" s="74" t="s">
         <v>2218</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -33406,32 +33445,35 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="73"/>
-    </row>
-    <row r="7" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="1"/>
+      <c r="U6" s="73"/>
+    </row>
+    <row r="7" spans="1:21" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2092</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="G7" s="76" t="s">
         <v>2091</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="H7" s="75" t="s">
         <v>2217</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="I7" s="74" t="s">
         <v>2216</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -33442,9 +33484,10 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="73"/>
-    </row>
-    <row r="8" spans="1:20" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="1"/>
+      <c r="U7" s="73"/>
+    </row>
+    <row r="8" spans="1:21" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51">
         <v>7</v>
       </c>
@@ -33453,19 +33496,19 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F8" s="76" t="s">
+      <c r="G8" s="76" t="s">
         <v>2089</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="H8" s="75" t="s">
         <v>2215</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="I8" s="74" t="s">
         <v>2214</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -33476,31 +33519,34 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="73"/>
-    </row>
-    <row r="9" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="1"/>
+      <c r="U8" s="73"/>
+    </row>
+    <row r="9" spans="1:21" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51">
         <v>8</v>
       </c>
       <c r="B9" s="64" t="s">
         <v>2213</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>1215</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="H9" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="I9" s="71" t="s">
         <v>898</v>
       </c>
-      <c r="I9" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J9" s="60"/>
+      <c r="J9" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K9" s="60"/>
       <c r="L9" s="60"/>
       <c r="M9" s="60"/>
@@ -33510,31 +33556,34 @@
       <c r="Q9" s="60"/>
       <c r="R9" s="60"/>
       <c r="S9" s="60"/>
-      <c r="T9" s="59"/>
-    </row>
-    <row r="10" spans="1:20" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T9" s="60"/>
+      <c r="U9" s="59"/>
+    </row>
+    <row r="10" spans="1:21" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="51">
         <v>9</v>
       </c>
       <c r="B10" s="64" t="s">
         <v>2212</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>1215</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="H10" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="I10" s="71" t="s">
         <v>2211</v>
       </c>
-      <c r="I10" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J10" s="60"/>
+      <c r="J10" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K10" s="60"/>
       <c r="L10" s="60"/>
       <c r="M10" s="60"/>
@@ -33544,31 +33593,34 @@
       <c r="Q10" s="60"/>
       <c r="R10" s="60"/>
       <c r="S10" s="60"/>
-      <c r="T10" s="59"/>
-    </row>
-    <row r="11" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T10" s="60"/>
+      <c r="U10" s="59"/>
+    </row>
+    <row r="11" spans="1:21" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51">
         <v>10</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>2210</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>1215</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="H11" s="70" t="s">
         <v>2209</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="I11" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="I11" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J11" s="60"/>
+      <c r="J11" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K11" s="60"/>
       <c r="L11" s="60"/>
       <c r="M11" s="60"/>
@@ -33578,28 +33630,34 @@
       <c r="Q11" s="60"/>
       <c r="R11" s="60"/>
       <c r="S11" s="60"/>
-      <c r="T11" s="59"/>
-    </row>
-    <row r="12" spans="1:20" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="60"/>
+      <c r="U11" s="59"/>
+    </row>
+    <row r="12" spans="1:21" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>11</v>
       </c>
       <c r="B12" s="64" t="s">
         <v>2208</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="C12" s="87" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G12" s="63" t="s">
         <v>2207</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="H12" s="69" t="s">
         <v>2206</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="I12" s="68" t="s">
         <v>2205</v>
       </c>
-      <c r="I12" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J12" s="60"/>
+      <c r="J12" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K12" s="60"/>
       <c r="L12" s="60"/>
       <c r="M12" s="60"/>
@@ -33609,34 +33667,38 @@
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
       <c r="S12" s="60"/>
-      <c r="T12" s="59"/>
-    </row>
-    <row r="13" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T12" s="60"/>
+      <c r="U12" s="59"/>
+    </row>
+    <row r="13" spans="1:21" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51">
         <v>12</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>2204</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D13" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="88"/>
+      <c r="F13" t="s">
         <v>612</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="G13" s="63" t="s">
         <v>2203</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="H13" s="48" t="s">
         <v>2202</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="I13" s="68" t="s">
         <v>2201</v>
       </c>
-      <c r="I13" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J13" s="60"/>
+      <c r="J13" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
       <c r="M13" s="60"/>
@@ -33646,28 +33708,31 @@
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
       <c r="S13" s="60"/>
-      <c r="T13" s="59"/>
-    </row>
-    <row r="14" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T13" s="60"/>
+      <c r="U13" s="59"/>
+    </row>
+    <row r="14" spans="1:21" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51">
         <v>13</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>2200</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="C14" s="87" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G14" s="63" t="s">
         <v>2199</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="H14" s="48" t="s">
         <v>2198</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="I14" s="62" t="s">
         <v>2197</v>
       </c>
-      <c r="I14" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="60"/>
@@ -33677,34 +33742,37 @@
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
       <c r="S14" s="60"/>
-      <c r="T14" s="59"/>
-    </row>
-    <row r="15" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T14" s="60"/>
+      <c r="U14" s="59"/>
+    </row>
+    <row r="15" spans="1:21" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51">
         <v>14</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>2196</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D15" t="s">
         <v>599</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>604</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="G15" s="63" t="s">
         <v>2156</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="H15" s="48" t="s">
         <v>2195</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="I15" s="62" t="s">
         <v>2194</v>
       </c>
-      <c r="I15" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J15" s="60"/>
+      <c r="J15" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K15" s="60"/>
       <c r="L15" s="60"/>
       <c r="M15" s="60"/>
@@ -33714,34 +33782,38 @@
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
       <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-    </row>
-    <row r="16" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T15" s="60"/>
+      <c r="U15" s="59"/>
+    </row>
+    <row r="16" spans="1:21" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51">
         <v>15</v>
       </c>
       <c r="B16" s="64" t="s">
         <v>2193</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" t="s">
         <v>612</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>2192</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="H16" s="48" t="s">
         <v>2191</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="I16" s="62" t="s">
         <v>2190</v>
       </c>
-      <c r="I16" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J16" s="60"/>
+      <c r="J16" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K16" s="60"/>
       <c r="L16" s="60"/>
       <c r="M16" s="60"/>
@@ -33751,31 +33823,31 @@
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
       <c r="S16" s="60"/>
-      <c r="T16" s="59"/>
-    </row>
-    <row r="17" spans="1:20" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T16" s="60"/>
+      <c r="U16" s="59"/>
+    </row>
+    <row r="17" spans="1:21" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51">
         <v>16</v>
       </c>
       <c r="B17" s="64" t="s">
         <v>2189</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>598</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="G17" s="63" t="s">
         <v>2188</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="H17" s="48" t="s">
         <v>2187</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="I17" s="62" t="s">
         <v>2186</v>
       </c>
-      <c r="I17" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J17" s="60"/>
+      <c r="J17" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="60"/>
@@ -33785,28 +33857,31 @@
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
       <c r="S17" s="60"/>
-      <c r="T17" s="59"/>
-    </row>
-    <row r="18" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T17" s="60"/>
+      <c r="U17" s="59"/>
+    </row>
+    <row r="18" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51">
         <v>17</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>2185</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" t="s">
+        <v>612</v>
+      </c>
+      <c r="G18" s="63" t="s">
         <v>2184</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="H18" s="48" t="s">
         <v>2183</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="I18" s="62" t="s">
         <v>2182</v>
       </c>
-      <c r="I18" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J18" s="60"/>
+      <c r="J18" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="60"/>
@@ -33816,28 +33891,31 @@
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
       <c r="S18" s="60"/>
-      <c r="T18" s="59"/>
-    </row>
-    <row r="19" spans="1:20" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T18" s="60"/>
+      <c r="U18" s="59"/>
+    </row>
+    <row r="19" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="51">
         <v>18</v>
       </c>
       <c r="B19" s="64" t="s">
         <v>2181</v>
       </c>
-      <c r="F19" s="63" t="s">
+      <c r="F19" t="s">
+        <v>612</v>
+      </c>
+      <c r="G19" s="63" t="s">
         <v>2180</v>
       </c>
-      <c r="G19" s="67" t="s">
+      <c r="H19" s="67" t="s">
         <v>2179</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="I19" s="66" t="s">
         <v>2178</v>
       </c>
-      <c r="I19" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J19" s="60"/>
+      <c r="J19" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
@@ -33847,34 +33925,37 @@
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
-      <c r="T19" s="59"/>
-    </row>
-    <row r="20" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T19" s="60"/>
+      <c r="U19" s="59"/>
+    </row>
+    <row r="20" spans="1:21" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="51">
         <v>19</v>
       </c>
       <c r="B20" s="64" t="s">
         <v>2177</v>
       </c>
+      <c r="C20" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D20" t="s">
         <v>599</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>598</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="G20" s="63" t="s">
         <v>2176</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="H20" s="48" t="s">
         <v>2175</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="I20" s="62" t="s">
         <v>2174</v>
       </c>
-      <c r="I20" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -33884,34 +33965,37 @@
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
       <c r="S20" s="60"/>
-      <c r="T20" s="59"/>
-    </row>
-    <row r="21" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="60"/>
+      <c r="U20" s="59"/>
+    </row>
+    <row r="21" spans="1:21" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51">
         <v>20</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>2173</v>
       </c>
+      <c r="C21" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D21" t="s">
         <v>599</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>598</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="G21" s="63" t="s">
         <v>2172</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="H21" s="48" t="s">
         <v>2171</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="I21" s="62" t="s">
         <v>2170</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J21" s="60"/>
+      <c r="J21" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -33921,31 +34005,31 @@
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
       <c r="S21" s="60"/>
-      <c r="T21" s="59"/>
-    </row>
-    <row r="22" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T21" s="60"/>
+      <c r="U21" s="59"/>
+    </row>
+    <row r="22" spans="1:21" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="51">
         <v>21</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>2169</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>604</v>
       </c>
-      <c r="F22" s="63" t="s">
+      <c r="G22" s="63" t="s">
         <v>2168</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="H22" s="48" t="s">
         <v>2167</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="I22" s="62" t="s">
         <v>2166</v>
       </c>
-      <c r="I22" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J22" s="60"/>
+      <c r="J22" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
@@ -33955,34 +34039,37 @@
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
       <c r="S22" s="60"/>
-      <c r="T22" s="59"/>
-    </row>
-    <row r="23" spans="1:20" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T22" s="60"/>
+      <c r="U22" s="59"/>
+    </row>
+    <row r="23" spans="1:21" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="51">
         <v>22</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>2165</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D23" t="s">
         <v>599</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>598</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="G23" s="63" t="s">
         <v>2164</v>
       </c>
-      <c r="G23" s="65" t="s">
+      <c r="H23" s="65" t="s">
         <v>2163</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="I23" s="62" t="s">
         <v>2162</v>
       </c>
-      <c r="I23" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J23" s="60"/>
+      <c r="J23" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
@@ -33992,31 +34079,31 @@
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
       <c r="S23" s="60"/>
-      <c r="T23" s="59"/>
-    </row>
-    <row r="24" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T23" s="60"/>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="1:21" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="51">
         <v>23</v>
       </c>
       <c r="B24" s="64" t="s">
         <v>2161</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>604</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="G24" s="63" t="s">
         <v>2160</v>
       </c>
-      <c r="G24" s="48" t="s">
+      <c r="H24" s="48" t="s">
         <v>2159</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="I24" s="62" t="s">
         <v>2158</v>
       </c>
-      <c r="I24" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J24" s="60"/>
+      <c r="J24" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="60"/>
@@ -34026,28 +34113,31 @@
       <c r="Q24" s="60"/>
       <c r="R24" s="60"/>
       <c r="S24" s="60"/>
-      <c r="T24" s="59"/>
-    </row>
-    <row r="25" spans="1:20" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="60"/>
+      <c r="U24" s="59"/>
+    </row>
+    <row r="25" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="51">
         <v>24</v>
       </c>
       <c r="B25" s="64" t="s">
         <v>2157</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" t="s">
+        <v>612</v>
+      </c>
+      <c r="G25" s="63" t="s">
         <v>2156</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="H25" s="48" t="s">
         <v>2155</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="I25" s="62" t="s">
         <v>2154</v>
       </c>
-      <c r="I25" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J25" s="60"/>
+      <c r="J25" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="60"/>
@@ -34057,34 +34147,37 @@
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
       <c r="S25" s="60"/>
-      <c r="T25" s="59"/>
-    </row>
-    <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T25" s="60"/>
+      <c r="U25" s="59"/>
+    </row>
+    <row r="26" spans="1:21" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51">
         <v>25</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>2153</v>
       </c>
+      <c r="C26" s="6" t="s">
+        <v>1106</v>
+      </c>
       <c r="D26" t="s">
         <v>599</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>604</v>
       </c>
-      <c r="F26" s="63" t="s">
+      <c r="G26" s="63" t="s">
         <v>2152</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="H26" s="48" t="s">
         <v>2151</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="I26" s="62" t="s">
         <v>2150</v>
       </c>
-      <c r="I26" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="J26" s="60"/>
+      <c r="J26" s="61" t="s">
+        <v>693</v>
+      </c>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="60"/>
@@ -34094,24 +34187,27 @@
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
-      <c r="T26" s="59"/>
-    </row>
-    <row r="27" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T26" s="60"/>
+      <c r="U26" s="59"/>
+    </row>
+    <row r="27" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51">
         <v>26</v>
       </c>
       <c r="B27" s="58"/>
-      <c r="F27" s="57" t="s">
+      <c r="F27" t="s">
+        <v>598</v>
+      </c>
+      <c r="G27" s="57" t="s">
         <v>2149</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="H27" s="48" t="s">
         <v>2148</v>
       </c>
-      <c r="H27" s="56" t="s">
+      <c r="I27" s="56" t="s">
         <v>2147</v>
       </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="54"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="54"/>
       <c r="L27" s="54"/>
       <c r="M27" s="54"/>
@@ -34121,26 +34217,29 @@
       <c r="Q27" s="54"/>
       <c r="R27" s="54"/>
       <c r="S27" s="54"/>
-      <c r="T27" s="53"/>
-    </row>
-    <row r="28" spans="1:20" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T27" s="54"/>
+      <c r="U27" s="53"/>
+    </row>
+    <row r="28" spans="1:21" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51">
         <v>27</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>2146</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" t="s">
+        <v>604</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>2145</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="H28" s="48" t="s">
         <v>2144</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J28" s="45"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K28" s="45"/>
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
@@ -34150,28 +34249,31 @@
       <c r="Q28" s="45"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
-      <c r="T28" s="44"/>
-    </row>
-    <row r="29" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T28" s="45"/>
+      <c r="U28" s="44"/>
+    </row>
+    <row r="29" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="51">
         <v>28</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>2143</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" t="s">
+        <v>604</v>
+      </c>
+      <c r="G29" s="49" t="s">
         <v>2142</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="H29" s="48" t="s">
         <v>2141</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="I29" s="47" t="s">
         <v>2140</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J29" s="45"/>
+      <c r="J29" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K29" s="45"/>
       <c r="L29" s="45"/>
       <c r="M29" s="45"/>
@@ -34181,28 +34283,31 @@
       <c r="Q29" s="45"/>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
-      <c r="T29" s="44"/>
-    </row>
-    <row r="30" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="45"/>
+      <c r="U29" s="44"/>
+    </row>
+    <row r="30" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="51">
         <v>29</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>2139</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" t="s">
+        <v>604</v>
+      </c>
+      <c r="G30" s="49" t="s">
         <v>2138</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="H30" s="48" t="s">
         <v>2137</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="I30" s="47" t="s">
         <v>2136</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K30" s="45"/>
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
@@ -34212,28 +34317,31 @@
       <c r="Q30" s="45"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
-      <c r="T30" s="44"/>
-    </row>
-    <row r="31" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T30" s="45"/>
+      <c r="U30" s="44"/>
+    </row>
+    <row r="31" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="51">
         <v>30</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>2135</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" t="s">
+        <v>598</v>
+      </c>
+      <c r="G31" s="49" t="s">
         <v>2134</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="H31" s="48" t="s">
         <v>2133</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="I31" s="47" t="s">
         <v>2132</v>
       </c>
-      <c r="I31" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J31" s="45"/>
+      <c r="J31" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K31" s="45"/>
       <c r="L31" s="45"/>
       <c r="M31" s="45"/>
@@ -34243,34 +34351,38 @@
       <c r="Q31" s="45"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
-      <c r="T31" s="44"/>
-    </row>
-    <row r="32" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T31" s="45"/>
+      <c r="U31" s="44"/>
+    </row>
+    <row r="32" spans="1:21" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51">
         <v>31</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>2129</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D32" s="85" t="s">
         <v>599</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="85"/>
+      <c r="F32" t="s">
         <v>604</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="G32" s="49" t="s">
         <v>2131</v>
       </c>
-      <c r="G32" s="48" t="s">
+      <c r="H32" s="48" t="s">
         <v>2130</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="I32" s="47" t="s">
         <v>2126</v>
       </c>
-      <c r="I32" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J32" s="45"/>
+      <c r="J32" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
@@ -34280,34 +34392,38 @@
       <c r="Q32" s="45"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
-      <c r="T32" s="44"/>
-    </row>
-    <row r="33" spans="1:20" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T32" s="45"/>
+      <c r="U32" s="44"/>
+    </row>
+    <row r="33" spans="1:21" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="51">
         <v>32</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>2129</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D33" s="86" t="s">
         <v>599</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="89"/>
+      <c r="F33" t="s">
         <v>612</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="G33" s="49" t="s">
         <v>2128</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="H33" s="48" t="s">
         <v>2127</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="I33" s="47" t="s">
         <v>2126</v>
       </c>
-      <c r="I33" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="J33" s="45"/>
+      <c r="J33" s="46" t="s">
+        <v>693</v>
+      </c>
       <c r="K33" s="45"/>
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
@@ -34317,9 +34433,23 @@
       <c r="Q33" s="45"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
-      <c r="T33" s="44"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U33">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$U$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$V$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$442</definedName>
   </definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="2235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="2236">
   <si>
     <t>Name</t>
   </si>
@@ -11405,6 +11405,9 @@
   </si>
   <si>
     <t>Coverd In Regression</t>
+  </si>
+  <si>
+    <t>Sprint-28Aug-1 Sep</t>
   </si>
 </sst>
 </file>
@@ -11509,7 +11512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -11567,243 +11570,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11916,59 +11688,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11976,13 +11701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11991,56 +11710,29 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12278,13 +11970,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>509060</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>328085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>3427943</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>766235</xdr:rowOff>
@@ -12353,7 +12045,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>448734</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>769407</xdr:rowOff>
@@ -17253,7 +16945,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G132" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
@@ -33163,28 +32855,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="43"/>
-    <col min="3" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="73.44140625" customWidth="1"/>
-    <col min="8" max="8" width="91" style="42" customWidth="1"/>
-    <col min="9" max="9" width="65.6640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="91" style="57" customWidth="1"/>
+    <col min="10" max="10" width="65.6640625" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:22" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>2233</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="53" t="s">
         <v>417</v>
       </c>
       <c r="C1" s="41" t="s">
@@ -33194,59 +32887,62 @@
         <v>2077</v>
       </c>
       <c r="E1" s="41" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>2234</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>2084</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="J1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="K1" s="35" t="s">
         <v>2082</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="L1" s="35" t="s">
         <v>2081</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="M1" s="35" t="s">
         <v>2080</v>
       </c>
-      <c r="M1" s="80" t="s">
+      <c r="N1" s="54" t="s">
         <v>2079</v>
       </c>
-      <c r="N1" s="80" t="s">
+      <c r="O1" s="54" t="s">
         <v>2078</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="P1" s="35" t="s">
         <v>2232</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="Q1" s="35" t="s">
         <v>2231</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="R1" s="35" t="s">
         <v>2230</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="S1" s="35" t="s">
         <v>2229</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="T1" s="35" t="s">
         <v>490</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="U1" s="35" t="s">
         <v>2228</v>
       </c>
-      <c r="U1" s="78" t="s">
+      <c r="V1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -33258,36 +32954,28 @@
       <c r="D2" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="H2" s="8" t="s">
         <v>2101</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="51" t="s">
         <v>2227</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="J2" s="51" t="s">
         <v>2226</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="73"/>
-    </row>
-    <row r="3" spans="1:21" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+      <c r="K2" s="29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -33299,36 +32987,28 @@
       <c r="D3" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="H3" s="8" t="s">
         <v>2099</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="I3" s="51" t="s">
         <v>2225</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="J3" s="51" t="s">
         <v>2224</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="73"/>
-    </row>
-    <row r="4" spans="1:21" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+      <c r="K3" s="29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -33340,36 +33020,28 @@
       <c r="D4" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="H4" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="I4" s="51" t="s">
         <v>2223</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="J4" s="51" t="s">
         <v>2222</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="73"/>
-    </row>
-    <row r="5" spans="1:21" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+      <c r="K4" s="29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -33381,36 +33053,28 @@
       <c r="D5" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="H5" s="6" t="s">
         <v>2095</v>
       </c>
-      <c r="H5" s="75" t="s">
+      <c r="I5" s="51" t="s">
         <v>2221</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="J5" s="51" t="s">
         <v>2220</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="73"/>
-    </row>
-    <row r="6" spans="1:21" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+      <c r="K5" s="29" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -33422,34 +33086,25 @@
       <c r="D6" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="H6" s="6" t="s">
         <v>2093</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="I6" s="51" t="s">
         <v>2219</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="J6" s="51" t="s">
         <v>2218</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="73"/>
-    </row>
-    <row r="7" spans="1:21" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    </row>
+    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -33461,34 +33116,25 @@
       <c r="D7" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="H7" s="6" t="s">
         <v>2091</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="I7" s="51" t="s">
         <v>2217</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="J7" s="51" t="s">
         <v>2216</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="73"/>
-    </row>
-    <row r="8" spans="1:21" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51">
+    </row>
+    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -33497,36 +33143,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="H8" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="I8" s="51" t="s">
         <v>2215</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="J8" s="51" t="s">
         <v>2214</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="73"/>
-    </row>
-    <row r="9" spans="1:21" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+    </row>
+    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="45" t="s">
         <v>2213</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -33535,35 +33170,36 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="I9" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="J9" s="48" t="s">
         <v>898</v>
       </c>
-      <c r="J9" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="59"/>
-    </row>
-    <row r="10" spans="1:21" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+      <c r="K9" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+    </row>
+    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="45" t="s">
         <v>2212</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -33572,35 +33208,36 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="I10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="J10" s="48" t="s">
         <v>2211</v>
       </c>
-      <c r="J10" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="59"/>
-    </row>
-    <row r="11" spans="1:21" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51">
+      <c r="K10" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+    </row>
+    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="45" t="s">
         <v>2210</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -33609,72 +33246,73 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="I11" s="49" t="s">
         <v>2209</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="J11" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="J11" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="59"/>
-    </row>
-    <row r="12" spans="1:21" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
+      <c r="K11" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+    </row>
+    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="45" t="s">
         <v>2208</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="55" t="s">
         <v>1106</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="H12" s="45" t="s">
         <v>2207</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="I12" s="48" t="s">
         <v>2206</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="J12" s="49" t="s">
         <v>2205</v>
       </c>
-      <c r="J12" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="59"/>
-    </row>
-    <row r="13" spans="1:21" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51">
+      <c r="K12" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+    </row>
+    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="45" t="s">
         <v>2204</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -33683,113 +33321,119 @@
       <c r="D13" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" t="s">
+      <c r="E13" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="H13" s="45" t="s">
         <v>2203</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="I13" s="42" t="s">
         <v>2202</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="J13" s="49" t="s">
         <v>2201</v>
       </c>
-      <c r="J13" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="59"/>
-    </row>
-    <row r="14" spans="1:21" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="K13" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+    </row>
+    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="45" t="s">
         <v>2200</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="55" t="s">
         <v>1215</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="H14" s="45" t="s">
         <v>2199</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="I14" s="42" t="s">
         <v>2198</v>
       </c>
-      <c r="I14" s="62" t="s">
+      <c r="J14" s="42" t="s">
         <v>2197</v>
       </c>
-      <c r="J14" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="59"/>
-    </row>
-    <row r="15" spans="1:21" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
+      <c r="K14" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+    </row>
+    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="45" t="s">
         <v>2196</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="H15" s="45" t="s">
         <v>2156</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="I15" s="42" t="s">
         <v>2195</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="J15" s="42" t="s">
         <v>2194</v>
       </c>
-      <c r="J15" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="59"/>
-    </row>
-    <row r="16" spans="1:21" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51">
+      <c r="K15" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+    </row>
+    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="45" t="s">
         <v>2193</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -33798,658 +33442,666 @@
       <c r="D16" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" t="s">
+      <c r="E16" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="H16" s="45" t="s">
         <v>2192</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="I16" s="42" t="s">
         <v>2191</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="J16" s="42" t="s">
         <v>2190</v>
       </c>
-      <c r="J16" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="59"/>
-    </row>
-    <row r="17" spans="1:21" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="K16" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+    </row>
+    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="45" t="s">
         <v>2189</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G17" s="63" t="s">
+      <c r="H17" s="45" t="s">
         <v>2188</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="I17" s="42" t="s">
         <v>2187</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="J17" s="42" t="s">
         <v>2186</v>
       </c>
-      <c r="J17" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="59"/>
-    </row>
-    <row r="18" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
+      <c r="K17" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="45" t="s">
         <v>2185</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="H18" s="45" t="s">
         <v>2184</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="I18" s="42" t="s">
         <v>2183</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="J18" s="42" t="s">
         <v>2182</v>
       </c>
-      <c r="J18" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="60"/>
-      <c r="U18" s="59"/>
-    </row>
-    <row r="19" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+      <c r="K18" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="45" t="s">
         <v>2181</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G19" s="63" t="s">
+      <c r="H19" s="45" t="s">
         <v>2180</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="I19" s="47" t="s">
         <v>2179</v>
       </c>
-      <c r="I19" s="66" t="s">
+      <c r="J19" s="47" t="s">
         <v>2178</v>
       </c>
-      <c r="J19" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="59"/>
-    </row>
-    <row r="20" spans="1:21" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
+      <c r="K19" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="45" t="s">
         <v>2177</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G20" s="63" t="s">
+      <c r="H20" s="45" t="s">
         <v>2176</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="I20" s="42" t="s">
         <v>2175</v>
       </c>
-      <c r="I20" s="62" t="s">
+      <c r="J20" s="42" t="s">
         <v>2174</v>
       </c>
-      <c r="J20" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="59"/>
-    </row>
-    <row r="21" spans="1:21" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="K20" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="45" t="s">
         <v>2173</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="H21" s="45" t="s">
         <v>2172</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="I21" s="42" t="s">
         <v>2171</v>
       </c>
-      <c r="I21" s="62" t="s">
+      <c r="J21" s="42" t="s">
         <v>2170</v>
       </c>
-      <c r="J21" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="59"/>
-    </row>
-    <row r="22" spans="1:21" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51">
+      <c r="K21" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="45" t="s">
         <v>2169</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="H22" s="45" t="s">
         <v>2168</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="I22" s="42" t="s">
         <v>2167</v>
       </c>
-      <c r="I22" s="62" t="s">
+      <c r="J22" s="42" t="s">
         <v>2166</v>
       </c>
-      <c r="J22" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="59"/>
-    </row>
-    <row r="23" spans="1:21" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51">
+      <c r="K22" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="45" t="s">
         <v>2165</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G23" s="63" t="s">
+      <c r="H23" s="45" t="s">
         <v>2164</v>
       </c>
-      <c r="H23" s="65" t="s">
+      <c r="I23" s="46" t="s">
         <v>2163</v>
       </c>
-      <c r="I23" s="62" t="s">
+      <c r="J23" s="42" t="s">
         <v>2162</v>
       </c>
-      <c r="J23" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="59"/>
-    </row>
-    <row r="24" spans="1:21" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51">
+      <c r="K23" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="45" t="s">
         <v>2161</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G24" s="63" t="s">
+      <c r="H24" s="45" t="s">
         <v>2160</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="I24" s="42" t="s">
         <v>2159</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="J24" s="42" t="s">
         <v>2158</v>
       </c>
-      <c r="J24" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="59"/>
-    </row>
-    <row r="25" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51">
+      <c r="K24" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="45" t="s">
         <v>2157</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G25" s="63" t="s">
+      <c r="H25" s="45" t="s">
         <v>2156</v>
       </c>
-      <c r="H25" s="48" t="s">
+      <c r="I25" s="42" t="s">
         <v>2155</v>
       </c>
-      <c r="I25" s="62" t="s">
+      <c r="J25" s="42" t="s">
         <v>2154</v>
       </c>
-      <c r="J25" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="59"/>
-    </row>
-    <row r="26" spans="1:21" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51">
+      <c r="K25" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+    </row>
+    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="45" t="s">
         <v>2153</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G26" s="63" t="s">
+      <c r="H26" s="45" t="s">
         <v>2152</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="I26" s="42" t="s">
         <v>2151</v>
       </c>
-      <c r="I26" s="62" t="s">
+      <c r="J26" s="42" t="s">
         <v>2150</v>
       </c>
-      <c r="J26" s="61" t="s">
-        <v>693</v>
-      </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="59"/>
-    </row>
-    <row r="27" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="51">
+      <c r="K26" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+    </row>
+    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="F27" t="s">
+      <c r="B27" s="45"/>
+      <c r="G27" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="H27" s="45" t="s">
         <v>2149</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="I27" s="42" t="s">
         <v>2148</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="J27" s="42" t="s">
         <v>2147</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="53"/>
-    </row>
-    <row r="28" spans="1:21" ht="125.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51">
+      <c r="K27" s="44"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+    </row>
+    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="45" t="s">
         <v>2146</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="H28" s="45" t="s">
         <v>2145</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="I28" s="42" t="s">
         <v>2144</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="44"/>
-    </row>
-    <row r="29" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51">
+      <c r="J28" s="56"/>
+      <c r="K28" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+    </row>
+    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="45" t="s">
         <v>2143</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="H29" s="45" t="s">
         <v>2142</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="I29" s="42" t="s">
         <v>2141</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="J29" s="42" t="s">
         <v>2140</v>
       </c>
-      <c r="J29" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="44"/>
-    </row>
-    <row r="30" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51">
+      <c r="K29" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+    </row>
+    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="45" t="s">
         <v>2139</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="H30" s="45" t="s">
         <v>2138</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="I30" s="42" t="s">
         <v>2137</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="J30" s="42" t="s">
         <v>2136</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="44"/>
-    </row>
-    <row r="31" spans="1:21" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51">
+      <c r="K30" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+    </row>
+    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="45" t="s">
         <v>2135</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="H31" s="45" t="s">
         <v>2134</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="I31" s="42" t="s">
         <v>2133</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="J31" s="42" t="s">
         <v>2132</v>
       </c>
-      <c r="J31" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="44"/>
-    </row>
-    <row r="32" spans="1:21" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51">
+      <c r="K31" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+    </row>
+    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="45" t="s">
         <v>2129</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" t="s">
+      <c r="E32" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F32" s="52"/>
+      <c r="G32" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="H32" s="45" t="s">
         <v>2131</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="I32" s="42" t="s">
         <v>2130</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="J32" s="42" t="s">
         <v>2126</v>
       </c>
-      <c r="J32" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="44"/>
-    </row>
-    <row r="33" spans="1:21" ht="92.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51">
+      <c r="K32" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+    </row>
+    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="45" t="s">
         <v>2129</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E33" s="89"/>
-      <c r="F33" t="s">
+      <c r="E33" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F33" s="52"/>
+      <c r="G33" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="H33" s="45" t="s">
         <v>2128</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="I33" s="42" t="s">
         <v>2127</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="J33" s="42" t="s">
         <v>2126</v>
       </c>
-      <c r="J33" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="44"/>
+      <c r="K33" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U33">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5391" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="2236">
   <si>
     <t>Name</t>
   </si>
@@ -32855,18 +32855,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="73.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="91" style="57" customWidth="1"/>
     <col min="10" max="10" width="65.6640625" style="57" customWidth="1"/>
@@ -32941,7 +32944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -32974,7 +32977,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33007,7 +33010,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -33040,7 +33043,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33073,7 +33076,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33103,7 +33106,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33133,14 +33136,16 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>2090</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -33157,7 +33162,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -33195,7 +33200,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -33233,7 +33238,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -33271,7 +33276,7 @@
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -33281,7 +33286,7 @@
       <c r="C12" s="55" t="s">
         <v>1106</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>1106</v>
       </c>
       <c r="H12" s="45" t="s">
@@ -33308,7 +33313,7 @@
       <c r="U12" s="43"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -33352,7 +33357,7 @@
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -33386,7 +33391,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -33429,7 +33434,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -33473,12 +33478,15 @@
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>2189</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>598</v>
@@ -33507,12 +33515,15 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
         <v>2185</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>612</v>
@@ -33541,12 +33552,15 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
         <v>2181</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>612</v>
@@ -33575,7 +33589,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -33618,7 +33632,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -33661,12 +33675,15 @@
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="45" t="s">
         <v>2169</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>1215</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>604</v>
@@ -33695,7 +33712,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -33745,6 +33762,9 @@
       <c r="B24" s="45" t="s">
         <v>2161</v>
       </c>
+      <c r="C24" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>604</v>
       </c>
@@ -33772,12 +33792,15 @@
       <c r="U24" s="43"/>
       <c r="V24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="45" t="s">
         <v>2157</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>612</v>
@@ -33806,7 +33829,7 @@
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
     </row>
-    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -33849,11 +33872,14 @@
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="45"/>
+      <c r="C27" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>598</v>
       </c>
@@ -33886,6 +33912,9 @@
       <c r="B28" s="45" t="s">
         <v>2146</v>
       </c>
+      <c r="C28" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>604</v>
       </c>
@@ -33918,6 +33947,9 @@
       <c r="B29" s="45" t="s">
         <v>2143</v>
       </c>
+      <c r="C29" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>604</v>
       </c>
@@ -33952,6 +33984,9 @@
       <c r="B30" s="45" t="s">
         <v>2139</v>
       </c>
+      <c r="C30" s="55" t="s">
+        <v>1106</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>604</v>
       </c>
@@ -33979,12 +34014,15 @@
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
-    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>2135</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>1106</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>598</v>
@@ -34013,7 +34051,7 @@
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
-    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -34057,7 +34095,7 @@
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
-    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -34102,6 +34140,21 @@
       <c r="V33" s="43"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V33">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Ankit"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="2236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="2239">
   <si>
     <t>Name</t>
   </si>
@@ -6427,9 +6427,6 @@
     <t>[1]EPG_Current_Broadcast_Play</t>
   </si>
   <si>
-    <t>Check that when crossing the current time, the channel bar is moving from right to left or vice versa.</t>
-  </si>
-  <si>
     <t>EPG_Channel Bar_Navigation</t>
   </si>
   <si>
@@ -11408,6 +11405,24 @@
   </si>
   <si>
     <t>Sprint-28Aug-1 Sep</t>
+  </si>
+  <si>
+    <t>No (TV data Upadte required from TM)</t>
+  </si>
+  <si>
+    <t>As described
+Update Test Case For HTML client
+Channel bar positioon is fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that when crossing the current time, the channel bar is moving from right to left or vice versa.
+Update Test Case For HTML client
+ 1 - Open EPG 
+ 2- Navigate Left or Right in EPG
+</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -11575,7 +11590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11734,6 +11749,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12433,8 +12450,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="F119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12460,7 +12477,7 @@
         <v>687</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -16053,7 +16070,7 @@
         <v>687</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -16397,7 +16414,7 @@
     </row>
     <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>599</v>
@@ -16439,7 +16456,7 @@
     </row>
     <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>599</v>
@@ -16481,7 +16498,7 @@
     </row>
     <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>599</v>
@@ -16553,7 +16570,7 @@
         <v>612</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>639</v>
@@ -16614,7 +16631,7 @@
         <v>612</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>633</v>
@@ -16635,7 +16652,7 @@
         <v>612</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>631</v>
@@ -16656,7 +16673,7 @@
         <v>612</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>629</v>
@@ -16677,7 +16694,7 @@
         <v>612</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>618</v>
@@ -16698,7 +16715,7 @@
         <v>612</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>618</v>
@@ -16719,7 +16736,7 @@
         <v>612</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>618</v>
@@ -16740,7 +16757,7 @@
         <v>612</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>618</v>
@@ -16761,7 +16778,7 @@
         <v>612</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>618</v>
@@ -16802,7 +16819,7 @@
         <v>612</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>611</v>
@@ -16823,7 +16840,7 @@
         <v>598</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>609</v>
@@ -16843,7 +16860,7 @@
         <v>689</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>607</v>
@@ -16863,7 +16880,7 @@
         <v>689</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>116</v>
@@ -16883,7 +16900,7 @@
         <v>689</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>603</v>
@@ -16903,7 +16920,7 @@
         <v>598</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>601</v>
@@ -16914,7 +16931,7 @@
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>599</v>
@@ -16923,7 +16940,7 @@
         <v>598</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>597</v>
@@ -16945,8 +16962,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="140" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16966,28 +16985,28 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>1</v>
@@ -16996,22 +17015,22 @@
         <v>217</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
@@ -17019,25 +17038,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="F2" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>693</v>
@@ -17056,25 +17075,25 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="F3" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>693</v>
@@ -17093,25 +17112,25 @@
         <v>41</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="F4" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>693</v>
@@ -17130,25 +17149,25 @@
         <v>42</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="F5" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>693</v>
@@ -17167,25 +17186,25 @@
         <v>43</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="F6" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>693</v>
@@ -17204,25 +17223,25 @@
         <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="F7" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>693</v>
@@ -17241,25 +17260,25 @@
         <v>45</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="F8" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>693</v>
@@ -17278,25 +17297,25 @@
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="F9" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>693</v>
@@ -17315,25 +17334,25 @@
         <v>47</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="F10" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>693</v>
@@ -17352,7 +17371,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -17362,13 +17381,13 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>693</v>
@@ -17387,7 +17406,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -17397,13 +17416,13 @@
       <c r="G12" s="18"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>693</v>
@@ -17422,22 +17441,22 @@
         <v>54</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="F13" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>761</v>
@@ -17459,22 +17478,22 @@
         <v>55</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="F14" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>761</v>
@@ -17496,22 +17515,22 @@
         <v>56</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="F15" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>761</v>
@@ -17533,22 +17552,22 @@
         <v>57</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
       <c r="F16" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>761</v>
@@ -17570,22 +17589,22 @@
         <v>58</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="F17" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>761</v>
@@ -17607,22 +17626,22 @@
         <v>59</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
       <c r="F18" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>761</v>
@@ -17644,22 +17663,22 @@
         <v>60</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="F19" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>761</v>
@@ -17681,22 +17700,22 @@
         <v>61</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="F20" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>761</v>
@@ -17718,22 +17737,22 @@
         <v>62</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="F21" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>761</v>
@@ -17755,22 +17774,22 @@
         <v>63</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="F22" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>761</v>
@@ -17792,22 +17811,22 @@
         <v>64</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="F23" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>761</v>
@@ -17829,22 +17848,22 @@
         <v>65</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
       <c r="F24" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>761</v>
@@ -17871,17 +17890,17 @@
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
       <c r="F25" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
         <v>206</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>761</v>
@@ -17903,22 +17922,22 @@
         <v>68</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="F26" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>761</v>
@@ -17940,22 +17959,22 @@
         <v>69</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="F27" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>761</v>
@@ -17977,22 +17996,22 @@
         <v>70</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
       <c r="F28" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>761</v>
@@ -18019,10 +18038,10 @@
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="F29" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21" t="s">
@@ -18056,17 +18075,17 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="F30" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
         <v>210</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>761</v>
@@ -18093,17 +18112,17 @@
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="F31" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
         <v>212</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>761</v>
@@ -18125,22 +18144,22 @@
         <v>74</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="F32" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>761</v>
@@ -18162,22 +18181,22 @@
         <v>75</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="F33" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>761</v>
@@ -18199,22 +18218,22 @@
         <v>76</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="F34" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>761</v>
@@ -18236,22 +18255,22 @@
         <v>77</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="F35" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K35" s="18" t="s">
         <v>761</v>
@@ -18273,22 +18292,22 @@
         <v>78</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
       <c r="F36" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>761</v>
@@ -18310,22 +18329,22 @@
         <v>79</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="F37" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>761</v>
@@ -18352,17 +18371,17 @@
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="F38" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
         <v>214</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="K38" s="18" t="s">
         <v>761</v>
@@ -18384,22 +18403,22 @@
         <v>82</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
       <c r="F39" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>761</v>
@@ -18421,22 +18440,22 @@
         <v>83</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="F40" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="K40" s="18" t="s">
         <v>761</v>
@@ -18458,25 +18477,25 @@
         <v>84</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
       <c r="F41" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>693</v>
@@ -18495,22 +18514,22 @@
         <v>85</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="F42" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>761</v>
@@ -18537,17 +18556,17 @@
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="F43" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
         <v>216</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>761</v>
@@ -18569,22 +18588,22 @@
         <v>87</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="F44" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>761</v>
@@ -18606,22 +18625,22 @@
         <v>88</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="F45" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>761</v>
@@ -18643,22 +18662,22 @@
         <v>89</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="F46" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>761</v>
@@ -18680,22 +18699,22 @@
         <v>90</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="F47" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>761</v>
@@ -18717,7 +18736,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -18727,13 +18746,13 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>693</v>
@@ -18752,7 +18771,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -18762,13 +18781,13 @@
       <c r="G49" s="21"/>
       <c r="H49" s="21"/>
       <c r="I49" s="18" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>693</v>
@@ -18787,7 +18806,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -18797,13 +18816,13 @@
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="L50" s="29" t="s">
         <v>693</v>
@@ -18822,7 +18841,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -18832,13 +18851,13 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>693</v>
@@ -18857,7 +18876,7 @@
         <v>95</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -18867,13 +18886,13 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="J52" s="21" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L52" s="29" t="s">
         <v>693</v>
@@ -18892,7 +18911,7 @@
         <v>96</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -18902,13 +18921,13 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="18" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>693</v>
@@ -18927,7 +18946,7 @@
         <v>97</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -18937,13 +18956,13 @@
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="J54" s="21" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="L54" s="29" t="s">
         <v>693</v>
@@ -18962,7 +18981,7 @@
         <v>98</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -18972,13 +18991,13 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="18" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>693</v>
@@ -18997,7 +19016,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
@@ -19007,13 +19026,13 @@
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="J56" s="21" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="K56" s="21" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="L56" s="29" t="s">
         <v>693</v>
@@ -19032,25 +19051,25 @@
         <v>100</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="F57" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="18" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="L57" s="18" t="s">
         <v>693</v>
@@ -19069,25 +19088,25 @@
         <v>101</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="F58" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="L58" s="29" t="s">
         <v>693</v>
@@ -19106,25 +19125,25 @@
         <v>102</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="F59" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="18" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>693</v>
@@ -19143,25 +19162,25 @@
         <v>103</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="F60" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="L60" s="29" t="s">
         <v>693</v>
@@ -19180,25 +19199,25 @@
         <v>104</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="F61" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="18" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="L61" s="18" t="s">
         <v>693</v>
@@ -19217,25 +19236,25 @@
         <v>105</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="F62" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="L62" s="29" t="s">
         <v>693</v>
@@ -19254,25 +19273,25 @@
         <v>106</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="F63" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="18" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="L63" s="18" t="s">
         <v>693</v>
@@ -19291,25 +19310,25 @@
         <v>107</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="F64" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="J64" s="21" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="L64" s="29" t="s">
         <v>693</v>
@@ -19328,25 +19347,25 @@
         <v>108</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="F65" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="18" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="L65" s="18" t="s">
         <v>693</v>
@@ -19365,25 +19384,25 @@
         <v>109</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="F66" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="L66" s="29" t="s">
         <v>693</v>
@@ -19402,25 +19421,25 @@
         <v>110</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="F67" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="18" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>693</v>
@@ -19439,25 +19458,25 @@
         <v>111</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="F68" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="L68" s="29" t="s">
         <v>693</v>
@@ -19476,25 +19495,25 @@
         <v>112</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="F69" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="18" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L69" s="18" t="s">
         <v>693</v>
@@ -19513,25 +19532,25 @@
         <v>113</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="F70" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="L70" s="29" t="s">
         <v>693</v>
@@ -19550,25 +19569,25 @@
         <v>114</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="F71" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="18" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="L71" s="18" t="s">
         <v>693</v>
@@ -19587,25 +19606,25 @@
         <v>115</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="F72" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="L72" s="29" t="s">
         <v>693</v>
@@ -19624,25 +19643,25 @@
         <v>116</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="F73" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="18" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="L73" s="18" t="s">
         <v>693</v>
@@ -19661,25 +19680,25 @@
         <v>117</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="F74" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="L74" s="29" t="s">
         <v>693</v>
@@ -19698,25 +19717,25 @@
         <v>118</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="F75" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="18" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="L75" s="18" t="s">
         <v>693</v>
@@ -19735,25 +19754,25 @@
         <v>119</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="F76" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="L76" s="29" t="s">
         <v>693</v>
@@ -19772,25 +19791,25 @@
         <v>120</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="F77" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="18" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="L77" s="18" t="s">
         <v>693</v>
@@ -19809,25 +19828,25 @@
         <v>121</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="F78" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="L78" s="29" t="s">
         <v>693</v>
@@ -19846,25 +19865,25 @@
         <v>122</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="F79" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="18" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="L79" s="18" t="s">
         <v>693</v>
@@ -19883,25 +19902,25 @@
         <v>123</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
       <c r="F80" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="L80" s="29" t="s">
         <v>693</v>
@@ -19920,25 +19939,25 @@
         <v>127</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="F81" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="J81" s="21" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="L81" s="29" t="s">
         <v>693</v>
@@ -19957,25 +19976,25 @@
         <v>128</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="F82" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H82" s="18"/>
       <c r="I82" s="18" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="L82" s="18" t="s">
         <v>693</v>
@@ -19994,25 +20013,25 @@
         <v>129</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="F83" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="L83" s="29" t="s">
         <v>693</v>
@@ -20031,7 +20050,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C84" s="27" t="s">
         <v>496</v>
@@ -20045,13 +20064,13 @@
         <v>598</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="L84" s="18" t="s">
         <v>693</v>
@@ -20070,7 +20089,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -20080,13 +20099,13 @@
       <c r="G85" s="21"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="L85" s="29" t="s">
         <v>693</v>
@@ -20105,7 +20124,7 @@
         <v>132</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -20115,13 +20134,13 @@
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="18" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="L86" s="18" t="s">
         <v>693</v>
@@ -20140,7 +20159,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -20150,13 +20169,13 @@
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J87" s="21" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="L87" s="29" t="s">
         <v>693</v>
@@ -20175,7 +20194,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -20185,13 +20204,13 @@
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="L88" s="18" t="s">
         <v>693</v>
@@ -20210,7 +20229,7 @@
         <v>135</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -20220,13 +20239,13 @@
       <c r="G89" s="21"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="L89" s="29" t="s">
         <v>693</v>
@@ -20245,7 +20264,7 @@
         <v>136</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -20255,13 +20274,13 @@
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
       <c r="I90" s="18" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="L90" s="18" t="s">
         <v>693</v>
@@ -20280,7 +20299,7 @@
         <v>137</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -20290,13 +20309,13 @@
       <c r="G91" s="21"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J91" s="21" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K91" s="21" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="L91" s="29" t="s">
         <v>693</v>
@@ -20320,20 +20339,20 @@
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="F92" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="18" t="s">
         <v>148</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L92" s="18" t="s">
         <v>693</v>
@@ -20357,20 +20376,20 @@
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
       <c r="F93" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21" t="s">
         <v>150</v>
       </c>
       <c r="J93" s="21" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="K93" s="21" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="L93" s="29" t="s">
         <v>693</v>
@@ -20389,25 +20408,25 @@
         <v>140</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="F94" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="L94" s="18" t="s">
         <v>693</v>
@@ -20426,25 +20445,25 @@
         <v>141</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
       <c r="F95" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="K95" s="21" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="L95" s="29" t="s">
         <v>693</v>
@@ -20463,25 +20482,25 @@
         <v>142</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="F96" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="L96" s="18" t="s">
         <v>693</v>
@@ -20500,25 +20519,25 @@
         <v>143</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
       <c r="F97" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J97" s="21" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L97" s="29" t="s">
         <v>693</v>
@@ -20537,25 +20556,25 @@
         <v>144</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="F98" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L98" s="18" t="s">
         <v>693</v>
@@ -20574,25 +20593,25 @@
         <v>145</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
       <c r="F99" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J99" s="21" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="K99" s="21" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L99" s="29" t="s">
         <v>693</v>
@@ -20611,25 +20630,25 @@
         <v>146</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="F100" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="L100" s="18" t="s">
         <v>693</v>
@@ -20648,25 +20667,25 @@
         <v>147</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="F101" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J101" s="21" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="K101" s="21" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L101" s="29" t="s">
         <v>693</v>
@@ -20685,25 +20704,25 @@
         <v>148</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="F102" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="L102" s="18" t="s">
         <v>693</v>
@@ -20722,25 +20741,25 @@
         <v>149</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
       <c r="F103" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J103" s="21" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K103" s="21" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="L103" s="29" t="s">
         <v>693</v>
@@ -20864,7 +20883,7 @@
         <v>156</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
@@ -20874,13 +20893,13 @@
       <c r="G107" s="18"/>
       <c r="H107" s="18"/>
       <c r="I107" s="18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="L107" s="18" t="s">
         <v>693</v>
@@ -20899,7 +20918,7 @@
         <v>158</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
@@ -20909,13 +20928,13 @@
       <c r="G108" s="18"/>
       <c r="H108" s="18"/>
       <c r="I108" s="18" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="L108" s="18" t="s">
         <v>693</v>
@@ -20947,7 +20966,7 @@
         <v>543</v>
       </c>
       <c r="J109" s="21" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K109" s="21" t="s">
         <v>594</v>
@@ -20969,7 +20988,7 @@
         <v>166</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
@@ -20979,13 +20998,13 @@
       <c r="G110" s="18"/>
       <c r="H110" s="18"/>
       <c r="I110" s="18" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="L110" s="18" t="s">
         <v>693</v>
@@ -21004,25 +21023,25 @@
         <v>167</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
       <c r="F111" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K111" s="21" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="L111" s="29" t="s">
         <v>693</v>
@@ -21041,7 +21060,7 @@
         <v>170</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
@@ -21051,13 +21070,13 @@
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="L112" s="18" t="s">
         <v>693</v>
@@ -21076,7 +21095,7 @@
         <v>171</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -21086,13 +21105,13 @@
       <c r="G113" s="21"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="J113" s="21" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K113" s="21" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="L113" s="29" t="s">
         <v>693</v>
@@ -21111,7 +21130,7 @@
         <v>172</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -21121,13 +21140,13 @@
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
       <c r="I114" s="18" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L114" s="18" t="s">
         <v>693</v>
@@ -21163,10 +21182,10 @@
         <v>170</v>
       </c>
       <c r="J115" s="21" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K115" s="21" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="L115" s="29" t="s">
         <v>693</v>
@@ -21202,7 +21221,7 @@
         <v>172</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K116" s="18" t="s">
         <v>377</v>
@@ -21224,7 +21243,7 @@
         <v>175</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C117" s="28" t="s">
         <v>496</v>
@@ -21238,13 +21257,13 @@
         <v>598</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="J117" s="21" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K117" s="21" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="L117" s="29" t="s">
         <v>693</v>
@@ -21263,7 +21282,7 @@
         <v>176</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C118" s="27" t="s">
         <v>496</v>
@@ -21277,13 +21296,13 @@
         <v>598</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="K118" s="18" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="L118" s="18" t="s">
         <v>693</v>
@@ -21307,7 +21326,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F119" s="21" t="s">
         <v>1106</v>
@@ -21320,10 +21339,10 @@
         <v>174</v>
       </c>
       <c r="J119" s="21" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="K119" s="21" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="L119" s="29" t="s">
         <v>693</v>
@@ -21347,7 +21366,7 @@
       <c r="C120" s="31"/>
       <c r="D120" s="31"/>
       <c r="E120" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F120" s="21" t="s">
         <v>1106</v>
@@ -21360,10 +21379,10 @@
         <v>176</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="K120" s="18" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="L120" s="18" t="s">
         <v>693</v>
@@ -21399,10 +21418,10 @@
         <v>178</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K121" s="21" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="L121" s="29" t="s">
         <v>693</v>
@@ -21426,7 +21445,7 @@
       <c r="C122" s="31"/>
       <c r="D122" s="31"/>
       <c r="E122" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F122" s="21" t="s">
         <v>1106</v>
@@ -21439,10 +21458,10 @@
         <v>180</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="K122" s="18" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L122" s="18" t="s">
         <v>693</v>
@@ -21466,7 +21485,7 @@
       <c r="C123" s="31"/>
       <c r="D123" s="31"/>
       <c r="E123" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F123" s="18" t="s">
         <v>1106</v>
@@ -21479,10 +21498,10 @@
         <v>56</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="K123" s="18" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="L123" s="18" t="s">
         <v>693</v>
@@ -21501,7 +21520,7 @@
         <v>183</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -21511,13 +21530,13 @@
       <c r="G124" s="21"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="K124" s="21" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L124" s="29" t="s">
         <v>693</v>
@@ -21536,7 +21555,7 @@
         <v>185</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -21546,13 +21565,13 @@
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
       <c r="I125" s="21" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J125" s="21" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="K125" s="21" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="L125" s="29" t="s">
         <v>693</v>
@@ -21571,7 +21590,7 @@
         <v>187</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -21581,13 +21600,13 @@
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
       <c r="I126" s="21" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K126" s="21" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="L126" s="29" t="s">
         <v>693</v>
@@ -21606,7 +21625,7 @@
         <v>189</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -21616,13 +21635,13 @@
       <c r="G127" s="21"/>
       <c r="H127" s="21"/>
       <c r="I127" s="21" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K127" s="21" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L127" s="29" t="s">
         <v>693</v>
@@ -21641,7 +21660,7 @@
         <v>192</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
@@ -21651,13 +21670,13 @@
       <c r="G128" s="18"/>
       <c r="H128" s="18"/>
       <c r="I128" s="18" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="L128" s="18" t="s">
         <v>693</v>
@@ -21671,12 +21690,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>193</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C129" s="28" t="s">
         <v>496</v>
@@ -21690,13 +21709,13 @@
         <v>612</v>
       </c>
       <c r="I129" s="21" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="K129" s="21" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="L129" s="29" t="s">
         <v>693</v>
@@ -21710,12 +21729,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>194</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C130" s="27" t="s">
         <v>496</v>
@@ -21729,13 +21748,13 @@
         <v>612</v>
       </c>
       <c r="I130" s="18" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="K130" s="18" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="L130" s="18" t="s">
         <v>693</v>
@@ -21749,12 +21768,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>196</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C131" s="27" t="s">
         <v>496</v>
@@ -21768,13 +21787,13 @@
         <v>612</v>
       </c>
       <c r="I131" s="18" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="K131" s="18" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="L131" s="18" t="s">
         <v>693</v>
@@ -21788,12 +21807,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -21805,13 +21824,13 @@
         <v>612</v>
       </c>
       <c r="I132" s="21" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J132" s="21" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="K132" s="21" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="L132" s="29" t="s">
         <v>693</v>
@@ -21825,12 +21844,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -21842,13 +21861,13 @@
         <v>612</v>
       </c>
       <c r="I133" s="21" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="J133" s="21" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="K133" s="21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="L133" s="29" t="s">
         <v>693</v>
@@ -21862,12 +21881,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C134" s="27"/>
       <c r="D134" s="27"/>
@@ -21879,13 +21898,13 @@
         <v>612</v>
       </c>
       <c r="I134" s="18" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="J134" s="18" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K134" s="18" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="L134" s="18" t="s">
         <v>693</v>
@@ -21899,12 +21918,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C135" s="27"/>
       <c r="D135" s="27"/>
@@ -21916,13 +21935,13 @@
         <v>612</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K135" s="18" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="L135" s="18" t="s">
         <v>693</v>
@@ -21941,7 +21960,7 @@
         <v>203</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -21953,13 +21972,13 @@
         <v>598</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="J136" s="21" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="K136" s="21" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="L136" s="29" t="s">
         <v>693</v>
@@ -21978,25 +21997,25 @@
         <v>204</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C137" s="27"/>
       <c r="D137" s="27"/>
       <c r="F137" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="K137" s="18" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="L137" s="18" t="s">
         <v>693</v>
@@ -22020,7 +22039,7 @@
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F138" s="21" t="s">
         <v>1106</v>
@@ -22033,10 +22052,10 @@
         <v>100</v>
       </c>
       <c r="J138" s="21" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="K138" s="21" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="L138" s="29" t="s">
         <v>693</v>
@@ -22060,7 +22079,7 @@
       <c r="C139" s="31"/>
       <c r="D139" s="31"/>
       <c r="E139" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F139" s="21" t="s">
         <v>1106</v>
@@ -22073,7 +22092,7 @@
         <v>106</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="K139" s="18" t="s">
         <v>316</v>
@@ -22100,7 +22119,7 @@
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F140" s="21" t="s">
         <v>1106</v>
@@ -22113,10 +22132,10 @@
         <v>108</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="K140" s="21" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L140" s="29" t="s">
         <v>693</v>
@@ -22130,12 +22149,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>208</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
@@ -22147,13 +22166,13 @@
         <v>604</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K141" s="18" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L141" s="18" t="s">
         <v>693</v>
@@ -22167,12 +22186,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>209</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -22184,13 +22203,13 @@
         <v>604</v>
       </c>
       <c r="I142" s="21" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="J142" s="21" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="K142" s="21" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="L142" s="29" t="s">
         <v>693</v>
@@ -22209,13 +22228,13 @@
         <v>210</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C143" s="27" t="s">
         <v>496</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F143" s="21" t="s">
         <v>1106</v>
@@ -22225,13 +22244,13 @@
         <v>604</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="K143" s="18" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="L143" s="18" t="s">
         <v>693</v>
@@ -22250,13 +22269,13 @@
         <v>211</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C144" s="28" t="s">
         <v>496</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F144" s="21" t="s">
         <v>1106</v>
@@ -22266,13 +22285,13 @@
         <v>604</v>
       </c>
       <c r="I144" s="21" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="J144" s="21" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="K144" s="21" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="L144" s="29" t="s">
         <v>693</v>
@@ -22291,13 +22310,13 @@
         <v>212</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C145" s="31" t="s">
         <v>496</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F145" s="21" t="s">
         <v>1106</v>
@@ -22307,13 +22326,13 @@
         <v>604</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K145" s="18" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="L145" s="18" t="s">
         <v>693</v>
@@ -22335,7 +22354,7 @@
         <v>101</v>
       </c>
       <c r="E146" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F146" s="21" t="s">
         <v>1106</v>
@@ -22348,10 +22367,10 @@
         <v>102</v>
       </c>
       <c r="J146" s="21" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K146" s="21" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="L146" s="29" t="s">
         <v>693</v>
@@ -22373,7 +22392,7 @@
         <v>103</v>
       </c>
       <c r="E147" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F147" s="21" t="s">
         <v>1106</v>
@@ -22386,10 +22405,10 @@
         <v>104</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K147" s="18" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="L147" s="18" t="s">
         <v>693</v>
@@ -22408,13 +22427,13 @@
         <v>221</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="C148" t="s">
         <v>496</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F148" s="21" t="s">
         <v>1106</v>
@@ -22424,13 +22443,13 @@
         <v>604</v>
       </c>
       <c r="I148" s="21" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="J148" s="23" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K148" s="21" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="L148" s="29" t="s">
         <v>693</v>
@@ -22449,13 +22468,13 @@
         <v>222</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C149" t="s">
         <v>496</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F149" s="21" t="s">
         <v>1106</v>
@@ -22465,13 +22484,13 @@
         <v>604</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="J149" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="K149" s="18" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="L149" s="18" t="s">
         <v>693</v>
@@ -22490,23 +22509,23 @@
         <v>223</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="J150" s="21" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="K150" s="21" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L150" s="29" t="s">
         <v>693</v>
@@ -22520,12 +22539,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>224</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C151" t="s">
         <v>496</v>
@@ -22538,13 +22557,13 @@
         <v>612</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J151" s="21" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K151" s="32" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L151" s="18" t="s">
         <v>693</v>
@@ -22558,12 +22577,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>1106</v>
@@ -22573,13 +22592,13 @@
         <v>612</v>
       </c>
       <c r="I152" s="21" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K152" s="21" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="L152" s="29" t="s">
         <v>693</v>
@@ -22593,12 +22612,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>227</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C153" t="s">
         <v>496</v>
@@ -22611,13 +22630,13 @@
         <v>612</v>
       </c>
       <c r="I153" s="21" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K153" s="21" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="L153" s="29" t="s">
         <v>693</v>
@@ -22631,12 +22650,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>228</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C154" t="s">
         <v>496</v>
@@ -22649,13 +22668,13 @@
         <v>612</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="J154" s="18" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K154" s="18" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="L154" s="18" t="s">
         <v>693</v>
@@ -22669,12 +22688,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>231</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="C155" t="s">
         <v>496</v>
@@ -22687,13 +22706,13 @@
         <v>612</v>
       </c>
       <c r="I155" s="21" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="J155" s="21" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="K155" s="21" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="L155" s="29" t="s">
         <v>693</v>
@@ -22707,12 +22726,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>1106</v>
@@ -22722,13 +22741,13 @@
         <v>612</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="J156" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="K156" s="18" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="L156" s="18" t="s">
         <v>693</v>
@@ -22742,12 +22761,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="F157" s="18" t="s">
         <v>1106</v>
@@ -22757,13 +22776,13 @@
         <v>612</v>
       </c>
       <c r="I157" s="21" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="J157" s="21" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="K157" s="21" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L157" s="29" t="s">
         <v>693</v>
@@ -22777,12 +22796,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F158" s="18" t="s">
         <v>1106</v>
@@ -22792,13 +22811,13 @@
         <v>612</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J158" s="18" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="K158" s="18" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="L158" s="18" t="s">
         <v>693</v>
@@ -22812,12 +22831,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>1106</v>
@@ -22827,13 +22846,13 @@
         <v>612</v>
       </c>
       <c r="I159" s="21" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="J159" s="21" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="K159" s="21" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="L159" s="29" t="s">
         <v>693</v>
@@ -22847,12 +22866,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F160" s="18" t="s">
         <v>1106</v>
@@ -22862,13 +22881,13 @@
         <v>612</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="J160" s="18" t="s">
         <v>801</v>
       </c>
       <c r="K160" s="18" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="L160" s="18" t="s">
         <v>693</v>
@@ -22882,12 +22901,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F161" s="18" t="s">
         <v>1106</v>
@@ -22897,13 +22916,13 @@
         <v>612</v>
       </c>
       <c r="I161" s="21" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="J161" s="21" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K161" s="21" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="L161" s="29" t="s">
         <v>693</v>
@@ -22922,23 +22941,23 @@
         <v>238</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F162" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="J162" s="18" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="K162" s="18" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="L162" s="18" t="s">
         <v>693</v>
@@ -22960,7 +22979,7 @@
         <v>151</v>
       </c>
       <c r="E163" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F163" s="21" t="s">
         <v>1106</v>
@@ -22973,10 +22992,10 @@
         <v>152</v>
       </c>
       <c r="J163" s="21" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="K163" s="21" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="L163" s="29" t="s">
         <v>693</v>
@@ -22990,12 +23009,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>240</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C164" t="s">
         <v>496</v>
@@ -23008,13 +23027,13 @@
         <v>612</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="J164" s="18" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="K164" s="18" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L164" s="18" t="s">
         <v>693</v>
@@ -23028,12 +23047,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F165" s="21" t="s">
         <v>1106</v>
@@ -23043,13 +23062,13 @@
         <v>612</v>
       </c>
       <c r="I165" s="21" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J165" s="21" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="K165" s="21" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="L165" s="29" t="s">
         <v>693</v>
@@ -23063,12 +23082,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>242</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C166" t="s">
         <v>496</v>
@@ -23081,13 +23100,13 @@
         <v>612</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="J166" s="18" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="K166" s="18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="L166" s="18" t="s">
         <v>693</v>
@@ -23101,7 +23120,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -23119,10 +23138,10 @@
         <v>154</v>
       </c>
       <c r="J167" s="21" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="K167" s="21" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="L167" s="29" t="s">
         <v>693</v>
@@ -23136,12 +23155,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>244</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C168" t="s">
         <v>496</v>
@@ -23154,13 +23173,13 @@
         <v>612</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="J168" s="18" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="K168" s="18" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="L168" s="18" t="s">
         <v>693</v>
@@ -23174,12 +23193,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F169" s="21" t="s">
         <v>1106</v>
@@ -23189,13 +23208,13 @@
         <v>612</v>
       </c>
       <c r="I169" s="21" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="J169" s="21" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K169" s="21" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="L169" s="29" t="s">
         <v>693</v>
@@ -23209,12 +23228,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="F170" s="21" t="s">
         <v>1106</v>
@@ -23224,13 +23243,13 @@
         <v>612</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J170" s="18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="K170" s="18" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="L170" s="18" t="s">
         <v>693</v>
@@ -23244,12 +23263,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F171" s="21" t="s">
         <v>1106</v>
@@ -23259,13 +23278,13 @@
         <v>612</v>
       </c>
       <c r="I171" s="21" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J171" s="21" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K171" s="21" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="L171" s="29" t="s">
         <v>693</v>
@@ -23279,28 +23298,36 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>248</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>1501</v>
+        <v>1500</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D172" s="58">
+        <v>42986</v>
       </c>
       <c r="F172" s="18" t="s">
         <v>1106</v>
       </c>
-      <c r="G172" s="18"/>
+      <c r="G172" s="18" t="s">
+        <v>494</v>
+      </c>
       <c r="H172" s="18" t="s">
         <v>604</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J172" s="18" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K172" s="18" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="L172" s="18" t="s">
         <v>693</v>
@@ -23322,10 +23349,10 @@
         <v>563</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H173" s="18"/>
       <c r="I173" s="21" t="s">
@@ -23357,10 +23384,10 @@
         <v>522</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H174" s="18"/>
       <c r="I174" s="18" t="s">
@@ -23392,10 +23419,10 @@
         <v>567</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="21" t="s">
@@ -23419,12 +23446,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>252</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F176" s="18" t="s">
         <v>1106</v>
@@ -23434,13 +23461,13 @@
         <v>604</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="J176" s="18" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K176" s="18" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="L176" s="18" t="s">
         <v>693</v>
@@ -23462,7 +23489,7 @@
         <v>528</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F177" s="18" t="s">
         <v>1106</v>
@@ -23500,7 +23527,7 @@
         <v>571</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F178" s="18" t="s">
         <v>1106</v>
@@ -23538,10 +23565,10 @@
         <v>530</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H179" s="18"/>
       <c r="I179" s="21" t="s">
@@ -23573,10 +23600,10 @@
         <v>575</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H180" s="18"/>
       <c r="I180" s="18" t="s">
@@ -23608,10 +23635,10 @@
         <v>534</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H181" s="18"/>
       <c r="I181" s="21" t="s">
@@ -23635,12 +23662,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>260</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>1493</v>
+        <v>1492</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D182" s="59">
+        <v>42986</v>
       </c>
       <c r="F182" s="18" t="s">
         <v>1106</v>
@@ -23650,13 +23683,13 @@
         <v>604</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J182" s="18" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K182" s="18" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="L182" s="18" t="s">
         <v>693</v>
@@ -23678,10 +23711,10 @@
         <v>579</v>
       </c>
       <c r="F183" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="21" t="s">
@@ -23710,23 +23743,23 @@
         <v>262</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="F184" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G184" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="18" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="J184" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="K184" s="18" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="L184" s="18" t="s">
         <v>693</v>
@@ -23745,23 +23778,23 @@
         <v>263</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H185" s="18"/>
       <c r="I185" s="21" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="J185" s="21" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="K185" s="21" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="L185" s="29" t="s">
         <v>693</v>
@@ -23780,23 +23813,23 @@
         <v>264</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H186" s="18"/>
       <c r="I186" s="18" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="J186" s="18" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="K186" s="18" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="L186" s="18" t="s">
         <v>693</v>
@@ -23815,7 +23848,7 @@
         <v>274</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="F187" s="18" t="s">
         <v>1106</v>
@@ -23823,13 +23856,13 @@
       <c r="G187" s="18"/>
       <c r="H187" s="18"/>
       <c r="I187" s="18" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="J187" s="18" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="K187" s="18" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="L187" s="18" t="s">
         <v>693</v>
@@ -23848,7 +23881,7 @@
         <v>275</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F188" s="21" t="s">
         <v>1106</v>
@@ -23856,13 +23889,13 @@
       <c r="G188" s="21"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="J188" s="21" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="K188" s="21" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="L188" s="29" t="s">
         <v>693</v>
@@ -23881,7 +23914,7 @@
         <v>276</v>
       </c>
       <c r="B189" s="18" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F189" s="18" t="s">
         <v>1106</v>
@@ -23889,13 +23922,13 @@
       <c r="G189" s="18"/>
       <c r="H189" s="18"/>
       <c r="I189" s="18" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J189" s="18" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="K189" s="18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="L189" s="18" t="s">
         <v>693</v>
@@ -23914,7 +23947,7 @@
         <v>277</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="F190" s="21" t="s">
         <v>1106</v>
@@ -23922,13 +23955,13 @@
       <c r="G190" s="21"/>
       <c r="H190" s="21"/>
       <c r="I190" s="21" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="J190" s="21" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="K190" s="21" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="L190" s="29" t="s">
         <v>693</v>
@@ -23947,7 +23980,7 @@
         <v>278</v>
       </c>
       <c r="B191" s="18" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="F191" s="18" t="s">
         <v>1106</v>
@@ -23955,13 +23988,13 @@
       <c r="G191" s="18"/>
       <c r="H191" s="18"/>
       <c r="I191" s="18" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="J191" s="18" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="K191" s="18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="L191" s="18" t="s">
         <v>693</v>
@@ -23980,7 +24013,7 @@
         <v>279</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="F192" s="21" t="s">
         <v>1106</v>
@@ -23988,13 +24021,13 @@
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
       <c r="I192" s="21" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="J192" s="21" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="K192" s="21" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="L192" s="29" t="s">
         <v>693</v>
@@ -24013,7 +24046,7 @@
         <v>280</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="F193" s="18" t="s">
         <v>1106</v>
@@ -24021,13 +24054,13 @@
       <c r="G193" s="18"/>
       <c r="H193" s="18"/>
       <c r="I193" s="18" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J193" s="18" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="K193" s="18" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="L193" s="18" t="s">
         <v>693</v>
@@ -24046,7 +24079,7 @@
         <v>281</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F194" s="21" t="s">
         <v>1106</v>
@@ -24054,13 +24087,13 @@
       <c r="G194" s="21"/>
       <c r="H194" s="21"/>
       <c r="I194" s="21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J194" s="21" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="K194" s="21" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="L194" s="29" t="s">
         <v>693</v>
@@ -24079,7 +24112,7 @@
         <v>282</v>
       </c>
       <c r="B195" s="18" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F195" s="18" t="s">
         <v>1106</v>
@@ -24087,13 +24120,13 @@
       <c r="G195" s="18"/>
       <c r="H195" s="18"/>
       <c r="I195" s="18" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="J195" s="18" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K195" s="18" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="L195" s="18" t="s">
         <v>693</v>
@@ -24112,7 +24145,7 @@
         <v>283</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F196" s="21" t="s">
         <v>1106</v>
@@ -24120,13 +24153,13 @@
       <c r="G196" s="21"/>
       <c r="H196" s="21"/>
       <c r="I196" s="21" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J196" s="21" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K196" s="21" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="L196" s="29" t="s">
         <v>693</v>
@@ -24145,7 +24178,7 @@
         <v>284</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F197" s="18" t="s">
         <v>1106</v>
@@ -24153,13 +24186,13 @@
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J197" s="18" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="K197" s="18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="L197" s="18" t="s">
         <v>693</v>
@@ -24178,7 +24211,7 @@
         <v>285</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F198" s="21" t="s">
         <v>1106</v>
@@ -24186,13 +24219,13 @@
       <c r="G198" s="21"/>
       <c r="H198" s="21"/>
       <c r="I198" s="21" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J198" s="21" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="K198" s="21" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="L198" s="29" t="s">
         <v>693</v>
@@ -24211,23 +24244,23 @@
         <v>286</v>
       </c>
       <c r="B199" s="18" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G199" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H199" s="18"/>
       <c r="I199" s="18" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J199" s="18" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="K199" s="18" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="L199" s="18" t="s">
         <v>693</v>
@@ -24246,23 +24279,23 @@
         <v>287</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H200" s="18"/>
       <c r="I200" s="21" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="J200" s="21" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="K200" s="21" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="L200" s="29" t="s">
         <v>693</v>
@@ -24284,20 +24317,20 @@
         <v>30</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H201" s="18"/>
       <c r="I201" s="18" t="s">
         <v>31</v>
       </c>
       <c r="J201" s="18" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="K201" s="18" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="L201" s="18" t="s">
         <v>693</v>
@@ -24319,20 +24352,20 @@
         <v>33</v>
       </c>
       <c r="F202" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G202" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H202" s="21"/>
       <c r="I202" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J202" s="21" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="K202" s="21" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="L202" s="29" t="s">
         <v>693</v>
@@ -24351,23 +24384,23 @@
         <v>290</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F203" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G203" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H203" s="18"/>
       <c r="I203" s="18" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J203" s="18" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="K203" s="18" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L203" s="18" t="s">
         <v>693</v>
@@ -24386,23 +24419,23 @@
         <v>291</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F204" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G204" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H204" s="21"/>
       <c r="I204" s="21" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="J204" s="21" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="K204" s="21" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="L204" s="29" t="s">
         <v>693</v>
@@ -24424,20 +24457,20 @@
         <v>35</v>
       </c>
       <c r="F205" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H205" s="18"/>
       <c r="I205" s="18" t="s">
         <v>36</v>
       </c>
       <c r="J205" s="18" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="K205" s="18" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="L205" s="18" t="s">
         <v>693</v>
@@ -24522,23 +24555,23 @@
         <v>297</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F208" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H208" s="21"/>
       <c r="I208" s="21" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J208" s="21" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K208" s="21" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="L208" s="29" t="s">
         <v>693</v>
@@ -24557,23 +24590,23 @@
         <v>298</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H209" s="18"/>
       <c r="I209" s="18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J209" s="18" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K209" s="18" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="L209" s="18" t="s">
         <v>693</v>
@@ -24592,23 +24625,23 @@
         <v>299</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F210" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H210" s="21"/>
       <c r="I210" s="21" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J210" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="K210" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="L210" s="29" t="s">
         <v>693</v>
@@ -24627,23 +24660,23 @@
         <v>300</v>
       </c>
       <c r="B211" s="18" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F211" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H211" s="18"/>
       <c r="I211" s="18" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J211" s="18" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="K211" s="18" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="L211" s="18" t="s">
         <v>693</v>
@@ -24662,23 +24695,23 @@
         <v>301</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F212" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H212" s="21"/>
       <c r="I212" s="21" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J212" s="21" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="K212" s="21" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="L212" s="29" t="s">
         <v>693</v>
@@ -24697,23 +24730,23 @@
         <v>302</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H213" s="18"/>
       <c r="I213" s="18" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J213" s="18" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K213" s="18" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L213" s="18" t="s">
         <v>693</v>
@@ -24732,7 +24765,7 @@
         <v>303</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F214" s="21" t="s">
         <v>1106</v>
@@ -24740,13 +24773,13 @@
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
       <c r="I214" s="21" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J214" s="21" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="K214" s="21" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="L214" s="29" t="s">
         <v>693</v>
@@ -24765,7 +24798,7 @@
         <v>304</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F215" s="18" t="s">
         <v>1106</v>
@@ -24773,13 +24806,13 @@
       <c r="G215" s="18"/>
       <c r="H215" s="18"/>
       <c r="I215" s="18" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J215" s="18" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="K215" s="18" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="L215" s="18" t="s">
         <v>693</v>
@@ -24798,7 +24831,7 @@
         <v>305</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F216" s="21" t="s">
         <v>1106</v>
@@ -24806,13 +24839,13 @@
       <c r="G216" s="21"/>
       <c r="H216" s="21"/>
       <c r="I216" s="21" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J216" s="21" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="K216" s="21" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="L216" s="29" t="s">
         <v>693</v>
@@ -24831,7 +24864,7 @@
         <v>306</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F217" s="18" t="s">
         <v>1106</v>
@@ -24839,13 +24872,13 @@
       <c r="G217" s="18"/>
       <c r="H217" s="18"/>
       <c r="I217" s="18" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="J217" s="18" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K217" s="18" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="L217" s="18" t="s">
         <v>693</v>
@@ -24963,7 +24996,7 @@
         <v>310</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F221" s="18" t="s">
         <v>1106</v>
@@ -24971,13 +25004,13 @@
       <c r="G221" s="18"/>
       <c r="H221" s="18"/>
       <c r="I221" s="18" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J221" s="18" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="K221" s="18" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="L221" s="18" t="s">
         <v>693</v>
@@ -25062,7 +25095,7 @@
         <v>313</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F224" s="21" t="s">
         <v>1106</v>
@@ -25070,13 +25103,13 @@
       <c r="G224" s="21"/>
       <c r="H224" s="21"/>
       <c r="I224" s="21" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J224" s="21" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="K224" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="L224" s="29" t="s">
         <v>693</v>
@@ -25095,23 +25128,23 @@
         <v>314</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H225" s="18"/>
       <c r="I225" s="18" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J225" s="18" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K225" s="18" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="L225" s="18" t="s">
         <v>693</v>
@@ -25130,23 +25163,23 @@
         <v>315</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="H226" s="21"/>
       <c r="I226" s="21" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J226" s="21" t="s">
         <v>970</v>
       </c>
       <c r="K226" s="21" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="L226" s="29" t="s">
         <v>693</v>
@@ -25179,7 +25212,7 @@
         <v>265</v>
       </c>
       <c r="K227" s="18" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="L227" s="18" t="s">
         <v>693</v>
@@ -25198,23 +25231,23 @@
         <v>317</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F228" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G228" s="21" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="H228" s="21"/>
       <c r="I228" s="21" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J228" s="21" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="K228" s="21" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="L228" s="29" t="s">
         <v>693</v>
@@ -25233,7 +25266,7 @@
         <v>318</v>
       </c>
       <c r="B229" s="18" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F229" s="18" t="s">
         <v>1106</v>
@@ -25241,13 +25274,13 @@
       <c r="G229" s="18"/>
       <c r="H229" s="18"/>
       <c r="I229" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="J229" s="18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="K229" s="18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="L229" s="18" t="s">
         <v>693</v>
@@ -25280,7 +25313,7 @@
         <v>257</v>
       </c>
       <c r="K230" s="21" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="L230" s="29" t="s">
         <v>693</v>
@@ -25310,10 +25343,10 @@
         <v>50</v>
       </c>
       <c r="J231" s="18" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K231" s="18" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="L231" s="18" t="s">
         <v>693</v>
@@ -25343,10 +25376,10 @@
         <v>52</v>
       </c>
       <c r="J232" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K232" s="21" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="L232" s="29" t="s">
         <v>693</v>
@@ -25365,7 +25398,7 @@
         <v>322</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F233" s="18" t="s">
         <v>1106</v>
@@ -25373,13 +25406,13 @@
       <c r="G233" s="18"/>
       <c r="H233" s="18"/>
       <c r="I233" s="18" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J233" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K233" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L233" s="18" t="s">
         <v>693</v>
@@ -25398,7 +25431,7 @@
         <v>323</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F234" s="21" t="s">
         <v>1106</v>
@@ -25406,13 +25439,13 @@
       <c r="G234" s="21"/>
       <c r="H234" s="21"/>
       <c r="I234" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J234" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="K234" s="21" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="L234" s="29" t="s">
         <v>693</v>
@@ -25431,7 +25464,7 @@
         <v>324</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C235" s="28" t="s">
         <v>496</v>
@@ -25445,13 +25478,13 @@
         <v>598</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J235" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="K235" s="18" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L235" s="18" t="s">
         <v>693</v>
@@ -25470,7 +25503,7 @@
         <v>325</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C236" s="36" t="s">
         <v>496</v>
@@ -25484,13 +25517,13 @@
         <v>598</v>
       </c>
       <c r="I236" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J236" s="21" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="K236" s="21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L236" s="29" t="s">
         <v>693</v>
@@ -25526,10 +25559,10 @@
         <v>97</v>
       </c>
       <c r="J237" s="18" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="K237" s="18" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L237" s="18" t="s">
         <v>693</v>
@@ -25548,7 +25581,7 @@
         <v>329</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C238" s="36" t="s">
         <v>496</v>
@@ -25562,13 +25595,13 @@
         <v>598</v>
       </c>
       <c r="I238" s="21" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J238" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="K238" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L238" s="29" t="s">
         <v>693</v>
@@ -25587,7 +25620,7 @@
         <v>331</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C239" s="36" t="s">
         <v>494</v>
@@ -25601,13 +25634,13 @@
         <v>598</v>
       </c>
       <c r="I239" s="21" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J239" s="21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="K239" s="21" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L239" s="29" t="s">
         <v>693</v>
@@ -25626,7 +25659,7 @@
         <v>332</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F240" s="18" t="s">
         <v>1106</v>
@@ -25636,13 +25669,13 @@
         <v>598</v>
       </c>
       <c r="I240" s="18" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J240" s="18" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="K240" s="18" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L240" s="18" t="s">
         <v>693</v>
@@ -25664,7 +25697,7 @@
         <v>119</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F241" s="18" t="s">
         <v>1106</v>
@@ -25677,10 +25710,10 @@
         <v>120</v>
       </c>
       <c r="J241" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="K241" s="21" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L241" s="29" t="s">
         <v>693</v>
@@ -25699,23 +25732,23 @@
         <v>334</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H242" s="18"/>
       <c r="I242" s="18" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J242" s="18" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K242" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L242" s="18" t="s">
         <v>693</v>
@@ -25737,7 +25770,7 @@
         <v>121</v>
       </c>
       <c r="E243" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F243" s="18" t="s">
         <v>1106</v>
@@ -25750,10 +25783,10 @@
         <v>122</v>
       </c>
       <c r="J243" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K243" s="21" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L243" s="29" t="s">
         <v>693</v>
@@ -25775,7 +25808,7 @@
         <v>123</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F244" s="18" t="s">
         <v>1106</v>
@@ -25788,10 +25821,10 @@
         <v>124</v>
       </c>
       <c r="J244" s="18" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K244" s="18" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L244" s="18" t="s">
         <v>693</v>
@@ -25810,7 +25843,7 @@
         <v>337</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F245" s="18" t="s">
         <v>1106</v>
@@ -25820,13 +25853,13 @@
         <v>598</v>
       </c>
       <c r="I245" s="21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J245" s="21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K245" s="21" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L245" s="29" t="s">
         <v>693</v>
@@ -25845,23 +25878,23 @@
         <v>338</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F246" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H246" s="18"/>
       <c r="I246" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J246" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K246" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L246" s="18" t="s">
         <v>693</v>
@@ -25880,7 +25913,7 @@
         <v>339</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F247" s="18" t="s">
         <v>1106</v>
@@ -25890,13 +25923,13 @@
         <v>598</v>
       </c>
       <c r="I247" s="21" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J247" s="21" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K247" s="21" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L247" s="29" t="s">
         <v>693</v>
@@ -25918,7 +25951,7 @@
         <v>125</v>
       </c>
       <c r="E248" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F248" s="18" t="s">
         <v>1106</v>
@@ -25931,10 +25964,10 @@
         <v>126</v>
       </c>
       <c r="J248" s="21" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K248" s="21" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L248" s="29" t="s">
         <v>693</v>
@@ -25953,7 +25986,7 @@
         <v>342</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C249" t="s">
         <v>496</v>
@@ -25966,13 +25999,13 @@
         <v>598</v>
       </c>
       <c r="I249" s="18" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="J249" s="18" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K249" s="18" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L249" s="18" t="s">
         <v>693</v>
@@ -25991,7 +26024,7 @@
         <v>343</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F250" s="18" t="s">
         <v>1106</v>
@@ -26001,13 +26034,13 @@
         <v>598</v>
       </c>
       <c r="I250" s="21" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="J250" s="21" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K250" s="21" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L250" s="29" t="s">
         <v>693</v>
@@ -26026,23 +26059,23 @@
         <v>344</v>
       </c>
       <c r="B251" s="18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F251" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="H251" s="18"/>
       <c r="I251" s="18" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J251" s="18" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K251" s="18" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L251" s="18" t="s">
         <v>693</v>
@@ -26064,7 +26097,7 @@
         <v>117</v>
       </c>
       <c r="E252" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F252" s="18" t="s">
         <v>1106</v>
@@ -26077,10 +26110,10 @@
         <v>118</v>
       </c>
       <c r="J252" s="21" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="K252" s="21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L252" s="29" t="s">
         <v>693</v>
@@ -26102,7 +26135,7 @@
         <v>127</v>
       </c>
       <c r="E253" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F253" s="18" t="s">
         <v>1106</v>
@@ -26115,10 +26148,10 @@
         <v>128</v>
       </c>
       <c r="J253" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K253" s="18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L253" s="18" t="s">
         <v>693</v>
@@ -26137,7 +26170,7 @@
         <v>347</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F254" s="18" t="s">
         <v>1106</v>
@@ -26147,13 +26180,13 @@
         <v>598</v>
       </c>
       <c r="I254" s="21" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J254" s="21" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="K254" s="21" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L254" s="29" t="s">
         <v>693</v>
@@ -26175,7 +26208,7 @@
         <v>139</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F255" s="18" t="s">
         <v>1106</v>
@@ -26188,10 +26221,10 @@
         <v>140</v>
       </c>
       <c r="J255" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K255" s="18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L255" s="18" t="s">
         <v>693</v>
@@ -26213,7 +26246,7 @@
         <v>141</v>
       </c>
       <c r="E256" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F256" s="18" t="s">
         <v>1106</v>
@@ -26226,10 +26259,10 @@
         <v>142</v>
       </c>
       <c r="J256" s="21" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="K256" s="21" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L256" s="29" t="s">
         <v>693</v>
@@ -26248,7 +26281,7 @@
         <v>350</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F257" s="18" t="s">
         <v>1106</v>
@@ -26258,13 +26291,13 @@
         <v>598</v>
       </c>
       <c r="I257" s="18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J257" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="K257" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L257" s="18" t="s">
         <v>693</v>
@@ -26286,20 +26319,20 @@
         <v>157</v>
       </c>
       <c r="F258" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="H258" s="21"/>
       <c r="I258" s="21" t="s">
         <v>158</v>
       </c>
       <c r="J258" s="21" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="K258" s="21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L258" s="29" t="s">
         <v>693</v>
@@ -26318,7 +26351,7 @@
         <v>352</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F259" s="18" t="s">
         <v>1106</v>
@@ -26326,13 +26359,13 @@
       <c r="G259" s="18"/>
       <c r="H259" s="18"/>
       <c r="I259" s="18" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J259" s="18" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K259" s="18" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L259" s="18" t="s">
         <v>693</v>
@@ -26346,7 +26379,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>354</v>
       </c>
@@ -26364,10 +26397,10 @@
         <v>160</v>
       </c>
       <c r="J260" s="18" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="K260" s="18" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L260" s="18" t="s">
         <v>693</v>
@@ -26381,12 +26414,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F261" s="18" t="s">
         <v>1106</v>
@@ -26396,13 +26429,13 @@
         <v>612</v>
       </c>
       <c r="I261" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J261" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="K261" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L261" s="29" t="s">
         <v>693</v>
@@ -26416,12 +26449,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F262" s="18" t="s">
         <v>1106</v>
@@ -26431,13 +26464,13 @@
         <v>612</v>
       </c>
       <c r="I262" s="18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J262" s="18" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K262" s="18" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="L262" s="18" t="s">
         <v>693</v>
@@ -26459,20 +26492,20 @@
         <v>187</v>
       </c>
       <c r="F263" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G263" s="21" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="H263" s="21"/>
       <c r="I263" s="21" t="s">
         <v>188</v>
       </c>
       <c r="J263" s="21" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="K263" s="21" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L263" s="29" t="s">
         <v>693</v>
@@ -26491,20 +26524,20 @@
         <v>360</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F264" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H264" s="18"/>
       <c r="I264" s="18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J264" s="18" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K264" s="18" t="s">
         <v>761</v>
@@ -26521,12 +26554,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F265" s="18" t="s">
         <v>1106</v>
@@ -26536,13 +26569,13 @@
         <v>612</v>
       </c>
       <c r="I265" s="18" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J265" s="18" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K265" s="18" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L265" s="18" t="s">
         <v>693</v>
@@ -26556,12 +26589,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F266" s="18" t="s">
         <v>1106</v>
@@ -26571,13 +26604,13 @@
         <v>612</v>
       </c>
       <c r="I266" s="21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J266" s="21" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K266" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L266" s="29" t="s">
         <v>693</v>
@@ -26591,12 +26624,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>364</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F267" s="18" t="s">
         <v>1106</v>
@@ -26606,13 +26639,13 @@
         <v>604</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J267" s="18" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K267" s="18" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L267" s="18" t="s">
         <v>693</v>
@@ -26626,12 +26659,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F268" s="21" t="s">
         <v>1106</v>
@@ -26641,13 +26674,13 @@
         <v>612</v>
       </c>
       <c r="I268" s="21" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J268" s="21" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K268" s="21" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L268" s="29" t="s">
         <v>693</v>
@@ -26669,7 +26702,7 @@
         <v>6</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F269" s="21" t="s">
         <v>1106</v>
@@ -26707,7 +26740,7 @@
         <v>8</v>
       </c>
       <c r="E270" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F270" s="21" t="s">
         <v>1106</v>
@@ -26723,7 +26756,7 @@
         <v>223</v>
       </c>
       <c r="K270" s="21" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L270" s="29" t="s">
         <v>693</v>
@@ -26745,7 +26778,7 @@
         <v>10</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F271" s="21" t="s">
         <v>1106</v>
@@ -26758,10 +26791,10 @@
         <v>11</v>
       </c>
       <c r="J271" s="18" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K271" s="18" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L271" s="18" t="s">
         <v>693</v>
@@ -26775,12 +26808,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F272" s="21" t="s">
         <v>1106</v>
@@ -26790,13 +26823,13 @@
         <v>612</v>
       </c>
       <c r="I272" s="21" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J272" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K272" s="21" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="L272" s="29" t="s">
         <v>693</v>
@@ -26815,23 +26848,23 @@
         <v>370</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F273" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H273" s="18"/>
       <c r="I273" s="18" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J273" s="18" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K273" s="18" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L273" s="18" t="s">
         <v>693</v>
@@ -26853,7 +26886,7 @@
         <v>12</v>
       </c>
       <c r="E274" s="30" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F274" s="21" t="s">
         <v>1106</v>
@@ -26866,10 +26899,10 @@
         <v>13</v>
       </c>
       <c r="J274" s="21" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K274" s="21" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="L274" s="29" t="s">
         <v>693</v>
@@ -26891,7 +26924,7 @@
         <v>14</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F275" s="21" t="s">
         <v>1106</v>
@@ -26904,10 +26937,10 @@
         <v>15</v>
       </c>
       <c r="J275" s="18" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K275" s="18" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L275" s="18" t="s">
         <v>693</v>
@@ -26921,7 +26954,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -26939,10 +26972,10 @@
         <v>17</v>
       </c>
       <c r="J276" s="21" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="K276" s="21" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L276" s="29" t="s">
         <v>693</v>
@@ -26961,23 +26994,23 @@
         <v>374</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F277" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H277" s="18"/>
       <c r="I277" s="18" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J277" s="18" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K277" s="18" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="L277" s="18" t="s">
         <v>693</v>
@@ -26996,23 +27029,23 @@
         <v>375</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F278" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H278" s="21"/>
       <c r="I278" s="21" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="J278" s="21" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K278" s="21" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L278" s="29" t="s">
         <v>693</v>
@@ -27031,23 +27064,23 @@
         <v>376</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F279" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H279" s="18"/>
       <c r="I279" s="18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J279" s="18" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K279" s="18" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L279" s="18" t="s">
         <v>693</v>
@@ -27066,23 +27099,23 @@
         <v>377</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F280" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H280" s="21"/>
       <c r="I280" s="21" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J280" s="21" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="K280" s="21" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L280" s="29" t="s">
         <v>693</v>
@@ -27101,23 +27134,23 @@
         <v>378</v>
       </c>
       <c r="B281" s="18" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F281" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H281" s="18"/>
       <c r="I281" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J281" s="18" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="K281" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="L281" s="18" t="s">
         <v>693</v>
@@ -27136,23 +27169,23 @@
         <v>379</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F282" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H282" s="21"/>
       <c r="I282" s="21" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J282" s="21" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="K282" s="21" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="L282" s="29" t="s">
         <v>693</v>
@@ -27171,7 +27204,7 @@
         <v>380</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F283" s="18" t="s">
         <v>1106</v>
@@ -27179,13 +27212,13 @@
       <c r="G283" s="18"/>
       <c r="H283" s="18"/>
       <c r="I283" s="18" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J283" s="18" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K283" s="18" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="L283" s="18" t="s">
         <v>693</v>
@@ -27204,7 +27237,7 @@
         <v>381</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F284" s="21" t="s">
         <v>1106</v>
@@ -27212,13 +27245,13 @@
       <c r="G284" s="21"/>
       <c r="H284" s="21"/>
       <c r="I284" s="21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J284" s="21" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K284" s="21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L284" s="29" t="s">
         <v>693</v>
@@ -27237,23 +27270,23 @@
         <v>382</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F285" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G285" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H285" s="18"/>
       <c r="I285" s="18" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J285" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K285" s="18" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L285" s="18" t="s">
         <v>693</v>
@@ -27272,7 +27305,7 @@
         <v>385</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F286" s="21" t="s">
         <v>1106</v>
@@ -27280,13 +27313,13 @@
       <c r="G286" s="21"/>
       <c r="H286" s="21"/>
       <c r="I286" s="21" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J286" s="21" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K286" s="21" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="L286" s="29" t="s">
         <v>693</v>
@@ -27305,10 +27338,10 @@
         <v>386</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C287" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F287" s="18" t="s">
         <v>1106</v>
@@ -27316,13 +27349,13 @@
       <c r="G287" s="18"/>
       <c r="H287" s="18"/>
       <c r="I287" s="18" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J287" s="18" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="K287" s="18" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="L287" s="18" t="s">
         <v>693</v>
@@ -27341,7 +27374,7 @@
         <v>387</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F288" s="21" t="s">
         <v>1106</v>
@@ -27349,13 +27382,13 @@
       <c r="G288" s="21"/>
       <c r="H288" s="21"/>
       <c r="I288" s="21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J288" s="21" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K288" s="21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L288" s="29" t="s">
         <v>693</v>
@@ -27369,12 +27402,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>388</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>1157</v>
+        <v>1156</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D289" s="58">
+        <v>42986</v>
       </c>
       <c r="F289" s="18" t="s">
         <v>1106</v>
@@ -27384,13 +27423,13 @@
         <v>604</v>
       </c>
       <c r="I289" s="18" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J289" s="18" t="s">
-        <v>1155</v>
+        <v>2237</v>
       </c>
       <c r="K289" s="18" t="s">
-        <v>900</v>
+        <v>2236</v>
       </c>
       <c r="L289" s="18" t="s">
         <v>693</v>
@@ -27404,7 +27443,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -27439,7 +27478,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>390</v>
       </c>
@@ -27474,7 +27513,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>391</v>
       </c>
@@ -27509,7 +27548,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27544,7 +27583,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -27590,7 +27629,7 @@
         <v>496</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F295" s="18" t="s">
         <v>1106</v>
@@ -27631,7 +27670,7 @@
         <v>496</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F296" s="18" t="s">
         <v>1106</v>
@@ -27661,7 +27700,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -27707,7 +27746,7 @@
         <v>496</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F298" s="18" t="s">
         <v>1106</v>
@@ -27737,7 +27776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -27772,7 +27811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>399</v>
       </c>
@@ -27807,7 +27846,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -27853,7 +27892,7 @@
         <v>496</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F302" s="18" t="s">
         <v>1106</v>
@@ -27893,10 +27932,10 @@
       <c r="C303" s="27"/>
       <c r="D303" s="27"/>
       <c r="F303" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G303" s="18" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H303" s="18"/>
       <c r="I303" s="18" t="s">
@@ -27930,10 +27969,10 @@
       <c r="C304" s="28"/>
       <c r="D304" s="28"/>
       <c r="F304" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G304" s="18" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H304" s="21"/>
       <c r="I304" s="21" t="s">
@@ -27967,10 +28006,10 @@
       <c r="C305" s="27"/>
       <c r="D305" s="27"/>
       <c r="F305" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G305" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H305" s="18"/>
       <c r="I305" s="18" t="s">
@@ -28004,10 +28043,10 @@
       <c r="C306" s="28"/>
       <c r="D306" s="28"/>
       <c r="F306" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G306" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H306" s="21"/>
       <c r="I306" s="21" t="s">
@@ -28041,10 +28080,10 @@
       <c r="C307" s="27"/>
       <c r="D307" s="27"/>
       <c r="F307" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G307" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H307" s="18"/>
       <c r="I307" s="18" t="s">
@@ -28078,10 +28117,10 @@
       <c r="C308" s="28"/>
       <c r="D308" s="28"/>
       <c r="F308" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G308" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H308" s="21"/>
       <c r="I308" s="21" t="s">
@@ -28115,10 +28154,10 @@
       <c r="C309" s="27"/>
       <c r="D309" s="27"/>
       <c r="F309" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G309" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H309" s="18"/>
       <c r="I309" s="18" t="s">
@@ -28152,10 +28191,10 @@
       <c r="C310" s="28"/>
       <c r="D310" s="28"/>
       <c r="F310" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G310" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H310" s="21"/>
       <c r="I310" s="21" t="s">
@@ -28189,10 +28228,10 @@
       <c r="C311" s="27"/>
       <c r="D311" s="27"/>
       <c r="F311" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G311" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H311" s="18"/>
       <c r="I311" s="18" t="s">
@@ -28226,10 +28265,10 @@
       <c r="C312" s="28"/>
       <c r="D312" s="28"/>
       <c r="F312" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G312" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H312" s="21"/>
       <c r="I312" s="21" t="s">
@@ -28263,10 +28302,10 @@
       <c r="C313" s="27"/>
       <c r="D313" s="27"/>
       <c r="F313" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G313" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H313" s="18"/>
       <c r="I313" s="18" t="s">
@@ -28370,10 +28409,10 @@
       <c r="C316" s="28"/>
       <c r="D316" s="28"/>
       <c r="F316" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H316" s="21"/>
       <c r="I316" s="21" t="s">
@@ -28792,10 +28831,10 @@
       <c r="C328" s="28"/>
       <c r="D328" s="28"/>
       <c r="F328" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G328" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H328" s="21"/>
       <c r="I328" s="21" t="s">
@@ -28899,10 +28938,10 @@
       <c r="C331" s="27"/>
       <c r="D331" s="27"/>
       <c r="F331" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G331" s="18" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H331" s="18"/>
       <c r="I331" s="18" t="s">
@@ -29216,10 +29255,10 @@
       <c r="C340" s="28"/>
       <c r="D340" s="28"/>
       <c r="F340" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H340" s="21"/>
       <c r="I340" s="21" t="s">
@@ -29253,10 +29292,10 @@
       <c r="C341" s="27"/>
       <c r="D341" s="27"/>
       <c r="F341" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G341" s="18" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="H341" s="18"/>
       <c r="I341" s="18" t="s">
@@ -29360,10 +29399,10 @@
       <c r="C344" s="28"/>
       <c r="D344" s="28"/>
       <c r="F344" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G344" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H344" s="21"/>
       <c r="I344" s="21" t="s">
@@ -29642,10 +29681,10 @@
       <c r="C352" s="27"/>
       <c r="D352" s="27"/>
       <c r="F352" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G352" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H352" s="18"/>
       <c r="I352" s="18" t="s">
@@ -29679,10 +29718,10 @@
       <c r="C353" s="28"/>
       <c r="D353" s="28"/>
       <c r="F353" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G353" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H353" s="21"/>
       <c r="I353" s="21" t="s">
@@ -29961,10 +30000,10 @@
       <c r="C361" s="28"/>
       <c r="D361" s="28"/>
       <c r="F361" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G361" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H361" s="21"/>
       <c r="I361" s="21" t="s">
@@ -30033,10 +30072,10 @@
       <c r="C363" s="28"/>
       <c r="D363" s="28"/>
       <c r="F363" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G363" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H363" s="21"/>
       <c r="I363" s="21" t="s">
@@ -30070,10 +30109,10 @@
       <c r="C364" s="27"/>
       <c r="D364" s="27"/>
       <c r="F364" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G364" s="18" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="H364" s="18"/>
       <c r="I364" s="18" t="s">
@@ -30140,7 +30179,7 @@
         <v>891</v>
       </c>
       <c r="C366" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D366" s="28"/>
       <c r="F366" s="21" t="s">
@@ -30175,7 +30214,7 @@
         <v>889</v>
       </c>
       <c r="C367" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D367" s="27"/>
       <c r="F367" s="18" t="s">
@@ -30210,7 +30249,7 @@
         <v>887</v>
       </c>
       <c r="C368" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D368" s="28"/>
       <c r="F368" s="21" t="s">
@@ -30245,7 +30284,7 @@
         <v>885</v>
       </c>
       <c r="C369" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D369" s="27"/>
       <c r="F369" s="18" t="s">
@@ -30280,7 +30319,7 @@
         <v>112</v>
       </c>
       <c r="C370" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D370" s="28"/>
       <c r="F370" s="21" t="s">
@@ -30317,7 +30356,7 @@
         <v>881</v>
       </c>
       <c r="C371" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D371" s="27"/>
       <c r="F371" s="18" t="s">
@@ -30352,7 +30391,7 @@
         <v>879</v>
       </c>
       <c r="C372" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D372" s="28"/>
       <c r="F372" s="21" t="s">
@@ -30387,7 +30426,7 @@
         <v>877</v>
       </c>
       <c r="C373" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D373" s="27"/>
       <c r="F373" s="18" t="s">
@@ -30422,7 +30461,7 @@
         <v>875</v>
       </c>
       <c r="C374" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D374" s="28"/>
       <c r="F374" s="21" t="s">
@@ -30457,7 +30496,7 @@
         <v>873</v>
       </c>
       <c r="C375" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D375" s="28"/>
       <c r="F375" s="21" t="s">
@@ -30492,7 +30531,7 @@
         <v>871</v>
       </c>
       <c r="C376" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D376" s="27"/>
       <c r="F376" s="18" t="s">
@@ -30527,7 +30566,7 @@
         <v>869</v>
       </c>
       <c r="C377" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D377" s="28"/>
       <c r="F377" s="21" t="s">
@@ -30562,7 +30601,7 @@
         <v>867</v>
       </c>
       <c r="C378" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D378" s="27"/>
       <c r="F378" s="18" t="s">
@@ -30597,7 +30636,7 @@
         <v>865</v>
       </c>
       <c r="C379" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D379" s="28"/>
       <c r="F379" s="21" t="s">
@@ -30632,7 +30671,7 @@
         <v>862</v>
       </c>
       <c r="C380" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D380" s="27"/>
       <c r="F380" s="18" t="s">
@@ -30667,7 +30706,7 @@
         <v>860</v>
       </c>
       <c r="C381" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D381" s="28"/>
       <c r="F381" s="21" t="s">
@@ -30702,7 +30741,7 @@
         <v>858</v>
       </c>
       <c r="C382" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D382" s="27"/>
       <c r="F382" s="18" t="s">
@@ -30737,7 +30776,7 @@
         <v>856</v>
       </c>
       <c r="C383" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D383" s="28"/>
       <c r="F383" s="21" t="s">
@@ -30772,7 +30811,7 @@
         <v>854</v>
       </c>
       <c r="C384" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D384" s="27"/>
       <c r="F384" s="18" t="s">
@@ -30807,7 +30846,7 @@
         <v>852</v>
       </c>
       <c r="C385" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D385" s="28"/>
       <c r="F385" s="21" t="s">
@@ -30842,7 +30881,7 @@
         <v>850</v>
       </c>
       <c r="C386" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D386" s="28"/>
       <c r="F386" s="21" t="s">
@@ -30877,7 +30916,7 @@
         <v>848</v>
       </c>
       <c r="C387" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D387" s="27"/>
       <c r="F387" s="18" t="s">
@@ -30912,7 +30951,7 @@
         <v>115</v>
       </c>
       <c r="C388" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D388" s="28"/>
       <c r="F388" s="21" t="s">
@@ -31392,10 +31431,10 @@
       <c r="C402" s="28"/>
       <c r="D402" s="28"/>
       <c r="F402" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G402" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="H402" s="21"/>
       <c r="I402" s="21" t="s">
@@ -31557,10 +31596,10 @@
       <c r="C407" s="28"/>
       <c r="D407" s="28"/>
       <c r="F407" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G407" s="21" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H407" s="21"/>
       <c r="I407" s="21" t="s">
@@ -31664,10 +31703,10 @@
       <c r="C410" s="27"/>
       <c r="D410" s="27"/>
       <c r="F410" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G410" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H410" s="18"/>
       <c r="I410" s="18" t="s">
@@ -31701,10 +31740,10 @@
       <c r="C411" s="28"/>
       <c r="D411" s="28"/>
       <c r="F411" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G411" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H411" s="21"/>
       <c r="I411" s="21" t="s">
@@ -31738,10 +31777,10 @@
       <c r="C412" s="27"/>
       <c r="D412" s="27"/>
       <c r="F412" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G412" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H412" s="18"/>
       <c r="I412" s="18" t="s">
@@ -31775,10 +31814,10 @@
       <c r="C413" s="28"/>
       <c r="D413" s="28"/>
       <c r="F413" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G413" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H413" s="21"/>
       <c r="I413" s="21" t="s">
@@ -31812,10 +31851,10 @@
       <c r="C414" s="27"/>
       <c r="D414" s="27"/>
       <c r="F414" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G414" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H414" s="18"/>
       <c r="I414" s="18" t="s">
@@ -31849,10 +31888,10 @@
       <c r="C415" s="28"/>
       <c r="D415" s="28"/>
       <c r="F415" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G415" s="18" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H415" s="21"/>
       <c r="I415" s="21" t="s">
@@ -32061,10 +32100,10 @@
       <c r="C421" s="28"/>
       <c r="D421" s="28"/>
       <c r="F421" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G421" s="21" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H421" s="21"/>
       <c r="I421" s="21" t="s">
@@ -32448,10 +32487,10 @@
       <c r="C432" s="27"/>
       <c r="D432" s="27"/>
       <c r="F432" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G432" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H432" s="18"/>
       <c r="I432" s="18" t="s">
@@ -32485,10 +32524,10 @@
       <c r="C433" s="28"/>
       <c r="D433" s="28"/>
       <c r="F433" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G433" s="21" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H433" s="21"/>
       <c r="I433" s="21" t="s">
@@ -32592,10 +32631,10 @@
       <c r="C436" s="27"/>
       <c r="D436" s="27"/>
       <c r="F436" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G436" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H436" s="18"/>
       <c r="I436" s="18" t="s">
@@ -32629,10 +32668,10 @@
       <c r="C437" s="28"/>
       <c r="D437" s="28"/>
       <c r="F437" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G437" s="21" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="H437" s="21"/>
       <c r="I437" s="21" t="s">
@@ -32666,10 +32705,10 @@
       <c r="C438" s="27"/>
       <c r="D438" s="27"/>
       <c r="F438" s="18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G438" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H438" s="18"/>
       <c r="I438" s="18" t="s">
@@ -32835,6 +32874,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
@@ -32845,7 +32887,7 @@
     </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <filter val="Rahul"/>
+        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32858,16 +32900,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="4" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39.44140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="73.44140625" style="1" customWidth="1"/>
@@ -32878,25 +32921,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>417</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
@@ -32908,37 +32951,37 @@
         <v>218</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="T1" s="35" t="s">
         <v>490</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="V1" s="35" t="s">
         <v>2</v>
@@ -32949,7 +32992,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1106</v>
@@ -32958,20 +33001,20 @@
         <v>599</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>598</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>693</v>
@@ -32982,7 +33025,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1106</v>
@@ -32991,20 +33034,20 @@
         <v>599</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>604</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>693</v>
@@ -33015,7 +33058,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1106</v>
@@ -33024,20 +33067,20 @@
         <v>599</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
         <v>612</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>693</v>
@@ -33048,7 +33091,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1106</v>
@@ -33057,20 +33100,20 @@
         <v>599</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>689</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>693</v>
@@ -33081,7 +33124,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1106</v>
@@ -33090,20 +33133,20 @@
         <v>599</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
         <v>604</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33111,7 +33154,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1106</v>
@@ -33120,20 +33163,20 @@
         <v>599</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>612</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33141,7 +33184,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>1106</v>
@@ -33153,13 +33196,13 @@
         <v>689</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -33167,10 +33210,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -33205,10 +33248,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -33221,7 +33264,7 @@
         <v>283</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>693</v>
@@ -33243,10 +33286,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -33256,7 +33299,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>286</v>
@@ -33281,7 +33324,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>1106</v>
@@ -33290,13 +33333,13 @@
         <v>1106</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>693</v>
@@ -33318,7 +33361,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1106</v>
@@ -33327,20 +33370,20 @@
         <v>599</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>693</v>
@@ -33362,19 +33405,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>693</v>
@@ -33396,7 +33439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1106</v>
@@ -33405,19 +33448,19 @@
         <v>599</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>693</v>
@@ -33439,7 +33482,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1106</v>
@@ -33448,20 +33491,20 @@
         <v>599</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>693</v>
@@ -33483,7 +33526,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>1106</v>
@@ -33492,13 +33535,13 @@
         <v>598</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>693</v>
@@ -33520,7 +33563,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>1106</v>
@@ -33529,13 +33572,13 @@
         <v>612</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>693</v>
@@ -33557,7 +33600,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>1106</v>
@@ -33566,13 +33609,13 @@
         <v>612</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>693</v>
@@ -33594,7 +33637,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>1106</v>
@@ -33603,19 +33646,19 @@
         <v>599</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>693</v>
@@ -33637,7 +33680,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1106</v>
@@ -33646,19 +33689,19 @@
         <v>599</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>693</v>
@@ -33675,27 +33718,27 @@
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>693</v>
@@ -33717,7 +33760,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1106</v>
@@ -33726,19 +33769,19 @@
         <v>599</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="K23" s="44" t="s">
         <v>693</v>
@@ -33760,7 +33803,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>1106</v>
@@ -33769,13 +33812,13 @@
         <v>604</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="K24" s="44" t="s">
         <v>693</v>
@@ -33797,7 +33840,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C25" s="55" t="s">
         <v>1106</v>
@@ -33806,13 +33849,13 @@
         <v>612</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="K25" s="44" t="s">
         <v>693</v>
@@ -33834,7 +33877,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1106</v>
@@ -33843,19 +33886,19 @@
         <v>599</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>693</v>
@@ -33884,13 +33927,13 @@
         <v>598</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="43"/>
@@ -33910,19 +33953,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>1106</v>
+        <v>2235</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="J28" s="56"/>
       <c r="K28" s="44" t="s">
@@ -33945,7 +33988,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>1106</v>
@@ -33954,13 +33997,13 @@
         <v>604</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="K29" s="44" t="s">
         <v>693</v>
@@ -33982,22 +34025,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>1106</v>
+        <v>2235</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>693</v>
@@ -34019,7 +34062,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>1106</v>
@@ -34028,13 +34071,13 @@
         <v>598</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="K31" s="44" t="s">
         <v>693</v>
@@ -34056,7 +34099,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1106</v>
@@ -34065,20 +34108,20 @@
         <v>599</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>693</v>
@@ -34100,7 +34143,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1106</v>
@@ -34109,20 +34152,20 @@
         <v>599</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="F33" s="52"/>
       <c r="G33" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="K33" s="44" t="s">
         <v>693</v>
@@ -34142,7 +34185,7 @@
   </sheetData>
   <autoFilter ref="A1:V33">
     <filterColumn colId="2">
-      <filters blank="1">
+      <filters>
         <filter val="Yes"/>
       </filters>
     </filterColumn>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\Rahul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="2239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="2240">
   <si>
     <t>Name</t>
   </si>
@@ -11422,7 +11422,10 @@
 </t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Feature not yet implemented</t>
+  </si>
+  <si>
+    <t>Sprint-1 Sep-8 Sep</t>
   </si>
 </sst>
 </file>
@@ -11590,7 +11593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11750,7 +11753,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16962,10 +16964,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="140" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22149,7 +22149,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>208</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>209</v>
       </c>
@@ -22831,12 +22831,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
       <c r="B159" s="21" t="s">
         <v>1547</v>
+      </c>
+      <c r="C159" t="s">
+        <v>496</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2239</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>1106</v>
@@ -23047,7 +23053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -23193,12 +23199,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
       <c r="B169" s="21" t="s">
         <v>1512</v>
+      </c>
+      <c r="C169" t="s">
+        <v>496</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>2239</v>
       </c>
       <c r="F169" s="21" t="s">
         <v>1106</v>
@@ -23306,10 +23318,10 @@
         <v>1500</v>
       </c>
       <c r="C172" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D172" s="58">
-        <v>42986</v>
+        <v>496</v>
+      </c>
+      <c r="D172" s="58" t="s">
+        <v>2239</v>
       </c>
       <c r="F172" s="18" t="s">
         <v>1106</v>
@@ -23446,7 +23458,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>252</v>
       </c>
@@ -23670,10 +23682,10 @@
         <v>1492</v>
       </c>
       <c r="C182" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D182" s="59">
-        <v>42986</v>
+        <v>496</v>
+      </c>
+      <c r="D182" s="58" t="s">
+        <v>2239</v>
       </c>
       <c r="F182" s="18" t="s">
         <v>1106</v>
@@ -26379,7 +26391,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>354</v>
       </c>
@@ -26449,7 +26461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
@@ -26624,7 +26636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>364</v>
       </c>
@@ -27410,10 +27422,10 @@
         <v>1156</v>
       </c>
       <c r="C289" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D289" s="58">
-        <v>42986</v>
+        <v>496</v>
+      </c>
+      <c r="D289" s="58" t="s">
+        <v>2239</v>
       </c>
       <c r="F289" s="18" t="s">
         <v>1106</v>
@@ -27443,7 +27455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -27478,7 +27490,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>390</v>
       </c>
@@ -27513,7 +27525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>391</v>
       </c>
@@ -27548,7 +27560,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27583,7 +27595,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -27700,7 +27712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -27776,7 +27788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -27811,7 +27823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>399</v>
       </c>
@@ -27846,7 +27858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -31071,20 +31083,26 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>509</v>
       </c>
       <c r="B392" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="C392" s="28"/>
-      <c r="D392" s="28"/>
+      <c r="C392" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>2239</v>
+      </c>
       <c r="F392" s="21" t="s">
         <v>1106</v>
       </c>
       <c r="G392" s="21"/>
-      <c r="H392" s="21"/>
+      <c r="H392" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I392" s="21" t="s">
         <v>838</v>
       </c>
@@ -32875,19 +32893,13 @@
   </sheetData>
   <autoFilter ref="A1:P442">
     <filterColumn colId="2">
-      <filters blank="1"/>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ankit"/>
+        <filter val="Sprint-1 Sep-8 Sep"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32900,12 +32912,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
@@ -33566,7 +33578,7 @@
         <v>2184</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>1106</v>
+        <v>2238</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>612</v>
@@ -33595,7 +33607,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -33604,6 +33616,12 @@
       </c>
       <c r="C19" s="55" t="s">
         <v>1106</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2239</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>612</v>
@@ -33808,6 +33826,12 @@
       <c r="C24" s="55" t="s">
         <v>1106</v>
       </c>
+      <c r="D24" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2239</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>604</v>
       </c>
@@ -33835,7 +33859,7 @@
       <c r="U24" s="43"/>
       <c r="V24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -33844,6 +33868,12 @@
       </c>
       <c r="C25" s="55" t="s">
         <v>1106</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2239</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>612</v>
@@ -33948,7 +33978,7 @@
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
     </row>
-    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -33993,6 +34023,12 @@
       <c r="C29" s="55" t="s">
         <v>1106</v>
       </c>
+      <c r="D29" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>2239</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>604</v>
       </c>
@@ -34020,7 +34056,7 @@
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
-    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -34195,6 +34231,7 @@
     <filterColumn colId="6">
       <filters>
         <filter val="Ankit"/>
+        <filter val="Rahul"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\Rahul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -16964,7 +16964,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B169" workbookViewId="0">
+    <sheetView topLeftCell="B169" workbookViewId="0">
       <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -32912,9 +32912,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32999,7 +32999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33098,7 +33098,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33191,7 +33191,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33533,7 +33533,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -33607,7 +33607,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -33650,7 +33650,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -33693,7 +33693,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -33773,7 +33773,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -33816,7 +33816,7 @@
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -33859,7 +33859,7 @@
       <c r="U24" s="43"/>
       <c r="V24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -33945,7 +33945,7 @@
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -34013,7 +34013,7 @@
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
     </row>
-    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -34093,7 +34093,7 @@
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
-    <row r="31" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -34225,13 +34225,9 @@
         <filter val="Yes"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="Ankit"/>
-        <filter val="Rahul"/>
+        <filter val="Pritam"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5425" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="2241">
   <si>
     <t>Name</t>
   </si>
@@ -11426,6 +11426,9 @@
   </si>
   <si>
     <t>Sprint-1 Sep-8 Sep</t>
+  </si>
+  <si>
+    <t>Sprint 1-Sep  - 8Sep</t>
   </si>
 </sst>
 </file>
@@ -11593,7 +11596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11752,7 +11755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16964,8 +16966,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22842,7 +22844,7 @@
         <v>496</v>
       </c>
       <c r="D159" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>1106</v>
@@ -23209,8 +23211,8 @@
       <c r="C169" t="s">
         <v>496</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>2239</v>
+      <c r="D169" t="s">
+        <v>2240</v>
       </c>
       <c r="F169" s="21" t="s">
         <v>1106</v>
@@ -23320,8 +23322,8 @@
       <c r="C172" t="s">
         <v>496</v>
       </c>
-      <c r="D172" s="58" t="s">
-        <v>2239</v>
+      <c r="D172" t="s">
+        <v>2240</v>
       </c>
       <c r="F172" s="18" t="s">
         <v>1106</v>
@@ -23684,8 +23686,8 @@
       <c r="C182" t="s">
         <v>496</v>
       </c>
-      <c r="D182" s="58" t="s">
-        <v>2239</v>
+      <c r="D182" t="s">
+        <v>2240</v>
       </c>
       <c r="F182" s="18" t="s">
         <v>1106</v>
@@ -25850,12 +25852,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>337</v>
       </c>
       <c r="B245" s="21" t="s">
         <v>1300</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2240</v>
       </c>
       <c r="F245" s="18" t="s">
         <v>1106</v>
@@ -26461,19 +26466,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>1246</v>
       </c>
+      <c r="C262" t="s">
+        <v>496</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2240</v>
+      </c>
       <c r="F262" s="18" t="s">
         <v>1106</v>
       </c>
       <c r="G262" s="18"/>
       <c r="H262" s="18" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I262" s="18" t="s">
         <v>1245</v>
@@ -27424,8 +27435,8 @@
       <c r="C289" t="s">
         <v>496</v>
       </c>
-      <c r="D289" s="58" t="s">
-        <v>2239</v>
+      <c r="D289" t="s">
+        <v>2240</v>
       </c>
       <c r="F289" s="18" t="s">
         <v>1106</v>
@@ -27560,19 +27571,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
       <c r="B293" s="18" t="s">
         <v>1142</v>
       </c>
+      <c r="C293" t="s">
+        <v>496</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2240</v>
+      </c>
       <c r="F293" s="18" t="s">
         <v>1106</v>
       </c>
       <c r="G293" s="18"/>
       <c r="H293" s="18" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I293" s="18" t="s">
         <v>1141</v>
@@ -31093,8 +31110,8 @@
       <c r="C392" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="D392" s="1" t="s">
-        <v>2239</v>
+      <c r="D392" t="s">
+        <v>2240</v>
       </c>
       <c r="F392" s="21" t="s">
         <v>1106</v>
@@ -32892,13 +32909,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
+        <filter val="Sprint 1-Sep  - 8Sep"/>
         <filter val="Sprint-1 Sep-8 Sep"/>
       </filters>
     </filterColumn>
@@ -32912,9 +32925,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32999,7 +33012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33098,7 +33111,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33201,7 +33214,9 @@
       <c r="C8" s="55" t="s">
         <v>1106</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
@@ -33217,7 +33232,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -33255,7 +33270,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -33293,7 +33308,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -33331,7 +33346,7 @@
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -33412,7 +33427,7 @@
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -33533,7 +33548,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -33542,6 +33557,12 @@
       </c>
       <c r="C17" s="55" t="s">
         <v>1106</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2239</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>598</v>
@@ -33570,7 +33591,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -33650,7 +33671,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -33693,7 +33714,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -33736,7 +33757,7 @@
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -33773,7 +33794,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -33945,13 +33966,19 @@
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="55" t="s">
         <v>1106</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2239</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>598</v>
@@ -33978,7 +34005,7 @@
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
     </row>
-    <row r="28" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -34056,7 +34083,7 @@
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
-    <row r="30" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -34103,6 +34130,12 @@
       <c r="C31" s="55" t="s">
         <v>1106</v>
       </c>
+      <c r="D31" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>494</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>598</v>
       </c>
@@ -34220,15 +34253,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V33">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Pritam"/>
-      </filters>
+    <filterColumn colId="3">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="2242">
   <si>
     <t>Name</t>
   </si>
@@ -11429,6 +11429,9 @@
   </si>
   <si>
     <t>Sprint 1-Sep  - 8Sep</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -16966,8 +16969,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A444" sqref="A444"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I231" sqref="I231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17368,7 +17372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
@@ -17403,7 +17407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>49</v>
       </c>
@@ -18740,7 +18744,9 @@
       <c r="B48" s="21" t="s">
         <v>1942</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="28" t="s">
+        <v>604</v>
+      </c>
       <c r="D48" s="28"/>
       <c r="F48" s="21" t="s">
         <v>1106</v>
@@ -18768,7 +18774,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>92</v>
       </c>
@@ -18781,7 +18787,9 @@
         <v>1106</v>
       </c>
       <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="H49" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I49" s="18" t="s">
         <v>1937</v>
       </c>
@@ -18803,7 +18811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>93</v>
       </c>
@@ -18816,7 +18824,9 @@
         <v>1106</v>
       </c>
       <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="H50" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I50" s="21" t="s">
         <v>1933</v>
       </c>
@@ -18838,7 +18848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>94</v>
       </c>
@@ -18851,7 +18861,9 @@
         <v>1106</v>
       </c>
       <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="H51" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I51" s="18" t="s">
         <v>1929</v>
       </c>
@@ -18873,7 +18885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>95</v>
       </c>
@@ -18886,7 +18898,9 @@
         <v>1106</v>
       </c>
       <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="H52" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I52" s="21" t="s">
         <v>1926</v>
       </c>
@@ -18908,7 +18922,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>96</v>
       </c>
@@ -18921,7 +18935,9 @@
         <v>1106</v>
       </c>
       <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="H53" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I53" s="18" t="s">
         <v>1923</v>
       </c>
@@ -18943,7 +18959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>97</v>
       </c>
@@ -18956,7 +18972,9 @@
         <v>1106</v>
       </c>
       <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="H54" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I54" s="21" t="s">
         <v>1919</v>
       </c>
@@ -18978,7 +18996,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>98</v>
       </c>
@@ -18991,7 +19009,9 @@
         <v>1106</v>
       </c>
       <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="H55" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I55" s="18" t="s">
         <v>1915</v>
       </c>
@@ -19013,7 +19033,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>99</v>
       </c>
@@ -19026,7 +19046,9 @@
         <v>1106</v>
       </c>
       <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="H56" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I56" s="21" t="s">
         <v>1911</v>
       </c>
@@ -20086,7 +20108,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>131</v>
       </c>
@@ -20099,7 +20121,9 @@
         <v>1106</v>
       </c>
       <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="H85" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I85" s="21" t="s">
         <v>1795</v>
       </c>
@@ -20121,7 +20145,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>132</v>
       </c>
@@ -20134,7 +20158,9 @@
         <v>1106</v>
       </c>
       <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="H86" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I86" s="18" t="s">
         <v>1791</v>
       </c>
@@ -20156,7 +20182,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>133</v>
       </c>
@@ -20169,7 +20195,9 @@
         <v>1106</v>
       </c>
       <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="H87" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I87" s="21" t="s">
         <v>1787</v>
       </c>
@@ -20191,7 +20219,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>134</v>
       </c>
@@ -20204,7 +20232,9 @@
         <v>1106</v>
       </c>
       <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="H88" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I88" s="18" t="s">
         <v>1783</v>
       </c>
@@ -20226,7 +20256,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>135</v>
       </c>
@@ -20239,7 +20269,9 @@
         <v>1106</v>
       </c>
       <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="H89" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I89" s="21" t="s">
         <v>1779</v>
       </c>
@@ -20261,7 +20293,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>136</v>
       </c>
@@ -20274,7 +20306,9 @@
         <v>1106</v>
       </c>
       <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="H90" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I90" s="18" t="s">
         <v>1775</v>
       </c>
@@ -20296,7 +20330,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>137</v>
       </c>
@@ -20309,7 +20343,9 @@
         <v>1106</v>
       </c>
       <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
+      <c r="H91" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I91" s="21" t="s">
         <v>1771</v>
       </c>
@@ -20775,7 +20811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>153</v>
       </c>
@@ -20788,7 +20824,9 @@
         <v>1106</v>
       </c>
       <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
+      <c r="H104" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I104" s="21" t="s">
         <v>584</v>
       </c>
@@ -20810,7 +20848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>154</v>
       </c>
@@ -20823,7 +20861,9 @@
         <v>1106</v>
       </c>
       <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I105" s="18" t="s">
         <v>539</v>
       </c>
@@ -20845,7 +20885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>155</v>
       </c>
@@ -20858,7 +20898,9 @@
         <v>1106</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
+      <c r="H106" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I106" s="21" t="s">
         <v>588</v>
       </c>
@@ -20880,7 +20922,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>156</v>
       </c>
@@ -20893,7 +20935,9 @@
         <v>1106</v>
       </c>
       <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="H107" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I107" s="18" t="s">
         <v>1724</v>
       </c>
@@ -20915,7 +20959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>158</v>
       </c>
@@ -20950,7 +20994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>159</v>
       </c>
@@ -20963,7 +21007,9 @@
         <v>1106</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
+      <c r="H109" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I109" s="21" t="s">
         <v>543</v>
       </c>
@@ -20985,7 +21031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>166</v>
       </c>
@@ -21057,7 +21103,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>170</v>
       </c>
@@ -21092,7 +21138,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>171</v>
       </c>
@@ -21105,7 +21151,9 @@
         <v>1106</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
+      <c r="H113" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I113" s="21" t="s">
         <v>1703</v>
       </c>
@@ -21127,7 +21175,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>172</v>
       </c>
@@ -21140,7 +21188,9 @@
         <v>1106</v>
       </c>
       <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="H114" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I114" s="18" t="s">
         <v>1699</v>
       </c>
@@ -21318,7 +21368,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>177</v>
       </c>
@@ -21358,7 +21408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>178</v>
       </c>
@@ -21437,7 +21487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>180</v>
       </c>
@@ -21477,7 +21527,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>182</v>
       </c>
@@ -21517,7 +21567,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>183</v>
       </c>
@@ -21530,7 +21580,9 @@
         <v>1106</v>
       </c>
       <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
+      <c r="H124" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I124" s="21" t="s">
         <v>1674</v>
       </c>
@@ -21552,7 +21604,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>185</v>
       </c>
@@ -21565,7 +21617,9 @@
         <v>1106</v>
       </c>
       <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
+      <c r="H125" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I125" s="21" t="s">
         <v>1670</v>
       </c>
@@ -21587,7 +21641,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>187</v>
       </c>
@@ -21600,7 +21654,9 @@
         <v>1106</v>
       </c>
       <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+      <c r="H126" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I126" s="21" t="s">
         <v>1666</v>
       </c>
@@ -21622,7 +21678,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>189</v>
       </c>
@@ -21635,7 +21691,9 @@
         <v>1106</v>
       </c>
       <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
+      <c r="H127" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I127" s="21" t="s">
         <v>1662</v>
       </c>
@@ -21657,7 +21715,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -21670,7 +21728,9 @@
         <v>1106</v>
       </c>
       <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
+      <c r="H128" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I128" s="18" t="s">
         <v>1658</v>
       </c>
@@ -21809,7 +21869,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
@@ -21846,7 +21906,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -21883,7 +21943,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -21920,7 +21980,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -21967,7 +22027,7 @@
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
       <c r="F136" s="21" t="s">
-        <v>1106</v>
+        <v>1214</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="21" t="s">
@@ -22031,7 +22091,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>205</v>
       </c>
@@ -22071,7 +22131,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>206</v>
       </c>
@@ -22111,7 +22171,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>207</v>
       </c>
@@ -22151,7 +22211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>208</v>
       </c>
@@ -22188,7 +22248,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>209</v>
       </c>
@@ -22348,7 +22408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>213</v>
       </c>
@@ -22386,7 +22446,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>214</v>
       </c>
@@ -22579,7 +22639,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22728,7 +22788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
@@ -22763,7 +22823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
@@ -22798,7 +22858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
@@ -22833,7 +22893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
@@ -22874,7 +22934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
@@ -22909,7 +22969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
@@ -22979,7 +23039,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>239</v>
       </c>
@@ -23055,7 +23115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -23128,7 +23188,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -23201,7 +23261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
@@ -23242,7 +23302,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
@@ -23277,7 +23337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
@@ -23312,7 +23372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>248</v>
       </c>
@@ -23460,7 +23520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>252</v>
       </c>
@@ -23495,7 +23555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>253</v>
       </c>
@@ -23533,7 +23593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>256</v>
       </c>
@@ -23676,7 +23736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>260</v>
       </c>
@@ -23857,7 +23917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>274</v>
       </c>
@@ -23890,7 +23950,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>275</v>
       </c>
@@ -23923,7 +23983,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>276</v>
       </c>
@@ -23956,7 +24016,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>277</v>
       </c>
@@ -23989,7 +24049,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>278</v>
       </c>
@@ -24022,7 +24082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>279</v>
       </c>
@@ -24055,7 +24115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>280</v>
       </c>
@@ -24088,7 +24148,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>281</v>
       </c>
@@ -24121,7 +24181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>282</v>
       </c>
@@ -24154,7 +24214,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>283</v>
       </c>
@@ -24187,7 +24247,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>284</v>
       </c>
@@ -24220,7 +24280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>285</v>
       </c>
@@ -24498,7 +24558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>295</v>
       </c>
@@ -24509,7 +24569,9 @@
         <v>1106</v>
       </c>
       <c r="G206" s="21"/>
-      <c r="H206" s="21"/>
+      <c r="H206" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I206" s="21" t="s">
         <v>549</v>
       </c>
@@ -24531,7 +24593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>296</v>
       </c>
@@ -24542,7 +24604,9 @@
         <v>1106</v>
       </c>
       <c r="G207" s="18"/>
-      <c r="H207" s="18"/>
+      <c r="H207" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I207" s="18" t="s">
         <v>511</v>
       </c>
@@ -24774,7 +24838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>303</v>
       </c>
@@ -24785,7 +24849,9 @@
         <v>1106</v>
       </c>
       <c r="G214" s="21"/>
-      <c r="H214" s="21"/>
+      <c r="H214" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I214" s="21" t="s">
         <v>1384</v>
       </c>
@@ -24807,7 +24873,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>304</v>
       </c>
@@ -24818,7 +24884,9 @@
         <v>1106</v>
       </c>
       <c r="G215" s="18"/>
-      <c r="H215" s="18"/>
+      <c r="H215" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I215" s="18" t="s">
         <v>1380</v>
       </c>
@@ -24840,7 +24908,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>305</v>
       </c>
@@ -24851,7 +24919,9 @@
         <v>1106</v>
       </c>
       <c r="G216" s="21"/>
-      <c r="H216" s="21"/>
+      <c r="H216" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I216" s="21" t="s">
         <v>1376</v>
       </c>
@@ -24873,7 +24943,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>306</v>
       </c>
@@ -24884,7 +24954,9 @@
         <v>1106</v>
       </c>
       <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
+      <c r="H217" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I217" s="18" t="s">
         <v>1372</v>
       </c>
@@ -24906,7 +24978,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>307</v>
       </c>
@@ -24917,7 +24989,9 @@
         <v>1106</v>
       </c>
       <c r="G218" s="21"/>
-      <c r="H218" s="21"/>
+      <c r="H218" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I218" s="21" t="s">
         <v>553</v>
       </c>
@@ -24939,7 +25013,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>308</v>
       </c>
@@ -24950,7 +25024,9 @@
         <v>1106</v>
       </c>
       <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
+      <c r="H219" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I219" s="18" t="s">
         <v>515</v>
       </c>
@@ -24972,7 +25048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>309</v>
       </c>
@@ -24983,7 +25059,9 @@
         <v>1106</v>
       </c>
       <c r="G220" s="21"/>
-      <c r="H220" s="21"/>
+      <c r="H220" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I220" s="21" t="s">
         <v>557</v>
       </c>
@@ -25005,7 +25083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>310</v>
       </c>
@@ -25016,7 +25094,9 @@
         <v>1106</v>
       </c>
       <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
+      <c r="H221" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I221" s="18" t="s">
         <v>1368</v>
       </c>
@@ -25038,7 +25118,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>311</v>
       </c>
@@ -25049,7 +25129,9 @@
         <v>1106</v>
       </c>
       <c r="G222" s="21"/>
-      <c r="H222" s="21"/>
+      <c r="H222" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I222" s="21" t="s">
         <v>517</v>
       </c>
@@ -25071,7 +25153,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>312</v>
       </c>
@@ -25082,7 +25164,9 @@
         <v>1106</v>
       </c>
       <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
+      <c r="H223" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I223" s="18" t="s">
         <v>560</v>
       </c>
@@ -25104,7 +25188,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>313</v>
       </c>
@@ -25115,7 +25199,9 @@
         <v>1106</v>
       </c>
       <c r="G224" s="21"/>
-      <c r="H224" s="21"/>
+      <c r="H224" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I224" s="21" t="s">
         <v>1364</v>
       </c>
@@ -25207,7 +25293,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>316</v>
       </c>
@@ -25218,7 +25304,9 @@
         <v>1106</v>
       </c>
       <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
+      <c r="H227" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I227" s="18" t="s">
         <v>54</v>
       </c>
@@ -25275,7 +25363,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>318</v>
       </c>
@@ -25286,7 +25374,9 @@
         <v>1106</v>
       </c>
       <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
+      <c r="H229" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I229" s="18" t="s">
         <v>1348</v>
       </c>
@@ -25308,7 +25398,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>319</v>
       </c>
@@ -25319,7 +25409,9 @@
         <v>1106</v>
       </c>
       <c r="G230" s="21"/>
-      <c r="H230" s="21"/>
+      <c r="H230" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I230" s="21" t="s">
         <v>46</v>
       </c>
@@ -25341,7 +25433,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>320</v>
       </c>
@@ -25352,7 +25444,9 @@
         <v>1106</v>
       </c>
       <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
+      <c r="H231" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I231" s="18" t="s">
         <v>50</v>
       </c>
@@ -25374,7 +25468,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>321</v>
       </c>
@@ -25385,7 +25479,9 @@
         <v>1106</v>
       </c>
       <c r="G232" s="21"/>
-      <c r="H232" s="21"/>
+      <c r="H232" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I232" s="21" t="s">
         <v>52</v>
       </c>
@@ -25407,7 +25503,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>322</v>
       </c>
@@ -25440,7 +25536,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>323</v>
       </c>
@@ -25629,7 +25725,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>331</v>
       </c>
@@ -25676,7 +25772,7 @@
         <v>1314</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>1106</v>
+        <v>1214</v>
       </c>
       <c r="G240" s="18"/>
       <c r="H240" s="18" t="s">
@@ -25703,7 +25799,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>333</v>
       </c>
@@ -25776,7 +25872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>335</v>
       </c>
@@ -25814,7 +25910,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>336</v>
       </c>
@@ -25925,7 +26021,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>339</v>
       </c>
@@ -25960,7 +26056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>341</v>
       </c>
@@ -26036,7 +26132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>343</v>
       </c>
@@ -26106,7 +26202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>345</v>
       </c>
@@ -26144,7 +26240,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>346</v>
       </c>
@@ -26182,7 +26278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>347</v>
       </c>
@@ -26217,7 +26313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>348</v>
       </c>
@@ -26255,7 +26351,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>349</v>
       </c>
@@ -26293,7 +26389,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>350</v>
       </c>
@@ -26363,7 +26459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>352</v>
       </c>
@@ -26374,7 +26470,9 @@
         <v>1106</v>
       </c>
       <c r="G259" s="18"/>
-      <c r="H259" s="18"/>
+      <c r="H259" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I259" s="18" t="s">
         <v>1255</v>
       </c>
@@ -26396,7 +26494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>354</v>
       </c>
@@ -26431,7 +26529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
@@ -26466,7 +26564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
@@ -26577,7 +26675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26612,7 +26710,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26647,7 +26745,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>364</v>
       </c>
@@ -26682,7 +26780,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
@@ -26717,7 +26815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>366</v>
       </c>
@@ -26755,7 +26853,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>367</v>
       </c>
@@ -26793,7 +26891,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>368</v>
       </c>
@@ -26831,7 +26929,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
@@ -26901,7 +26999,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>371</v>
       </c>
@@ -26939,7 +27037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>372</v>
       </c>
@@ -26977,7 +27075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -27222,7 +27320,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>380</v>
       </c>
@@ -27233,7 +27331,9 @@
         <v>1106</v>
       </c>
       <c r="G283" s="18"/>
-      <c r="H283" s="18"/>
+      <c r="H283" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I283" s="18" t="s">
         <v>1178</v>
       </c>
@@ -27255,7 +27355,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>381</v>
       </c>
@@ -27266,7 +27366,9 @@
         <v>1106</v>
       </c>
       <c r="G284" s="21"/>
-      <c r="H284" s="21"/>
+      <c r="H284" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I284" s="21" t="s">
         <v>1174</v>
       </c>
@@ -27323,7 +27425,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>385</v>
       </c>
@@ -27334,7 +27436,9 @@
         <v>1106</v>
       </c>
       <c r="G286" s="21"/>
-      <c r="H286" s="21"/>
+      <c r="H286" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I286" s="21" t="s">
         <v>1166</v>
       </c>
@@ -27392,7 +27496,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>387</v>
       </c>
@@ -27403,7 +27507,9 @@
         <v>1106</v>
       </c>
       <c r="G288" s="21"/>
-      <c r="H288" s="21"/>
+      <c r="H288" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I288" s="21" t="s">
         <v>1159</v>
       </c>
@@ -27425,7 +27531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>388</v>
       </c>
@@ -27466,7 +27572,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>389</v>
       </c>
@@ -27501,7 +27607,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>390</v>
       </c>
@@ -27536,7 +27642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>391</v>
       </c>
@@ -27571,7 +27677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27612,7 +27718,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>393</v>
       </c>
@@ -27729,7 +27835,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>396</v>
       </c>
@@ -27805,7 +27911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>398</v>
       </c>
@@ -27840,7 +27946,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>399</v>
       </c>
@@ -27875,7 +27981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>400</v>
       </c>
@@ -28358,7 +28464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -28393,7 +28499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>415</v>
       </c>
@@ -28465,7 +28571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>418</v>
       </c>
@@ -28478,7 +28584,9 @@
         <v>1106</v>
       </c>
       <c r="G317" s="18"/>
-      <c r="H317" s="18"/>
+      <c r="H317" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I317" s="18" t="s">
         <v>1051</v>
       </c>
@@ -28500,7 +28608,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>419</v>
       </c>
@@ -28513,7 +28621,9 @@
         <v>1106</v>
       </c>
       <c r="G318" s="21"/>
-      <c r="H318" s="21"/>
+      <c r="H318" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I318" s="21" t="s">
         <v>1048</v>
       </c>
@@ -28535,7 +28645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>420</v>
       </c>
@@ -28548,7 +28658,9 @@
         <v>1106</v>
       </c>
       <c r="G319" s="18"/>
-      <c r="H319" s="18"/>
+      <c r="H319" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I319" s="18" t="s">
         <v>1044</v>
       </c>
@@ -28570,7 +28682,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>421</v>
       </c>
@@ -28583,7 +28695,9 @@
         <v>1106</v>
       </c>
       <c r="G320" s="21"/>
-      <c r="H320" s="21"/>
+      <c r="H320" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I320" s="21" t="s">
         <v>1040</v>
       </c>
@@ -28605,7 +28719,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>422</v>
       </c>
@@ -28618,7 +28732,9 @@
         <v>1106</v>
       </c>
       <c r="G321" s="18"/>
-      <c r="H321" s="18"/>
+      <c r="H321" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I321" s="18" t="s">
         <v>1037</v>
       </c>
@@ -28640,7 +28756,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>423</v>
       </c>
@@ -28653,7 +28769,9 @@
         <v>1106</v>
       </c>
       <c r="G322" s="21"/>
-      <c r="H322" s="21"/>
+      <c r="H322" s="21" t="s">
+        <v>689</v>
+      </c>
       <c r="I322" s="21" t="s">
         <v>1033</v>
       </c>
@@ -28675,7 +28793,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>424</v>
       </c>
@@ -28688,7 +28806,9 @@
         <v>1106</v>
       </c>
       <c r="G323" s="18"/>
-      <c r="H323" s="18"/>
+      <c r="H323" s="18" t="s">
+        <v>689</v>
+      </c>
       <c r="I323" s="18" t="s">
         <v>1029</v>
       </c>
@@ -28710,7 +28830,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>426</v>
       </c>
@@ -28745,7 +28865,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>427</v>
       </c>
@@ -28780,7 +28900,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>429</v>
       </c>
@@ -28793,7 +28913,9 @@
         <v>1106</v>
       </c>
       <c r="G326" s="21"/>
-      <c r="H326" s="21"/>
+      <c r="H326" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I326" s="21" t="s">
         <v>190</v>
       </c>
@@ -28815,7 +28937,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>430</v>
       </c>
@@ -28828,7 +28950,9 @@
         <v>1106</v>
       </c>
       <c r="G327" s="18"/>
-      <c r="H327" s="18"/>
+      <c r="H327" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I327" s="18" t="s">
         <v>1015</v>
       </c>
@@ -28887,7 +29011,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>432</v>
       </c>
@@ -28900,7 +29024,9 @@
         <v>1106</v>
       </c>
       <c r="G329" s="18"/>
-      <c r="H329" s="18"/>
+      <c r="H329" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I329" s="18" t="s">
         <v>1007</v>
       </c>
@@ -28922,7 +29048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>433</v>
       </c>
@@ -28935,7 +29061,9 @@
         <v>1106</v>
       </c>
       <c r="G330" s="21"/>
-      <c r="H330" s="21"/>
+      <c r="H330" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I330" s="21" t="s">
         <v>192</v>
       </c>
@@ -28994,7 +29122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>435</v>
       </c>
@@ -29029,7 +29157,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>436</v>
       </c>
@@ -29064,7 +29192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>437</v>
       </c>
@@ -29099,7 +29227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>440</v>
       </c>
@@ -29112,7 +29240,9 @@
         <v>1106</v>
       </c>
       <c r="G335" s="18"/>
-      <c r="H335" s="18"/>
+      <c r="H335" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I335" s="18" t="s">
         <v>196</v>
       </c>
@@ -29134,7 +29264,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>441</v>
       </c>
@@ -29147,7 +29277,9 @@
         <v>1106</v>
       </c>
       <c r="G336" s="21"/>
-      <c r="H336" s="21"/>
+      <c r="H336" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I336" s="21" t="s">
         <v>985</v>
       </c>
@@ -29169,7 +29301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>442</v>
       </c>
@@ -29182,7 +29314,9 @@
         <v>1106</v>
       </c>
       <c r="G337" s="18"/>
-      <c r="H337" s="18"/>
+      <c r="H337" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I337" s="18" t="s">
         <v>198</v>
       </c>
@@ -29204,7 +29338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>443</v>
       </c>
@@ -29217,7 +29351,9 @@
         <v>1106</v>
       </c>
       <c r="G338" s="21"/>
-      <c r="H338" s="21"/>
+      <c r="H338" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I338" s="21" t="s">
         <v>200</v>
       </c>
@@ -29239,7 +29375,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>444</v>
       </c>
@@ -29252,7 +29388,9 @@
         <v>1106</v>
       </c>
       <c r="G339" s="18"/>
-      <c r="H339" s="18"/>
+      <c r="H339" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I339" s="18" t="s">
         <v>977</v>
       </c>
@@ -29348,7 +29486,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>449</v>
       </c>
@@ -29361,7 +29499,9 @@
         <v>1106</v>
       </c>
       <c r="G342" s="21"/>
-      <c r="H342" s="21"/>
+      <c r="H342" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I342" s="21" t="s">
         <v>204</v>
       </c>
@@ -29383,7 +29523,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>450</v>
       </c>
@@ -29396,7 +29536,9 @@
         <v>1106</v>
       </c>
       <c r="G343" s="18"/>
-      <c r="H343" s="18"/>
+      <c r="H343" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I343" s="18" t="s">
         <v>965</v>
       </c>
@@ -29455,7 +29597,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>452</v>
       </c>
@@ -29468,7 +29610,9 @@
         <v>1106</v>
       </c>
       <c r="G345" s="18"/>
-      <c r="H345" s="18"/>
+      <c r="H345" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I345" s="18" t="s">
         <v>19</v>
       </c>
@@ -29490,7 +29634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>453</v>
       </c>
@@ -29503,7 +29647,9 @@
         <v>1106</v>
       </c>
       <c r="G346" s="21"/>
-      <c r="H346" s="21"/>
+      <c r="H346" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I346" s="21" t="s">
         <v>956</v>
       </c>
@@ -29525,7 +29671,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>455</v>
       </c>
@@ -29538,7 +29684,9 @@
         <v>1106</v>
       </c>
       <c r="G347" s="21"/>
-      <c r="H347" s="21"/>
+      <c r="H347" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I347" s="21" t="s">
         <v>952</v>
       </c>
@@ -29560,7 +29708,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>456</v>
       </c>
@@ -29573,7 +29721,9 @@
         <v>1106</v>
       </c>
       <c r="G348" s="18"/>
-      <c r="H348" s="18"/>
+      <c r="H348" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I348" s="18" t="s">
         <v>948</v>
       </c>
@@ -29595,7 +29745,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>457</v>
       </c>
@@ -29608,7 +29758,9 @@
         <v>1106</v>
       </c>
       <c r="G349" s="21"/>
-      <c r="H349" s="21"/>
+      <c r="H349" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I349" s="21" t="s">
         <v>944</v>
       </c>
@@ -29630,7 +29782,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>458</v>
       </c>
@@ -29643,7 +29795,9 @@
         <v>1106</v>
       </c>
       <c r="G350" s="18"/>
-      <c r="H350" s="18"/>
+      <c r="H350" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I350" s="18" t="s">
         <v>21</v>
       </c>
@@ -29665,7 +29819,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>459</v>
       </c>
@@ -29678,7 +29832,9 @@
         <v>1106</v>
       </c>
       <c r="G351" s="21"/>
-      <c r="H351" s="21"/>
+      <c r="H351" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I351" s="21" t="s">
         <v>23</v>
       </c>
@@ -29774,7 +29930,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>463</v>
       </c>
@@ -29787,7 +29943,9 @@
         <v>1106</v>
       </c>
       <c r="G354" s="21"/>
-      <c r="H354" s="21"/>
+      <c r="H354" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I354" s="21" t="s">
         <v>928</v>
       </c>
@@ -29809,7 +29967,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>464</v>
       </c>
@@ -29822,7 +29980,9 @@
         <v>1106</v>
       </c>
       <c r="G355" s="18"/>
-      <c r="H355" s="18"/>
+      <c r="H355" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I355" s="18" t="s">
         <v>924</v>
       </c>
@@ -29844,7 +30004,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>465</v>
       </c>
@@ -29857,7 +30017,9 @@
         <v>1106</v>
       </c>
       <c r="G356" s="21"/>
-      <c r="H356" s="21"/>
+      <c r="H356" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I356" s="21" t="s">
         <v>25</v>
       </c>
@@ -29879,7 +30041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>469</v>
       </c>
@@ -29892,7 +30054,9 @@
         <v>1106</v>
       </c>
       <c r="G357" s="21"/>
-      <c r="H357" s="21"/>
+      <c r="H357" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I357" s="21" t="s">
         <v>27</v>
       </c>
@@ -29914,7 +30078,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>470</v>
       </c>
@@ -29927,7 +30091,9 @@
         <v>1106</v>
       </c>
       <c r="G358" s="18"/>
-      <c r="H358" s="18"/>
+      <c r="H358" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I358" s="18" t="s">
         <v>29</v>
       </c>
@@ -29949,7 +30115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>471</v>
       </c>
@@ -29962,7 +30128,9 @@
         <v>1106</v>
       </c>
       <c r="G359" s="21"/>
-      <c r="H359" s="21"/>
+      <c r="H359" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I359" s="21" t="s">
         <v>914</v>
       </c>
@@ -29984,7 +30152,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>472</v>
       </c>
@@ -29997,7 +30165,9 @@
         <v>1106</v>
       </c>
       <c r="G360" s="18"/>
-      <c r="H360" s="18"/>
+      <c r="H360" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I360" s="18" t="s">
         <v>910</v>
       </c>
@@ -30056,7 +30226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>474</v>
       </c>
@@ -30069,7 +30239,9 @@
         <v>1106</v>
       </c>
       <c r="G362" s="18"/>
-      <c r="H362" s="18"/>
+      <c r="H362" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I362" s="18" t="s">
         <v>902</v>
       </c>
@@ -30165,7 +30337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>477</v>
       </c>
@@ -30178,7 +30350,9 @@
         <v>1106</v>
       </c>
       <c r="G365" s="21"/>
-      <c r="H365" s="21"/>
+      <c r="H365" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I365" s="21" t="s">
         <v>894</v>
       </c>
@@ -31007,7 +31181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>506</v>
       </c>
@@ -31020,7 +31194,9 @@
         <v>1106</v>
       </c>
       <c r="G389" s="18"/>
-      <c r="H389" s="18"/>
+      <c r="H389" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I389" s="18" t="s">
         <v>844</v>
       </c>
@@ -31038,7 +31214,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>507</v>
       </c>
@@ -31069,7 +31245,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>508</v>
       </c>
@@ -31082,7 +31258,9 @@
         <v>1106</v>
       </c>
       <c r="G391" s="18"/>
-      <c r="H391" s="18"/>
+      <c r="H391" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I391" s="18" t="s">
         <v>840</v>
       </c>
@@ -31100,7 +31278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>509</v>
       </c>
@@ -31141,7 +31319,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>510</v>
       </c>
@@ -31154,7 +31332,9 @@
         <v>1106</v>
       </c>
       <c r="G393" s="18"/>
-      <c r="H393" s="18"/>
+      <c r="H393" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I393" s="18" t="s">
         <v>834</v>
       </c>
@@ -31176,7 +31356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>511</v>
       </c>
@@ -31189,7 +31369,9 @@
         <v>1106</v>
       </c>
       <c r="G394" s="21"/>
-      <c r="H394" s="21"/>
+      <c r="H394" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I394" s="21" t="s">
         <v>830</v>
       </c>
@@ -31211,7 +31393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>512</v>
       </c>
@@ -31224,7 +31406,9 @@
         <v>1106</v>
       </c>
       <c r="G395" s="18"/>
-      <c r="H395" s="18"/>
+      <c r="H395" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I395" s="18" t="s">
         <v>826</v>
       </c>
@@ -31246,7 +31430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>513</v>
       </c>
@@ -31259,7 +31443,9 @@
         <v>1106</v>
       </c>
       <c r="G396" s="21"/>
-      <c r="H396" s="21"/>
+      <c r="H396" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I396" s="21" t="s">
         <v>822</v>
       </c>
@@ -31281,7 +31467,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>514</v>
       </c>
@@ -31294,7 +31480,9 @@
         <v>1106</v>
       </c>
       <c r="G397" s="18"/>
-      <c r="H397" s="18"/>
+      <c r="H397" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I397" s="18" t="s">
         <v>818</v>
       </c>
@@ -31316,7 +31504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>515</v>
       </c>
@@ -31329,7 +31517,9 @@
         <v>1106</v>
       </c>
       <c r="G398" s="21"/>
-      <c r="H398" s="21"/>
+      <c r="H398" s="21" t="s">
+        <v>612</v>
+      </c>
       <c r="I398" s="21" t="s">
         <v>814</v>
       </c>
@@ -31351,7 +31541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>516</v>
       </c>
@@ -31386,7 +31576,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>517</v>
       </c>
@@ -31399,7 +31589,9 @@
         <v>1106</v>
       </c>
       <c r="G400" s="21"/>
-      <c r="H400" s="21"/>
+      <c r="H400" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I400" s="21" t="s">
         <v>806</v>
       </c>
@@ -31421,7 +31613,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>518</v>
       </c>
@@ -31434,7 +31626,9 @@
         <v>1106</v>
       </c>
       <c r="G401" s="18"/>
-      <c r="H401" s="18"/>
+      <c r="H401" s="18" t="s">
+        <v>604</v>
+      </c>
       <c r="I401" s="18" t="s">
         <v>802</v>
       </c>
@@ -31493,7 +31687,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>541</v>
       </c>
@@ -31506,7 +31700,9 @@
         <v>1106</v>
       </c>
       <c r="G403" s="21"/>
-      <c r="H403" s="21"/>
+      <c r="H403" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I403" s="21" t="s">
         <v>796</v>
       </c>
@@ -31524,7 +31720,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>547</v>
       </c>
@@ -31537,7 +31733,9 @@
         <v>1106</v>
       </c>
       <c r="G404" s="21"/>
-      <c r="H404" s="21"/>
+      <c r="H404" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I404" s="21" t="s">
         <v>43</v>
       </c>
@@ -31555,7 +31753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>548</v>
       </c>
@@ -31568,7 +31766,9 @@
         <v>1106</v>
       </c>
       <c r="G405" s="18"/>
-      <c r="H405" s="18"/>
+      <c r="H405" s="18" t="s">
+        <v>612</v>
+      </c>
       <c r="I405" s="18" t="s">
         <v>48</v>
       </c>
@@ -31586,7 +31786,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>564</v>
       </c>
@@ -31599,7 +31799,9 @@
         <v>1106</v>
       </c>
       <c r="G406" s="18"/>
-      <c r="H406" s="18"/>
+      <c r="H406" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I406" s="18" t="s">
         <v>794</v>
       </c>
@@ -31658,7 +31860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>570</v>
       </c>
@@ -31671,7 +31873,9 @@
         <v>1106</v>
       </c>
       <c r="G408" s="18"/>
-      <c r="H408" s="18"/>
+      <c r="H408" s="18" t="s">
+        <v>598</v>
+      </c>
       <c r="I408" s="18" t="s">
         <v>786</v>
       </c>
@@ -31693,7 +31897,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>571</v>
       </c>
@@ -31706,7 +31910,9 @@
         <v>1106</v>
       </c>
       <c r="G409" s="21"/>
-      <c r="H409" s="21"/>
+      <c r="H409" s="21" t="s">
+        <v>598</v>
+      </c>
       <c r="I409" s="21" t="s">
         <v>782</v>
       </c>
@@ -31950,7 +32156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>582</v>
       </c>
@@ -31985,7 +32191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>583</v>
       </c>
@@ -32020,7 +32226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>584</v>
       </c>
@@ -32055,7 +32261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>585</v>
       </c>
@@ -32090,7 +32296,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>586</v>
       </c>
@@ -32162,7 +32368,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>588</v>
       </c>
@@ -32197,7 +32403,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>589</v>
       </c>
@@ -32232,7 +32438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>590</v>
       </c>
@@ -32267,7 +32473,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>591</v>
       </c>
@@ -32302,7 +32508,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>592</v>
       </c>
@@ -32337,7 +32543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>593</v>
       </c>
@@ -32372,7 +32578,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>594</v>
       </c>
@@ -32407,7 +32613,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>595</v>
       </c>
@@ -32442,7 +32648,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>596</v>
       </c>
@@ -32477,7 +32683,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>597</v>
       </c>
@@ -32586,7 +32792,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>600</v>
       </c>
@@ -32621,7 +32827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>601</v>
       </c>
@@ -32767,7 +32973,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>605</v>
       </c>
@@ -32802,7 +33008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>606</v>
       </c>
@@ -32837,7 +33043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>607</v>
       </c>
@@ -32872,7 +33078,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>608</v>
       </c>
@@ -32909,10 +33115,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
       <filters>
-        <filter val="Sprint 1-Sep  - 8Sep"/>
-        <filter val="Sprint-1 Sep-8 Sep"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32927,7 +33135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5539" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="2241">
   <si>
     <t>Name</t>
   </si>
@@ -11429,9 +11429,6 @@
   </si>
   <si>
     <t>Sprint 1-Sep  - 8Sep</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -33130,12 +33127,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33220,7 +33216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33253,7 +33249,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33286,7 +33282,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -33319,7 +33315,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33352,7 +33348,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33382,7 +33378,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33591,7 +33587,7 @@
       <c r="U12" s="43"/>
       <c r="V12" s="43"/>
     </row>
-    <row r="13" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -33669,7 +33665,7 @@
       <c r="U14" s="43"/>
       <c r="V14" s="43"/>
     </row>
-    <row r="15" spans="1:22" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -33712,7 +33708,7 @@
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
     </row>
-    <row r="16" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -33756,7 +33752,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
     </row>
-    <row r="17" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -33836,7 +33832,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -33879,7 +33875,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -33922,7 +33918,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -34002,7 +33998,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
     </row>
-    <row r="23" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -34045,7 +34041,7 @@
       <c r="U23" s="43"/>
       <c r="V23" s="43"/>
     </row>
-    <row r="24" spans="1:22" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -34088,7 +34084,7 @@
       <c r="U24" s="43"/>
       <c r="V24" s="43"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -34131,7 +34127,7 @@
       <c r="U25" s="43"/>
       <c r="V25" s="43"/>
     </row>
-    <row r="26" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -34174,7 +34170,7 @@
       <c r="U26" s="43"/>
       <c r="V26" s="43"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -34248,7 +34244,7 @@
       <c r="U28" s="43"/>
       <c r="V28" s="43"/>
     </row>
-    <row r="29" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -34371,7 +34367,7 @@
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
     </row>
-    <row r="32" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -34415,7 +34411,7 @@
       <c r="U32" s="43"/>
       <c r="V32" s="43"/>
     </row>
-    <row r="33" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -34460,11 +34456,7 @@
       <c r="V33" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V33">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="2241">
   <si>
     <t>Name</t>
   </si>
@@ -10241,9 +10241,6 @@
 5. Select Start over again and select More Info option.</t>
   </si>
   <si>
-    <t>465643</t>
-  </si>
-  <si>
     <t>[1]465643</t>
   </si>
   <si>
@@ -11429,6 +11426,9 @@
   </si>
   <si>
     <t>Sprint 1-Sep  - 8Sep</t>
+  </si>
+  <si>
+    <t>No(Upsellable functionbality not working )</t>
   </si>
 </sst>
 </file>
@@ -12481,7 +12481,7 @@
         <v>687</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -16074,7 +16074,7 @@
         <v>687</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
@@ -16418,7 +16418,7 @@
     </row>
     <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>599</v>
@@ -16460,7 +16460,7 @@
     </row>
     <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>599</v>
@@ -16502,7 +16502,7 @@
     </row>
     <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>599</v>
@@ -16574,7 +16574,7 @@
         <v>612</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>639</v>
@@ -16635,7 +16635,7 @@
         <v>612</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>633</v>
@@ -16656,7 +16656,7 @@
         <v>612</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>631</v>
@@ -16677,7 +16677,7 @@
         <v>612</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>629</v>
@@ -16698,7 +16698,7 @@
         <v>612</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>618</v>
@@ -16719,7 +16719,7 @@
         <v>612</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>618</v>
@@ -16740,7 +16740,7 @@
         <v>612</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>618</v>
@@ -16761,7 +16761,7 @@
         <v>612</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>618</v>
@@ -16782,7 +16782,7 @@
         <v>612</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>618</v>
@@ -16823,7 +16823,7 @@
         <v>612</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>611</v>
@@ -16844,7 +16844,7 @@
         <v>598</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>609</v>
@@ -16864,7 +16864,7 @@
         <v>689</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>607</v>
@@ -16884,7 +16884,7 @@
         <v>689</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>116</v>
@@ -16904,7 +16904,7 @@
         <v>689</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>603</v>
@@ -16924,7 +16924,7 @@
         <v>598</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>601</v>
@@ -16935,7 +16935,7 @@
     </row>
     <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>599</v>
@@ -16944,7 +16944,7 @@
         <v>598</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>597</v>
@@ -16966,9 +16966,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I231" sqref="I231"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16988,28 +16988,28 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>1</v>
@@ -17018,22 +17018,22 @@
         <v>217</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="N1" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="O1" s="35" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
@@ -17041,7 +17041,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -17049,17 +17049,17 @@
         <v>1214</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="18" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>693</v>
@@ -17078,7 +17078,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -17086,17 +17086,17 @@
         <v>1214</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H3" s="21"/>
       <c r="I3" s="21" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>693</v>
@@ -17115,7 +17115,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -17123,17 +17123,17 @@
         <v>1214</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L4" s="29" t="s">
         <v>693</v>
@@ -17152,7 +17152,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -17160,17 +17160,17 @@
         <v>1214</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>693</v>
@@ -17189,7 +17189,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -17197,17 +17197,17 @@
         <v>1214</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="L6" s="29" t="s">
         <v>693</v>
@@ -17226,7 +17226,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -17234,17 +17234,17 @@
         <v>1214</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>693</v>
@@ -17263,7 +17263,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -17271,17 +17271,17 @@
         <v>1214</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="L8" s="29" t="s">
         <v>693</v>
@@ -17300,7 +17300,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -17308,17 +17308,17 @@
         <v>1214</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>693</v>
@@ -17337,7 +17337,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -17345,17 +17345,17 @@
         <v>1214</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>693</v>
@@ -17369,12 +17369,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -17384,13 +17384,13 @@
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>693</v>
@@ -17404,12 +17404,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>49</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -17419,13 +17419,13 @@
       <c r="G12" s="18"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>693</v>
@@ -17444,7 +17444,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -17452,14 +17452,14 @@
         <v>1214</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="K13" s="18" t="s">
         <v>761</v>
@@ -17481,7 +17481,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -17489,14 +17489,14 @@
         <v>1214</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>761</v>
@@ -17518,7 +17518,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -17526,14 +17526,14 @@
         <v>1214</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="K15" s="18" t="s">
         <v>761</v>
@@ -17555,7 +17555,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
@@ -17563,14 +17563,14 @@
         <v>1214</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K16" s="18" t="s">
         <v>761</v>
@@ -17592,7 +17592,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -17600,14 +17600,14 @@
         <v>1214</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K17" s="18" t="s">
         <v>761</v>
@@ -17629,7 +17629,7 @@
         <v>59</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
@@ -17637,14 +17637,14 @@
         <v>1214</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K18" s="18" t="s">
         <v>761</v>
@@ -17666,7 +17666,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -17674,14 +17674,14 @@
         <v>1214</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>761</v>
@@ -17703,7 +17703,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -17711,14 +17711,14 @@
         <v>1214</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J20" s="21" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>761</v>
@@ -17740,7 +17740,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -17748,14 +17748,14 @@
         <v>1214</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>761</v>
@@ -17777,7 +17777,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -17785,14 +17785,14 @@
         <v>1214</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>761</v>
@@ -17814,7 +17814,7 @@
         <v>64</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -17822,14 +17822,14 @@
         <v>1214</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>761</v>
@@ -17851,7 +17851,7 @@
         <v>65</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -17859,14 +17859,14 @@
         <v>1214</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="K24" s="18" t="s">
         <v>761</v>
@@ -17896,14 +17896,14 @@
         <v>1214</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21" t="s">
         <v>206</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K25" s="18" t="s">
         <v>761</v>
@@ -17925,7 +17925,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -17933,14 +17933,14 @@
         <v>1214</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>761</v>
@@ -17962,7 +17962,7 @@
         <v>69</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -17970,14 +17970,14 @@
         <v>1214</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="21" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="K27" s="18" t="s">
         <v>761</v>
@@ -17999,7 +17999,7 @@
         <v>70</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -18007,14 +18007,14 @@
         <v>1214</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>761</v>
@@ -18044,7 +18044,7 @@
         <v>1214</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="21" t="s">
@@ -18081,14 +18081,14 @@
         <v>1214</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
         <v>210</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="K30" s="18" t="s">
         <v>761</v>
@@ -18118,14 +18118,14 @@
         <v>1214</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
         <v>212</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="K31" s="18" t="s">
         <v>761</v>
@@ -18147,7 +18147,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -18155,14 +18155,14 @@
         <v>1214</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="K32" s="18" t="s">
         <v>761</v>
@@ -18184,7 +18184,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -18192,14 +18192,14 @@
         <v>1214</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>761</v>
@@ -18221,7 +18221,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -18229,14 +18229,14 @@
         <v>1214</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="K34" s="18" t="s">
         <v>761</v>
@@ -18258,7 +18258,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -18266,14 +18266,14 @@
         <v>1214</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="K35" s="18" t="s">
         <v>761</v>
@@ -18295,7 +18295,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -18303,14 +18303,14 @@
         <v>1214</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="K36" s="18" t="s">
         <v>761</v>
@@ -18332,7 +18332,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
@@ -18340,14 +18340,14 @@
         <v>1214</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="K37" s="18" t="s">
         <v>761</v>
@@ -18377,14 +18377,14 @@
         <v>1214</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
         <v>214</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="K38" s="18" t="s">
         <v>761</v>
@@ -18406,7 +18406,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -18414,14 +18414,14 @@
         <v>1214</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="K39" s="18" t="s">
         <v>761</v>
@@ -18443,7 +18443,7 @@
         <v>83</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
@@ -18451,14 +18451,14 @@
         <v>1214</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="J40" s="21" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="K40" s="18" t="s">
         <v>761</v>
@@ -18480,7 +18480,7 @@
         <v>84</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -18488,17 +18488,17 @@
         <v>1214</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>693</v>
@@ -18517,7 +18517,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -18525,14 +18525,14 @@
         <v>1214</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="J42" s="21" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="K42" s="21" t="s">
         <v>761</v>
@@ -18562,14 +18562,14 @@
         <v>1214</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
         <v>216</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="K43" s="18" t="s">
         <v>761</v>
@@ -18591,7 +18591,7 @@
         <v>87</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
@@ -18599,14 +18599,14 @@
         <v>1214</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="J44" s="21" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="K44" s="21" t="s">
         <v>761</v>
@@ -18628,7 +18628,7 @@
         <v>88</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -18636,14 +18636,14 @@
         <v>1214</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="K45" s="18" t="s">
         <v>761</v>
@@ -18665,7 +18665,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
@@ -18673,14 +18673,14 @@
         <v>1214</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="J46" s="21" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>761</v>
@@ -18702,7 +18702,7 @@
         <v>90</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -18710,14 +18710,14 @@
         <v>1214</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="K47" s="18" t="s">
         <v>761</v>
@@ -18739,7 +18739,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>604</v>
@@ -18751,13 +18751,13 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L48" s="29" t="s">
         <v>693</v>
@@ -18776,25 +18776,25 @@
         <v>92</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="F49" s="21" t="s">
-        <v>1106</v>
+        <v>2240</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
         <v>604</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>693</v>
@@ -18813,7 +18813,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -18825,13 +18825,13 @@
         <v>604</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L50" s="29" t="s">
         <v>693</v>
@@ -18850,7 +18850,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -18861,8 +18861,8 @@
       <c r="H51" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="I51" s="18" t="s">
-        <v>1929</v>
+      <c r="I51" s="18">
+        <v>465643</v>
       </c>
       <c r="J51" s="18" t="s">
         <v>1928</v>
@@ -19077,10 +19077,10 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="F57" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="18" t="s">
@@ -19114,10 +19114,10 @@
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="F58" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
@@ -19151,10 +19151,10 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="F59" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="18" t="s">
@@ -19188,10 +19188,10 @@
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="F60" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
@@ -19225,10 +19225,10 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="F61" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G61" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="18" t="s">
@@ -19262,10 +19262,10 @@
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="F62" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
@@ -19299,10 +19299,10 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="F63" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="18" t="s">
@@ -19336,10 +19336,10 @@
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
       <c r="F64" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
@@ -19373,10 +19373,10 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="F65" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="18" t="s">
@@ -19410,10 +19410,10 @@
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="F66" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
@@ -19447,10 +19447,10 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="F67" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="18" t="s">
@@ -19484,10 +19484,10 @@
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="F68" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G68" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
@@ -19521,10 +19521,10 @@
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
       <c r="F69" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="18" t="s">
@@ -19558,10 +19558,10 @@
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="F70" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
@@ -19595,10 +19595,10 @@
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
       <c r="F71" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="18" t="s">
@@ -19632,10 +19632,10 @@
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="F72" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
@@ -19669,10 +19669,10 @@
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
       <c r="F73" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="18" t="s">
@@ -19706,10 +19706,10 @@
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
       <c r="F74" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
@@ -19743,10 +19743,10 @@
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
       <c r="F75" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="18" t="s">
@@ -19780,10 +19780,10 @@
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
       <c r="F76" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
@@ -19817,10 +19817,10 @@
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="F77" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H77" s="21"/>
       <c r="I77" s="18" t="s">
@@ -19854,10 +19854,10 @@
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
       <c r="F78" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21" t="s">
@@ -19891,10 +19891,10 @@
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="F79" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G79" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H79" s="21"/>
       <c r="I79" s="18" t="s">
@@ -19931,7 +19931,7 @@
         <v>1214</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H80" s="21"/>
       <c r="I80" s="21" t="s">
@@ -19965,10 +19965,10 @@
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
       <c r="F81" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H81" s="21"/>
       <c r="I81" s="21" t="s">
@@ -20002,10 +20002,10 @@
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="F82" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H82" s="18"/>
       <c r="I82" s="18" t="s">
@@ -20039,10 +20039,10 @@
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
       <c r="F83" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G83" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="H83" s="21"/>
       <c r="I83" s="21" t="s">
@@ -20105,7 +20105,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>131</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>132</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>133</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>134</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>135</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>136</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>137</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>1214</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H92" s="18"/>
       <c r="I92" s="18" t="s">
@@ -20414,7 +20414,7 @@
         <v>1214</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21" t="s">
@@ -20451,7 +20451,7 @@
         <v>1214</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H94" s="18"/>
       <c r="I94" s="18" t="s">
@@ -20488,7 +20488,7 @@
         <v>1214</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21" t="s">
@@ -20525,7 +20525,7 @@
         <v>1214</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H96" s="18"/>
       <c r="I96" s="18" t="s">
@@ -20562,7 +20562,7 @@
         <v>1214</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H97" s="21"/>
       <c r="I97" s="21" t="s">
@@ -20599,7 +20599,7 @@
         <v>1214</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H98" s="18"/>
       <c r="I98" s="18" t="s">
@@ -20636,7 +20636,7 @@
         <v>1214</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H99" s="21"/>
       <c r="I99" s="21" t="s">
@@ -20673,7 +20673,7 @@
         <v>1214</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H100" s="18"/>
       <c r="I100" s="18" t="s">
@@ -20710,7 +20710,7 @@
         <v>1214</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H101" s="21"/>
       <c r="I101" s="21" t="s">
@@ -20747,7 +20747,7 @@
         <v>1214</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H102" s="18"/>
       <c r="I102" s="18" t="s">
@@ -20784,7 +20784,7 @@
         <v>1214</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21" t="s">
@@ -20845,7 +20845,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>154</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>155</v>
       </c>
@@ -20956,7 +20956,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>158</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>159</v>
       </c>
@@ -21028,7 +21028,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>166</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>1214</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H111" s="21"/>
       <c r="I111" s="21" t="s">
@@ -21100,7 +21100,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>170</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>171</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>172</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>177</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>178</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>180</v>
       </c>
@@ -21524,7 +21524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>182</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>183</v>
       </c>
@@ -21601,7 +21601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>185</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>187</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>189</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
@@ -21903,7 +21903,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -21977,7 +21977,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -22064,7 +22064,7 @@
         <v>1214</v>
       </c>
       <c r="G137" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H137" s="18"/>
       <c r="I137" s="18" t="s">
@@ -22293,7 +22293,7 @@
         <v>496</v>
       </c>
       <c r="D143" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F143" s="21" t="s">
         <v>1106</v>
@@ -22334,7 +22334,7 @@
         <v>496</v>
       </c>
       <c r="D144" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F144" s="21" t="s">
         <v>1106</v>
@@ -22375,7 +22375,7 @@
         <v>496</v>
       </c>
       <c r="D145" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F145" s="21" t="s">
         <v>1106</v>
@@ -22492,7 +22492,7 @@
         <v>496</v>
       </c>
       <c r="D148" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F148" s="21" t="s">
         <v>1106</v>
@@ -22533,7 +22533,7 @@
         <v>496</v>
       </c>
       <c r="D149" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F149" s="21" t="s">
         <v>1106</v>
@@ -22574,7 +22574,7 @@
         <v>1214</v>
       </c>
       <c r="G150" s="21" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H150" s="21"/>
       <c r="I150" s="21" t="s">
@@ -22636,7 +22636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
@@ -22820,7 +22820,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
@@ -22855,7 +22855,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
@@ -22901,7 +22901,7 @@
         <v>496</v>
       </c>
       <c r="D159" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F159" s="18" t="s">
         <v>1106</v>
@@ -22931,7 +22931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
@@ -23012,7 +23012,7 @@
         <v>1214</v>
       </c>
       <c r="G162" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H162" s="18"/>
       <c r="I162" s="18" t="s">
@@ -23036,7 +23036,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>239</v>
       </c>
@@ -23112,7 +23112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -23269,7 +23269,7 @@
         <v>496</v>
       </c>
       <c r="D169" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F169" s="21" t="s">
         <v>1106</v>
@@ -23299,7 +23299,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>496</v>
       </c>
       <c r="D172" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F172" s="18" t="s">
         <v>1106</v>
@@ -23423,7 +23423,7 @@
         <v>1214</v>
       </c>
       <c r="G173" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H173" s="18"/>
       <c r="I173" s="21" t="s">
@@ -23458,7 +23458,7 @@
         <v>1214</v>
       </c>
       <c r="G174" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H174" s="18"/>
       <c r="I174" s="18" t="s">
@@ -23493,7 +23493,7 @@
         <v>1214</v>
       </c>
       <c r="G175" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H175" s="18"/>
       <c r="I175" s="21" t="s">
@@ -23639,7 +23639,7 @@
         <v>1214</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H179" s="18"/>
       <c r="I179" s="21" t="s">
@@ -23674,7 +23674,7 @@
         <v>1214</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H180" s="18"/>
       <c r="I180" s="18" t="s">
@@ -23709,7 +23709,7 @@
         <v>1214</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H181" s="18"/>
       <c r="I181" s="21" t="s">
@@ -23744,7 +23744,7 @@
         <v>496</v>
       </c>
       <c r="D182" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F182" s="18" t="s">
         <v>1106</v>
@@ -23785,7 +23785,7 @@
         <v>1214</v>
       </c>
       <c r="G183" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H183" s="18"/>
       <c r="I183" s="21" t="s">
@@ -23820,7 +23820,7 @@
         <v>1214</v>
       </c>
       <c r="G184" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H184" s="18"/>
       <c r="I184" s="18" t="s">
@@ -23855,7 +23855,7 @@
         <v>1214</v>
       </c>
       <c r="G185" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H185" s="18"/>
       <c r="I185" s="21" t="s">
@@ -23890,7 +23890,7 @@
         <v>1214</v>
       </c>
       <c r="G186" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H186" s="18"/>
       <c r="I186" s="18" t="s">
@@ -23914,7 +23914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>274</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>275</v>
       </c>
@@ -23980,7 +23980,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>276</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>277</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>278</v>
       </c>
@@ -24079,7 +24079,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>279</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>280</v>
       </c>
@@ -24145,7 +24145,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>281</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>282</v>
       </c>
@@ -24211,7 +24211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>283</v>
       </c>
@@ -24244,7 +24244,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>284</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>285</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>1214</v>
       </c>
       <c r="G199" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H199" s="18"/>
       <c r="I199" s="18" t="s">
@@ -24356,7 +24356,7 @@
         <v>1214</v>
       </c>
       <c r="G200" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H200" s="18"/>
       <c r="I200" s="21" t="s">
@@ -24391,7 +24391,7 @@
         <v>1214</v>
       </c>
       <c r="G201" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H201" s="18"/>
       <c r="I201" s="18" t="s">
@@ -24426,7 +24426,7 @@
         <v>1214</v>
       </c>
       <c r="G202" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H202" s="21"/>
       <c r="I202" s="21" t="s">
@@ -24461,7 +24461,7 @@
         <v>1214</v>
       </c>
       <c r="G203" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H203" s="18"/>
       <c r="I203" s="18" t="s">
@@ -24496,7 +24496,7 @@
         <v>1214</v>
       </c>
       <c r="G204" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H204" s="21"/>
       <c r="I204" s="21" t="s">
@@ -24531,7 +24531,7 @@
         <v>1214</v>
       </c>
       <c r="G205" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H205" s="18"/>
       <c r="I205" s="18" t="s">
@@ -24555,7 +24555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>295</v>
       </c>
@@ -24590,7 +24590,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>296</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>1214</v>
       </c>
       <c r="G208" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H208" s="21"/>
       <c r="I208" s="21" t="s">
@@ -24671,7 +24671,7 @@
         <v>1214</v>
       </c>
       <c r="G209" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H209" s="18"/>
       <c r="I209" s="18" t="s">
@@ -24706,7 +24706,7 @@
         <v>1214</v>
       </c>
       <c r="G210" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H210" s="21"/>
       <c r="I210" s="21" t="s">
@@ -24741,7 +24741,7 @@
         <v>1214</v>
       </c>
       <c r="G211" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H211" s="18"/>
       <c r="I211" s="18" t="s">
@@ -24776,7 +24776,7 @@
         <v>1214</v>
       </c>
       <c r="G212" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H212" s="21"/>
       <c r="I212" s="21" t="s">
@@ -24811,7 +24811,7 @@
         <v>1214</v>
       </c>
       <c r="G213" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H213" s="18"/>
       <c r="I213" s="18" t="s">
@@ -24835,7 +24835,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>303</v>
       </c>
@@ -24870,7 +24870,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>304</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>305</v>
       </c>
@@ -24940,7 +24940,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>306</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>307</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>308</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>309</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>310</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>1214</v>
       </c>
       <c r="G225" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H225" s="18"/>
       <c r="I225" s="18" t="s">
@@ -25266,7 +25266,7 @@
         <v>1214</v>
       </c>
       <c r="G226" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H226" s="21"/>
       <c r="I226" s="21" t="s">
@@ -25290,7 +25290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>316</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>1214</v>
       </c>
       <c r="G228" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H228" s="21"/>
       <c r="I228" s="21" t="s">
@@ -25360,7 +25360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>318</v>
       </c>
@@ -25395,7 +25395,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>319</v>
       </c>
@@ -25430,7 +25430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>320</v>
       </c>
@@ -25465,7 +25465,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>321</v>
       </c>
@@ -25500,7 +25500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>322</v>
       </c>
@@ -25533,7 +25533,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>323</v>
       </c>
@@ -25722,7 +25722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>331</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>333</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1214</v>
       </c>
       <c r="G242" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="H242" s="18"/>
       <c r="I242" s="18" t="s">
@@ -25869,7 +25869,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>335</v>
       </c>
@@ -25907,7 +25907,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>336</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>337</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>1300</v>
       </c>
       <c r="D245" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F245" s="18" t="s">
         <v>1106</v>
@@ -25994,7 +25994,7 @@
         <v>1214</v>
       </c>
       <c r="G246" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H246" s="18"/>
       <c r="I246" s="18" t="s">
@@ -26018,7 +26018,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>339</v>
       </c>
@@ -26053,7 +26053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>341</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>343</v>
       </c>
@@ -26175,7 +26175,7 @@
         <v>1214</v>
       </c>
       <c r="G251" s="18" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="H251" s="18"/>
       <c r="I251" s="18" t="s">
@@ -26199,7 +26199,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>345</v>
       </c>
@@ -26237,7 +26237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>346</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>347</v>
       </c>
@@ -26310,7 +26310,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>348</v>
       </c>
@@ -26348,7 +26348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>349</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>350</v>
       </c>
@@ -26432,7 +26432,7 @@
         <v>1214</v>
       </c>
       <c r="G258" s="21" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="H258" s="21"/>
       <c r="I258" s="21" t="s">
@@ -26526,7 +26526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>496</v>
       </c>
       <c r="D262" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F262" s="18" t="s">
         <v>1106</v>
@@ -26613,7 +26613,7 @@
         <v>1214</v>
       </c>
       <c r="G263" s="21" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="H263" s="21"/>
       <c r="I263" s="21" t="s">
@@ -26648,7 +26648,7 @@
         <v>1214</v>
       </c>
       <c r="G264" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H264" s="18"/>
       <c r="I264" s="18" t="s">
@@ -26672,7 +26672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>366</v>
       </c>
@@ -26850,7 +26850,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>367</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>368</v>
       </c>
@@ -26926,7 +26926,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
@@ -26972,7 +26972,7 @@
         <v>1214</v>
       </c>
       <c r="G273" s="18" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H273" s="18"/>
       <c r="I273" s="18" t="s">
@@ -26996,7 +26996,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>371</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>372</v>
       </c>
@@ -27072,7 +27072,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>1214</v>
       </c>
       <c r="G277" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H277" s="18"/>
       <c r="I277" s="18" t="s">
@@ -27153,7 +27153,7 @@
         <v>1214</v>
       </c>
       <c r="G278" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H278" s="21"/>
       <c r="I278" s="21" t="s">
@@ -27188,7 +27188,7 @@
         <v>1214</v>
       </c>
       <c r="G279" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H279" s="18"/>
       <c r="I279" s="18" t="s">
@@ -27223,7 +27223,7 @@
         <v>1214</v>
       </c>
       <c r="G280" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H280" s="21"/>
       <c r="I280" s="21" t="s">
@@ -27258,7 +27258,7 @@
         <v>1214</v>
       </c>
       <c r="G281" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H281" s="18"/>
       <c r="I281" s="18" t="s">
@@ -27293,7 +27293,7 @@
         <v>1214</v>
       </c>
       <c r="G282" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H282" s="21"/>
       <c r="I282" s="21" t="s">
@@ -27352,7 +27352,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>381</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>1214</v>
       </c>
       <c r="G285" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H285" s="18"/>
       <c r="I285" s="18" t="s">
@@ -27465,7 +27465,7 @@
         <v>1164</v>
       </c>
       <c r="C287" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F287" s="18" t="s">
         <v>1106</v>
@@ -27539,7 +27539,7 @@
         <v>496</v>
       </c>
       <c r="D289" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F289" s="18" t="s">
         <v>1106</v>
@@ -27552,10 +27552,10 @@
         <v>1155</v>
       </c>
       <c r="J289" s="18" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K289" s="18" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="L289" s="18" t="s">
         <v>693</v>
@@ -27685,7 +27685,7 @@
         <v>496</v>
       </c>
       <c r="D293" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F293" s="18" t="s">
         <v>1106</v>
@@ -27761,7 +27761,7 @@
         <v>496</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F295" s="18" t="s">
         <v>1106</v>
@@ -27802,7 +27802,7 @@
         <v>496</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F296" s="18" t="s">
         <v>1106</v>
@@ -27878,7 +27878,7 @@
         <v>496</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F298" s="18" t="s">
         <v>1106</v>
@@ -28024,7 +28024,7 @@
         <v>496</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="F302" s="18" t="s">
         <v>1106</v>
@@ -28067,7 +28067,7 @@
         <v>1214</v>
       </c>
       <c r="G303" s="18" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="H303" s="18"/>
       <c r="I303" s="18" t="s">
@@ -28104,7 +28104,7 @@
         <v>1214</v>
       </c>
       <c r="G304" s="18" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="H304" s="21"/>
       <c r="I304" s="21" t="s">
@@ -28141,7 +28141,7 @@
         <v>1214</v>
       </c>
       <c r="G305" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H305" s="18"/>
       <c r="I305" s="18" t="s">
@@ -28178,7 +28178,7 @@
         <v>1214</v>
       </c>
       <c r="G306" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H306" s="21"/>
       <c r="I306" s="21" t="s">
@@ -28215,7 +28215,7 @@
         <v>1214</v>
       </c>
       <c r="G307" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H307" s="18"/>
       <c r="I307" s="18" t="s">
@@ -28252,7 +28252,7 @@
         <v>1214</v>
       </c>
       <c r="G308" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H308" s="21"/>
       <c r="I308" s="21" t="s">
@@ -28289,7 +28289,7 @@
         <v>1214</v>
       </c>
       <c r="G309" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H309" s="18"/>
       <c r="I309" s="18" t="s">
@@ -28326,7 +28326,7 @@
         <v>1214</v>
       </c>
       <c r="G310" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H310" s="21"/>
       <c r="I310" s="21" t="s">
@@ -28363,7 +28363,7 @@
         <v>1214</v>
       </c>
       <c r="G311" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H311" s="18"/>
       <c r="I311" s="18" t="s">
@@ -28400,7 +28400,7 @@
         <v>1214</v>
       </c>
       <c r="G312" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H312" s="21"/>
       <c r="I312" s="21" t="s">
@@ -28437,7 +28437,7 @@
         <v>1214</v>
       </c>
       <c r="G313" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H313" s="18"/>
       <c r="I313" s="18" t="s">
@@ -28461,7 +28461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -28496,7 +28496,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>415</v>
       </c>
@@ -28544,7 +28544,7 @@
         <v>1214</v>
       </c>
       <c r="G316" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H316" s="21"/>
       <c r="I316" s="21" t="s">
@@ -28568,7 +28568,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>418</v>
       </c>
@@ -28605,7 +28605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>419</v>
       </c>
@@ -28642,7 +28642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>420</v>
       </c>
@@ -28679,7 +28679,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>421</v>
       </c>
@@ -28716,7 +28716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>422</v>
       </c>
@@ -28753,7 +28753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>423</v>
       </c>
@@ -28790,7 +28790,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>424</v>
       </c>
@@ -28827,7 +28827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>426</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>427</v>
       </c>
@@ -28897,7 +28897,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>429</v>
       </c>
@@ -28934,7 +28934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>430</v>
       </c>
@@ -28984,7 +28984,7 @@
         <v>1214</v>
       </c>
       <c r="G328" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H328" s="21"/>
       <c r="I328" s="21" t="s">
@@ -29008,7 +29008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>432</v>
       </c>
@@ -29045,7 +29045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>433</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>1214</v>
       </c>
       <c r="G331" s="18" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H331" s="18"/>
       <c r="I331" s="18" t="s">
@@ -29119,7 +29119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>435</v>
       </c>
@@ -29154,7 +29154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>436</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>437</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>440</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>441</v>
       </c>
@@ -29298,7 +29298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>442</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>443</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>444</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>1214</v>
       </c>
       <c r="G340" s="21" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H340" s="21"/>
       <c r="I340" s="21" t="s">
@@ -29459,7 +29459,7 @@
         <v>1214</v>
       </c>
       <c r="G341" s="18" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="H341" s="18"/>
       <c r="I341" s="18" t="s">
@@ -29483,7 +29483,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>449</v>
       </c>
@@ -29520,7 +29520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>450</v>
       </c>
@@ -29570,7 +29570,7 @@
         <v>1214</v>
       </c>
       <c r="G344" s="21" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="H344" s="21"/>
       <c r="I344" s="21" t="s">
@@ -29594,7 +29594,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>452</v>
       </c>
@@ -29631,7 +29631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>453</v>
       </c>
@@ -29668,7 +29668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>455</v>
       </c>
@@ -29705,7 +29705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>456</v>
       </c>
@@ -29742,7 +29742,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>457</v>
       </c>
@@ -29779,7 +29779,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>458</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>459</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>1214</v>
       </c>
       <c r="G352" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H352" s="18"/>
       <c r="I352" s="18" t="s">
@@ -29903,7 +29903,7 @@
         <v>1214</v>
       </c>
       <c r="G353" s="18" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H353" s="21"/>
       <c r="I353" s="21" t="s">
@@ -29927,7 +29927,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>463</v>
       </c>
@@ -29964,7 +29964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>464</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>465</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>469</v>
       </c>
@@ -30075,7 +30075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>470</v>
       </c>
@@ -30112,7 +30112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>471</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>472</v>
       </c>
@@ -30199,7 +30199,7 @@
         <v>1214</v>
       </c>
       <c r="G361" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H361" s="21"/>
       <c r="I361" s="21" t="s">
@@ -30273,7 +30273,7 @@
         <v>1214</v>
       </c>
       <c r="G363" s="21" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="H363" s="21"/>
       <c r="I363" s="21" t="s">
@@ -30310,7 +30310,7 @@
         <v>1214</v>
       </c>
       <c r="G364" s="18" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="H364" s="18"/>
       <c r="I364" s="18" t="s">
@@ -30334,7 +30334,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>477</v>
       </c>
@@ -30379,7 +30379,7 @@
         <v>891</v>
       </c>
       <c r="C366" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D366" s="28"/>
       <c r="F366" s="21" t="s">
@@ -30414,7 +30414,7 @@
         <v>889</v>
       </c>
       <c r="C367" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D367" s="27"/>
       <c r="F367" s="18" t="s">
@@ -30449,7 +30449,7 @@
         <v>887</v>
       </c>
       <c r="C368" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D368" s="28"/>
       <c r="F368" s="21" t="s">
@@ -30484,7 +30484,7 @@
         <v>885</v>
       </c>
       <c r="C369" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D369" s="27"/>
       <c r="F369" s="18" t="s">
@@ -30519,7 +30519,7 @@
         <v>112</v>
       </c>
       <c r="C370" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D370" s="28"/>
       <c r="F370" s="21" t="s">
@@ -30556,7 +30556,7 @@
         <v>881</v>
       </c>
       <c r="C371" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D371" s="27"/>
       <c r="F371" s="18" t="s">
@@ -30591,7 +30591,7 @@
         <v>879</v>
       </c>
       <c r="C372" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D372" s="28"/>
       <c r="F372" s="21" t="s">
@@ -30626,7 +30626,7 @@
         <v>877</v>
       </c>
       <c r="C373" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D373" s="27"/>
       <c r="F373" s="18" t="s">
@@ -30661,7 +30661,7 @@
         <v>875</v>
       </c>
       <c r="C374" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D374" s="28"/>
       <c r="F374" s="21" t="s">
@@ -30696,7 +30696,7 @@
         <v>873</v>
       </c>
       <c r="C375" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D375" s="28"/>
       <c r="F375" s="21" t="s">
@@ -30731,7 +30731,7 @@
         <v>871</v>
       </c>
       <c r="C376" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D376" s="27"/>
       <c r="F376" s="18" t="s">
@@ -30766,7 +30766,7 @@
         <v>869</v>
       </c>
       <c r="C377" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D377" s="28"/>
       <c r="F377" s="21" t="s">
@@ -30801,7 +30801,7 @@
         <v>867</v>
       </c>
       <c r="C378" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D378" s="27"/>
       <c r="F378" s="18" t="s">
@@ -30836,7 +30836,7 @@
         <v>865</v>
       </c>
       <c r="C379" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D379" s="28"/>
       <c r="F379" s="21" t="s">
@@ -30871,7 +30871,7 @@
         <v>862</v>
       </c>
       <c r="C380" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D380" s="27"/>
       <c r="F380" s="18" t="s">
@@ -30906,7 +30906,7 @@
         <v>860</v>
       </c>
       <c r="C381" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D381" s="28"/>
       <c r="F381" s="21" t="s">
@@ -30941,7 +30941,7 @@
         <v>858</v>
       </c>
       <c r="C382" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D382" s="27"/>
       <c r="F382" s="18" t="s">
@@ -30976,7 +30976,7 @@
         <v>856</v>
       </c>
       <c r="C383" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D383" s="28"/>
       <c r="F383" s="21" t="s">
@@ -31011,7 +31011,7 @@
         <v>854</v>
       </c>
       <c r="C384" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D384" s="27"/>
       <c r="F384" s="18" t="s">
@@ -31046,7 +31046,7 @@
         <v>852</v>
       </c>
       <c r="C385" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D385" s="28"/>
       <c r="F385" s="21" t="s">
@@ -31081,7 +31081,7 @@
         <v>850</v>
       </c>
       <c r="C386" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D386" s="28"/>
       <c r="F386" s="21" t="s">
@@ -31116,7 +31116,7 @@
         <v>848</v>
       </c>
       <c r="C387" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D387" s="27"/>
       <c r="F387" s="18" t="s">
@@ -31151,7 +31151,7 @@
         <v>115</v>
       </c>
       <c r="C388" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D388" s="28"/>
       <c r="F388" s="21" t="s">
@@ -31178,7 +31178,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>506</v>
       </c>
@@ -31211,7 +31211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>507</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>508</v>
       </c>
@@ -31286,7 +31286,7 @@
         <v>496</v>
       </c>
       <c r="D392" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F392" s="21" t="s">
         <v>1106</v>
@@ -31353,7 +31353,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>511</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>512</v>
       </c>
@@ -31427,7 +31427,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>513</v>
       </c>
@@ -31464,7 +31464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>514</v>
       </c>
@@ -31501,7 +31501,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>515</v>
       </c>
@@ -31538,7 +31538,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>516</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>1214</v>
       </c>
       <c r="G402" s="21" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="H402" s="21"/>
       <c r="I402" s="21" t="s">
@@ -31750,7 +31750,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>548</v>
       </c>
@@ -31783,7 +31783,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>564</v>
       </c>
@@ -31833,7 +31833,7 @@
         <v>1214</v>
       </c>
       <c r="G407" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="H407" s="21"/>
       <c r="I407" s="21" t="s">
@@ -31857,7 +31857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>570</v>
       </c>
@@ -31894,7 +31894,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>571</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>1214</v>
       </c>
       <c r="G410" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H410" s="18"/>
       <c r="I410" s="18" t="s">
@@ -31981,7 +31981,7 @@
         <v>1214</v>
       </c>
       <c r="G411" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H411" s="21"/>
       <c r="I411" s="21" t="s">
@@ -32018,7 +32018,7 @@
         <v>1214</v>
       </c>
       <c r="G412" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H412" s="18"/>
       <c r="I412" s="18" t="s">
@@ -32055,7 +32055,7 @@
         <v>1214</v>
       </c>
       <c r="G413" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H413" s="21"/>
       <c r="I413" s="21" t="s">
@@ -32092,7 +32092,7 @@
         <v>1214</v>
       </c>
       <c r="G414" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H414" s="18"/>
       <c r="I414" s="18" t="s">
@@ -32129,7 +32129,7 @@
         <v>1214</v>
       </c>
       <c r="G415" s="18" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="H415" s="21"/>
       <c r="I415" s="21" t="s">
@@ -32153,7 +32153,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>582</v>
       </c>
@@ -32188,7 +32188,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>583</v>
       </c>
@@ -32223,7 +32223,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>584</v>
       </c>
@@ -32258,7 +32258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>585</v>
       </c>
@@ -32293,7 +32293,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>586</v>
       </c>
@@ -32341,7 +32341,7 @@
         <v>1214</v>
       </c>
       <c r="G421" s="21" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H421" s="21"/>
       <c r="I421" s="21" t="s">
@@ -32365,7 +32365,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>588</v>
       </c>
@@ -32400,7 +32400,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>589</v>
       </c>
@@ -32435,7 +32435,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>590</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>591</v>
       </c>
@@ -32505,7 +32505,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>592</v>
       </c>
@@ -32540,7 +32540,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>593</v>
       </c>
@@ -32575,7 +32575,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>594</v>
       </c>
@@ -32610,7 +32610,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>595</v>
       </c>
@@ -32645,7 +32645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>596</v>
       </c>
@@ -32680,7 +32680,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>597</v>
       </c>
@@ -32728,7 +32728,7 @@
         <v>1214</v>
       </c>
       <c r="G432" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H432" s="18"/>
       <c r="I432" s="18" t="s">
@@ -32765,7 +32765,7 @@
         <v>1214</v>
       </c>
       <c r="G433" s="21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H433" s="21"/>
       <c r="I433" s="21" t="s">
@@ -32789,7 +32789,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>600</v>
       </c>
@@ -32824,7 +32824,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>601</v>
       </c>
@@ -32872,7 +32872,7 @@
         <v>1214</v>
       </c>
       <c r="G436" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H436" s="18"/>
       <c r="I436" s="18" t="s">
@@ -32909,7 +32909,7 @@
         <v>1214</v>
       </c>
       <c r="G437" s="21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="H437" s="21"/>
       <c r="I437" s="21" t="s">
@@ -32946,7 +32946,7 @@
         <v>1214</v>
       </c>
       <c r="G438" s="18" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H438" s="18"/>
       <c r="I438" s="18" t="s">
@@ -32970,7 +32970,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>605</v>
       </c>
@@ -33005,7 +33005,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>606</v>
       </c>
@@ -33040,7 +33040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>607</v>
       </c>
@@ -33075,7 +33075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>608</v>
       </c>
@@ -33118,6 +33118,11 @@
     <filterColumn colId="5">
       <filters>
         <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -33129,9 +33134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33150,25 +33155,25 @@
   <sheetData>
     <row r="1" spans="1:22" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="B1" s="53" t="s">
         <v>417</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>1</v>
@@ -33180,37 +33185,37 @@
         <v>218</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="L1" s="35" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M1" s="35" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="P1" s="35" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="Q1" s="35" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="R1" s="35" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="T1" s="35" t="s">
         <v>490</v>
       </c>
       <c r="U1" s="35" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="V1" s="35" t="s">
         <v>2</v>
@@ -33221,7 +33226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1106</v>
@@ -33230,20 +33235,20 @@
         <v>599</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>598</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>693</v>
@@ -33254,7 +33259,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1106</v>
@@ -33263,20 +33268,20 @@
         <v>599</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>604</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="I3" s="51" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="K3" s="29" t="s">
         <v>693</v>
@@ -33287,7 +33292,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1106</v>
@@ -33296,20 +33301,20 @@
         <v>599</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
         <v>612</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="I4" s="51" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K4" s="29" t="s">
         <v>693</v>
@@ -33320,7 +33325,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1106</v>
@@ -33329,20 +33334,20 @@
         <v>599</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
         <v>689</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="J5" s="51" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>693</v>
@@ -33353,7 +33358,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1106</v>
@@ -33362,20 +33367,20 @@
         <v>599</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
         <v>604</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="I6" s="51" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J6" s="51" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33383,7 +33388,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1106</v>
@@ -33392,20 +33397,20 @@
         <v>599</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>612</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
@@ -33413,7 +33418,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>1106</v>
@@ -33427,13 +33432,13 @@
         <v>689</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33441,7 +33446,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1214</v>
@@ -33479,7 +33484,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>1214</v>
@@ -33495,7 +33500,7 @@
         <v>283</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>693</v>
@@ -33517,7 +33522,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1214</v>
@@ -33530,7 +33535,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="J11" s="49" t="s">
         <v>286</v>
@@ -33555,7 +33560,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C12" s="55" t="s">
         <v>1106</v>
@@ -33564,13 +33569,13 @@
         <v>1106</v>
       </c>
       <c r="H12" s="45" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>693</v>
@@ -33592,7 +33597,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1106</v>
@@ -33601,20 +33606,20 @@
         <v>599</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>693</v>
@@ -33636,19 +33641,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="C14" s="55" t="s">
         <v>1214</v>
       </c>
       <c r="H14" s="45" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>693</v>
@@ -33670,7 +33675,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1106</v>
@@ -33679,19 +33684,19 @@
         <v>599</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H15" s="45" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="I15" s="42" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>693</v>
@@ -33713,7 +33718,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1106</v>
@@ -33722,20 +33727,20 @@
         <v>599</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="I16" s="42" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>693</v>
@@ -33757,7 +33762,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>1106</v>
@@ -33766,19 +33771,19 @@
         <v>599</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H17" s="45" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>693</v>
@@ -33800,22 +33805,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>693</v>
@@ -33837,7 +33842,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>1106</v>
@@ -33846,19 +33851,19 @@
         <v>599</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="I19" s="47" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>693</v>
@@ -33880,7 +33885,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>1106</v>
@@ -33889,19 +33894,19 @@
         <v>599</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>693</v>
@@ -33923,7 +33928,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1106</v>
@@ -33932,19 +33937,19 @@
         <v>599</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>693</v>
@@ -33966,7 +33971,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="C22" s="55" t="s">
         <v>1214</v>
@@ -33975,13 +33980,13 @@
         <v>604</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>693</v>
@@ -34003,7 +34008,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1106</v>
@@ -34012,19 +34017,19 @@
         <v>599</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="K23" s="44" t="s">
         <v>693</v>
@@ -34046,7 +34051,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C24" s="55" t="s">
         <v>1106</v>
@@ -34055,19 +34060,19 @@
         <v>599</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="K24" s="44" t="s">
         <v>693</v>
@@ -34089,7 +34094,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="C25" s="55" t="s">
         <v>1106</v>
@@ -34098,19 +34103,19 @@
         <v>599</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="K25" s="44" t="s">
         <v>693</v>
@@ -34132,7 +34137,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1106</v>
@@ -34141,19 +34146,19 @@
         <v>599</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>693</v>
@@ -34182,19 +34187,19 @@
         <v>599</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>598</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="K27" s="44"/>
       <c r="L27" s="43"/>
@@ -34214,19 +34219,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="J28" s="56"/>
       <c r="K28" s="44" t="s">
@@ -34249,7 +34254,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>1106</v>
@@ -34258,19 +34263,19 @@
         <v>599</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="K29" s="44" t="s">
         <v>693</v>
@@ -34292,22 +34297,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>693</v>
@@ -34329,7 +34334,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C31" s="55" t="s">
         <v>1106</v>
@@ -34344,13 +34349,13 @@
         <v>598</v>
       </c>
       <c r="H31" s="45" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="I31" s="42" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="K31" s="44" t="s">
         <v>693</v>
@@ -34372,7 +34377,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1106</v>
@@ -34381,20 +34386,20 @@
         <v>599</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="1" t="s">
         <v>604</v>
       </c>
       <c r="H32" s="45" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>693</v>
@@ -34416,7 +34421,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>1106</v>
@@ -34425,20 +34430,20 @@
         <v>599</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F33" s="52"/>
       <c r="G33" s="1" t="s">
         <v>612</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="I33" s="42" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="K33" s="44" t="s">
         <v>693</v>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5537" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="2242">
   <si>
     <t>Name</t>
   </si>
@@ -11429,6 +11429,9 @@
   </si>
   <si>
     <t>No(Upsellable functionbality not working )</t>
+  </si>
+  <si>
+    <t>NO(Change sorting category is depend on TM)</t>
   </si>
 </sst>
 </file>
@@ -11596,7 +11599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11755,6 +11758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16966,9 +16970,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K224" sqref="K224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18771,7 +18775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>92</v>
       </c>
@@ -20817,6 +20821,9 @@
       </c>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
+      <c r="E104" t="s">
+        <v>1206</v>
+      </c>
       <c r="F104" s="18" t="s">
         <v>1106</v>
       </c>
@@ -20919,7 +20926,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>156</v>
       </c>
@@ -20929,7 +20936,7 @@
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="F107" s="18" t="s">
-        <v>1106</v>
+        <v>2241</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18" t="s">
@@ -25122,6 +25129,9 @@
       <c r="B222" s="21" t="s">
         <v>516</v>
       </c>
+      <c r="E222" t="s">
+        <v>1206</v>
+      </c>
       <c r="F222" s="21" t="s">
         <v>1106</v>
       </c>
@@ -25157,6 +25167,9 @@
       <c r="B223" s="18" t="s">
         <v>559</v>
       </c>
+      <c r="E223" t="s">
+        <v>1206</v>
+      </c>
       <c r="F223" s="18" t="s">
         <v>1106</v>
       </c>
@@ -25186,37 +25199,40 @@
       </c>
     </row>
     <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="58">
         <v>313</v>
       </c>
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="F224" s="21" t="s">
+      <c r="C224" s="58"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="G224" s="21"/>
-      <c r="H224" s="21" t="s">
+      <c r="G224" s="4"/>
+      <c r="H224" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="I224" s="21" t="s">
+      <c r="I224" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="J224" s="21" t="s">
+      <c r="J224" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="K224" s="21" t="s">
+      <c r="K224" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="L224" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="M224" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N224" s="29"/>
-      <c r="O224" s="29"/>
-      <c r="P224" s="29" t="s">
+      <c r="L224" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="M224" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3" t="s">
         <v>691</v>
       </c>
     </row>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="2243">
   <si>
     <t>Name</t>
   </si>
@@ -11432,6 +11432,9 @@
   </si>
   <si>
     <t>NO(Change sorting category is depend on TM)</t>
+  </si>
+  <si>
+    <t>Time has been coverded as automation but for date updation is not a part of Automation.</t>
   </si>
 </sst>
 </file>
@@ -12458,8 +12461,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:J127"/>
+    <sheetView topLeftCell="E38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12506,7 +12509,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
@@ -12536,7 +12539,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
@@ -12566,7 +12569,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>420</v>
       </c>
@@ -12596,7 +12599,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>421</v>
       </c>
@@ -12626,7 +12629,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>423</v>
       </c>
@@ -12656,7 +12659,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>426</v>
       </c>
@@ -12750,7 +12753,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>427</v>
       </c>
@@ -12780,7 +12783,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>428</v>
       </c>
@@ -12838,7 +12841,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -12868,7 +12871,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>431</v>
       </c>
@@ -13814,7 +13817,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>440</v>
       </c>
@@ -13844,7 +13847,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="s">
         <v>496</v>
@@ -13872,7 +13875,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
         <v>496</v>
@@ -13900,7 +13903,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
         <v>496</v>
@@ -13928,7 +13931,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -13956,7 +13959,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="s">
         <v>496</v>
@@ -14014,7 +14017,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="9" t="s">
         <v>496</v>
@@ -14042,7 +14045,7 @@
       </c>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="9" t="s">
         <v>496</v>
@@ -14240,7 +14243,7 @@
       </c>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>480</v>
       </c>
@@ -14328,7 +14331,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>483</v>
       </c>
@@ -14358,7 +14361,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>484</v>
       </c>
@@ -14388,7 +14391,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>442</v>
       </c>
@@ -14418,7 +14421,7 @@
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
@@ -14448,7 +14451,7 @@
       </c>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
@@ -14560,7 +14563,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="9" t="s">
         <v>496</v>
@@ -14590,7 +14593,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="9" t="s">
         <v>496</v>
@@ -14862,7 +14865,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="9" t="s">
         <v>496</v>
@@ -14890,7 +14893,7 @@
       </c>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:10" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="9" t="s">
         <v>496</v>
@@ -14918,7 +14921,7 @@
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:10" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="9" t="s">
         <v>496</v>
@@ -14946,7 +14949,7 @@
       </c>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="1:10" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="9" t="s">
         <v>496</v>
@@ -14974,7 +14977,7 @@
       </c>
       <c r="J86" s="17"/>
     </row>
-    <row r="87" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="9" t="s">
         <v>496</v>
@@ -15082,7 +15085,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>451</v>
       </c>
@@ -15170,7 +15173,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -15200,7 +15203,7 @@
       </c>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>455</v>
       </c>
@@ -15230,7 +15233,7 @@
       </c>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -15288,7 +15291,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>458</v>
       </c>
@@ -15484,7 +15487,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="93" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
         <v>496</v>
@@ -15510,7 +15513,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
         <v>496</v>
@@ -15534,7 +15537,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
         <v>496</v>
@@ -15678,7 +15681,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="9" t="s">
         <v>496</v>
@@ -15702,7 +15705,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="9" t="s">
         <v>496</v>
@@ -15743,7 +15746,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
         <v>496</v>
@@ -15767,7 +15770,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="9" t="s">
         <v>496</v>
@@ -15791,7 +15794,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="9" t="s">
         <v>496</v>
@@ -15983,7 +15986,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="9" t="s">
         <v>496</v>
@@ -16007,7 +16010,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="9" t="s">
         <v>496</v>
@@ -16036,6 +16039,11 @@
     <filterColumn colId="1">
       <filters>
         <filter val="Completed"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -16970,9 +16978,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K224" sqref="K224"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K290" sqref="K290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18826,7 +18834,7 @@
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="I50" s="21" t="s">
         <v>1932</v>
@@ -20812,7 +20820,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>153</v>
       </c>
@@ -22095,7 +22103,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>205</v>
       </c>
@@ -22135,7 +22143,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>206</v>
       </c>
@@ -22175,7 +22183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>207</v>
       </c>
@@ -22412,7 +22420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>213</v>
       </c>
@@ -22450,7 +22458,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>214</v>
       </c>
@@ -23559,7 +23567,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>253</v>
       </c>
@@ -23597,7 +23605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>256</v>
       </c>
@@ -25122,7 +25130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>311</v>
       </c>
@@ -25160,7 +25168,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>312</v>
       </c>
@@ -26473,37 +26481,40 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="A259" s="58">
         <v>352</v>
       </c>
-      <c r="B259" s="18" t="s">
+      <c r="B259" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="F259" s="18" t="s">
+      <c r="C259" s="58"/>
+      <c r="D259" s="58"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G259" s="18"/>
-      <c r="H259" s="18" t="s">
+      <c r="G259" s="3"/>
+      <c r="H259" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I259" s="18" t="s">
+      <c r="I259" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="J259" s="18" t="s">
+      <c r="J259" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="K259" s="18" t="s">
+      <c r="K259" s="3" t="s">
         <v>1253</v>
       </c>
-      <c r="L259" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M259" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N259" s="18"/>
-      <c r="O259" s="18"/>
-      <c r="P259" s="18" t="s">
+      <c r="L259" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3" t="s">
         <v>691</v>
       </c>
     </row>
@@ -27439,37 +27450,40 @@
       </c>
     </row>
     <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A286">
+      <c r="A286" s="58">
         <v>385</v>
       </c>
-      <c r="B286" s="21" t="s">
+      <c r="B286" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="F286" s="21" t="s">
+      <c r="C286" s="58"/>
+      <c r="D286" s="58"/>
+      <c r="E286" s="58"/>
+      <c r="F286" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="G286" s="21"/>
-      <c r="H286" s="21" t="s">
+      <c r="G286" s="4"/>
+      <c r="H286" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="I286" s="21" t="s">
+      <c r="I286" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="J286" s="21" t="s">
+      <c r="J286" s="4" t="s">
         <v>1165</v>
       </c>
-      <c r="K286" s="21" t="s">
+      <c r="K286" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="L286" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="M286" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N286" s="29"/>
-      <c r="O286" s="29"/>
-      <c r="P286" s="29" t="s">
+      <c r="L286" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="M286" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3" t="s">
         <v>691</v>
       </c>
     </row>
@@ -27510,37 +27524,40 @@
       </c>
     </row>
     <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
-      <c r="A288">
+      <c r="A288" s="58">
         <v>387</v>
       </c>
-      <c r="B288" s="21" t="s">
+      <c r="B288" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="F288" s="21" t="s">
+      <c r="C288" s="58"/>
+      <c r="D288" s="58"/>
+      <c r="E288" s="58"/>
+      <c r="F288" s="4" t="s">
         <v>1106</v>
       </c>
-      <c r="G288" s="21"/>
-      <c r="H288" s="21" t="s">
+      <c r="G288" s="4"/>
+      <c r="H288" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="I288" s="21" t="s">
+      <c r="I288" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="J288" s="21" t="s">
+      <c r="J288" s="4" t="s">
         <v>1158</v>
       </c>
-      <c r="K288" s="21" t="s">
+      <c r="K288" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="L288" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="M288" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N288" s="29"/>
-      <c r="O288" s="29"/>
-      <c r="P288" s="29" t="s">
+      <c r="L288" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="M288" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3" t="s">
         <v>691</v>
       </c>
     </row>
@@ -27621,37 +27638,42 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A291">
+      <c r="A291" s="58">
         <v>390</v>
       </c>
-      <c r="B291" s="18" t="s">
+      <c r="B291" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="F291" s="18" t="s">
+      <c r="C291" s="58"/>
+      <c r="D291" s="58"/>
+      <c r="E291" s="58"/>
+      <c r="F291" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G291" s="18"/>
-      <c r="H291" s="18" t="s">
+      <c r="G291" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H291" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="I291" s="18" t="s">
+      <c r="I291" s="3" t="s">
         <v>1149</v>
       </c>
-      <c r="J291" s="18" t="s">
+      <c r="J291" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="K291" s="18" t="s">
+      <c r="K291" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="L291" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M291" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N291" s="18"/>
-      <c r="O291" s="18"/>
-      <c r="P291" s="18" t="s">
+      <c r="L291" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3" t="s">
         <v>691</v>
       </c>
     </row>
@@ -33129,6 +33151,9 @@
   </sheetData>
   <autoFilter ref="A1:P442">
     <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
     <filterColumn colId="5">

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5546" uniqueCount="2244">
   <si>
     <t>Name</t>
   </si>
@@ -11435,6 +11435,9 @@
   </si>
   <si>
     <t>Time has been coverded as automation but for date updation is not a part of Automation.</t>
+  </si>
+  <si>
+    <t>Sprint 8 Sep - 15 Sep</t>
   </si>
 </sst>
 </file>
@@ -16057,7 +16060,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16966,7 +16969,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J42"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -16975,12 +16977,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K290" sqref="K290"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17048,7 +17048,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17085,7 +17085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>41</v>
       </c>
@@ -17159,7 +17159,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>42</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>43</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>44</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>46</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -17381,7 +17381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>48</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>49</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>54</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>55</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>56</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>57</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>58</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>59</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>61</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>62</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>63</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>64</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>65</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>67</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>68</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>69</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>70</v>
       </c>
@@ -18043,7 +18043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>71</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>72</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>73</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>74</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>75</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>76</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>77</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>78</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>79</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>80</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>82</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>83</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>84</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>85</v>
       </c>
@@ -18561,7 +18561,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>86</v>
       </c>
@@ -18598,7 +18598,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>87</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>88</v>
       </c>
@@ -18672,7 +18672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>89</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>90</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>91</v>
       </c>
@@ -18754,14 +18754,16 @@
         <v>1941</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="D48" s="28"/>
       <c r="F48" s="21" t="s">
         <v>1106</v>
       </c>
       <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="H48" s="21" t="s">
+        <v>604</v>
+      </c>
       <c r="I48" s="21" t="s">
         <v>1940</v>
       </c>
@@ -18783,7 +18785,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>92</v>
       </c>
@@ -19079,7 +19081,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -19116,7 +19118,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>101</v>
       </c>
@@ -19153,7 +19155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>102</v>
       </c>
@@ -19190,7 +19192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>103</v>
       </c>
@@ -19227,7 +19229,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>104</v>
       </c>
@@ -19264,7 +19266,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>105</v>
       </c>
@@ -19301,7 +19303,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>106</v>
       </c>
@@ -19338,7 +19340,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>107</v>
       </c>
@@ -19375,7 +19377,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>108</v>
       </c>
@@ -19412,7 +19414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>109</v>
       </c>
@@ -19449,7 +19451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>110</v>
       </c>
@@ -19486,7 +19488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>111</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>112</v>
       </c>
@@ -19560,7 +19562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>113</v>
       </c>
@@ -19597,7 +19599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>114</v>
       </c>
@@ -19634,7 +19636,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>115</v>
       </c>
@@ -19671,7 +19673,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>116</v>
       </c>
@@ -19708,7 +19710,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>117</v>
       </c>
@@ -19745,7 +19747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>118</v>
       </c>
@@ -19782,7 +19784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>119</v>
       </c>
@@ -19819,7 +19821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>120</v>
       </c>
@@ -19856,7 +19858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>121</v>
       </c>
@@ -19893,7 +19895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>122</v>
       </c>
@@ -19930,7 +19932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>123</v>
       </c>
@@ -19967,7 +19969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>127</v>
       </c>
@@ -20004,7 +20006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>128</v>
       </c>
@@ -20041,7 +20043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>129</v>
       </c>
@@ -20078,7 +20080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>130</v>
       </c>
@@ -20117,7 +20119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>131</v>
       </c>
@@ -20154,7 +20156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>132</v>
       </c>
@@ -20191,7 +20193,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>133</v>
       </c>
@@ -20228,7 +20230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>134</v>
       </c>
@@ -20265,7 +20267,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>135</v>
       </c>
@@ -20302,7 +20304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>136</v>
       </c>
@@ -20339,7 +20341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>137</v>
       </c>
@@ -20376,7 +20378,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>138</v>
       </c>
@@ -20413,7 +20415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>139</v>
       </c>
@@ -20450,7 +20452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>140</v>
       </c>
@@ -20487,7 +20489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>141</v>
       </c>
@@ -20524,7 +20526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>142</v>
       </c>
@@ -20561,7 +20563,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>143</v>
       </c>
@@ -20598,7 +20600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>144</v>
       </c>
@@ -20635,7 +20637,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>145</v>
       </c>
@@ -20672,7 +20674,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>146</v>
       </c>
@@ -20709,7 +20711,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>147</v>
       </c>
@@ -20746,7 +20748,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>148</v>
       </c>
@@ -20783,7 +20785,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>149</v>
       </c>
@@ -20820,7 +20822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>153</v>
       </c>
@@ -20860,7 +20862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>154</v>
       </c>
@@ -20897,7 +20899,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>155</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>156</v>
       </c>
@@ -20971,7 +20973,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>158</v>
       </c>
@@ -21006,7 +21008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>159</v>
       </c>
@@ -21043,7 +21045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>166</v>
       </c>
@@ -21078,7 +21080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>167</v>
       </c>
@@ -21115,7 +21117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>170</v>
       </c>
@@ -21150,7 +21152,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>171</v>
       </c>
@@ -21187,7 +21189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>172</v>
       </c>
@@ -21224,7 +21226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>173</v>
       </c>
@@ -21263,7 +21265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>174</v>
       </c>
@@ -21302,7 +21304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>175</v>
       </c>
@@ -21341,7 +21343,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>176</v>
       </c>
@@ -21380,7 +21382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>177</v>
       </c>
@@ -21420,7 +21422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>178</v>
       </c>
@@ -21460,7 +21462,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>179</v>
       </c>
@@ -21499,7 +21501,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>180</v>
       </c>
@@ -21539,7 +21541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>182</v>
       </c>
@@ -21579,7 +21581,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>183</v>
       </c>
@@ -21616,7 +21618,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>185</v>
       </c>
@@ -21653,7 +21655,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>187</v>
       </c>
@@ -21690,7 +21692,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>189</v>
       </c>
@@ -21727,7 +21729,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>192</v>
       </c>
@@ -21764,7 +21766,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>193</v>
       </c>
@@ -21803,7 +21805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>194</v>
       </c>
@@ -21842,7 +21844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>196</v>
       </c>
@@ -21881,7 +21883,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>197</v>
       </c>
@@ -21918,7 +21920,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>199</v>
       </c>
@@ -21955,7 +21957,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>200</v>
       </c>
@@ -21992,7 +21994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>202</v>
       </c>
@@ -22029,7 +22031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>203</v>
       </c>
@@ -22066,7 +22068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>204</v>
       </c>
@@ -22103,7 +22105,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>205</v>
       </c>
@@ -22143,7 +22145,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>206</v>
       </c>
@@ -22183,7 +22185,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>207</v>
       </c>
@@ -22297,7 +22299,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>210</v>
       </c>
@@ -22338,7 +22340,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>211</v>
       </c>
@@ -22379,7 +22381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>212</v>
       </c>
@@ -22420,7 +22422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>213</v>
       </c>
@@ -22458,7 +22460,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>214</v>
       </c>
@@ -22496,7 +22498,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>221</v>
       </c>
@@ -22537,7 +22539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>222</v>
       </c>
@@ -22578,7 +22580,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>223</v>
       </c>
@@ -22613,7 +22615,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>224</v>
       </c>
@@ -22651,7 +22653,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>225</v>
       </c>
@@ -22686,7 +22688,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>227</v>
       </c>
@@ -22724,7 +22726,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>228</v>
       </c>
@@ -22762,7 +22764,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>231</v>
       </c>
@@ -22800,7 +22802,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>232</v>
       </c>
@@ -22835,7 +22837,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>233</v>
       </c>
@@ -22870,7 +22872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>234</v>
       </c>
@@ -22905,7 +22907,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>235</v>
       </c>
@@ -22946,7 +22948,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>236</v>
       </c>
@@ -22981,7 +22983,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>237</v>
       </c>
@@ -23016,7 +23018,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>238</v>
       </c>
@@ -23051,7 +23053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>239</v>
       </c>
@@ -23089,7 +23091,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>240</v>
       </c>
@@ -23127,7 +23129,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>241</v>
       </c>
@@ -23162,7 +23164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>242</v>
       </c>
@@ -23200,7 +23202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>243</v>
       </c>
@@ -23235,7 +23237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>244</v>
       </c>
@@ -23273,7 +23275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>245</v>
       </c>
@@ -23314,7 +23316,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>246</v>
       </c>
@@ -23349,7 +23351,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>247</v>
       </c>
@@ -23384,7 +23386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>248</v>
       </c>
@@ -23427,7 +23429,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>249</v>
       </c>
@@ -23462,7 +23464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>250</v>
       </c>
@@ -23497,7 +23499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>251</v>
       </c>
@@ -23567,7 +23569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>253</v>
       </c>
@@ -23605,7 +23607,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>256</v>
       </c>
@@ -23643,7 +23645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>257</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>258</v>
       </c>
@@ -23713,7 +23715,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>259</v>
       </c>
@@ -23748,7 +23750,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>260</v>
       </c>
@@ -23789,7 +23791,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>261</v>
       </c>
@@ -23824,7 +23826,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>262</v>
       </c>
@@ -23859,7 +23861,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>263</v>
       </c>
@@ -23894,7 +23896,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>264</v>
       </c>
@@ -23929,7 +23931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>274</v>
       </c>
@@ -23962,7 +23964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>275</v>
       </c>
@@ -23995,7 +23997,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>276</v>
       </c>
@@ -24028,7 +24030,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>277</v>
       </c>
@@ -24061,7 +24063,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>278</v>
       </c>
@@ -24094,7 +24096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>279</v>
       </c>
@@ -24127,7 +24129,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>280</v>
       </c>
@@ -24160,7 +24162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>281</v>
       </c>
@@ -24193,7 +24195,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>282</v>
       </c>
@@ -24226,7 +24228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>283</v>
       </c>
@@ -24259,7 +24261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>284</v>
       </c>
@@ -24292,7 +24294,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>285</v>
       </c>
@@ -24325,7 +24327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>286</v>
       </c>
@@ -24360,7 +24362,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>287</v>
       </c>
@@ -24395,7 +24397,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>288</v>
       </c>
@@ -24430,7 +24432,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>289</v>
       </c>
@@ -24465,7 +24467,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>290</v>
       </c>
@@ -24500,7 +24502,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>291</v>
       </c>
@@ -24535,7 +24537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>292</v>
       </c>
@@ -24570,7 +24572,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>295</v>
       </c>
@@ -24605,7 +24607,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>296</v>
       </c>
@@ -24640,7 +24642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>297</v>
       </c>
@@ -24675,7 +24677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>298</v>
       </c>
@@ -24710,7 +24712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>299</v>
       </c>
@@ -24745,7 +24747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>300</v>
       </c>
@@ -24780,7 +24782,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>301</v>
       </c>
@@ -24815,7 +24817,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>302</v>
       </c>
@@ -24850,7 +24852,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>303</v>
       </c>
@@ -24885,7 +24887,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>304</v>
       </c>
@@ -24920,7 +24922,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>305</v>
       </c>
@@ -24955,7 +24957,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>306</v>
       </c>
@@ -24990,7 +24992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>307</v>
       </c>
@@ -25025,7 +25027,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>308</v>
       </c>
@@ -25060,7 +25062,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>309</v>
       </c>
@@ -25095,7 +25097,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>310</v>
       </c>
@@ -25130,7 +25132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>311</v>
       </c>
@@ -25168,7 +25170,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>312</v>
       </c>
@@ -25244,7 +25246,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>314</v>
       </c>
@@ -25279,7 +25281,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>315</v>
       </c>
@@ -25314,7 +25316,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>316</v>
       </c>
@@ -25349,7 +25351,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>317</v>
       </c>
@@ -25384,7 +25386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>318</v>
       </c>
@@ -25419,7 +25421,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>319</v>
       </c>
@@ -25454,7 +25456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>320</v>
       </c>
@@ -25489,7 +25491,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>321</v>
       </c>
@@ -25524,7 +25526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>322</v>
       </c>
@@ -25557,7 +25559,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>323</v>
       </c>
@@ -25590,7 +25592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>324</v>
       </c>
@@ -25629,7 +25631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>325</v>
       </c>
@@ -25668,7 +25670,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>328</v>
       </c>
@@ -25707,7 +25709,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>329</v>
       </c>
@@ -25746,7 +25748,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>331</v>
       </c>
@@ -25785,7 +25787,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>332</v>
       </c>
@@ -25820,7 +25822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>333</v>
       </c>
@@ -25858,7 +25860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>334</v>
       </c>
@@ -25893,7 +25895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>335</v>
       </c>
@@ -25931,7 +25933,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>336</v>
       </c>
@@ -25969,7 +25971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>337</v>
       </c>
@@ -26007,7 +26009,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>338</v>
       </c>
@@ -26042,7 +26044,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>339</v>
       </c>
@@ -26077,7 +26079,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>341</v>
       </c>
@@ -26115,7 +26117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>342</v>
       </c>
@@ -26153,7 +26155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>343</v>
       </c>
@@ -26188,7 +26190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>344</v>
       </c>
@@ -26223,7 +26225,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>345</v>
       </c>
@@ -26261,7 +26263,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>346</v>
       </c>
@@ -26299,7 +26301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>347</v>
       </c>
@@ -26334,7 +26336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>348</v>
       </c>
@@ -26372,7 +26374,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>349</v>
       </c>
@@ -26410,7 +26412,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>350</v>
       </c>
@@ -26445,7 +26447,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>351</v>
       </c>
@@ -26488,7 +26490,9 @@
         <v>1256</v>
       </c>
       <c r="C259" s="58"/>
-      <c r="D259" s="58"/>
+      <c r="D259" s="58" t="s">
+        <v>2243</v>
+      </c>
       <c r="E259" s="58"/>
       <c r="F259" s="3" t="s">
         <v>1106</v>
@@ -26553,7 +26557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>355</v>
       </c>
@@ -26588,7 +26592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>356</v>
       </c>
@@ -26629,7 +26633,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>359</v>
       </c>
@@ -26664,7 +26668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>360</v>
       </c>
@@ -26699,7 +26703,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>362</v>
       </c>
@@ -26734,7 +26738,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>363</v>
       </c>
@@ -26804,7 +26808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>365</v>
       </c>
@@ -26839,7 +26843,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>366</v>
       </c>
@@ -26877,7 +26881,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>367</v>
       </c>
@@ -26915,7 +26919,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>368</v>
       </c>
@@ -26953,7 +26957,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>369</v>
       </c>
@@ -26988,7 +26992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>370</v>
       </c>
@@ -27023,7 +27027,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>371</v>
       </c>
@@ -27061,7 +27065,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>372</v>
       </c>
@@ -27099,7 +27103,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>373</v>
       </c>
@@ -27134,7 +27138,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>374</v>
       </c>
@@ -27169,7 +27173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>375</v>
       </c>
@@ -27204,7 +27208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>376</v>
       </c>
@@ -27239,7 +27243,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>377</v>
       </c>
@@ -27274,7 +27278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>378</v>
       </c>
@@ -27309,7 +27313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>379</v>
       </c>
@@ -27379,7 +27383,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>381</v>
       </c>
@@ -27414,7 +27418,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>382</v>
       </c>
@@ -27457,7 +27461,9 @@
         <v>1167</v>
       </c>
       <c r="C286" s="58"/>
-      <c r="D286" s="58"/>
+      <c r="D286" s="58" t="s">
+        <v>2243</v>
+      </c>
       <c r="E286" s="58"/>
       <c r="F286" s="4" t="s">
         <v>1106</v>
@@ -27487,7 +27493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>386</v>
       </c>
@@ -27531,7 +27537,9 @@
         <v>1160</v>
       </c>
       <c r="C288" s="58"/>
-      <c r="D288" s="58"/>
+      <c r="D288" s="58" t="s">
+        <v>2243</v>
+      </c>
       <c r="E288" s="58"/>
       <c r="F288" s="4" t="s">
         <v>1106</v>
@@ -27561,7 +27569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>388</v>
       </c>
@@ -27645,7 +27653,9 @@
         <v>1150</v>
       </c>
       <c r="C291" s="58"/>
-      <c r="D291" s="58"/>
+      <c r="D291" s="58" t="s">
+        <v>2243</v>
+      </c>
       <c r="E291" s="58"/>
       <c r="F291" s="3" t="s">
         <v>1106</v>
@@ -27712,7 +27722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>392</v>
       </c>
@@ -27788,7 +27798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>394</v>
       </c>
@@ -27829,7 +27839,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>395</v>
       </c>
@@ -27905,7 +27915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>397</v>
       </c>
@@ -28051,7 +28061,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>401</v>
       </c>
@@ -28092,7 +28102,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>402</v>
       </c>
@@ -28129,7 +28139,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>403</v>
       </c>
@@ -28166,7 +28176,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>404</v>
       </c>
@@ -28203,7 +28213,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>405</v>
       </c>
@@ -28240,7 +28250,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>406</v>
       </c>
@@ -28277,7 +28287,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>407</v>
       </c>
@@ -28314,7 +28324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>408</v>
       </c>
@@ -28351,7 +28361,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>409</v>
       </c>
@@ -28388,7 +28398,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>410</v>
       </c>
@@ -28425,7 +28435,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>411</v>
       </c>
@@ -28462,7 +28472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>412</v>
       </c>
@@ -28499,7 +28509,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>413</v>
       </c>
@@ -28534,7 +28544,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>415</v>
       </c>
@@ -28569,7 +28579,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>417</v>
       </c>
@@ -28606,7 +28616,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>418</v>
       </c>
@@ -28643,7 +28653,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>419</v>
       </c>
@@ -28680,7 +28690,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>420</v>
       </c>
@@ -28717,7 +28727,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>421</v>
       </c>
@@ -28754,7 +28764,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>422</v>
       </c>
@@ -28791,7 +28801,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>423</v>
       </c>
@@ -28828,7 +28838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>424</v>
       </c>
@@ -28865,7 +28875,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>426</v>
       </c>
@@ -28900,7 +28910,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>427</v>
       </c>
@@ -28935,7 +28945,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>429</v>
       </c>
@@ -28972,7 +28982,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>430</v>
       </c>
@@ -29009,7 +29019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>431</v>
       </c>
@@ -29046,7 +29056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>432</v>
       </c>
@@ -29083,7 +29093,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>433</v>
       </c>
@@ -29120,7 +29130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>434</v>
       </c>
@@ -29157,7 +29167,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>435</v>
       </c>
@@ -29192,7 +29202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>436</v>
       </c>
@@ -29227,7 +29237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>437</v>
       </c>
@@ -29262,7 +29272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>440</v>
       </c>
@@ -29299,7 +29309,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>441</v>
       </c>
@@ -29336,7 +29346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>442</v>
       </c>
@@ -29373,7 +29383,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>443</v>
       </c>
@@ -29410,7 +29420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>444</v>
       </c>
@@ -29447,7 +29457,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>445</v>
       </c>
@@ -29484,7 +29494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>448</v>
       </c>
@@ -29521,7 +29531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>449</v>
       </c>
@@ -29558,7 +29568,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>450</v>
       </c>
@@ -29595,7 +29605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>451</v>
       </c>
@@ -29632,7 +29642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>452</v>
       </c>
@@ -29669,7 +29679,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>453</v>
       </c>
@@ -29706,7 +29716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>455</v>
       </c>
@@ -29743,7 +29753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>456</v>
       </c>
@@ -29780,7 +29790,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>457</v>
       </c>
@@ -29817,7 +29827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>458</v>
       </c>
@@ -29854,7 +29864,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>459</v>
       </c>
@@ -29891,7 +29901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>460</v>
       </c>
@@ -29928,7 +29938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>461</v>
       </c>
@@ -29965,7 +29975,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>463</v>
       </c>
@@ -30002,7 +30012,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>464</v>
       </c>
@@ -30039,7 +30049,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>465</v>
       </c>
@@ -30076,7 +30086,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>469</v>
       </c>
@@ -30113,7 +30123,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>470</v>
       </c>
@@ -30150,7 +30160,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>471</v>
       </c>
@@ -30187,7 +30197,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>472</v>
       </c>
@@ -30224,7 +30234,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>473</v>
       </c>
@@ -30298,7 +30308,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>475</v>
       </c>
@@ -30335,7 +30345,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>476</v>
       </c>
@@ -30372,7 +30382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>477</v>
       </c>
@@ -30409,7 +30419,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>479</v>
       </c>
@@ -30444,7 +30454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>480</v>
       </c>
@@ -30479,7 +30489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>481</v>
       </c>
@@ -30514,7 +30524,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>482</v>
       </c>
@@ -30549,7 +30559,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>483</v>
       </c>
@@ -30586,7 +30596,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>484</v>
       </c>
@@ -30621,7 +30631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>485</v>
       </c>
@@ -30656,7 +30666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>486</v>
       </c>
@@ -30691,7 +30701,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>487</v>
       </c>
@@ -30726,7 +30736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>489</v>
       </c>
@@ -30761,7 +30771,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>490</v>
       </c>
@@ -30796,7 +30806,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>491</v>
       </c>
@@ -30831,7 +30841,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>492</v>
       </c>
@@ -30866,7 +30876,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>493</v>
       </c>
@@ -30901,7 +30911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>494</v>
       </c>
@@ -30936,7 +30946,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>495</v>
       </c>
@@ -30971,7 +30981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>498</v>
       </c>
@@ -31006,7 +31016,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>499</v>
       </c>
@@ -31041,7 +31051,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>500</v>
       </c>
@@ -31076,7 +31086,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>501</v>
       </c>
@@ -31111,7 +31121,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>503</v>
       </c>
@@ -31146,7 +31156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>504</v>
       </c>
@@ -31181,7 +31191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>505</v>
       </c>
@@ -31216,7 +31226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>506</v>
       </c>
@@ -31249,7 +31259,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>507</v>
       </c>
@@ -31280,7 +31290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>508</v>
       </c>
@@ -31313,7 +31323,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>509</v>
       </c>
@@ -31391,7 +31401,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>511</v>
       </c>
@@ -31428,7 +31438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>512</v>
       </c>
@@ -31465,7 +31475,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>513</v>
       </c>
@@ -31502,7 +31512,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>514</v>
       </c>
@@ -31539,7 +31549,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>515</v>
       </c>
@@ -31576,7 +31586,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>516</v>
       </c>
@@ -31685,7 +31695,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>529</v>
       </c>
@@ -31788,7 +31798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>548</v>
       </c>
@@ -31821,7 +31831,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>564</v>
       </c>
@@ -31858,7 +31868,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>565</v>
       </c>
@@ -31895,7 +31905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>570</v>
       </c>
@@ -31932,7 +31942,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>571</v>
       </c>
@@ -31969,7 +31979,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>574</v>
       </c>
@@ -32006,7 +32016,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>575</v>
       </c>
@@ -32043,7 +32053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>576</v>
       </c>
@@ -32080,7 +32090,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>577</v>
       </c>
@@ -32117,7 +32127,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>580</v>
       </c>
@@ -32154,7 +32164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>581</v>
       </c>
@@ -32191,7 +32201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>582</v>
       </c>
@@ -32226,7 +32236,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>583</v>
       </c>
@@ -32261,7 +32271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>584</v>
       </c>
@@ -32296,7 +32306,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>585</v>
       </c>
@@ -32331,7 +32341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>586</v>
       </c>
@@ -32366,7 +32376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>587</v>
       </c>
@@ -32403,7 +32413,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>588</v>
       </c>
@@ -32438,7 +32448,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>589</v>
       </c>
@@ -32473,7 +32483,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>590</v>
       </c>
@@ -32508,7 +32518,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>591</v>
       </c>
@@ -32543,7 +32553,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>592</v>
       </c>
@@ -32578,7 +32588,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>593</v>
       </c>
@@ -32613,7 +32623,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>594</v>
       </c>
@@ -32648,7 +32658,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>595</v>
       </c>
@@ -32683,7 +32693,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>596</v>
       </c>
@@ -32718,7 +32728,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>597</v>
       </c>
@@ -32753,7 +32763,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>598</v>
       </c>
@@ -32790,7 +32800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>599</v>
       </c>
@@ -32827,7 +32837,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>600</v>
       </c>
@@ -32862,7 +32872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>601</v>
       </c>
@@ -32897,7 +32907,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>602</v>
       </c>
@@ -32934,7 +32944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>603</v>
       </c>
@@ -32971,7 +32981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>604</v>
       </c>
@@ -33008,7 +33018,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>605</v>
       </c>
@@ -33043,7 +33053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>606</v>
       </c>
@@ -33078,7 +33088,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>607</v>
       </c>
@@ -33113,7 +33123,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>608</v>
       </c>
@@ -33149,35 +33159,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P442">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ankit"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P442"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33454,7 +33448,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33482,7 +33476,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -33520,7 +33514,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="130.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -33558,7 +33552,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
     </row>
-    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -33596,7 +33590,7 @@
       <c r="U11" s="43"/>
       <c r="V11" s="43"/>
     </row>
-    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="88.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -33677,7 +33671,7 @@
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
     </row>
-    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="65.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -33811,7 +33805,7 @@
       <c r="D17" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -33841,7 +33835,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
     </row>
-    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -33891,7 +33885,7 @@
       <c r="D19" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -34007,7 +34001,7 @@
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
     </row>
-    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -34100,7 +34094,7 @@
       <c r="D24" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -34143,7 +34137,7 @@
       <c r="D25" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -34227,7 +34221,7 @@
       <c r="D27" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -34255,7 +34249,7 @@
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
     </row>
-    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -34303,7 +34297,7 @@
       <c r="D29" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>2238</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -34333,7 +34327,7 @@
       <c r="U29" s="43"/>
       <c r="V29" s="43"/>
     </row>
-    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -34370,7 +34364,7 @@
       <c r="U30" s="43"/>
       <c r="V30" s="43"/>
     </row>
-    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -34502,7 +34496,13 @@
       <c r="V33" s="43"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V33"/>
+  <autoFilter ref="A1:V33">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5552" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="2245">
   <si>
     <t>Name</t>
   </si>
@@ -11438,6 +11438,9 @@
   </si>
   <si>
     <t>Sprint 8 Sep - 15 Sep</t>
+  </si>
+  <si>
+    <t>Reminder Feature not yet implemented</t>
   </si>
 </sst>
 </file>
@@ -16967,11 +16970,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B286" sqref="B286"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="45.109375" style="1" customWidth="1"/>
@@ -21143,15 +21146,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>171</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>1704</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
+      <c r="C113" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F113" s="21" t="s">
         <v>1106</v>
       </c>
@@ -21180,15 +21187,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>172</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>1700</v>
       </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="C114" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F114" s="18" t="s">
         <v>1106</v>
       </c>
@@ -22644,12 +22655,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>225</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>1575</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>2243</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>1106</v>
@@ -22793,12 +22810,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>232</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>1559</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>2243</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>1106</v>
@@ -22828,12 +22851,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>233</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>1555</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>2243</v>
       </c>
       <c r="F157" s="18" t="s">
         <v>1106</v>
@@ -22863,12 +22892,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>234</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>1551</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>2243</v>
       </c>
       <c r="F158" s="18" t="s">
         <v>1106</v>
@@ -29312,15 +29347,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>441</v>
       </c>
       <c r="B336" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="27"/>
-      <c r="D336" s="27"/>
+      <c r="C336" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D336" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F336" s="21" t="s">
         <v>1106</v>
       </c>
@@ -29793,15 +29832,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>457</v>
       </c>
       <c r="B349" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="C349" s="27"/>
-      <c r="D349" s="27"/>
+      <c r="C349" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D349" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F349" s="21" t="s">
         <v>1106</v>
       </c>
@@ -31945,15 +31988,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>571</v>
       </c>
       <c r="B409" s="21" t="s">
         <v>783</v>
       </c>
-      <c r="C409" s="27"/>
-      <c r="D409" s="27"/>
+      <c r="C409" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D409" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F409" s="21" t="s">
         <v>1106</v>
       </c>
@@ -33163,14 +33210,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Sprint 8 Sep - 15 Sep"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -33183,9 +33230,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33270,7 +33317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33303,7 +33350,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33336,7 +33383,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="125.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -33369,7 +33416,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33402,7 +33449,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33432,7 +33479,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="192.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33462,7 +33509,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33473,12 +33520,14 @@
         <v>1106</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>599</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>2243</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>689</v>
+        <v>612</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>2087</v>
@@ -33641,7 +33690,7 @@
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
     </row>
-    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -33719,7 +33768,7 @@
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
     </row>
-    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -33762,7 +33811,7 @@
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
     </row>
-    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -33806,7 +33855,7 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
     </row>
-    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -33886,7 +33935,7 @@
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -33929,7 +33978,7 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -33972,7 +34021,7 @@
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -34052,7 +34101,7 @@
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
     </row>
-    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -34095,7 +34144,7 @@
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -34138,7 +34187,7 @@
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -34181,7 +34230,7 @@
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
     </row>
-    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -34224,7 +34273,7 @@
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -34298,7 +34347,7 @@
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
     </row>
-    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -34386,7 +34435,7 @@
         <v>2133</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>1106</v>
+        <v>2244</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>494</v>
@@ -34421,7 +34470,7 @@
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
     </row>
-    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -34465,7 +34514,7 @@
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
     </row>
-    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -34511,7 +34560,17 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:V33">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Sprint 8 Sep - 15 Sep"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5571" uniqueCount="2244">
   <si>
     <t>Name</t>
   </si>
@@ -11426,9 +11426,6 @@
   </si>
   <si>
     <t>Sprint 1-Sep  - 8Sep</t>
-  </si>
-  <si>
-    <t>No(Upsellable functionbality not working )</t>
   </si>
   <si>
     <t>NO(Change sorting category is depend on TM)</t>
@@ -16049,8 +16046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16970,8 +16967,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F51" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18740,7 +18737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18779,7 +18776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18789,7 +18786,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="F49" s="21" t="s">
-        <v>2240</v>
+        <v>1106</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21" t="s">
@@ -18853,7 +18850,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18890,7 +18887,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -18927,7 +18924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -18964,7 +18961,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -19001,7 +18998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19038,7 +19035,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -20816,7 +20813,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20930,7 +20927,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -20940,7 +20937,7 @@
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
       <c r="F107" s="18" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="18" t="s">
@@ -21146,7 +21143,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>171</v>
       </c>
@@ -21157,7 +21154,7 @@
         <v>496</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F113" s="21" t="s">
         <v>1106</v>
@@ -21187,7 +21184,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>172</v>
       </c>
@@ -21198,7 +21195,7 @@
         <v>496</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F114" s="18" t="s">
         <v>1106</v>
@@ -22107,7 +22104,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22147,7 +22144,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22187,7 +22184,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22227,7 +22224,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22264,7 +22261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22301,7 +22298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22342,7 +22339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22383,7 +22380,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22424,7 +22421,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22462,7 +22459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -22500,7 +22497,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22541,7 +22538,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -22655,7 +22652,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>225</v>
       </c>
@@ -22666,7 +22663,7 @@
         <v>496</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F152" s="18" t="s">
         <v>1106</v>
@@ -22810,7 +22807,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>232</v>
       </c>
@@ -22821,7 +22818,7 @@
         <v>496</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F156" s="18" t="s">
         <v>1106</v>
@@ -22851,7 +22848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>233</v>
       </c>
@@ -22862,7 +22859,7 @@
         <v>496</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F157" s="18" t="s">
         <v>1106</v>
@@ -22892,7 +22889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>234</v>
       </c>
@@ -22903,7 +22900,7 @@
         <v>496</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F158" s="18" t="s">
         <v>1106</v>
@@ -23412,7 +23409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23560,7 +23557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -23595,7 +23592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23633,7 +23630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -23776,7 +23773,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -25158,7 +25155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25196,7 +25193,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -25245,7 +25242,7 @@
         <v>496</v>
       </c>
       <c r="D224" s="53" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E224" s="53"/>
       <c r="F224" s="51" t="s">
@@ -26523,7 +26520,7 @@
         <v>496</v>
       </c>
       <c r="D259" s="53" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E259" s="53"/>
       <c r="F259" s="52" t="s">
@@ -26554,7 +26551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26805,7 +26802,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -27380,7 +27377,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27496,7 +27493,7 @@
         <v>496</v>
       </c>
       <c r="D286" s="53" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E286" s="53"/>
       <c r="F286" s="51" t="s">
@@ -27574,7 +27571,7 @@
         <v>496</v>
       </c>
       <c r="D288" s="53" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E288" s="53"/>
       <c r="F288" s="51" t="s">
@@ -27605,7 +27602,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27646,7 +27643,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27692,14 +27689,14 @@
         <v>496</v>
       </c>
       <c r="D291" s="53" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="E291" s="53"/>
       <c r="F291" s="52" t="s">
         <v>1106</v>
       </c>
       <c r="G291" s="52" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="H291" s="52" t="s">
         <v>604</v>
@@ -27725,7 +27722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -27801,7 +27798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27836,7 +27833,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -27877,7 +27874,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -27918,7 +27915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -27953,7 +27950,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -27994,7 +27991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28029,7 +28026,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28064,7 +28061,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -28099,7 +28096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -29347,7 +29344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>441</v>
       </c>
@@ -29358,7 +29355,7 @@
         <v>496</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F336" s="21" t="s">
         <v>1106</v>
@@ -29832,7 +29829,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>457</v>
       </c>
@@ -29843,7 +29840,7 @@
         <v>496</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F349" s="21" t="s">
         <v>1106</v>
@@ -30317,7 +30314,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -31410,7 +31407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31667,7 +31664,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>517</v>
       </c>
@@ -31704,7 +31701,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>518</v>
       </c>
@@ -31778,7 +31775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>541</v>
       </c>
@@ -31811,7 +31808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>547</v>
       </c>
@@ -31988,7 +31985,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>571</v>
       </c>
@@ -31999,7 +31996,7 @@
         <v>496</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F409" s="21" t="s">
         <v>1106</v>
@@ -33210,14 +33207,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="7">
       <filters>
-        <filter val="Sprint 8 Sep - 15 Sep"/>
+        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -33230,9 +33222,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33350,7 +33342,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="121.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33449,7 +33441,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="141" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33509,7 +33501,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33523,7 +33515,7 @@
         <v>599</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
@@ -33768,7 +33760,7 @@
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
     </row>
-    <row r="15" spans="1:22" ht="49.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -34144,7 +34136,7 @@
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="1:22" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -34230,7 +34222,7 @@
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
     </row>
-    <row r="26" spans="1:22" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -34347,7 +34339,7 @@
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
     </row>
-    <row r="29" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -34435,7 +34427,7 @@
         <v>2133</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>494</v>
@@ -34470,7 +34462,7 @@
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
     </row>
-    <row r="32" spans="1:22" ht="92.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -34565,15 +34557,10 @@
         <filter val="Yes"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4">
+    <filterColumn colId="6">
       <filters>
-        <filter val="Sprint 8 Sep - 15 Sep"/>
+        <filter val="Ankit"/>
       </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -11605,7 +11605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11752,6 +11752,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12451,8 +12458,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView topLeftCell="E38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="F92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15552,26 +15559,26 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="93" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="9" t="s">
+      <c r="A108" s="54"/>
+      <c r="B108" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="55" t="s">
         <v>604</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="F108" s="31" t="s">
+      <c r="F108" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="56" t="s">
         <v>518</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="56" t="s">
         <v>519</v>
       </c>
     </row>
@@ -16967,8 +16974,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F51" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="G259" workbookViewId="0">
+      <selection activeCell="J286" sqref="J286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18737,7 +18744,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18776,7 +18783,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18850,7 +18857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18887,7 +18894,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -18924,7 +18931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -18961,7 +18968,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -18998,7 +19005,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19035,7 +19042,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -20813,7 +20820,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20927,7 +20934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -22104,7 +22111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22144,7 +22151,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22184,7 +22191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22224,7 +22231,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22261,7 +22268,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22421,7 +22428,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22459,7 +22466,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -23557,7 +23564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -23592,7 +23599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23630,7 +23637,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -25155,7 +25162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25193,7 +25200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -26551,7 +26558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26802,7 +26809,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -27377,7 +27384,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27643,7 +27650,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27722,7 +27729,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -27798,7 +27805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27915,7 +27922,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -27991,7 +27998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28026,7 +28033,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28061,7 +28068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -30314,7 +30321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -31407,7 +31414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31664,7 +31671,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>517</v>
       </c>
@@ -31701,7 +31708,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>518</v>
       </c>
@@ -31775,7 +31782,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>541</v>
       </c>
@@ -31808,7 +31815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>547</v>
       </c>
@@ -33207,6 +33214,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P442">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="7">
       <filters>
         <filter val="Ankit"/>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5598" uniqueCount="2260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="2261">
   <si>
     <t>Name</t>
   </si>
@@ -11479,6 +11479,9 @@
 3. playout returns to what was playing (TV/TSTV/CUTV or RADIO), or if playout is not available then the last watched TV channel is played</t>
   </si>
   <si>
+    <t>Sprint 15 Sep - 22 Sep</t>
+  </si>
+  <si>
     <t xml:space="preserve">Step 1
 1. the TV channel tuned before pressing MENU will be tuned
 2. The Radio channel tuned before pressing MENU will be tuned
@@ -11491,7 +11494,7 @@
 2. HUB is shown over tuned Radio channel.
 3. a. Close menu &amp; return to full-screen media (Radio);
 stream not affected
-b.Close menu &amp; return to full-screen media (Radio);
+b.Close menu &amp; return to full-screen media (TV);
 stream not affected
 </t>
   </si>
@@ -17031,12 +17034,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="H403" sqref="H403"/>
+      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17108,7 +17112,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -17145,7 +17149,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17182,7 +17186,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -17219,7 +17223,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42</v>
       </c>
@@ -17256,7 +17260,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -17293,7 +17297,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -17330,7 +17334,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -17367,7 +17371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -17404,7 +17408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -17441,7 +17445,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -17476,7 +17480,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>49</v>
       </c>
@@ -17511,7 +17515,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>54</v>
       </c>
@@ -17548,7 +17552,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -17585,7 +17589,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -17622,7 +17626,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -17659,7 +17663,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>58</v>
       </c>
@@ -17696,7 +17700,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>59</v>
       </c>
@@ -17733,7 +17737,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>60</v>
       </c>
@@ -17770,7 +17774,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -17807,7 +17811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -17844,7 +17848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>63</v>
       </c>
@@ -17881,7 +17885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -17918,7 +17922,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -17955,7 +17959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -17992,7 +17996,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>68</v>
       </c>
@@ -18029,7 +18033,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>69</v>
       </c>
@@ -18066,7 +18070,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -18103,7 +18107,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>71</v>
       </c>
@@ -18140,7 +18144,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>72</v>
       </c>
@@ -18177,7 +18181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -18214,7 +18218,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -18251,7 +18255,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -18288,7 +18292,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>76</v>
       </c>
@@ -18325,7 +18329,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>77</v>
       </c>
@@ -18362,7 +18366,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -18399,7 +18403,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>79</v>
       </c>
@@ -18436,7 +18440,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>80</v>
       </c>
@@ -18473,7 +18477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>82</v>
       </c>
@@ -18510,7 +18514,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -18547,7 +18551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>84</v>
       </c>
@@ -18584,7 +18588,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>85</v>
       </c>
@@ -18621,7 +18625,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>86</v>
       </c>
@@ -18658,7 +18662,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>87</v>
       </c>
@@ -18695,7 +18699,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>88</v>
       </c>
@@ -18732,7 +18736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>89</v>
       </c>
@@ -18769,7 +18773,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>90</v>
       </c>
@@ -18806,7 +18810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18884,7 +18888,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>93</v>
       </c>
@@ -18921,7 +18925,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18960,7 +18964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -18999,7 +19003,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -19038,7 +19042,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -19077,7 +19081,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19116,7 +19120,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>100</v>
       </c>
@@ -19192,7 +19196,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>101</v>
       </c>
@@ -19229,7 +19233,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -19266,7 +19270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>103</v>
       </c>
@@ -19303,7 +19307,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>104</v>
       </c>
@@ -19340,7 +19344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>105</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>106</v>
       </c>
@@ -19414,7 +19418,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>107</v>
       </c>
@@ -19451,7 +19455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -19488,7 +19492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>109</v>
       </c>
@@ -19525,7 +19529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110</v>
       </c>
@@ -19562,7 +19566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>111</v>
       </c>
@@ -19599,7 +19603,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>112</v>
       </c>
@@ -19636,7 +19640,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>113</v>
       </c>
@@ -19673,7 +19677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>114</v>
       </c>
@@ -19710,7 +19714,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>115</v>
       </c>
@@ -19747,7 +19751,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>116</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>117</v>
       </c>
@@ -19821,7 +19825,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118</v>
       </c>
@@ -19858,7 +19862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>119</v>
       </c>
@@ -19895,7 +19899,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120</v>
       </c>
@@ -19932,7 +19936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>121</v>
       </c>
@@ -19969,7 +19973,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>122</v>
       </c>
@@ -20006,7 +20010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>123</v>
       </c>
@@ -20043,7 +20047,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>127</v>
       </c>
@@ -20080,7 +20084,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>128</v>
       </c>
@@ -20117,7 +20121,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>129</v>
       </c>
@@ -20154,7 +20158,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>130</v>
       </c>
@@ -20193,7 +20197,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>131</v>
       </c>
@@ -20230,7 +20234,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>132</v>
       </c>
@@ -20267,7 +20271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>133</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>134</v>
       </c>
@@ -20341,7 +20345,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>135</v>
       </c>
@@ -20378,7 +20382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>136</v>
       </c>
@@ -20415,7 +20419,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>137</v>
       </c>
@@ -20452,7 +20456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>138</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>139</v>
       </c>
@@ -20526,7 +20530,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140</v>
       </c>
@@ -20563,7 +20567,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>141</v>
       </c>
@@ -20600,7 +20604,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>142</v>
       </c>
@@ -20637,7 +20641,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>143</v>
       </c>
@@ -20674,7 +20678,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>144</v>
       </c>
@@ -20711,7 +20715,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>145</v>
       </c>
@@ -20748,7 +20752,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>146</v>
       </c>
@@ -20785,7 +20789,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -20822,7 +20826,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>148</v>
       </c>
@@ -20859,7 +20863,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>149</v>
       </c>
@@ -20896,7 +20900,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20936,7 +20940,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>154</v>
       </c>
@@ -20973,7 +20977,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>155</v>
       </c>
@@ -21010,7 +21014,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -21047,7 +21051,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>158</v>
       </c>
@@ -21082,7 +21086,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>159</v>
       </c>
@@ -21119,7 +21123,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>166</v>
       </c>
@@ -21154,7 +21158,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>167</v>
       </c>
@@ -21191,7 +21195,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>170</v>
       </c>
@@ -21226,7 +21230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>171</v>
       </c>
@@ -21267,7 +21271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>172</v>
       </c>
@@ -21308,7 +21312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>173</v>
       </c>
@@ -21347,7 +21351,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>174</v>
       </c>
@@ -21386,7 +21390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>175</v>
       </c>
@@ -21425,7 +21429,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>176</v>
       </c>
@@ -21464,7 +21468,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>177</v>
       </c>
@@ -21504,7 +21508,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>178</v>
       </c>
@@ -21544,7 +21548,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>179</v>
       </c>
@@ -21583,7 +21587,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>180</v>
       </c>
@@ -21623,7 +21627,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>182</v>
       </c>
@@ -21663,7 +21667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>183</v>
       </c>
@@ -21700,7 +21704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>185</v>
       </c>
@@ -21737,7 +21741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>187</v>
       </c>
@@ -21774,7 +21778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>189</v>
       </c>
@@ -21811,7 +21815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>192</v>
       </c>
@@ -21848,7 +21852,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>193</v>
       </c>
@@ -21887,7 +21891,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>194</v>
       </c>
@@ -21926,7 +21930,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>196</v>
       </c>
@@ -21965,7 +21969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>197</v>
       </c>
@@ -22002,7 +22006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>199</v>
       </c>
@@ -22039,7 +22043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>200</v>
       </c>
@@ -22076,7 +22080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>202</v>
       </c>
@@ -22113,7 +22117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -22150,7 +22154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -22187,7 +22191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22227,7 +22231,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22267,7 +22271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22307,7 +22311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22344,7 +22348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22381,7 +22385,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22422,7 +22426,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22463,7 +22467,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22504,7 +22508,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22542,7 +22546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -22580,7 +22584,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22621,7 +22625,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -22662,7 +22666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>223</v>
       </c>
@@ -22697,7 +22701,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>224</v>
       </c>
@@ -22735,7 +22739,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>225</v>
       </c>
@@ -22776,7 +22780,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>227</v>
       </c>
@@ -22814,7 +22818,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>228</v>
       </c>
@@ -22852,7 +22856,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>231</v>
       </c>
@@ -22890,7 +22894,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>232</v>
       </c>
@@ -22931,7 +22935,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>233</v>
       </c>
@@ -22972,7 +22976,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>234</v>
       </c>
@@ -23013,7 +23017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>235</v>
       </c>
@@ -23054,7 +23058,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>236</v>
       </c>
@@ -23089,7 +23093,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>237</v>
       </c>
@@ -23124,7 +23128,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>238</v>
       </c>
@@ -23159,7 +23163,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>239</v>
       </c>
@@ -23197,7 +23201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>240</v>
       </c>
@@ -23235,7 +23239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>241</v>
       </c>
@@ -23270,7 +23274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>242</v>
       </c>
@@ -23308,7 +23312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>243</v>
       </c>
@@ -23343,7 +23347,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>244</v>
       </c>
@@ -23381,7 +23385,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>245</v>
       </c>
@@ -23422,7 +23426,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>246</v>
       </c>
@@ -23457,7 +23461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>247</v>
       </c>
@@ -23492,7 +23496,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23535,7 +23539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>249</v>
       </c>
@@ -23570,7 +23574,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>250</v>
       </c>
@@ -23605,7 +23609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>251</v>
       </c>
@@ -23640,7 +23644,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -23675,7 +23679,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23713,7 +23717,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -23751,7 +23755,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>257</v>
       </c>
@@ -23786,7 +23790,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>258</v>
       </c>
@@ -23821,7 +23825,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>259</v>
       </c>
@@ -23856,7 +23860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -23897,7 +23901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>261</v>
       </c>
@@ -23932,7 +23936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>262</v>
       </c>
@@ -23967,7 +23971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -24002,7 +24006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>264</v>
       </c>
@@ -24037,7 +24041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>274</v>
       </c>
@@ -24070,7 +24074,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>275</v>
       </c>
@@ -24103,7 +24107,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>276</v>
       </c>
@@ -24136,7 +24140,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>277</v>
       </c>
@@ -24169,7 +24173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>278</v>
       </c>
@@ -24202,7 +24206,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>279</v>
       </c>
@@ -24235,7 +24239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>280</v>
       </c>
@@ -24268,7 +24272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>281</v>
       </c>
@@ -24301,7 +24305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>282</v>
       </c>
@@ -24334,7 +24338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>283</v>
       </c>
@@ -24367,7 +24371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>284</v>
       </c>
@@ -24400,7 +24404,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>285</v>
       </c>
@@ -24433,7 +24437,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>286</v>
       </c>
@@ -24468,7 +24472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>287</v>
       </c>
@@ -24503,7 +24507,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>288</v>
       </c>
@@ -24538,7 +24542,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>289</v>
       </c>
@@ -24573,7 +24577,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>290</v>
       </c>
@@ -24608,7 +24612,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>291</v>
       </c>
@@ -24643,7 +24647,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>292</v>
       </c>
@@ -24678,7 +24682,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>295</v>
       </c>
@@ -24713,7 +24717,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>296</v>
       </c>
@@ -24748,7 +24752,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>297</v>
       </c>
@@ -24783,7 +24787,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>298</v>
       </c>
@@ -24818,7 +24822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>299</v>
       </c>
@@ -24853,7 +24857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>300</v>
       </c>
@@ -24888,7 +24892,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>301</v>
       </c>
@@ -24923,7 +24927,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>302</v>
       </c>
@@ -24958,7 +24962,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>303</v>
       </c>
@@ -24993,7 +24997,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>304</v>
       </c>
@@ -25028,7 +25032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>305</v>
       </c>
@@ -25063,7 +25067,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>306</v>
       </c>
@@ -25098,7 +25102,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>307</v>
       </c>
@@ -25133,7 +25137,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>308</v>
       </c>
@@ -25168,7 +25172,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>309</v>
       </c>
@@ -25203,7 +25207,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>310</v>
       </c>
@@ -25238,7 +25242,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25276,7 +25280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -25314,7 +25318,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -25356,7 +25360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>314</v>
       </c>
@@ -25391,7 +25395,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>315</v>
       </c>
@@ -25426,7 +25430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>316</v>
       </c>
@@ -25461,7 +25465,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>317</v>
       </c>
@@ -25496,7 +25500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>318</v>
       </c>
@@ -25531,7 +25535,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>319</v>
       </c>
@@ -25566,7 +25570,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>320</v>
       </c>
@@ -25601,7 +25605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>321</v>
       </c>
@@ -25636,7 +25640,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>322</v>
       </c>
@@ -25669,7 +25673,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>323</v>
       </c>
@@ -25702,7 +25706,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>324</v>
       </c>
@@ -25741,7 +25745,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>325</v>
       </c>
@@ -25780,7 +25784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>328</v>
       </c>
@@ -25819,7 +25823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>329</v>
       </c>
@@ -25858,7 +25862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>331</v>
       </c>
@@ -25897,7 +25901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>332</v>
       </c>
@@ -25932,7 +25936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>333</v>
       </c>
@@ -25970,7 +25974,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>334</v>
       </c>
@@ -26005,7 +26009,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>335</v>
       </c>
@@ -26043,7 +26047,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>336</v>
       </c>
@@ -26081,7 +26085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>337</v>
       </c>
@@ -26119,7 +26123,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>338</v>
       </c>
@@ -26154,7 +26158,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>339</v>
       </c>
@@ -26189,7 +26193,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>341</v>
       </c>
@@ -26227,7 +26231,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>342</v>
       </c>
@@ -26265,7 +26269,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>343</v>
       </c>
@@ -26300,7 +26304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>344</v>
       </c>
@@ -26335,7 +26339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>345</v>
       </c>
@@ -26373,7 +26377,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>346</v>
       </c>
@@ -26411,7 +26415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>347</v>
       </c>
@@ -26446,7 +26450,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>348</v>
       </c>
@@ -26484,7 +26488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>349</v>
       </c>
@@ -26522,7 +26526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>350</v>
       </c>
@@ -26557,7 +26561,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>351</v>
       </c>
@@ -26592,7 +26596,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -26634,7 +26638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26669,7 +26673,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>355</v>
       </c>
@@ -26704,7 +26708,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>356</v>
       </c>
@@ -26745,7 +26749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>359</v>
       </c>
@@ -26780,7 +26784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>360</v>
       </c>
@@ -26815,7 +26819,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>362</v>
       </c>
@@ -26850,7 +26854,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>363</v>
       </c>
@@ -26885,7 +26889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -26920,7 +26924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>365</v>
       </c>
@@ -26955,7 +26959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>366</v>
       </c>
@@ -26993,7 +26997,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>367</v>
       </c>
@@ -27031,7 +27035,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>368</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>369</v>
       </c>
@@ -27104,7 +27108,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>370</v>
       </c>
@@ -27139,7 +27143,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>371</v>
       </c>
@@ -27177,7 +27181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>372</v>
       </c>
@@ -27215,7 +27219,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>373</v>
       </c>
@@ -27250,7 +27254,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>374</v>
       </c>
@@ -27285,7 +27289,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>375</v>
       </c>
@@ -27320,7 +27324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>376</v>
       </c>
@@ -27355,7 +27359,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>377</v>
       </c>
@@ -27390,7 +27394,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>378</v>
       </c>
@@ -27425,7 +27429,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>379</v>
       </c>
@@ -27460,7 +27464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27495,7 +27499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>381</v>
       </c>
@@ -27530,7 +27534,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>382</v>
       </c>
@@ -27565,7 +27569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27607,7 +27611,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>386</v>
       </c>
@@ -27643,7 +27647,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27685,7 +27689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27726,7 +27730,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27761,7 +27765,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27805,7 +27809,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -27840,7 +27844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>392</v>
       </c>
@@ -27881,7 +27885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27916,7 +27920,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -27957,7 +27961,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -27998,7 +28002,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -28033,7 +28037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28074,7 +28078,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28109,7 +28113,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28144,7 +28148,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -28179,7 +28183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -28220,7 +28224,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>402</v>
       </c>
@@ -28257,7 +28261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>403</v>
       </c>
@@ -28294,7 +28298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>404</v>
       </c>
@@ -28331,7 +28335,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>405</v>
       </c>
@@ -28368,7 +28372,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>406</v>
       </c>
@@ -28405,7 +28409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>407</v>
       </c>
@@ -28442,7 +28446,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>408</v>
       </c>
@@ -28479,7 +28483,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>409</v>
       </c>
@@ -28516,7 +28520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>410</v>
       </c>
@@ -28553,7 +28557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>411</v>
       </c>
@@ -28590,7 +28594,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>412</v>
       </c>
@@ -28627,7 +28631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>413</v>
       </c>
@@ -28662,7 +28666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>415</v>
       </c>
@@ -28697,7 +28701,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>417</v>
       </c>
@@ -28734,7 +28738,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>418</v>
       </c>
@@ -28771,7 +28775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>419</v>
       </c>
@@ -28808,7 +28812,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>420</v>
       </c>
@@ -28845,7 +28849,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>421</v>
       </c>
@@ -28882,7 +28886,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>422</v>
       </c>
@@ -28919,7 +28923,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>423</v>
       </c>
@@ -28956,7 +28960,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>424</v>
       </c>
@@ -28993,7 +28997,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>426</v>
       </c>
@@ -29028,7 +29032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>427</v>
       </c>
@@ -29063,7 +29067,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>429</v>
       </c>
@@ -29100,7 +29104,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>430</v>
       </c>
@@ -29137,7 +29141,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>431</v>
       </c>
@@ -29174,7 +29178,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>432</v>
       </c>
@@ -29211,7 +29215,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>433</v>
       </c>
@@ -29248,7 +29252,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>434</v>
       </c>
@@ -29285,7 +29289,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>435</v>
       </c>
@@ -29320,7 +29324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>436</v>
       </c>
@@ -29355,7 +29359,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>437</v>
       </c>
@@ -29390,7 +29394,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>440</v>
       </c>
@@ -29427,7 +29431,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>441</v>
       </c>
@@ -29468,7 +29472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>442</v>
       </c>
@@ -29505,7 +29509,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>443</v>
       </c>
@@ -29542,7 +29546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>444</v>
       </c>
@@ -29579,7 +29583,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>445</v>
       </c>
@@ -29616,7 +29620,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>448</v>
       </c>
@@ -29653,7 +29657,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>449</v>
       </c>
@@ -29690,7 +29694,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>450</v>
       </c>
@@ -29727,7 +29731,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>451</v>
       </c>
@@ -29764,7 +29768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>452</v>
       </c>
@@ -29801,7 +29805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>453</v>
       </c>
@@ -29838,7 +29842,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>455</v>
       </c>
@@ -29875,7 +29879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>456</v>
       </c>
@@ -29912,7 +29916,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>457</v>
       </c>
@@ -29953,7 +29957,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>458</v>
       </c>
@@ -29990,7 +29994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>459</v>
       </c>
@@ -30027,7 +30031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>460</v>
       </c>
@@ -30064,7 +30068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>461</v>
       </c>
@@ -30101,7 +30105,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>463</v>
       </c>
@@ -30138,7 +30142,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>464</v>
       </c>
@@ -30175,7 +30179,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>465</v>
       </c>
@@ -30212,7 +30216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>469</v>
       </c>
@@ -30249,7 +30253,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>470</v>
       </c>
@@ -30286,7 +30290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>471</v>
       </c>
@@ -30323,7 +30327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>472</v>
       </c>
@@ -30360,7 +30364,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>473</v>
       </c>
@@ -30397,7 +30401,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -30434,7 +30438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>475</v>
       </c>
@@ -30471,7 +30475,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>476</v>
       </c>
@@ -30508,7 +30512,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>477</v>
       </c>
@@ -30545,7 +30549,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>479</v>
       </c>
@@ -30580,7 +30584,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>480</v>
       </c>
@@ -30615,7 +30619,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>481</v>
       </c>
@@ -30650,7 +30654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>482</v>
       </c>
@@ -30685,7 +30689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>483</v>
       </c>
@@ -30722,7 +30726,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>484</v>
       </c>
@@ -30757,7 +30761,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>485</v>
       </c>
@@ -30792,7 +30796,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>486</v>
       </c>
@@ -30827,7 +30831,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>487</v>
       </c>
@@ -30862,7 +30866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>489</v>
       </c>
@@ -30897,7 +30901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>490</v>
       </c>
@@ -30932,7 +30936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>491</v>
       </c>
@@ -30967,7 +30971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>492</v>
       </c>
@@ -31002,7 +31006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>493</v>
       </c>
@@ -31037,7 +31041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>494</v>
       </c>
@@ -31072,7 +31076,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>495</v>
       </c>
@@ -31107,7 +31111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>498</v>
       </c>
@@ -31142,7 +31146,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>499</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>500</v>
       </c>
@@ -31212,7 +31216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>501</v>
       </c>
@@ -31247,7 +31251,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>503</v>
       </c>
@@ -31282,7 +31286,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>504</v>
       </c>
@@ -31317,7 +31321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>505</v>
       </c>
@@ -31352,7 +31356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>506</v>
       </c>
@@ -31385,7 +31389,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>507</v>
       </c>
@@ -31416,7 +31420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>508</v>
       </c>
@@ -31449,7 +31453,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>509</v>
       </c>
@@ -31497,8 +31501,12 @@
       <c r="B393" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="C393" s="18"/>
-      <c r="D393" s="18"/>
+      <c r="C393" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D393" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F393" s="18" t="s">
         <v>1102</v>
       </c>
@@ -31529,8 +31537,12 @@
     </row>
     <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
-      <c r="C394" s="18"/>
-      <c r="D394" s="18"/>
+      <c r="C394" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D394" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F394" s="18"/>
       <c r="G394" s="18"/>
       <c r="H394" s="18" t="s">
@@ -31553,8 +31565,12 @@
     </row>
     <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
-      <c r="C395" s="18"/>
-      <c r="D395" s="18"/>
+      <c r="C395" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D395" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F395" s="18"/>
       <c r="G395" s="18" t="s">
         <v>2251</v>
@@ -31577,7 +31593,7 @@
       <c r="O395" s="18"/>
       <c r="P395" s="18"/>
     </row>
-    <row r="396" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>511</v>
       </c>
@@ -31614,7 +31630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>512</v>
       </c>
@@ -31651,7 +31667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>513</v>
       </c>
@@ -31688,7 +31704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>514</v>
       </c>
@@ -31725,7 +31741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>515</v>
       </c>
@@ -31769,8 +31785,12 @@
       <c r="B401" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="C401" s="18"/>
-      <c r="D401" s="18"/>
+      <c r="C401" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D401" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F401" s="18" t="s">
         <v>1102</v>
       </c>
@@ -31785,7 +31805,7 @@
         <v>2256</v>
       </c>
       <c r="K401" s="18" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="L401" s="18" t="s">
         <v>693</v>
@@ -31803,8 +31823,12 @@
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
-      <c r="C402" s="18"/>
-      <c r="D402" s="18"/>
+      <c r="C402" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D402" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F402" s="18"/>
       <c r="G402" s="18"/>
       <c r="H402" s="18" t="s">
@@ -31825,7 +31849,7 @@
       <c r="O402" s="18"/>
       <c r="P402" s="18"/>
     </row>
-    <row r="403" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" s="18" t="s">
         <v>2253</v>
       </c>
@@ -31851,7 +31875,7 @@
       <c r="O403" s="18"/>
       <c r="P403" s="18"/>
     </row>
-    <row r="404" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>517</v>
       </c>
@@ -31888,7 +31912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>518</v>
       </c>
@@ -31925,7 +31949,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>529</v>
       </c>
@@ -31962,7 +31986,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>541</v>
       </c>
@@ -31995,7 +32019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>547</v>
       </c>
@@ -32028,7 +32052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>548</v>
       </c>
@@ -32061,7 +32085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>564</v>
       </c>
@@ -32098,7 +32122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>565</v>
       </c>
@@ -32135,7 +32159,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>570</v>
       </c>
@@ -32172,7 +32196,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>571</v>
       </c>
@@ -32213,7 +32237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>574</v>
       </c>
@@ -32250,7 +32274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>575</v>
       </c>
@@ -32287,7 +32311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>576</v>
       </c>
@@ -32324,7 +32348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>577</v>
       </c>
@@ -32361,7 +32385,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>580</v>
       </c>
@@ -32398,7 +32422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>581</v>
       </c>
@@ -32435,7 +32459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>582</v>
       </c>
@@ -32470,7 +32494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>583</v>
       </c>
@@ -32505,7 +32529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>584</v>
       </c>
@@ -32540,7 +32564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>585</v>
       </c>
@@ -32575,7 +32599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>586</v>
       </c>
@@ -32610,7 +32634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>587</v>
       </c>
@@ -32647,7 +32671,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>588</v>
       </c>
@@ -32682,7 +32706,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>589</v>
       </c>
@@ -32717,7 +32741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>590</v>
       </c>
@@ -32752,7 +32776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>591</v>
       </c>
@@ -32787,7 +32811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>592</v>
       </c>
@@ -32822,7 +32846,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>593</v>
       </c>
@@ -32857,7 +32881,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>594</v>
       </c>
@@ -32892,7 +32916,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>595</v>
       </c>
@@ -32927,7 +32951,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>596</v>
       </c>
@@ -32962,7 +32986,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>597</v>
       </c>
@@ -32997,7 +33021,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>598</v>
       </c>
@@ -33034,7 +33058,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>599</v>
       </c>
@@ -33071,7 +33095,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>600</v>
       </c>
@@ -33106,7 +33130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>601</v>
       </c>
@@ -33141,7 +33165,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>602</v>
       </c>
@@ -33178,7 +33202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>603</v>
       </c>
@@ -33215,7 +33239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>604</v>
       </c>
@@ -33252,7 +33276,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>605</v>
       </c>
@@ -33287,7 +33311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>606</v>
       </c>
@@ -33322,7 +33346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>607</v>
       </c>
@@ -33357,7 +33381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>608</v>
       </c>
@@ -33393,7 +33417,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P446"/>
+  <autoFilter ref="A1:P446">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sprint 15 Sep - 22 Sep"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Ankit"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="2261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="2262">
   <si>
     <t>Name</t>
   </si>
@@ -11497,6 +11497,9 @@
 b.Close menu &amp; return to full-screen media (TV);
 stream not affected
 </t>
+  </si>
+  <si>
+    <t>Sprint 22 Sep - 29 Sep</t>
   </si>
 </sst>
 </file>
@@ -11866,7 +11869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11950,9 +11952,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -12004,7 +12004,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -17038,9 +17037,9 @@
   <dimension ref="A1:P446"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K401" sqref="K401"/>
+      <selection pane="bottomLeft" activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22311,7 +22310,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22348,7 +22347,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -23644,7 +23643,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -26889,7 +26888,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -27464,7 +27463,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27809,7 +27808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -28002,7 +28001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -28113,7 +28112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -30401,7 +30400,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -31494,7 +31493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="277.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31535,7 +31534,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="343.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
       <c r="C394" s="18" t="s">
         <v>496</v>
@@ -31563,7 +31562,7 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
       <c r="C395" s="18" t="s">
         <v>496</v>
@@ -31778,7 +31777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>516</v>
       </c>
@@ -31819,7 +31818,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="396.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="396.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
@@ -31849,13 +31848,19 @@
       <c r="O402" s="18"/>
       <c r="P402" s="18"/>
     </row>
-    <row r="403" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="B403" s="18" t="s">
         <v>2253</v>
       </c>
-      <c r="C403" s="18"/>
-      <c r="D403" s="18"/>
-      <c r="F403" s="18"/>
+      <c r="C403" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D403" s="18" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F403" s="18" t="s">
+        <v>1102</v>
+      </c>
       <c r="G403" s="18"/>
       <c r="H403" s="18" t="s">
         <v>604</v>
@@ -31875,7 +31880,7 @@
       <c r="O403" s="18"/>
       <c r="P403" s="18"/>
     </row>
-    <row r="404" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>517</v>
       </c>
@@ -31912,7 +31917,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>518</v>
       </c>
@@ -31986,7 +31991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>541</v>
       </c>
@@ -32019,7 +32024,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>547</v>
       </c>
@@ -33418,9 +33423,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P446">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
     <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
       <filters>
-        <filter val="Sprint 15 Sep - 22 Sep"/>
+        <filter val="Yes"/>
       </filters>
     </filterColumn>
     <filterColumn colId="7">

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="2262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2264">
   <si>
     <t>Name</t>
   </si>
@@ -11500,6 +11500,12 @@
   </si>
   <si>
     <t>Sprint 22 Sep - 29 Sep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some moviw does not contain subtitle and version , so we does not include as a part of automation </t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
 </sst>
 </file>
@@ -17036,10 +17042,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="K292" sqref="K292"/>
+      <selection pane="bottomLeft" activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26895,10 +26901,18 @@
       <c r="B267" s="18" t="s">
         <v>1226</v>
       </c>
+      <c r="C267" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>2263</v>
+      </c>
       <c r="F267" s="18" t="s">
         <v>1102</v>
       </c>
-      <c r="G267" s="18"/>
+      <c r="G267" s="18" t="s">
+        <v>2262</v>
+      </c>
       <c r="H267" s="18" t="s">
         <v>604</v>
       </c>
@@ -27808,12 +27822,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>1142</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>2261</v>
       </c>
       <c r="F292" s="18" t="s">
         <v>1102</v>
@@ -30400,7 +30420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -31848,7 +31868,7 @@
       <c r="O402" s="18"/>
       <c r="P402" s="18"/>
     </row>
-    <row r="403" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B403" s="18" t="s">
         <v>2253</v>
       </c>
@@ -31880,15 +31900,19 @@
       <c r="O403" s="18"/>
       <c r="P403" s="18"/>
     </row>
-    <row r="404" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>517</v>
       </c>
       <c r="B404" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="C404" s="27"/>
-      <c r="D404" s="27"/>
+      <c r="C404" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D404" s="18" t="s">
+        <v>2261</v>
+      </c>
       <c r="F404" s="21" t="s">
         <v>1102</v>
       </c>
@@ -31917,7 +31941,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>518</v>
       </c>
@@ -31931,7 +31955,7 @@
       </c>
       <c r="G405" s="18"/>
       <c r="H405" s="18" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="I405" s="18" t="s">
         <v>802</v>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -11502,10 +11502,10 @@
     <t>Sprint 22 Sep - 29 Sep</t>
   </si>
   <si>
-    <t xml:space="preserve">Some moviw does not contain subtitle and version , so we does not include as a part of automation </t>
-  </si>
-  <si>
     <t>Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some movie does not contain subtitle and version , so we does not include as a part of automation </t>
   </si>
 </sst>
 </file>
@@ -17042,10 +17042,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D267" sqref="D267"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22316,7 +22316,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -23649,7 +23649,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -26905,13 +26905,13 @@
         <v>496</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="F267" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="H267" s="18" t="s">
         <v>604</v>
@@ -27477,7 +27477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27822,7 +27822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -28021,7 +28021,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -30420,7 +30420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -31868,7 +31868,7 @@
       <c r="O402" s="18"/>
       <c r="P402" s="18"/>
     </row>
-    <row r="403" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="B403" s="18" t="s">
         <v>2253</v>
       </c>
@@ -31900,7 +31900,7 @@
       <c r="O403" s="18"/>
       <c r="P403" s="18"/>
     </row>
-    <row r="404" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>517</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>541</v>
       </c>
@@ -32048,7 +32048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>547</v>
       </c>
@@ -33447,23 +33447,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P446">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
     <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
       <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ankit"/>
+        <filter val="Sprint"/>
+        <filter val="Sprint 22 Sep - 29 Sep"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -17042,10 +17042,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22390,7 +22390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22472,7 +22472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22589,7 +22589,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23865,7 +23865,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -25323,7 +25323,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -27582,7 +27582,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27660,7 +27660,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27939,7 +27939,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -27980,7 +27980,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -28056,7 +28056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28202,7 +28202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -31513,7 +31513,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="277.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31554,7 +31554,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="343.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
       <c r="C394" s="18" t="s">
         <v>496</v>
@@ -31582,7 +31582,7 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
       <c r="C395" s="18" t="s">
         <v>496</v>
@@ -31797,7 +31797,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>516</v>
       </c>
@@ -31838,7 +31838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="396.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="396.6" x14ac:dyDescent="0.3">
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
@@ -33447,10 +33447,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P446">
-    <filterColumn colId="3">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Sprint"/>
-        <filter val="Sprint 22 Sep - 29 Sep"/>
+        <filter val="Completed"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Ankit"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2263">
   <si>
     <t>Name</t>
   </si>
@@ -11500,9 +11500,6 @@
   </si>
   <si>
     <t>Sprint 22 Sep - 29 Sep</t>
-  </si>
-  <si>
-    <t>Sprint</t>
   </si>
   <si>
     <t xml:space="preserve">Some movie does not contain subtitle and version , so we does not include as a part of automation </t>
@@ -17042,10 +17039,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="J144" sqref="J144"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22390,7 +22387,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22431,7 +22428,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22472,7 +22469,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22589,7 +22586,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22630,7 +22627,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -23501,7 +23498,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23865,7 +23862,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -25323,7 +25320,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -26601,7 +26598,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -26904,14 +26901,14 @@
       <c r="C267" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>2262</v>
+      <c r="D267" s="18" t="s">
+        <v>2261</v>
       </c>
       <c r="F267" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G267" s="18" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="H267" s="18" t="s">
         <v>604</v>
@@ -27582,7 +27579,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27660,7 +27657,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27702,7 +27699,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27778,7 +27775,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27939,7 +27936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -27980,7 +27977,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -28056,7 +28053,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28202,7 +28199,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -31513,7 +31510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="277.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31554,7 +31551,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="343.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="18"/>
       <c r="C394" s="18" t="s">
         <v>496</v>
@@ -31582,7 +31579,7 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="18"/>
       <c r="C395" s="18" t="s">
         <v>496</v>
@@ -31797,7 +31794,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>516</v>
       </c>
@@ -31838,7 +31835,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="396.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="396.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
@@ -33447,14 +33444,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P446">
-    <filterColumn colId="2">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Completed"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Ankit"/>
+        <filter val="Sprint"/>
+        <filter val="Sprint 22 Sep - 29 Sep"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Perforce\faheem.khan_c1-gf-102_4562\bgc\Automation\HTML\HTMLSelenium\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\Rahul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="2264">
   <si>
     <t>Name</t>
   </si>
@@ -11503,6 +11503,9 @@
   </si>
   <si>
     <t xml:space="preserve">Some movie does not contain subtitle and version , so we does not include as a part of automation </t>
+  </si>
+  <si>
+    <t>Sprint 3 Oct - 7 Oct</t>
   </si>
 </sst>
 </file>
@@ -17036,13 +17039,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17114,7 +17116,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -17151,7 +17153,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17188,7 +17190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -17225,7 +17227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42</v>
       </c>
@@ -17262,7 +17264,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -17299,7 +17301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -17336,7 +17338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -17373,7 +17375,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -17410,7 +17412,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -17447,7 +17449,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -17482,7 +17484,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>49</v>
       </c>
@@ -17517,7 +17519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>54</v>
       </c>
@@ -17554,7 +17556,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -17591,7 +17593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -17628,7 +17630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -17665,7 +17667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>58</v>
       </c>
@@ -17702,7 +17704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>59</v>
       </c>
@@ -17739,7 +17741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>60</v>
       </c>
@@ -17776,7 +17778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -17813,7 +17815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -17850,7 +17852,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>63</v>
       </c>
@@ -17887,7 +17889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -17924,7 +17926,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -17961,7 +17963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -17998,7 +18000,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>68</v>
       </c>
@@ -18035,7 +18037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>69</v>
       </c>
@@ -18072,7 +18074,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -18109,7 +18111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>71</v>
       </c>
@@ -18146,7 +18148,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>72</v>
       </c>
@@ -18183,7 +18185,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -18220,7 +18222,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -18257,7 +18259,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -18294,7 +18296,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>76</v>
       </c>
@@ -18331,7 +18333,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>77</v>
       </c>
@@ -18368,7 +18370,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -18405,7 +18407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>79</v>
       </c>
@@ -18442,7 +18444,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>80</v>
       </c>
@@ -18479,7 +18481,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>82</v>
       </c>
@@ -18516,7 +18518,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -18553,7 +18555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>84</v>
       </c>
@@ -18590,7 +18592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>85</v>
       </c>
@@ -18627,7 +18629,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>86</v>
       </c>
@@ -18664,7 +18666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>87</v>
       </c>
@@ -18701,7 +18703,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>88</v>
       </c>
@@ -18738,7 +18740,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>89</v>
       </c>
@@ -18775,7 +18777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>90</v>
       </c>
@@ -18812,7 +18814,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18851,7 +18853,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18890,7 +18892,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>93</v>
       </c>
@@ -18927,7 +18929,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18966,7 +18968,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -19005,7 +19007,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -19044,7 +19046,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -19083,7 +19085,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19122,7 +19124,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -19161,7 +19163,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>100</v>
       </c>
@@ -19198,7 +19200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>101</v>
       </c>
@@ -19235,7 +19237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -19272,7 +19274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>103</v>
       </c>
@@ -19309,7 +19311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>104</v>
       </c>
@@ -19346,7 +19348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>105</v>
       </c>
@@ -19383,7 +19385,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>106</v>
       </c>
@@ -19420,7 +19422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>107</v>
       </c>
@@ -19457,7 +19459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -19494,7 +19496,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>109</v>
       </c>
@@ -19531,7 +19533,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110</v>
       </c>
@@ -19568,7 +19570,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>111</v>
       </c>
@@ -19605,7 +19607,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>112</v>
       </c>
@@ -19642,7 +19644,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>113</v>
       </c>
@@ -19679,7 +19681,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>114</v>
       </c>
@@ -19716,7 +19718,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>115</v>
       </c>
@@ -19753,7 +19755,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>116</v>
       </c>
@@ -19790,7 +19792,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>117</v>
       </c>
@@ -19827,7 +19829,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118</v>
       </c>
@@ -19864,7 +19866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>119</v>
       </c>
@@ -19901,7 +19903,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120</v>
       </c>
@@ -19938,7 +19940,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>121</v>
       </c>
@@ -19975,7 +19977,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>122</v>
       </c>
@@ -20012,7 +20014,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>123</v>
       </c>
@@ -20049,7 +20051,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>127</v>
       </c>
@@ -20086,7 +20088,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>128</v>
       </c>
@@ -20123,7 +20125,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>129</v>
       </c>
@@ -20160,7 +20162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>130</v>
       </c>
@@ -20199,7 +20201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>131</v>
       </c>
@@ -20236,7 +20238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>132</v>
       </c>
@@ -20273,7 +20275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>133</v>
       </c>
@@ -20310,7 +20312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>134</v>
       </c>
@@ -20347,7 +20349,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>135</v>
       </c>
@@ -20384,7 +20386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>136</v>
       </c>
@@ -20421,7 +20423,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>137</v>
       </c>
@@ -20458,7 +20460,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>138</v>
       </c>
@@ -20495,7 +20497,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>139</v>
       </c>
@@ -20532,7 +20534,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140</v>
       </c>
@@ -20569,7 +20571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>141</v>
       </c>
@@ -20606,7 +20608,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>142</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>143</v>
       </c>
@@ -20680,7 +20682,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>144</v>
       </c>
@@ -20717,7 +20719,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>145</v>
       </c>
@@ -20754,7 +20756,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>146</v>
       </c>
@@ -20791,7 +20793,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -20828,7 +20830,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>148</v>
       </c>
@@ -20865,7 +20867,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>149</v>
       </c>
@@ -20902,7 +20904,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20942,7 +20944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>154</v>
       </c>
@@ -20979,7 +20981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>155</v>
       </c>
@@ -21016,7 +21018,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -21053,7 +21055,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>158</v>
       </c>
@@ -21088,7 +21090,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>159</v>
       </c>
@@ -21125,7 +21127,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>166</v>
       </c>
@@ -21160,7 +21162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>167</v>
       </c>
@@ -21197,7 +21199,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>170</v>
       </c>
@@ -21232,7 +21234,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>171</v>
       </c>
@@ -21273,7 +21275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>172</v>
       </c>
@@ -21314,7 +21316,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>173</v>
       </c>
@@ -21353,7 +21355,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>174</v>
       </c>
@@ -21392,7 +21394,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>175</v>
       </c>
@@ -21431,7 +21433,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>176</v>
       </c>
@@ -21470,7 +21472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>177</v>
       </c>
@@ -21510,7 +21512,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>178</v>
       </c>
@@ -21550,7 +21552,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>179</v>
       </c>
@@ -21589,7 +21591,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>180</v>
       </c>
@@ -21629,7 +21631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>182</v>
       </c>
@@ -21669,15 +21671,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>183</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>1671</v>
       </c>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
+      <c r="C124" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>2259</v>
+      </c>
       <c r="F124" s="21" t="s">
         <v>1102</v>
       </c>
@@ -21706,7 +21712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>185</v>
       </c>
@@ -21743,15 +21749,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>187</v>
       </c>
       <c r="B126" s="21" t="s">
         <v>1663</v>
       </c>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
+      <c r="C126" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>2259</v>
+      </c>
       <c r="F126" s="21" t="s">
         <v>1102</v>
       </c>
@@ -21780,15 +21790,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>189</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>1659</v>
       </c>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
+      <c r="C127" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>2259</v>
+      </c>
       <c r="F127" s="21" t="s">
         <v>1102</v>
       </c>
@@ -21817,15 +21831,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>192</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>1655</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="C128" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F128" s="18" t="s">
         <v>1102</v>
       </c>
@@ -21854,7 +21872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>193</v>
       </c>
@@ -21893,7 +21911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>194</v>
       </c>
@@ -21932,7 +21950,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>196</v>
       </c>
@@ -21971,7 +21989,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>197</v>
       </c>
@@ -22008,7 +22026,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>199</v>
       </c>
@@ -22045,7 +22063,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>200</v>
       </c>
@@ -22082,7 +22100,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>202</v>
       </c>
@@ -22119,7 +22137,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -22156,7 +22174,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -22193,7 +22211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22233,7 +22251,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22273,7 +22291,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22313,7 +22331,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22350,7 +22368,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22387,7 +22405,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22428,7 +22446,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22469,7 +22487,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22510,7 +22528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22548,7 +22566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -22586,7 +22604,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22627,7 +22645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -22668,7 +22686,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>223</v>
       </c>
@@ -22703,7 +22721,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>224</v>
       </c>
@@ -22741,7 +22759,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>225</v>
       </c>
@@ -22782,7 +22800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>227</v>
       </c>
@@ -22820,7 +22838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>228</v>
       </c>
@@ -22858,7 +22876,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>231</v>
       </c>
@@ -22896,7 +22914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>232</v>
       </c>
@@ -22937,7 +22955,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>233</v>
       </c>
@@ -22978,7 +22996,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>234</v>
       </c>
@@ -23019,7 +23037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>235</v>
       </c>
@@ -23060,12 +23078,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>236</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>1539</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>2261</v>
       </c>
       <c r="F160" s="18" t="s">
         <v>1102</v>
@@ -23095,7 +23119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>237</v>
       </c>
@@ -23130,7 +23154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>238</v>
       </c>
@@ -23165,7 +23189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>239</v>
       </c>
@@ -23203,7 +23227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>240</v>
       </c>
@@ -23241,7 +23265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>241</v>
       </c>
@@ -23276,7 +23300,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>242</v>
       </c>
@@ -23314,7 +23338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>243</v>
       </c>
@@ -23349,7 +23373,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>244</v>
       </c>
@@ -23387,7 +23411,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>245</v>
       </c>
@@ -23428,7 +23452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>246</v>
       </c>
@@ -23463,12 +23487,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>247</v>
       </c>
       <c r="B171" s="21" t="s">
         <v>1500</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>2259</v>
       </c>
       <c r="F171" s="21" t="s">
         <v>1102</v>
@@ -23498,7 +23528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23541,7 +23571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>249</v>
       </c>
@@ -23576,7 +23606,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>250</v>
       </c>
@@ -23611,7 +23641,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>251</v>
       </c>
@@ -23646,7 +23676,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -23681,7 +23711,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23719,7 +23749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -23757,7 +23787,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>257</v>
       </c>
@@ -23792,7 +23822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>258</v>
       </c>
@@ -23827,7 +23857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>259</v>
       </c>
@@ -23862,7 +23892,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -23903,7 +23933,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>261</v>
       </c>
@@ -23938,7 +23968,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>262</v>
       </c>
@@ -23973,7 +24003,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -24008,7 +24038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>264</v>
       </c>
@@ -24043,7 +24073,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>274</v>
       </c>
@@ -24076,7 +24106,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>275</v>
       </c>
@@ -24109,7 +24139,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>276</v>
       </c>
@@ -24142,7 +24172,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>277</v>
       </c>
@@ -24175,7 +24205,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>278</v>
       </c>
@@ -24208,7 +24238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>279</v>
       </c>
@@ -24241,7 +24271,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>280</v>
       </c>
@@ -24274,7 +24304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>281</v>
       </c>
@@ -24307,7 +24337,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>282</v>
       </c>
@@ -24340,7 +24370,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>283</v>
       </c>
@@ -24373,7 +24403,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>284</v>
       </c>
@@ -24406,7 +24436,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>285</v>
       </c>
@@ -24439,7 +24469,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>286</v>
       </c>
@@ -24474,7 +24504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>287</v>
       </c>
@@ -24509,7 +24539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>288</v>
       </c>
@@ -24544,7 +24574,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>289</v>
       </c>
@@ -24579,7 +24609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>290</v>
       </c>
@@ -24614,7 +24644,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>291</v>
       </c>
@@ -24649,7 +24679,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>292</v>
       </c>
@@ -24684,7 +24714,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>295</v>
       </c>
@@ -24719,7 +24749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>296</v>
       </c>
@@ -24754,7 +24784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>297</v>
       </c>
@@ -24789,7 +24819,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>298</v>
       </c>
@@ -24824,7 +24854,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>299</v>
       </c>
@@ -24859,7 +24889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>300</v>
       </c>
@@ -24894,7 +24924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>301</v>
       </c>
@@ -24929,7 +24959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>302</v>
       </c>
@@ -24964,7 +24994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>303</v>
       </c>
@@ -24999,7 +25029,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>304</v>
       </c>
@@ -25034,7 +25064,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>305</v>
       </c>
@@ -25069,7 +25099,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>306</v>
       </c>
@@ -25104,7 +25134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>307</v>
       </c>
@@ -25139,7 +25169,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>308</v>
       </c>
@@ -25174,7 +25204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>309</v>
       </c>
@@ -25209,7 +25239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>310</v>
       </c>
@@ -25244,7 +25274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25282,7 +25312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -25320,7 +25350,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -25362,7 +25392,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>314</v>
       </c>
@@ -25397,7 +25427,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>315</v>
       </c>
@@ -25432,7 +25462,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>316</v>
       </c>
@@ -25467,7 +25497,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>317</v>
       </c>
@@ -25502,7 +25532,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>318</v>
       </c>
@@ -25537,7 +25567,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>319</v>
       </c>
@@ -25572,7 +25602,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>320</v>
       </c>
@@ -25607,7 +25637,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>321</v>
       </c>
@@ -25642,7 +25672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>322</v>
       </c>
@@ -25675,7 +25705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>323</v>
       </c>
@@ -25708,7 +25738,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>324</v>
       </c>
@@ -25747,7 +25777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>325</v>
       </c>
@@ -25786,7 +25816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>328</v>
       </c>
@@ -25825,7 +25855,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>329</v>
       </c>
@@ -25864,7 +25894,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>331</v>
       </c>
@@ -25903,7 +25933,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>332</v>
       </c>
@@ -25938,7 +25968,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>333</v>
       </c>
@@ -25976,7 +26006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>334</v>
       </c>
@@ -26011,7 +26041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>335</v>
       </c>
@@ -26049,7 +26079,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>336</v>
       </c>
@@ -26087,7 +26117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>337</v>
       </c>
@@ -26125,7 +26155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>338</v>
       </c>
@@ -26160,7 +26190,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>339</v>
       </c>
@@ -26195,7 +26225,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>341</v>
       </c>
@@ -26233,7 +26263,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>342</v>
       </c>
@@ -26271,7 +26301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>343</v>
       </c>
@@ -26306,7 +26336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>344</v>
       </c>
@@ -26341,7 +26371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>345</v>
       </c>
@@ -26379,7 +26409,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>346</v>
       </c>
@@ -26417,7 +26447,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>347</v>
       </c>
@@ -26452,7 +26482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>348</v>
       </c>
@@ -26490,7 +26520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>349</v>
       </c>
@@ -26528,7 +26558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>350</v>
       </c>
@@ -26563,7 +26593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>351</v>
       </c>
@@ -26598,7 +26628,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -26640,7 +26670,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26675,7 +26705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>355</v>
       </c>
@@ -26710,7 +26740,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>356</v>
       </c>
@@ -26751,7 +26781,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>359</v>
       </c>
@@ -26786,7 +26816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>360</v>
       </c>
@@ -26821,7 +26851,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>362</v>
       </c>
@@ -26856,7 +26886,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>363</v>
       </c>
@@ -26934,7 +26964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>365</v>
       </c>
@@ -26969,7 +26999,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>366</v>
       </c>
@@ -27007,7 +27037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>367</v>
       </c>
@@ -27045,7 +27075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>368</v>
       </c>
@@ -27083,7 +27113,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>369</v>
       </c>
@@ -27118,7 +27148,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>370</v>
       </c>
@@ -27153,7 +27183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>371</v>
       </c>
@@ -27191,7 +27221,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>372</v>
       </c>
@@ -27229,7 +27259,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>373</v>
       </c>
@@ -27264,7 +27294,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>374</v>
       </c>
@@ -27299,7 +27329,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>375</v>
       </c>
@@ -27334,7 +27364,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>376</v>
       </c>
@@ -27369,7 +27399,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>377</v>
       </c>
@@ -27404,7 +27434,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>378</v>
       </c>
@@ -27439,7 +27469,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>379</v>
       </c>
@@ -27474,7 +27504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27509,7 +27539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>381</v>
       </c>
@@ -27544,7 +27574,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>382</v>
       </c>
@@ -27579,7 +27609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27621,7 +27651,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>386</v>
       </c>
@@ -27657,7 +27687,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27699,7 +27729,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27740,7 +27770,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27775,7 +27805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27860,7 +27890,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>392</v>
       </c>
@@ -27901,7 +27931,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27936,7 +27966,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -27977,7 +28007,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -28018,7 +28048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -28053,7 +28083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28094,7 +28124,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28129,7 +28159,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28164,7 +28194,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -28199,7 +28229,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -28240,7 +28270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>402</v>
       </c>
@@ -28277,7 +28307,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>403</v>
       </c>
@@ -28314,7 +28344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>404</v>
       </c>
@@ -28351,7 +28381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>405</v>
       </c>
@@ -28388,7 +28418,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>406</v>
       </c>
@@ -28425,7 +28455,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>407</v>
       </c>
@@ -28462,7 +28492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>408</v>
       </c>
@@ -28499,7 +28529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>409</v>
       </c>
@@ -28536,7 +28566,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>410</v>
       </c>
@@ -28573,7 +28603,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>411</v>
       </c>
@@ -28610,7 +28640,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>412</v>
       </c>
@@ -28647,7 +28677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>413</v>
       </c>
@@ -28682,7 +28712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>415</v>
       </c>
@@ -28717,7 +28747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>417</v>
       </c>
@@ -28754,7 +28784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>418</v>
       </c>
@@ -28791,7 +28821,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>419</v>
       </c>
@@ -28828,7 +28858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>420</v>
       </c>
@@ -28865,7 +28895,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>421</v>
       </c>
@@ -28902,7 +28932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>422</v>
       </c>
@@ -28939,7 +28969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>423</v>
       </c>
@@ -28976,7 +29006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>424</v>
       </c>
@@ -29013,7 +29043,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>426</v>
       </c>
@@ -29048,7 +29078,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>427</v>
       </c>
@@ -29083,7 +29113,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>429</v>
       </c>
@@ -29120,7 +29150,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>430</v>
       </c>
@@ -29157,7 +29187,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>431</v>
       </c>
@@ -29194,7 +29224,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>432</v>
       </c>
@@ -29231,7 +29261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>433</v>
       </c>
@@ -29268,7 +29298,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>434</v>
       </c>
@@ -29305,7 +29335,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>435</v>
       </c>
@@ -29340,7 +29370,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>436</v>
       </c>
@@ -29375,7 +29405,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>437</v>
       </c>
@@ -29410,7 +29440,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>440</v>
       </c>
@@ -29447,7 +29477,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>441</v>
       </c>
@@ -29488,7 +29518,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>442</v>
       </c>
@@ -29525,7 +29555,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>443</v>
       </c>
@@ -29562,7 +29592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>444</v>
       </c>
@@ -29599,7 +29629,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>445</v>
       </c>
@@ -29636,7 +29666,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>448</v>
       </c>
@@ -29673,7 +29703,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>449</v>
       </c>
@@ -29710,7 +29740,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>450</v>
       </c>
@@ -29747,7 +29777,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>451</v>
       </c>
@@ -29784,7 +29814,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>452</v>
       </c>
@@ -29821,7 +29851,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>453</v>
       </c>
@@ -29858,7 +29888,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>455</v>
       </c>
@@ -29895,7 +29925,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>456</v>
       </c>
@@ -29932,7 +29962,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>457</v>
       </c>
@@ -29973,7 +30003,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>458</v>
       </c>
@@ -30010,7 +30040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>459</v>
       </c>
@@ -30047,7 +30077,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>460</v>
       </c>
@@ -30084,7 +30114,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>461</v>
       </c>
@@ -30121,7 +30151,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>463</v>
       </c>
@@ -30158,7 +30188,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>464</v>
       </c>
@@ -30195,7 +30225,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>465</v>
       </c>
@@ -30232,7 +30262,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>469</v>
       </c>
@@ -30269,7 +30299,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>470</v>
       </c>
@@ -30306,15 +30336,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>471</v>
       </c>
       <c r="B359" s="21" t="s">
         <v>911</v>
       </c>
-      <c r="C359" s="27"/>
-      <c r="D359" s="27"/>
+      <c r="C359" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>2261</v>
+      </c>
       <c r="F359" s="21" t="s">
         <v>1102</v>
       </c>
@@ -30343,7 +30377,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>472</v>
       </c>
@@ -30380,7 +30414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>473</v>
       </c>
@@ -30417,7 +30451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -30454,7 +30488,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>475</v>
       </c>
@@ -30491,7 +30525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>476</v>
       </c>
@@ -30528,7 +30562,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>477</v>
       </c>
@@ -30565,7 +30599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>479</v>
       </c>
@@ -30600,7 +30634,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>480</v>
       </c>
@@ -30635,7 +30669,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>481</v>
       </c>
@@ -30670,7 +30704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>482</v>
       </c>
@@ -30705,7 +30739,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>483</v>
       </c>
@@ -30742,7 +30776,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>484</v>
       </c>
@@ -30777,7 +30811,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>485</v>
       </c>
@@ -30812,7 +30846,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>486</v>
       </c>
@@ -30847,7 +30881,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>487</v>
       </c>
@@ -30882,7 +30916,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>489</v>
       </c>
@@ -30917,7 +30951,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>490</v>
       </c>
@@ -30952,7 +30986,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>491</v>
       </c>
@@ -30987,7 +31021,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>492</v>
       </c>
@@ -31022,7 +31056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>493</v>
       </c>
@@ -31057,7 +31091,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>494</v>
       </c>
@@ -31092,7 +31126,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="159" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>495</v>
       </c>
@@ -31127,7 +31161,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>498</v>
       </c>
@@ -31162,7 +31196,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>499</v>
       </c>
@@ -31197,7 +31231,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>500</v>
       </c>
@@ -31232,7 +31266,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>501</v>
       </c>
@@ -31267,7 +31301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="317.39999999999998" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>503</v>
       </c>
@@ -31302,7 +31336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>504</v>
       </c>
@@ -31337,7 +31371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="357" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>505</v>
       </c>
@@ -31372,7 +31406,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>506</v>
       </c>
@@ -31405,7 +31439,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>507</v>
       </c>
@@ -31436,7 +31470,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>508</v>
       </c>
@@ -31469,7 +31503,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>509</v>
       </c>
@@ -31510,7 +31544,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="277.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31551,15 +31585,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="343.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="18"/>
+    <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
+      <c r="B394" s="18" t="s">
+        <v>2243</v>
+      </c>
       <c r="C394" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D394" s="18" t="s">
         <v>2259</v>
       </c>
-      <c r="F394" s="18"/>
+      <c r="F394" s="18" t="s">
+        <v>1102</v>
+      </c>
       <c r="G394" s="18"/>
       <c r="H394" s="18" t="s">
         <v>604</v>
@@ -31579,15 +31617,19 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="18"/>
+    <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+      <c r="B395" s="18" t="s">
+        <v>2244</v>
+      </c>
       <c r="C395" s="18" t="s">
         <v>496</v>
       </c>
       <c r="D395" s="18" t="s">
         <v>2259</v>
       </c>
-      <c r="F395" s="18"/>
+      <c r="F395" s="18" t="s">
+        <v>1102</v>
+      </c>
       <c r="G395" s="18" t="s">
         <v>2251</v>
       </c>
@@ -31609,7 +31651,7 @@
       <c r="O395" s="18"/>
       <c r="P395" s="18"/>
     </row>
-    <row r="396" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>511</v>
       </c>
@@ -31646,7 +31688,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>512</v>
       </c>
@@ -31683,15 +31725,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>513</v>
       </c>
       <c r="B398" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="C398" s="27"/>
-      <c r="D398" s="27"/>
+      <c r="C398" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D398" s="27" t="s">
+        <v>2261</v>
+      </c>
       <c r="F398" s="21" t="s">
         <v>1102</v>
       </c>
@@ -31720,15 +31766,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>514</v>
       </c>
       <c r="B399" s="18" t="s">
         <v>817</v>
       </c>
-      <c r="C399" s="18"/>
-      <c r="D399" s="18"/>
+      <c r="C399" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D399" s="18" t="s">
+        <v>2261</v>
+      </c>
       <c r="F399" s="18" t="s">
         <v>1102</v>
       </c>
@@ -31757,15 +31807,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>515</v>
       </c>
       <c r="B400" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="C400" s="27"/>
-      <c r="D400" s="27"/>
+      <c r="C400" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D400" s="27" t="s">
+        <v>2261</v>
+      </c>
       <c r="F400" s="21" t="s">
         <v>1102</v>
       </c>
@@ -31794,7 +31848,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>516</v>
       </c>
@@ -31835,7 +31889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="396.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="396.6" x14ac:dyDescent="0.3">
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
@@ -31845,7 +31899,9 @@
       <c r="D402" s="18" t="s">
         <v>2259</v>
       </c>
-      <c r="F402" s="18"/>
+      <c r="F402" s="18" t="s">
+        <v>1102</v>
+      </c>
       <c r="G402" s="18"/>
       <c r="H402" s="18" t="s">
         <v>604</v>
@@ -31870,10 +31926,10 @@
         <v>2253</v>
       </c>
       <c r="C403" s="18" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D403" s="18" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="F403" s="18" t="s">
         <v>1102</v>
@@ -31938,7 +31994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>518</v>
       </c>
@@ -31975,7 +32031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>529</v>
       </c>
@@ -32012,7 +32068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>541</v>
       </c>
@@ -32045,7 +32101,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>547</v>
       </c>
@@ -32078,7 +32134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>548</v>
       </c>
@@ -32111,7 +32167,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>564</v>
       </c>
@@ -32148,7 +32204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>565</v>
       </c>
@@ -32185,7 +32241,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>570</v>
       </c>
@@ -32222,7 +32278,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>571</v>
       </c>
@@ -32263,7 +32319,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>574</v>
       </c>
@@ -32300,7 +32356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>575</v>
       </c>
@@ -32337,7 +32393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>576</v>
       </c>
@@ -32374,7 +32430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>577</v>
       </c>
@@ -32411,7 +32467,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>580</v>
       </c>
@@ -32448,7 +32504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>581</v>
       </c>
@@ -32485,7 +32541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>582</v>
       </c>
@@ -32520,7 +32576,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>583</v>
       </c>
@@ -32555,7 +32611,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>584</v>
       </c>
@@ -32590,7 +32646,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>585</v>
       </c>
@@ -32625,7 +32681,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>586</v>
       </c>
@@ -32660,7 +32716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>587</v>
       </c>
@@ -32697,7 +32753,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>588</v>
       </c>
@@ -32732,7 +32788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>589</v>
       </c>
@@ -32767,7 +32823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>590</v>
       </c>
@@ -32802,7 +32858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>591</v>
       </c>
@@ -32837,7 +32893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>592</v>
       </c>
@@ -32872,7 +32928,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>593</v>
       </c>
@@ -32907,7 +32963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>594</v>
       </c>
@@ -32942,7 +32998,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>595</v>
       </c>
@@ -32977,7 +33033,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>596</v>
       </c>
@@ -33012,7 +33068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="225" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>597</v>
       </c>
@@ -33047,7 +33103,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>598</v>
       </c>
@@ -33084,7 +33140,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>599</v>
       </c>
@@ -33121,7 +33177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>600</v>
       </c>
@@ -33156,7 +33212,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>601</v>
       </c>
@@ -33191,7 +33247,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>602</v>
       </c>
@@ -33228,7 +33284,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>603</v>
       </c>
@@ -33265,7 +33321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>604</v>
       </c>
@@ -33302,7 +33358,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>605</v>
       </c>
@@ -33337,7 +33393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>606</v>
       </c>
@@ -33372,7 +33428,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>607</v>
       </c>
@@ -33407,7 +33463,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>608</v>
       </c>
@@ -33443,14 +33499,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P446">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sprint"/>
-        <filter val="Sprint 22 Sep - 29 Sep"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\Rahul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pritam\My-Work_Details\Proximus\HTMLSelenium\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="21075" windowHeight="8895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5643" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="2264">
   <si>
     <t>Name</t>
   </si>
@@ -12482,12 +12482,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>496</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>497</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>501</v>
       </c>
@@ -12530,19 +12530,19 @@
       <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.44140625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="50.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="50.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="114.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="10" max="10" width="114.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
@@ -12634,7 +12634,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>420</v>
       </c>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>421</v>
       </c>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>423</v>
       </c>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>425</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>426</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>427</v>
       </c>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>428</v>
       </c>
@@ -12878,7 +12878,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>429</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>431</v>
       </c>
@@ -12966,7 +12966,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>432</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>433</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>435</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>422</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="93" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>436</v>
       </c>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>437</v>
       </c>
@@ -13170,7 +13170,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>437</v>
       </c>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>436</v>
       </c>
@@ -13230,7 +13230,7 @@
       </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>438</v>
       </c>
@@ -13260,7 +13260,7 @@
       </c>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>439</v>
       </c>
@@ -13290,7 +13290,7 @@
       </c>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>496</v>
@@ -13320,7 +13320,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>464</v>
       </c>
@@ -13350,7 +13350,7 @@
       </c>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>465</v>
       </c>
@@ -13380,7 +13380,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>466</v>
       </c>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>467</v>
       </c>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>468</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>501</v>
@@ -13496,7 +13496,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="2" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>469</v>
       </c>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>501</v>
@@ -13554,7 +13554,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>485</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>470</v>
       </c>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>471</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>472</v>
       </c>
@@ -13672,7 +13672,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="141" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>473</v>
       </c>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="141" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>474</v>
       </c>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>475</v>
       </c>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>476</v>
       </c>
@@ -13792,7 +13792,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>477</v>
       </c>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>478</v>
       </c>
@@ -13852,7 +13852,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>479</v>
       </c>
@@ -13882,7 +13882,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>440</v>
       </c>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="s">
         <v>496</v>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
         <v>496</v>
@@ -13968,7 +13968,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
         <v>496</v>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="s">
         <v>496</v>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>441</v>
       </c>
@@ -14082,7 +14082,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="9" t="s">
         <v>496</v>
@@ -14110,7 +14110,7 @@
       </c>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="9" t="s">
         <v>496</v>
@@ -14138,7 +14138,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="9" t="s">
         <v>496</v>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="9" t="s">
         <v>496</v>
@@ -14196,7 +14196,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="9" t="s">
         <v>496</v>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="39" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="9" t="s">
         <v>496</v>
@@ -14252,7 +14252,7 @@
       </c>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="9" t="s">
         <v>496</v>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="J59" s="17"/>
     </row>
-    <row r="60" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="9" t="s">
         <v>496</v>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>480</v>
       </c>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>481</v>
       </c>
@@ -14366,7 +14366,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>482</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>483</v>
       </c>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>484</v>
       </c>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>442</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>445</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
         <v>501</v>
@@ -14602,7 +14602,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="15" t="s">
         <v>501</v>
@@ -14628,7 +14628,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="9" t="s">
         <v>496</v>
@@ -14658,7 +14658,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="9" t="s">
         <v>496</v>
@@ -14686,7 +14686,7 @@
       </c>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>446</v>
       </c>
@@ -14716,7 +14716,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>447</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>448</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>501</v>
@@ -14798,7 +14798,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>501</v>
@@ -14824,7 +14824,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>501</v>
@@ -14850,7 +14850,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>449</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="15" t="s">
         <v>501</v>
@@ -14904,7 +14904,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>501</v>
@@ -14930,7 +14930,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="243" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="9" t="s">
         <v>496</v>
@@ -14958,7 +14958,7 @@
       </c>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="9" t="s">
         <v>496</v>
@@ -14986,7 +14986,7 @@
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="9" t="s">
         <v>496</v>
@@ -15014,7 +15014,7 @@
       </c>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="9" t="s">
         <v>496</v>
@@ -15042,7 +15042,7 @@
       </c>
       <c r="J86" s="17"/>
     </row>
-    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="9" t="s">
         <v>496</v>
@@ -15070,7 +15070,7 @@
       </c>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>450</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>501</v>
@@ -15124,7 +15124,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>501</v>
@@ -15150,7 +15150,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>451</v>
       </c>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="J91" s="17"/>
     </row>
-    <row r="92" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>452</v>
       </c>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="J92" s="17"/>
     </row>
-    <row r="93" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>453</v>
       </c>
@@ -15238,7 +15238,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>455</v>
       </c>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="J96" s="17"/>
     </row>
-    <row r="97" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>457</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>458</v>
       </c>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="J98" s="17"/>
     </row>
-    <row r="99" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>459</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>460</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>461</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>462</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>463</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="15" t="s">
         <v>501</v>
@@ -15552,7 +15552,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
         <v>496</v>
@@ -15578,7 +15578,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
         <v>496</v>
@@ -15602,7 +15602,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
         <v>496</v>
@@ -15626,7 +15626,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="93" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A108" s="54"/>
       <c r="B108" s="55" t="s">
         <v>496</v>
@@ -15650,7 +15650,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="15" t="s">
         <v>501</v>
@@ -15674,7 +15674,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="192" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="9" t="s">
         <v>496</v>
@@ -15698,7 +15698,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="15" t="s">
         <v>501</v>
@@ -15722,7 +15722,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="15" t="s">
         <v>501</v>
@@ -15746,7 +15746,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="9" t="s">
         <v>496</v>
@@ -15770,7 +15770,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="9" t="s">
         <v>496</v>
@@ -15794,7 +15794,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
         <v>501</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
         <v>496</v>
@@ -15835,7 +15835,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="9" t="s">
         <v>496</v>
@@ -15859,7 +15859,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="9" t="s">
         <v>496</v>
@@ -15883,7 +15883,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="9" t="s">
         <v>496</v>
@@ -15907,7 +15907,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="15" t="s">
         <v>501</v>
@@ -15931,7 +15931,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="15" t="s">
         <v>501</v>
@@ -15955,7 +15955,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="159" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="9" t="s">
         <v>496</v>
@@ -15979,7 +15979,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="15" t="s">
         <v>501</v>
@@ -16003,7 +16003,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="15" t="s">
         <v>501</v>
@@ -16027,7 +16027,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="255.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="9" t="s">
         <v>496</v>
@@ -16051,7 +16051,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="9" t="s">
         <v>496</v>
@@ -16075,7 +16075,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="9" t="s">
         <v>496</v>
@@ -16125,22 +16125,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.88671875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="24" customWidth="1"/>
-    <col min="7" max="7" width="126.109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="7" max="7" width="126.140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
     <col min="10" max="10" width="26" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -16172,7 +16172,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>77655</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>684</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>681</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>77661</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>77657</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>77663</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>77662</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>77658</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>77678</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>77679</v>
       </c>
@@ -16390,7 +16390,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>77673</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>77660</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>660</v>
       </c>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>658</v>
       </c>
@@ -16472,7 +16472,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>77669</v>
       </c>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>2097</v>
       </c>
@@ -16514,7 +16514,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>77668</v>
       </c>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>2098</v>
       </c>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>77667</v>
       </c>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>2099</v>
       </c>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>77666</v>
       </c>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>77664</v>
       </c>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>77665</v>
       </c>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>77675</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>77672</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>77659</v>
       </c>
@@ -16722,7 +16722,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>77676</v>
       </c>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>77656</v>
       </c>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>627</v>
       </c>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>625</v>
       </c>
@@ -16806,7 +16806,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>623</v>
       </c>
@@ -16827,7 +16827,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>621</v>
       </c>
@@ -16848,7 +16848,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>619</v>
       </c>
@@ -16869,7 +16869,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>77681</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>77674</v>
       </c>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>77671</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>688</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>77670</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>690</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>77666</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>2100</v>
       </c>
@@ -17039,34 +17039,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="45.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="70" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2080</v>
       </c>
@@ -17116,7 +17117,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -17153,7 +17154,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -17227,7 +17228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42</v>
       </c>
@@ -17264,7 +17265,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -17375,7 +17376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -17449,7 +17450,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -17484,7 +17485,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>49</v>
       </c>
@@ -17519,7 +17520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>54</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -17593,7 +17594,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -17630,7 +17631,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -17667,7 +17668,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>58</v>
       </c>
@@ -17704,7 +17705,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>59</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>60</v>
       </c>
@@ -17778,7 +17779,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -17815,7 +17816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -17852,7 +17853,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>63</v>
       </c>
@@ -17889,7 +17890,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -17926,7 +17927,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -18000,7 +18001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>68</v>
       </c>
@@ -18037,7 +18038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>69</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -18111,7 +18112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>71</v>
       </c>
@@ -18148,7 +18149,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>72</v>
       </c>
@@ -18185,7 +18186,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -18222,7 +18223,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -18259,7 +18260,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -18296,7 +18297,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>76</v>
       </c>
@@ -18333,7 +18334,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>77</v>
       </c>
@@ -18370,7 +18371,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -18407,7 +18408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>79</v>
       </c>
@@ -18444,7 +18445,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>80</v>
       </c>
@@ -18481,7 +18482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>82</v>
       </c>
@@ -18518,7 +18519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -18555,7 +18556,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>84</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>85</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>86</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>87</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>88</v>
       </c>
@@ -18740,7 +18741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>89</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>90</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18853,7 +18854,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18892,7 +18893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>93</v>
       </c>
@@ -18929,7 +18930,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18968,7 +18969,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -19046,7 +19047,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19124,7 +19125,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -19163,7 +19164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>100</v>
       </c>
@@ -19200,7 +19201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>101</v>
       </c>
@@ -19237,7 +19238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>103</v>
       </c>
@@ -19311,7 +19312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>104</v>
       </c>
@@ -19348,7 +19349,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>105</v>
       </c>
@@ -19385,7 +19386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>106</v>
       </c>
@@ -19422,7 +19423,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>107</v>
       </c>
@@ -19459,7 +19460,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -19496,7 +19497,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>109</v>
       </c>
@@ -19533,7 +19534,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>110</v>
       </c>
@@ -19570,7 +19571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>111</v>
       </c>
@@ -19607,7 +19608,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>112</v>
       </c>
@@ -19644,7 +19645,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>113</v>
       </c>
@@ -19681,7 +19682,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>114</v>
       </c>
@@ -19718,7 +19719,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>115</v>
       </c>
@@ -19755,7 +19756,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>116</v>
       </c>
@@ -19792,7 +19793,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>117</v>
       </c>
@@ -19829,7 +19830,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>118</v>
       </c>
@@ -19866,7 +19867,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>119</v>
       </c>
@@ -19903,7 +19904,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>120</v>
       </c>
@@ -19940,7 +19941,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>121</v>
       </c>
@@ -19977,7 +19978,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>122</v>
       </c>
@@ -20014,7 +20015,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>123</v>
       </c>
@@ -20051,7 +20052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>127</v>
       </c>
@@ -20088,7 +20089,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>128</v>
       </c>
@@ -20125,7 +20126,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>129</v>
       </c>
@@ -20162,7 +20163,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>130</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>131</v>
       </c>
@@ -20238,7 +20239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>132</v>
       </c>
@@ -20275,7 +20276,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="370.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="357.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>133</v>
       </c>
@@ -20312,7 +20313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>134</v>
       </c>
@@ -20349,7 +20350,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>135</v>
       </c>
@@ -20386,7 +20387,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>136</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>137</v>
       </c>
@@ -20460,7 +20461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>138</v>
       </c>
@@ -20497,7 +20498,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>139</v>
       </c>
@@ -20534,7 +20535,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>140</v>
       </c>
@@ -20571,7 +20572,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>141</v>
       </c>
@@ -20608,7 +20609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>142</v>
       </c>
@@ -20645,7 +20646,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>143</v>
       </c>
@@ -20682,7 +20683,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>144</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>145</v>
       </c>
@@ -20756,7 +20757,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>146</v>
       </c>
@@ -20793,7 +20794,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -20830,7 +20831,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>148</v>
       </c>
@@ -20867,7 +20868,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>149</v>
       </c>
@@ -20904,7 +20905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="291" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20944,7 +20945,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>154</v>
       </c>
@@ -20981,7 +20982,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>155</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -21055,7 +21056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>158</v>
       </c>
@@ -21090,7 +21091,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>159</v>
       </c>
@@ -21127,7 +21128,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>166</v>
       </c>
@@ -21162,7 +21163,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>167</v>
       </c>
@@ -21199,7 +21200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>170</v>
       </c>
@@ -21234,7 +21235,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="238.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>171</v>
       </c>
@@ -21275,7 +21276,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>172</v>
       </c>
@@ -21316,7 +21317,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>173</v>
       </c>
@@ -21355,7 +21356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>174</v>
       </c>
@@ -21394,7 +21395,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>175</v>
       </c>
@@ -21433,7 +21434,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>176</v>
       </c>
@@ -21472,7 +21473,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>177</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>178</v>
       </c>
@@ -21552,7 +21553,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>179</v>
       </c>
@@ -21591,7 +21592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>180</v>
       </c>
@@ -21631,7 +21632,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>182</v>
       </c>
@@ -21671,7 +21672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>183</v>
       </c>
@@ -21712,7 +21713,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>185</v>
       </c>
@@ -21749,7 +21750,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>187</v>
       </c>
@@ -21790,7 +21791,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>189</v>
       </c>
@@ -21831,7 +21832,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>192</v>
       </c>
@@ -21872,7 +21873,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>193</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>194</v>
       </c>
@@ -21950,7 +21951,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>196</v>
       </c>
@@ -21989,21 +21990,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>197</v>
       </c>
       <c r="B132" s="21" t="s">
         <v>1639</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
+      <c r="C132" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D132" s="27" t="s">
+        <v>2261</v>
+      </c>
       <c r="F132" s="21" t="s">
         <v>1102</v>
       </c>
       <c r="G132" s="21"/>
       <c r="H132" s="21" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I132" s="21" t="s">
         <v>1638</v>
@@ -22026,7 +22031,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>199</v>
       </c>
@@ -22063,7 +22068,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>200</v>
       </c>
@@ -22100,7 +22105,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>202</v>
       </c>
@@ -22137,7 +22142,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -22174,7 +22179,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -22211,7 +22216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22251,7 +22256,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22291,7 +22296,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22331,7 +22336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22368,7 +22373,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22405,7 +22410,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22446,7 +22451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22487,7 +22492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22528,7 +22533,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22566,7 +22571,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -22604,7 +22609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22645,7 +22650,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -22686,7 +22691,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>223</v>
       </c>
@@ -22721,7 +22726,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>224</v>
       </c>
@@ -22759,7 +22764,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>225</v>
       </c>
@@ -22800,7 +22805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>227</v>
       </c>
@@ -22838,7 +22843,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>228</v>
       </c>
@@ -22876,7 +22881,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>231</v>
       </c>
@@ -22914,7 +22919,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>232</v>
       </c>
@@ -22955,7 +22960,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>233</v>
       </c>
@@ -22996,7 +23001,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>234</v>
       </c>
@@ -23037,7 +23042,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>235</v>
       </c>
@@ -23078,7 +23083,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>236</v>
       </c>
@@ -23119,19 +23124,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="192" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>237</v>
       </c>
       <c r="B161" s="21" t="s">
         <v>1536</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>2261</v>
+      </c>
       <c r="F161" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G161" s="18"/>
       <c r="H161" s="18" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="I161" s="21" t="s">
         <v>1535</v>
@@ -23154,7 +23165,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>238</v>
       </c>
@@ -23189,7 +23200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>239</v>
       </c>
@@ -23227,7 +23238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>240</v>
       </c>
@@ -23265,7 +23276,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>241</v>
       </c>
@@ -23300,7 +23311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>242</v>
       </c>
@@ -23338,7 +23349,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>243</v>
       </c>
@@ -23373,7 +23384,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>244</v>
       </c>
@@ -23411,7 +23422,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>245</v>
       </c>
@@ -23452,7 +23463,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>246</v>
       </c>
@@ -23487,7 +23498,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>247</v>
       </c>
@@ -23528,7 +23539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23571,7 +23582,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>249</v>
       </c>
@@ -23606,7 +23617,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>250</v>
       </c>
@@ -23641,7 +23652,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>251</v>
       </c>
@@ -23676,7 +23687,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="317.39999999999998" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="306.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>252</v>
       </c>
@@ -23711,7 +23722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23749,7 +23760,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -23787,7 +23798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>257</v>
       </c>
@@ -23822,7 +23833,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>258</v>
       </c>
@@ -23857,7 +23868,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>259</v>
       </c>
@@ -23892,7 +23903,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -23933,7 +23944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>261</v>
       </c>
@@ -23968,7 +23979,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>262</v>
       </c>
@@ -24003,7 +24014,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -24038,7 +24049,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>264</v>
       </c>
@@ -24073,7 +24084,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>274</v>
       </c>
@@ -24106,7 +24117,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>275</v>
       </c>
@@ -24139,7 +24150,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>276</v>
       </c>
@@ -24172,7 +24183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>277</v>
       </c>
@@ -24205,7 +24216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>278</v>
       </c>
@@ -24238,7 +24249,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>279</v>
       </c>
@@ -24271,7 +24282,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>280</v>
       </c>
@@ -24304,7 +24315,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>281</v>
       </c>
@@ -24337,7 +24348,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>282</v>
       </c>
@@ -24370,7 +24381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>283</v>
       </c>
@@ -24403,7 +24414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>284</v>
       </c>
@@ -24436,7 +24447,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>285</v>
       </c>
@@ -24469,7 +24480,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>286</v>
       </c>
@@ -24504,7 +24515,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>287</v>
       </c>
@@ -24539,7 +24550,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>288</v>
       </c>
@@ -24574,7 +24585,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>289</v>
       </c>
@@ -24609,7 +24620,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>290</v>
       </c>
@@ -24644,7 +24655,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>291</v>
       </c>
@@ -24679,7 +24690,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>292</v>
       </c>
@@ -24714,7 +24725,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>295</v>
       </c>
@@ -24749,7 +24760,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>296</v>
       </c>
@@ -24784,7 +24795,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>297</v>
       </c>
@@ -24819,7 +24830,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>298</v>
       </c>
@@ -24854,7 +24865,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>299</v>
       </c>
@@ -24889,7 +24900,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>300</v>
       </c>
@@ -24924,7 +24935,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>301</v>
       </c>
@@ -24959,7 +24970,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>302</v>
       </c>
@@ -24994,7 +25005,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>303</v>
       </c>
@@ -25029,7 +25040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>304</v>
       </c>
@@ -25064,7 +25075,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>305</v>
       </c>
@@ -25099,7 +25110,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>306</v>
       </c>
@@ -25134,7 +25145,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>307</v>
       </c>
@@ -25169,7 +25180,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>308</v>
       </c>
@@ -25204,7 +25215,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>309</v>
       </c>
@@ -25239,7 +25250,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>310</v>
       </c>
@@ -25274,7 +25285,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25312,7 +25323,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -25350,7 +25361,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -25392,7 +25403,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>314</v>
       </c>
@@ -25427,7 +25438,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>315</v>
       </c>
@@ -25462,7 +25473,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>316</v>
       </c>
@@ -25497,7 +25508,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>317</v>
       </c>
@@ -25532,7 +25543,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>318</v>
       </c>
@@ -25567,7 +25578,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>319</v>
       </c>
@@ -25602,7 +25613,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>320</v>
       </c>
@@ -25637,7 +25648,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>321</v>
       </c>
@@ -25672,7 +25683,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>322</v>
       </c>
@@ -25705,7 +25716,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>323</v>
       </c>
@@ -25738,7 +25749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>324</v>
       </c>
@@ -25777,7 +25788,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>325</v>
       </c>
@@ -25816,7 +25827,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>328</v>
       </c>
@@ -25855,7 +25866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>329</v>
       </c>
@@ -25894,7 +25905,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>331</v>
       </c>
@@ -25933,7 +25944,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>332</v>
       </c>
@@ -25968,7 +25979,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>333</v>
       </c>
@@ -26006,7 +26017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>334</v>
       </c>
@@ -26041,7 +26052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>335</v>
       </c>
@@ -26079,7 +26090,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>336</v>
       </c>
@@ -26117,7 +26128,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>337</v>
       </c>
@@ -26155,7 +26166,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>338</v>
       </c>
@@ -26190,7 +26201,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>339</v>
       </c>
@@ -26225,7 +26236,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>341</v>
       </c>
@@ -26263,7 +26274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>342</v>
       </c>
@@ -26301,7 +26312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>343</v>
       </c>
@@ -26336,7 +26347,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>344</v>
       </c>
@@ -26371,7 +26382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>345</v>
       </c>
@@ -26409,7 +26420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>346</v>
       </c>
@@ -26447,7 +26458,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>347</v>
       </c>
@@ -26482,7 +26493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>348</v>
       </c>
@@ -26520,7 +26531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>349</v>
       </c>
@@ -26558,7 +26569,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>350</v>
       </c>
@@ -26593,7 +26604,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>351</v>
       </c>
@@ -26628,7 +26639,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -26670,7 +26681,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26705,19 +26716,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>355</v>
       </c>
       <c r="B261" s="21" t="s">
         <v>1246</v>
       </c>
+      <c r="C261" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>2259</v>
+      </c>
       <c r="F261" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G261" s="18"/>
       <c r="H261" s="18" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I261" s="21" t="s">
         <v>1245</v>
@@ -26740,7 +26757,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>356</v>
       </c>
@@ -26781,7 +26798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>359</v>
       </c>
@@ -26816,7 +26833,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>360</v>
       </c>
@@ -26851,7 +26868,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>362</v>
       </c>
@@ -26886,7 +26903,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>363</v>
       </c>
@@ -26921,7 +26938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:16" ht="243" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -26964,7 +26981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>365</v>
       </c>
@@ -26999,7 +27016,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>366</v>
       </c>
@@ -27037,7 +27054,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>367</v>
       </c>
@@ -27075,7 +27092,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>368</v>
       </c>
@@ -27113,7 +27130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>369</v>
       </c>
@@ -27148,7 +27165,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>370</v>
       </c>
@@ -27183,7 +27200,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>371</v>
       </c>
@@ -27221,7 +27238,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>372</v>
       </c>
@@ -27259,7 +27276,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>373</v>
       </c>
@@ -27294,7 +27311,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>374</v>
       </c>
@@ -27329,7 +27346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>375</v>
       </c>
@@ -27364,7 +27381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>376</v>
       </c>
@@ -27399,7 +27416,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>377</v>
       </c>
@@ -27434,7 +27451,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>378</v>
       </c>
@@ -27469,7 +27486,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>379</v>
       </c>
@@ -27504,7 +27521,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>380</v>
       </c>
@@ -27539,19 +27556,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>381</v>
       </c>
       <c r="B284" s="21" t="s">
         <v>1171</v>
       </c>
+      <c r="C284" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>2261</v>
+      </c>
       <c r="F284" s="21" t="s">
         <v>1102</v>
       </c>
       <c r="G284" s="21"/>
       <c r="H284" s="21" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I284" s="21" t="s">
         <v>1170</v>
@@ -27574,7 +27597,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>382</v>
       </c>
@@ -27609,7 +27632,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27651,7 +27674,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>386</v>
       </c>
@@ -27687,7 +27710,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27729,7 +27752,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27770,7 +27793,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27805,7 +27828,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27849,7 +27872,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -27890,7 +27913,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>392</v>
       </c>
@@ -27931,7 +27954,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27966,7 +27989,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -28007,7 +28030,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -28048,7 +28071,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>396</v>
       </c>
@@ -28083,7 +28106,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28124,7 +28147,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28159,7 +28182,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28194,7 +28217,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -28229,7 +28252,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -28270,7 +28293,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>402</v>
       </c>
@@ -28307,7 +28330,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>403</v>
       </c>
@@ -28344,7 +28367,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>404</v>
       </c>
@@ -28381,7 +28404,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>405</v>
       </c>
@@ -28418,7 +28441,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>406</v>
       </c>
@@ -28455,7 +28478,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>407</v>
       </c>
@@ -28492,7 +28515,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>408</v>
       </c>
@@ -28529,7 +28552,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>409</v>
       </c>
@@ -28566,7 +28589,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>410</v>
       </c>
@@ -28603,7 +28626,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>411</v>
       </c>
@@ -28640,7 +28663,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>412</v>
       </c>
@@ -28677,7 +28700,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>413</v>
       </c>
@@ -28712,7 +28735,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>415</v>
       </c>
@@ -28747,7 +28770,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>417</v>
       </c>
@@ -28784,7 +28807,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>418</v>
       </c>
@@ -28821,7 +28844,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>419</v>
       </c>
@@ -28858,7 +28881,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>420</v>
       </c>
@@ -28895,7 +28918,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>421</v>
       </c>
@@ -28932,7 +28955,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>422</v>
       </c>
@@ -28969,7 +28992,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>423</v>
       </c>
@@ -29006,7 +29029,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>424</v>
       </c>
@@ -29043,7 +29066,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>426</v>
       </c>
@@ -29078,7 +29101,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>427</v>
       </c>
@@ -29113,7 +29136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>429</v>
       </c>
@@ -29150,7 +29173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>430</v>
       </c>
@@ -29187,7 +29210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>431</v>
       </c>
@@ -29224,7 +29247,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>432</v>
       </c>
@@ -29261,7 +29284,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>433</v>
       </c>
@@ -29298,7 +29321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>434</v>
       </c>
@@ -29335,7 +29358,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>435</v>
       </c>
@@ -29370,7 +29393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>436</v>
       </c>
@@ -29405,7 +29428,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>437</v>
       </c>
@@ -29440,7 +29463,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>440</v>
       </c>
@@ -29477,7 +29500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>441</v>
       </c>
@@ -29518,7 +29541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>442</v>
       </c>
@@ -29555,7 +29578,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>443</v>
       </c>
@@ -29592,21 +29615,25 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>444</v>
       </c>
       <c r="B339" s="18" t="s">
         <v>974</v>
       </c>
-      <c r="C339" s="18"/>
-      <c r="D339" s="18"/>
+      <c r="C339" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D339" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F339" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G339" s="18"/>
       <c r="H339" s="18" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I339" s="18" t="s">
         <v>973</v>
@@ -29629,7 +29656,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>445</v>
       </c>
@@ -29666,7 +29693,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>448</v>
       </c>
@@ -29703,7 +29730,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>449</v>
       </c>
@@ -29740,7 +29767,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>450</v>
       </c>
@@ -29777,7 +29804,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>451</v>
       </c>
@@ -29814,7 +29841,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>452</v>
       </c>
@@ -29851,7 +29878,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>453</v>
       </c>
@@ -29888,7 +29915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>455</v>
       </c>
@@ -29925,15 +29952,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>456</v>
       </c>
       <c r="B348" s="18" t="s">
         <v>945</v>
       </c>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
+      <c r="C348" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D348" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F348" s="18" t="s">
         <v>1102</v>
       </c>
@@ -29962,7 +29993,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>457</v>
       </c>
@@ -30003,7 +30034,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>458</v>
       </c>
@@ -30040,7 +30071,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>459</v>
       </c>
@@ -30077,7 +30108,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>460</v>
       </c>
@@ -30114,7 +30145,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>461</v>
       </c>
@@ -30151,7 +30182,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>463</v>
       </c>
@@ -30188,15 +30219,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>464</v>
       </c>
       <c r="B355" s="18" t="s">
         <v>921</v>
       </c>
-      <c r="C355" s="18"/>
-      <c r="D355" s="18"/>
+      <c r="C355" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="D355" s="18" t="s">
+        <v>2259</v>
+      </c>
       <c r="F355" s="18" t="s">
         <v>1102</v>
       </c>
@@ -30225,15 +30260,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>465</v>
       </c>
       <c r="B356" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C356" s="27"/>
-      <c r="D356" s="27"/>
+      <c r="C356" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D356" s="27" t="s">
+        <v>2261</v>
+      </c>
       <c r="F356" s="21" t="s">
         <v>1102</v>
       </c>
@@ -30262,7 +30301,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>469</v>
       </c>
@@ -30299,7 +30338,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>470</v>
       </c>
@@ -30336,7 +30375,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:16" ht="39" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>471</v>
       </c>
@@ -30377,7 +30416,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>472</v>
       </c>
@@ -30414,7 +30453,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>473</v>
       </c>
@@ -30451,7 +30490,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>474</v>
       </c>
@@ -30488,7 +30527,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>475</v>
       </c>
@@ -30525,7 +30564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>476</v>
       </c>
@@ -30562,15 +30601,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>477</v>
       </c>
       <c r="B365" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="C365" s="27"/>
-      <c r="D365" s="27"/>
+      <c r="C365" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>2259</v>
+      </c>
       <c r="F365" s="21" t="s">
         <v>1102</v>
       </c>
@@ -30599,7 +30642,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>479</v>
       </c>
@@ -30634,7 +30677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>480</v>
       </c>
@@ -30669,7 +30712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>481</v>
       </c>
@@ -30704,7 +30747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>482</v>
       </c>
@@ -30739,7 +30782,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>483</v>
       </c>
@@ -30776,7 +30819,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>484</v>
       </c>
@@ -30811,7 +30854,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>485</v>
       </c>
@@ -30846,7 +30889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>486</v>
       </c>
@@ -30881,7 +30924,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:16" ht="396" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>487</v>
       </c>
@@ -30916,7 +30959,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>489</v>
       </c>
@@ -30951,7 +30994,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:16" ht="332.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>490</v>
       </c>
@@ -30986,7 +31029,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:16" ht="408.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>491</v>
       </c>
@@ -31021,7 +31064,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:16" ht="370.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>492</v>
       </c>
@@ -31056,7 +31099,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:16" ht="396" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>493</v>
       </c>
@@ -31091,7 +31134,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>494</v>
       </c>
@@ -31126,7 +31169,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>495</v>
       </c>
@@ -31161,7 +31204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>498</v>
       </c>
@@ -31196,7 +31239,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>499</v>
       </c>
@@ -31231,7 +31274,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>500</v>
       </c>
@@ -31266,7 +31309,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="383.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:16" ht="370.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>501</v>
       </c>
@@ -31301,7 +31344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>503</v>
       </c>
@@ -31336,7 +31379,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="330.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>504</v>
       </c>
@@ -31371,7 +31414,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="357" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>505</v>
       </c>
@@ -31406,7 +31449,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>506</v>
       </c>
@@ -31439,7 +31482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>507</v>
       </c>
@@ -31470,7 +31513,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>508</v>
       </c>
@@ -31503,7 +31546,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="132.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>509</v>
       </c>
@@ -31544,7 +31587,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:16" ht="277.89999999999998" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31585,7 +31628,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="343.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:16" ht="332.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B394" s="18" t="s">
         <v>2243</v>
       </c>
@@ -31617,7 +31660,7 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B395" s="18" t="s">
         <v>2244</v>
       </c>
@@ -31651,7 +31694,7 @@
       <c r="O395" s="18"/>
       <c r="P395" s="18"/>
     </row>
-    <row r="396" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>511</v>
       </c>
@@ -31688,7 +31731,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="264.60000000000002" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>512</v>
       </c>
@@ -31725,7 +31768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:16" ht="294" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>513</v>
       </c>
@@ -31766,7 +31809,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="172.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:16" ht="166.5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>514</v>
       </c>
@@ -31807,7 +31850,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:16" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>515</v>
       </c>
@@ -31848,7 +31891,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="304.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>516</v>
       </c>
@@ -31889,7 +31932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="396.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:16" ht="383.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B402" s="18" t="s">
         <v>2252</v>
       </c>
@@ -31921,7 +31964,7 @@
       <c r="O402" s="18"/>
       <c r="P402" s="18"/>
     </row>
-    <row r="403" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B403" s="18" t="s">
         <v>2253</v>
       </c>
@@ -31953,7 +31996,7 @@
       <c r="O403" s="18"/>
       <c r="P403" s="18"/>
     </row>
-    <row r="404" spans="1:16" ht="159" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>517</v>
       </c>
@@ -31994,7 +32037,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>518</v>
       </c>
@@ -32031,7 +32074,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>529</v>
       </c>
@@ -32068,7 +32111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>541</v>
       </c>
@@ -32101,7 +32144,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>547</v>
       </c>
@@ -32134,7 +32177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>548</v>
       </c>
@@ -32167,7 +32210,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>564</v>
       </c>
@@ -32204,7 +32247,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>565</v>
       </c>
@@ -32241,7 +32284,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>570</v>
       </c>
@@ -32278,7 +32321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>571</v>
       </c>
@@ -32319,7 +32362,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>574</v>
       </c>
@@ -32356,7 +32399,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>575</v>
       </c>
@@ -32393,7 +32436,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>576</v>
       </c>
@@ -32430,7 +32473,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>577</v>
       </c>
@@ -32467,7 +32510,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>580</v>
       </c>
@@ -32504,7 +32547,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>581</v>
       </c>
@@ -32541,7 +32584,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>582</v>
       </c>
@@ -32576,7 +32619,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>583</v>
       </c>
@@ -32611,7 +32654,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>584</v>
       </c>
@@ -32646,7 +32689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>585</v>
       </c>
@@ -32681,7 +32724,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>586</v>
       </c>
@@ -32716,7 +32759,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>587</v>
       </c>
@@ -32753,7 +32796,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>588</v>
       </c>
@@ -32788,7 +32831,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>589</v>
       </c>
@@ -32823,7 +32866,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>590</v>
       </c>
@@ -32858,7 +32901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>591</v>
       </c>
@@ -32893,7 +32936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>592</v>
       </c>
@@ -32928,7 +32971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="185.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>593</v>
       </c>
@@ -32963,7 +33006,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>594</v>
       </c>
@@ -32998,7 +33041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>595</v>
       </c>
@@ -33033,7 +33076,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>596</v>
       </c>
@@ -33068,7 +33111,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="225" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>597</v>
       </c>
@@ -33103,7 +33146,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="198.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>598</v>
       </c>
@@ -33140,7 +33183,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="27" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>599</v>
       </c>
@@ -33177,7 +33220,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="93" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>600</v>
       </c>
@@ -33212,7 +33255,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="439" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>601</v>
       </c>
@@ -33247,7 +33290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>602</v>
       </c>
@@ -33284,7 +33327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>603</v>
       </c>
@@ -33321,7 +33364,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>604</v>
       </c>
@@ -33358,7 +33401,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="251.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>605</v>
       </c>
@@ -33393,7 +33436,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>606</v>
       </c>
@@ -33428,7 +33471,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>607</v>
       </c>
@@ -33463,7 +33506,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>608</v>
       </c>
@@ -33499,7 +33542,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P446">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Sprint 22 Sep - 29 Sep"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33512,21 +33563,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
     <col min="3" max="3" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="73.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="91" style="50" customWidth="1"/>
-    <col min="10" max="10" width="65.6640625" style="50" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="65.7109375" style="50" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2227</v>
       </c>
@@ -33594,7 +33645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -33627,7 +33678,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -33660,7 +33711,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -33693,7 +33744,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="229.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -33726,7 +33777,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -33756,7 +33807,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -33786,7 +33837,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -33816,7 +33867,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -33854,7 +33905,7 @@
       <c r="U9" s="36"/>
       <c r="V9" s="36"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -33892,7 +33943,7 @@
       <c r="U10" s="36"/>
       <c r="V10" s="36"/>
     </row>
-    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -33930,7 +33981,7 @@
       <c r="U11" s="36"/>
       <c r="V11" s="36"/>
     </row>
-    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -33967,7 +34018,7 @@
       <c r="U12" s="36"/>
       <c r="V12" s="36"/>
     </row>
-    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -34011,7 +34062,7 @@
       <c r="U13" s="36"/>
       <c r="V13" s="36"/>
     </row>
-    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -34045,7 +34096,7 @@
       <c r="U14" s="36"/>
       <c r="V14" s="36"/>
     </row>
-    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -34088,7 +34139,7 @@
       <c r="U15" s="36"/>
       <c r="V15" s="36"/>
     </row>
-    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -34132,7 +34183,7 @@
       <c r="U16" s="36"/>
       <c r="V16" s="36"/>
     </row>
-    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -34175,7 +34226,7 @@
       <c r="U17" s="36"/>
       <c r="V17" s="36"/>
     </row>
-    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -34212,7 +34263,7 @@
       <c r="U18" s="36"/>
       <c r="V18" s="36"/>
     </row>
-    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -34255,7 +34306,7 @@
       <c r="U19" s="36"/>
       <c r="V19" s="36"/>
     </row>
-    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -34298,7 +34349,7 @@
       <c r="U20" s="36"/>
       <c r="V20" s="36"/>
     </row>
-    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -34341,7 +34392,7 @@
       <c r="U21" s="36"/>
       <c r="V21" s="36"/>
     </row>
-    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -34378,7 +34429,7 @@
       <c r="U22" s="36"/>
       <c r="V22" s="36"/>
     </row>
-    <row r="23" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -34421,7 +34472,7 @@
       <c r="U23" s="36"/>
       <c r="V23" s="36"/>
     </row>
-    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -34464,7 +34515,7 @@
       <c r="U24" s="36"/>
       <c r="V24" s="36"/>
     </row>
-    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -34507,7 +34558,7 @@
       <c r="U25" s="36"/>
       <c r="V25" s="36"/>
     </row>
-    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -34550,7 +34601,7 @@
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
     </row>
-    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -34589,7 +34640,7 @@
       <c r="U27" s="36"/>
       <c r="V27" s="36"/>
     </row>
-    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -34624,7 +34675,7 @@
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
     </row>
-    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -34667,7 +34718,7 @@
       <c r="U29" s="36"/>
       <c r="V29" s="36"/>
     </row>
-    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -34704,7 +34755,7 @@
       <c r="U30" s="36"/>
       <c r="V30" s="36"/>
     </row>
-    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -34747,7 +34798,7 @@
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
     </row>
-    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -34791,7 +34842,7 @@
       <c r="U32" s="36"/>
       <c r="V32" s="36"/>
     </row>
-    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>

--- a/TestCases/TestCaseSheet.xlsx
+++ b/TestCases/TestCaseSheet.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pritam\My-Work_Details\Proximus\HTMLSelenium\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit.agarwal1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="21075" windowHeight="8895" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="228" windowWidth="21072" windowHeight="8892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Automation_Status" sheetId="2" r:id="rId1"/>
     <sheet name="BVT" sheetId="1" r:id="rId2"/>
     <sheet name="Mini_EPG" sheetId="3" r:id="rId3"/>
     <sheet name="Regression" sheetId="4" r:id="rId4"/>
-    <sheet name="EPG" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="EPG" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BVT!$A$1:$J$127</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">EPG!$A$1:$V$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">EPG!$A$1:$V$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mini_EPG!$A$1:$J$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Regression!$A$1:$P$446</definedName>
   </definedNames>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5661" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5906" uniqueCount="2273">
   <si>
     <t>Name</t>
   </si>
@@ -11507,6 +11508,33 @@
   <si>
     <t>Sprint 3 Oct - 7 Oct</t>
   </si>
+  <si>
+    <t>Dependent on TM</t>
+  </si>
+  <si>
+    <t>Test case requires 6 hours wait</t>
+  </si>
+  <si>
+    <t>Feature not implemented</t>
+  </si>
+  <si>
+    <t>Recording button not implemented in trick play</t>
+  </si>
+  <si>
+    <t>Test Case not properly ended</t>
+  </si>
+  <si>
+    <t>Backend Call cannot be automated</t>
+  </si>
+  <si>
+    <t>Fetature not yet implemented</t>
+  </si>
+  <si>
+    <t>Dependenet on TM</t>
+  </si>
+  <si>
+    <t>Same as NTE1.2</t>
+  </si>
 </sst>
 </file>
 
@@ -11560,7 +11588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11606,6 +11634,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11673,7 +11707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -11825,6 +11859,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12482,12 +12526,12 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>496</v>
       </c>
@@ -12496,7 +12540,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>497</v>
       </c>
@@ -12505,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>501</v>
       </c>
@@ -12530,19 +12574,19 @@
       <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="50.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="50.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="114.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="114.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -12574,7 +12618,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>418</v>
       </c>
@@ -12604,7 +12648,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>419</v>
       </c>
@@ -12634,7 +12678,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>420</v>
       </c>
@@ -12664,7 +12708,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>421</v>
       </c>
@@ -12694,7 +12738,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>423</v>
       </c>
@@ -12724,7 +12768,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>424</v>
       </c>
@@ -12756,7 +12800,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>425</v>
       </c>
@@ -12786,7 +12830,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>426</v>
       </c>
@@ -12818,7 +12862,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>427</v>
       </c>
@@ -12848,7 +12892,7 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>428</v>
       </c>
@@ -12878,7 +12922,7 @@
       </c>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>429</v>
       </c>
@@ -12906,7 +12950,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>430</v>
       </c>
@@ -12936,7 +12980,7 @@
       </c>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>431</v>
       </c>
@@ -12966,7 +13010,7 @@
       </c>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>432</v>
       </c>
@@ -12996,7 +13040,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>433</v>
       </c>
@@ -13024,7 +13068,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>434</v>
       </c>
@@ -13052,7 +13096,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>435</v>
       </c>
@@ -13082,7 +13126,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>422</v>
       </c>
@@ -13110,7 +13154,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="93" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>436</v>
       </c>
@@ -13140,7 +13184,7 @@
       </c>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>437</v>
       </c>
@@ -13170,7 +13214,7 @@
       </c>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>437</v>
       </c>
@@ -13200,7 +13244,7 @@
       </c>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>436</v>
       </c>
@@ -13230,7 +13274,7 @@
       </c>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>438</v>
       </c>
@@ -13260,7 +13304,7 @@
       </c>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>439</v>
       </c>
@@ -13290,7 +13334,7 @@
       </c>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="9" t="s">
         <v>496</v>
@@ -13320,7 +13364,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="2" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>464</v>
       </c>
@@ -13350,7 +13394,7 @@
       </c>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="2" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>465</v>
       </c>
@@ -13380,7 +13424,7 @@
       </c>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="2" customFormat="1" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>466</v>
       </c>
@@ -13410,7 +13454,7 @@
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="2" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>467</v>
       </c>
@@ -13440,7 +13484,7 @@
       </c>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="2" customFormat="1" ht="93" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>468</v>
       </c>
@@ -13470,7 +13514,7 @@
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="s">
         <v>501</v>
@@ -13496,7 +13540,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="2" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>469</v>
       </c>
@@ -13526,7 +13570,7 @@
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="s">
         <v>501</v>
@@ -13554,7 +13598,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>485</v>
       </c>
@@ -13582,7 +13626,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="2" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>470</v>
       </c>
@@ -13612,7 +13656,7 @@
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>471</v>
       </c>
@@ -13642,7 +13686,7 @@
       </c>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>472</v>
       </c>
@@ -13672,7 +13716,7 @@
       </c>
       <c r="J38" s="17"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>473</v>
       </c>
@@ -13702,7 +13746,7 @@
       </c>
       <c r="J39" s="17"/>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="141" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="2" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>474</v>
       </c>
@@ -13732,7 +13776,7 @@
       </c>
       <c r="J40" s="17"/>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>475</v>
       </c>
@@ -13762,7 +13806,7 @@
       </c>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>476</v>
       </c>
@@ -13792,7 +13836,7 @@
       </c>
       <c r="J42" s="17"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>477</v>
       </c>
@@ -13822,7 +13866,7 @@
       </c>
       <c r="J43" s="17"/>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="2" customFormat="1" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>478</v>
       </c>
@@ -13852,7 +13896,7 @@
       </c>
       <c r="J44" s="17"/>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="2" customFormat="1" ht="172.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>479</v>
       </c>
@@ -13882,7 +13926,7 @@
       </c>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="2" customFormat="1" ht="40.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>440</v>
       </c>
@@ -13912,7 +13956,7 @@
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="9" t="s">
         <v>496</v>
@@ -13940,7 +13984,7 @@
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="9" t="s">
         <v>496</v>
@@ -13968,7 +14012,7 @@
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="9" t="s">
         <v>496</v>
@@ -13996,7 +14040,7 @@
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="9" t="s">
         <v>496</v>
@@ -14024,7 +14068,7 @@
       </c>
       <c r="J50" s="17"/>
     </row>
-    <row r="51" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="9" t="s">
         <v>496</v>
@@ -14052,7 +14096,7 @@
       </c>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>441</v>
       </c>
@@ -14082,7 +14126,7 @@
       </c>
       <c r="J52" s="17"/>
     </row>
-    <row r="53" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="9" t="s">
         <v>496</v>
@@ -14110,7 +14154,7 @@
       </c>
       <c r="J53" s="17"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="9" t="s">
         <v>496</v>
@@ -14138,7 +14182,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="9" t="s">
         <v>496</v>
@@ -14166,7 +14210,7 @@
       </c>
       <c r="J55" s="17"/>
     </row>
-    <row r="56" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="9" t="s">
         <v>496</v>
@@ -14196,7 +14240,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="9" t="s">
         <v>496</v>
@@ -14224,7 +14268,7 @@
       </c>
       <c r="J57" s="17"/>
     </row>
-    <row r="58" spans="1:10" ht="39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="9" t="s">
         <v>496</v>
@@ -14252,7 +14296,7 @@
       </c>
       <c r="J58" s="17"/>
     </row>
-    <row r="59" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="9" t="s">
         <v>496</v>
@@ -14280,7 +14324,7 @@
       </c>
       <c r="J59" s="17"/>
     </row>
-    <row r="60" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="132.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="9" t="s">
         <v>496</v>
@@ -14308,7 +14352,7 @@
       </c>
       <c r="J60" s="17"/>
     </row>
-    <row r="61" spans="1:10" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>480</v>
       </c>
@@ -14338,7 +14382,7 @@
       </c>
       <c r="J61" s="17"/>
     </row>
-    <row r="62" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>481</v>
       </c>
@@ -14366,7 +14410,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>482</v>
       </c>
@@ -14396,7 +14440,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="2" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="2" customFormat="1" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>483</v>
       </c>
@@ -14426,7 +14470,7 @@
       </c>
       <c r="J64" s="17"/>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="2" customFormat="1" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>484</v>
       </c>
@@ -14456,7 +14500,7 @@
       </c>
       <c r="J65" s="17"/>
     </row>
-    <row r="66" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>442</v>
       </c>
@@ -14486,7 +14530,7 @@
       </c>
       <c r="J66" s="17"/>
     </row>
-    <row r="67" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>443</v>
       </c>
@@ -14516,7 +14560,7 @@
       </c>
       <c r="J67" s="17"/>
     </row>
-    <row r="68" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>444</v>
       </c>
@@ -14546,7 +14590,7 @@
       </c>
       <c r="J68" s="17"/>
     </row>
-    <row r="69" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>445</v>
       </c>
@@ -14576,7 +14620,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="15" t="s">
         <v>501</v>
@@ -14602,7 +14646,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14"/>
       <c r="B71" s="15" t="s">
         <v>501</v>
@@ -14628,7 +14672,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="9" t="s">
         <v>496</v>
@@ -14658,7 +14702,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="9" t="s">
         <v>496</v>
@@ -14686,7 +14730,7 @@
       </c>
       <c r="J73" s="17"/>
     </row>
-    <row r="74" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>446</v>
       </c>
@@ -14716,7 +14760,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>447</v>
       </c>
@@ -14744,7 +14788,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>448</v>
       </c>
@@ -14772,7 +14816,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>501</v>
@@ -14798,7 +14842,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="15" t="s">
         <v>501</v>
@@ -14824,7 +14868,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="15" t="s">
         <v>501</v>
@@ -14850,7 +14894,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>449</v>
       </c>
@@ -14878,7 +14922,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14"/>
       <c r="B81" s="15" t="s">
         <v>501</v>
@@ -14904,7 +14948,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14"/>
       <c r="B82" s="15" t="s">
         <v>501</v>
@@ -14930,7 +14974,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="9" t="s">
         <v>496</v>
@@ -14958,7 +15002,7 @@
       </c>
       <c r="J83" s="17"/>
     </row>
-    <row r="84" spans="1:10" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="9" t="s">
         <v>496</v>
@@ -14986,7 +15030,7 @@
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:10" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="9" t="s">
         <v>496</v>
@@ -15014,7 +15058,7 @@
       </c>
       <c r="J85" s="17"/>
     </row>
-    <row r="86" spans="1:10" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="9" t="s">
         <v>496</v>
@@ -15042,7 +15086,7 @@
       </c>
       <c r="J86" s="17"/>
     </row>
-    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="9" t="s">
         <v>496</v>
@@ -15070,7 +15114,7 @@
       </c>
       <c r="J87" s="17"/>
     </row>
-    <row r="88" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>450</v>
       </c>
@@ -15098,7 +15142,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14"/>
       <c r="B89" s="15" t="s">
         <v>501</v>
@@ -15124,7 +15168,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>501</v>
@@ -15150,7 +15194,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>451</v>
       </c>
@@ -15180,7 +15224,7 @@
       </c>
       <c r="J91" s="17"/>
     </row>
-    <row r="92" spans="1:10" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>452</v>
       </c>
@@ -15210,7 +15254,7 @@
       </c>
       <c r="J92" s="17"/>
     </row>
-    <row r="93" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>453</v>
       </c>
@@ -15238,7 +15282,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>454</v>
       </c>
@@ -15268,7 +15312,7 @@
       </c>
       <c r="J94" s="17"/>
     </row>
-    <row r="95" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>455</v>
       </c>
@@ -15298,7 +15342,7 @@
       </c>
       <c r="J95" s="17"/>
     </row>
-    <row r="96" spans="1:10" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>456</v>
       </c>
@@ -15328,7 +15372,7 @@
       </c>
       <c r="J96" s="17"/>
     </row>
-    <row r="97" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>457</v>
       </c>
@@ -15356,7 +15400,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>458</v>
       </c>
@@ -15386,7 +15430,7 @@
       </c>
       <c r="J98" s="17"/>
     </row>
-    <row r="99" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>459</v>
       </c>
@@ -15414,7 +15458,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>460</v>
       </c>
@@ -15442,7 +15486,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>461</v>
       </c>
@@ -15470,7 +15514,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>462</v>
       </c>
@@ -15498,7 +15542,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>463</v>
       </c>
@@ -15526,7 +15570,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="15" t="s">
         <v>501</v>
@@ -15552,7 +15596,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="13"/>
       <c r="B105" s="9" t="s">
         <v>496</v>
@@ -15578,7 +15622,7 @@
       <c r="I105" s="3"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="98.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="9" t="s">
         <v>496</v>
@@ -15602,7 +15646,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="9" t="s">
         <v>496</v>
@@ -15626,7 +15670,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="93" x14ac:dyDescent="0.3">
       <c r="A108" s="54"/>
       <c r="B108" s="55" t="s">
         <v>496</v>
@@ -15650,7 +15694,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="14"/>
       <c r="B109" s="15" t="s">
         <v>501</v>
@@ -15674,7 +15718,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="192" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="198.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="9" t="s">
         <v>496</v>
@@ -15698,7 +15742,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="15" t="s">
         <v>501</v>
@@ -15722,7 +15766,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="15" t="s">
         <v>501</v>
@@ -15746,7 +15790,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="9" t="s">
         <v>496</v>
@@ -15770,7 +15814,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="9" t="s">
         <v>496</v>
@@ -15794,7 +15838,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>501</v>
       </c>
@@ -15811,7 +15855,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="9" t="s">
         <v>496</v>
@@ -15835,7 +15879,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="9" t="s">
         <v>496</v>
@@ -15859,7 +15903,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="9" t="s">
         <v>496</v>
@@ -15883,7 +15927,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="9" t="s">
         <v>496</v>
@@ -15907,7 +15951,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="15" t="s">
         <v>501</v>
@@ -15931,7 +15975,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14"/>
       <c r="B121" s="15" t="s">
         <v>501</v>
@@ -15955,7 +15999,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="166.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="159" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="9" t="s">
         <v>496</v>
@@ -15979,7 +16023,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14"/>
       <c r="B123" s="15" t="s">
         <v>501</v>
@@ -16003,7 +16047,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14"/>
       <c r="B124" s="15" t="s">
         <v>501</v>
@@ -16027,7 +16071,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="255.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="251.4" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="9" t="s">
         <v>496</v>
@@ -16051,7 +16095,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="9" t="s">
         <v>496</v>
@@ -16075,7 +16119,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="144" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="9" t="s">
         <v>496</v>
@@ -16125,22 +16169,22 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="24" customWidth="1"/>
-    <col min="7" max="7" width="126.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="126.109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
     <col min="10" max="10" width="26" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
@@ -16172,7 +16216,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>77655</v>
       </c>
@@ -16198,7 +16242,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>684</v>
       </c>
@@ -16224,7 +16268,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>681</v>
       </c>
@@ -16250,7 +16294,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>77661</v>
       </c>
@@ -16270,7 +16314,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>77657</v>
       </c>
@@ -16290,7 +16334,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>77663</v>
       </c>
@@ -16310,7 +16354,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>77662</v>
       </c>
@@ -16330,7 +16374,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>77658</v>
       </c>
@@ -16350,7 +16394,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>77678</v>
       </c>
@@ -16370,7 +16414,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>77679</v>
       </c>
@@ -16390,7 +16434,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>77673</v>
       </c>
@@ -16410,7 +16454,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>77660</v>
       </c>
@@ -16430,7 +16474,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>660</v>
       </c>
@@ -16451,7 +16495,7 @@
       </c>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>658</v>
       </c>
@@ -16472,7 +16516,7 @@
       </c>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>77669</v>
       </c>
@@ -16493,7 +16537,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>2097</v>
       </c>
@@ -16514,7 +16558,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>77668</v>
       </c>
@@ -16535,7 +16579,7 @@
       </c>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>2098</v>
       </c>
@@ -16556,7 +16600,7 @@
       </c>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>77667</v>
       </c>
@@ -16577,7 +16621,7 @@
       </c>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>2099</v>
       </c>
@@ -16598,7 +16642,7 @@
       </c>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>77666</v>
       </c>
@@ -16619,7 +16663,7 @@
       </c>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>77664</v>
       </c>
@@ -16640,7 +16684,7 @@
       </c>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>77665</v>
       </c>
@@ -16661,7 +16705,7 @@
       </c>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>77675</v>
       </c>
@@ -16681,7 +16725,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>77672</v>
       </c>
@@ -16701,7 +16745,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>77659</v>
       </c>
@@ -16722,7 +16766,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>77676</v>
       </c>
@@ -16743,7 +16787,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>77656</v>
       </c>
@@ -16764,7 +16808,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>627</v>
       </c>
@@ -16785,7 +16829,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>625</v>
       </c>
@@ -16806,7 +16850,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>623</v>
       </c>
@@ -16827,7 +16871,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>621</v>
       </c>
@@ -16848,7 +16892,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>619</v>
       </c>
@@ -16869,7 +16913,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>77681</v>
       </c>
@@ -16889,7 +16933,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>77674</v>
       </c>
@@ -16910,7 +16954,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>77671</v>
       </c>
@@ -16930,7 +16974,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>688</v>
       </c>
@@ -16950,7 +16994,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>77670</v>
       </c>
@@ -16970,7 +17014,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>690</v>
       </c>
@@ -16990,7 +17034,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>77666</v>
       </c>
@@ -17010,7 +17054,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>2100</v>
       </c>
@@ -17042,32 +17086,32 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141:P412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="45.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="55.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="70" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" customWidth="1"/>
-    <col min="13" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="1"/>
+    <col min="13" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2080</v>
       </c>
@@ -17117,7 +17161,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -17154,7 +17198,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -17191,7 +17235,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41</v>
       </c>
@@ -17228,7 +17272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42</v>
       </c>
@@ -17265,7 +17309,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43</v>
       </c>
@@ -17302,7 +17346,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44</v>
       </c>
@@ -17339,7 +17383,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45</v>
       </c>
@@ -17376,7 +17420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>46</v>
       </c>
@@ -17413,7 +17457,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>47</v>
       </c>
@@ -17450,7 +17494,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>48</v>
       </c>
@@ -17485,7 +17529,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>49</v>
       </c>
@@ -17520,7 +17564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>54</v>
       </c>
@@ -17557,7 +17601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -17594,7 +17638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>56</v>
       </c>
@@ -17631,7 +17675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>57</v>
       </c>
@@ -17668,7 +17712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>58</v>
       </c>
@@ -17705,7 +17749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>59</v>
       </c>
@@ -17742,7 +17786,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>60</v>
       </c>
@@ -17779,7 +17823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>61</v>
       </c>
@@ -17816,7 +17860,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>62</v>
       </c>
@@ -17853,7 +17897,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>63</v>
       </c>
@@ -17890,7 +17934,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>64</v>
       </c>
@@ -17927,7 +17971,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>65</v>
       </c>
@@ -17964,7 +18008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>67</v>
       </c>
@@ -18001,7 +18045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>68</v>
       </c>
@@ -18038,7 +18082,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>69</v>
       </c>
@@ -18075,7 +18119,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>70</v>
       </c>
@@ -18112,7 +18156,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>71</v>
       </c>
@@ -18149,7 +18193,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>72</v>
       </c>
@@ -18186,7 +18230,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>73</v>
       </c>
@@ -18223,7 +18267,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>74</v>
       </c>
@@ -18260,7 +18304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>75</v>
       </c>
@@ -18297,7 +18341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>76</v>
       </c>
@@ -18334,7 +18378,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>77</v>
       </c>
@@ -18371,7 +18415,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>78</v>
       </c>
@@ -18408,7 +18452,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>79</v>
       </c>
@@ -18445,7 +18489,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>80</v>
       </c>
@@ -18482,7 +18526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>82</v>
       </c>
@@ -18519,7 +18563,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>83</v>
       </c>
@@ -18556,7 +18600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>84</v>
       </c>
@@ -18593,7 +18637,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>85</v>
       </c>
@@ -18630,7 +18674,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>86</v>
       </c>
@@ -18667,7 +18711,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>87</v>
       </c>
@@ -18704,7 +18748,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>88</v>
       </c>
@@ -18741,7 +18785,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>89</v>
       </c>
@@ -18778,7 +18822,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>90</v>
       </c>
@@ -18815,7 +18859,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>91</v>
       </c>
@@ -18854,7 +18898,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>92</v>
       </c>
@@ -18893,7 +18937,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>93</v>
       </c>
@@ -18930,7 +18974,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>94</v>
       </c>
@@ -18969,7 +19013,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>95</v>
       </c>
@@ -19008,7 +19052,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>96</v>
       </c>
@@ -19047,7 +19091,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>97</v>
       </c>
@@ -19086,7 +19130,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>98</v>
       </c>
@@ -19125,7 +19169,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>99</v>
       </c>
@@ -19164,7 +19208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>100</v>
       </c>
@@ -19201,7 +19245,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>101</v>
       </c>
@@ -19238,7 +19282,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>102</v>
       </c>
@@ -19275,7 +19319,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>103</v>
       </c>
@@ -19312,7 +19356,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>104</v>
       </c>
@@ -19349,7 +19393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>105</v>
       </c>
@@ -19386,7 +19430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>106</v>
       </c>
@@ -19423,7 +19467,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>107</v>
       </c>
@@ -19460,7 +19504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>108</v>
       </c>
@@ -19497,7 +19541,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>109</v>
       </c>
@@ -19534,7 +19578,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>110</v>
       </c>
@@ -19571,7 +19615,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>111</v>
       </c>
@@ -19608,7 +19652,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>112</v>
       </c>
@@ -19645,7 +19689,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>113</v>
       </c>
@@ -19682,7 +19726,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>114</v>
       </c>
@@ -19719,7 +19763,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>115</v>
       </c>
@@ -19756,7 +19800,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>116</v>
       </c>
@@ -19793,7 +19837,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>117</v>
       </c>
@@ -19830,7 +19874,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>118</v>
       </c>
@@ -19867,7 +19911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>119</v>
       </c>
@@ -19904,7 +19948,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>120</v>
       </c>
@@ -19941,7 +19985,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>121</v>
       </c>
@@ -19978,7 +20022,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>122</v>
       </c>
@@ -20015,7 +20059,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>123</v>
       </c>
@@ -20052,7 +20096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>127</v>
       </c>
@@ -20089,7 +20133,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>128</v>
       </c>
@@ -20126,7 +20170,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>129</v>
       </c>
@@ -20163,7 +20207,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>130</v>
       </c>
@@ -20202,7 +20246,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>131</v>
       </c>
@@ -20212,9 +20256,11 @@
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="F85" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G85" s="21"/>
+        <v>1210</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>2264</v>
+      </c>
       <c r="H85" s="21" t="s">
         <v>598</v>
       </c>
@@ -20239,7 +20285,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>132</v>
       </c>
@@ -20249,9 +20295,11 @@
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="F86" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G86" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H86" s="18" t="s">
         <v>689</v>
       </c>
@@ -20276,7 +20324,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="357.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="370.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>133</v>
       </c>
@@ -20286,9 +20334,11 @@
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
       <c r="F87" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G87" s="21"/>
+        <v>1210</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>2264</v>
+      </c>
       <c r="H87" s="21" t="s">
         <v>689</v>
       </c>
@@ -20313,7 +20363,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>134</v>
       </c>
@@ -20323,9 +20373,11 @@
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="F88" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G88" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H88" s="18" t="s">
         <v>689</v>
       </c>
@@ -20350,7 +20402,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>135</v>
       </c>
@@ -20360,9 +20412,11 @@
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="F89" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G89" s="21"/>
+        <v>1210</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>2264</v>
+      </c>
       <c r="H89" s="21" t="s">
         <v>689</v>
       </c>
@@ -20387,7 +20441,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>136</v>
       </c>
@@ -20397,9 +20451,11 @@
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="F90" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G90" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H90" s="18" t="s">
         <v>689</v>
       </c>
@@ -20424,7 +20480,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>137</v>
       </c>
@@ -20434,9 +20490,11 @@
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="F91" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G91" s="21"/>
+        <v>1210</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>2264</v>
+      </c>
       <c r="H91" s="21" t="s">
         <v>689</v>
       </c>
@@ -20461,7 +20519,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>138</v>
       </c>
@@ -20498,7 +20556,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>139</v>
       </c>
@@ -20535,7 +20593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>140</v>
       </c>
@@ -20572,7 +20630,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>141</v>
       </c>
@@ -20609,7 +20667,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>142</v>
       </c>
@@ -20646,7 +20704,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>143</v>
       </c>
@@ -20683,7 +20741,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>144</v>
       </c>
@@ -20720,7 +20778,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>145</v>
       </c>
@@ -20757,7 +20815,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>146</v>
       </c>
@@ -20794,7 +20852,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -20831,7 +20889,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>148</v>
       </c>
@@ -20868,7 +20926,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>149</v>
       </c>
@@ -20905,7 +20963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="281.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="291" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>153</v>
       </c>
@@ -20945,14 +21003,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>154</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="C105" s="18"/>
+      <c r="C105" s="18" t="s">
+        <v>496</v>
+      </c>
       <c r="D105" s="18"/>
       <c r="F105" s="18" t="s">
         <v>1102</v>
@@ -20982,14 +21042,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>155</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="C106" s="27"/>
+      <c r="C106" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="D106" s="27"/>
       <c r="F106" s="18" t="s">
         <v>1102</v>
@@ -21019,7 +21081,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>156</v>
       </c>
@@ -21056,7 +21118,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>158</v>
       </c>
@@ -21091,14 +21153,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>159</v>
       </c>
       <c r="B109" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C109" s="27"/>
+      <c r="C109" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="D109" s="27"/>
       <c r="F109" s="18" t="s">
         <v>1102</v>
@@ -21128,7 +21192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>166</v>
       </c>
@@ -21163,7 +21227,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>167</v>
       </c>
@@ -21200,7 +21264,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>170</v>
       </c>
@@ -21235,7 +21299,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="230.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="238.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>171</v>
       </c>
@@ -21276,7 +21340,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>172</v>
       </c>
@@ -21317,7 +21381,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>173</v>
       </c>
@@ -21356,7 +21420,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="294" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="304.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>174</v>
       </c>
@@ -21395,7 +21459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>175</v>
       </c>
@@ -21434,7 +21498,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>176</v>
       </c>
@@ -21473,7 +21537,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>177</v>
       </c>
@@ -21513,7 +21577,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>178</v>
       </c>
@@ -21553,7 +21617,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>179</v>
       </c>
@@ -21592,7 +21656,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>180</v>
       </c>
@@ -21632,7 +21696,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>182</v>
       </c>
@@ -21672,7 +21736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>183</v>
       </c>
@@ -21713,14 +21777,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>185</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>1667</v>
       </c>
-      <c r="C125" s="27"/>
+      <c r="C125" s="27" t="s">
+        <v>2270</v>
+      </c>
       <c r="D125" s="27"/>
       <c r="F125" s="21" t="s">
         <v>1102</v>
@@ -21750,7 +21816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>187</v>
       </c>
@@ -21791,7 +21857,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>189</v>
       </c>
@@ -21832,7 +21898,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>192</v>
       </c>
@@ -21873,7 +21939,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>193</v>
       </c>
@@ -21912,7 +21978,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>194</v>
       </c>
@@ -21951,7 +22017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>196</v>
       </c>
@@ -21990,7 +22056,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="153.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>197</v>
       </c>
@@ -22031,14 +22097,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="255.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>199</v>
       </c>
       <c r="B133" s="21" t="s">
         <v>1635</v>
       </c>
-      <c r="C133" s="27"/>
+      <c r="C133" s="27" t="s">
+        <v>2270</v>
+      </c>
       <c r="D133" s="27"/>
       <c r="F133" s="21" t="s">
         <v>1102</v>
@@ -22068,14 +22136,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>200</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>1631</v>
       </c>
-      <c r="C134" s="18"/>
+      <c r="C134" s="27" t="s">
+        <v>2270</v>
+      </c>
       <c r="D134" s="18"/>
       <c r="F134" s="21" t="s">
         <v>1102</v>
@@ -22105,19 +22175,21 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>202</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="57" t="s">
         <v>1628</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="F135" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G135" s="21"/>
+        <v>1210</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>2267</v>
+      </c>
       <c r="H135" s="21" t="s">
         <v>612</v>
       </c>
@@ -22142,7 +22214,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>203</v>
       </c>
@@ -22179,7 +22251,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>204</v>
       </c>
@@ -22216,7 +22288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>205</v>
       </c>
@@ -22256,7 +22328,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>206</v>
       </c>
@@ -22296,7 +22368,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>207</v>
       </c>
@@ -22336,7 +22408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>208</v>
       </c>
@@ -22350,7 +22422,7 @@
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="21" t="s">
-        <v>604</v>
+        <v>689</v>
       </c>
       <c r="I141" s="18" t="s">
         <v>1610</v>
@@ -22373,7 +22445,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>209</v>
       </c>
@@ -22387,7 +22459,7 @@
       </c>
       <c r="G142" s="21"/>
       <c r="H142" s="21" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="I142" s="21" t="s">
         <v>1606</v>
@@ -22410,7 +22482,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>210</v>
       </c>
@@ -22451,7 +22523,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="198.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>211</v>
       </c>
@@ -22492,7 +22564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -22533,7 +22605,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>213</v>
       </c>
@@ -22571,7 +22643,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>214</v>
       </c>
@@ -22609,7 +22681,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>221</v>
       </c>
@@ -22650,7 +22722,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>222</v>
       </c>
@@ -22691,7 +22763,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>223</v>
       </c>
@@ -22726,7 +22798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>224</v>
       </c>
@@ -22764,7 +22836,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>225</v>
       </c>
@@ -22805,7 +22877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>227</v>
       </c>
@@ -22843,7 +22915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>228</v>
       </c>
@@ -22881,7 +22953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>231</v>
       </c>
@@ -22919,7 +22991,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>232</v>
       </c>
@@ -22960,7 +23032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>233</v>
       </c>
@@ -23001,7 +23073,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>234</v>
       </c>
@@ -23042,7 +23114,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>235</v>
       </c>
@@ -23083,7 +23155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="217.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>236</v>
       </c>
@@ -23124,7 +23196,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="192" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>237</v>
       </c>
@@ -23165,7 +23237,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>238</v>
       </c>
@@ -23200,7 +23272,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>239</v>
       </c>
@@ -23238,7 +23310,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>240</v>
       </c>
@@ -23276,12 +23348,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>241</v>
       </c>
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="56" t="s">
         <v>1522</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
       </c>
       <c r="F165" s="21" t="s">
         <v>1102</v>
@@ -23311,7 +23386,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="277.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>242</v>
       </c>
@@ -23349,12 +23424,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>243</v>
       </c>
       <c r="B167" s="21" t="s">
         <v>153</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F167" s="21" t="s">
         <v>1102</v>
@@ -23384,7 +23462,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>244</v>
       </c>
@@ -23422,7 +23500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>245</v>
       </c>
@@ -23463,11 +23541,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="106.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>246</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="57" t="s">
         <v>1504</v>
       </c>
       <c r="F170" s="21" t="s">
@@ -23475,7 +23553,7 @@
       </c>
       <c r="G170" s="21"/>
       <c r="H170" s="21" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I170" s="18" t="s">
         <v>1503</v>
@@ -23498,7 +23576,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>247</v>
       </c>
@@ -23539,7 +23617,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>248</v>
       </c>
@@ -23582,7 +23660,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>249</v>
       </c>
@@ -23617,7 +23695,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>250</v>
       </c>
@@ -23652,7 +23730,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>251</v>
       </c>
@@ -23687,42 +23765,42 @@
         <v>691</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="306.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176" spans="1:16" s="58" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A176" s="58">
         <v>252</v>
       </c>
-      <c r="B176" s="18" t="s">
+      <c r="B176" s="59" t="s">
         <v>1492</v>
       </c>
-      <c r="F176" s="18" t="s">
+      <c r="F176" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18" t="s">
+      <c r="G176" s="59"/>
+      <c r="H176" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="I176" s="18" t="s">
+      <c r="I176" s="59" t="s">
         <v>1491</v>
       </c>
-      <c r="J176" s="18" t="s">
+      <c r="J176" s="59" t="s">
         <v>1490</v>
       </c>
-      <c r="K176" s="18" t="s">
+      <c r="K176" s="59" t="s">
         <v>1489</v>
       </c>
-      <c r="L176" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M176" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N176" s="18"/>
-      <c r="O176" s="18"/>
-      <c r="P176" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L176" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M176" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N176" s="59"/>
+      <c r="O176" s="59"/>
+      <c r="P176" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>253</v>
       </c>
@@ -23760,7 +23838,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>256</v>
       </c>
@@ -23798,7 +23876,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>257</v>
       </c>
@@ -23833,7 +23911,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>258</v>
       </c>
@@ -23868,7 +23946,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>259</v>
       </c>
@@ -23903,7 +23981,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>260</v>
       </c>
@@ -23944,7 +24022,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>261</v>
       </c>
@@ -23979,7 +24057,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>262</v>
       </c>
@@ -24014,7 +24092,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>263</v>
       </c>
@@ -24049,7 +24127,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>264</v>
       </c>
@@ -24084,7 +24162,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>274</v>
       </c>
@@ -24117,7 +24195,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>275</v>
       </c>
@@ -24150,7 +24228,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>276</v>
       </c>
@@ -24183,7 +24261,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>277</v>
       </c>
@@ -24216,7 +24294,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>278</v>
       </c>
@@ -24249,7 +24327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>279</v>
       </c>
@@ -24282,7 +24360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>280</v>
       </c>
@@ -24315,7 +24393,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>281</v>
       </c>
@@ -24348,7 +24426,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>282</v>
       </c>
@@ -24381,7 +24459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>283</v>
       </c>
@@ -24414,7 +24492,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>284</v>
       </c>
@@ -24447,7 +24525,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>285</v>
       </c>
@@ -24480,7 +24558,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>286</v>
       </c>
@@ -24515,7 +24593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>287</v>
       </c>
@@ -24550,7 +24628,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>288</v>
       </c>
@@ -24585,7 +24663,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>289</v>
       </c>
@@ -24620,7 +24698,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>290</v>
       </c>
@@ -24655,7 +24733,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>291</v>
       </c>
@@ -24690,7 +24768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>292</v>
       </c>
@@ -24725,12 +24803,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>295</v>
       </c>
       <c r="B206" s="21" t="s">
         <v>548</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F206" s="21" t="s">
         <v>1102</v>
@@ -24760,12 +24841,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>296</v>
       </c>
       <c r="B207" s="18" t="s">
         <v>510</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F207" s="18" t="s">
         <v>1102</v>
@@ -24795,7 +24879,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>297</v>
       </c>
@@ -24830,7 +24914,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>298</v>
       </c>
@@ -24865,7 +24949,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>299</v>
       </c>
@@ -24900,7 +24984,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>300</v>
       </c>
@@ -24935,7 +25019,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>301</v>
       </c>
@@ -24970,7 +25054,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>302</v>
       </c>
@@ -25005,46 +25089,46 @@
         <v>691</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214" spans="1:16" s="58" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A214" s="58">
         <v>303</v>
       </c>
-      <c r="B214" s="21" t="s">
+      <c r="B214" s="60" t="s">
         <v>1381</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="F214" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G214" s="21"/>
-      <c r="H214" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="I214" s="21" t="s">
+      <c r="G214" s="60"/>
+      <c r="H214" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="I214" s="60" t="s">
         <v>1380</v>
       </c>
-      <c r="J214" s="21" t="s">
+      <c r="J214" s="60" t="s">
         <v>1379</v>
       </c>
-      <c r="K214" s="21" t="s">
+      <c r="K214" s="60" t="s">
         <v>1378</v>
       </c>
-      <c r="L214" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M214" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N214" s="27"/>
-      <c r="O214" s="27"/>
-      <c r="P214" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L214" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M214" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N214" s="59"/>
+      <c r="O214" s="59"/>
+      <c r="P214" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>304</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="B215" s="57" t="s">
         <v>1377</v>
       </c>
       <c r="F215" s="18" t="s">
@@ -25052,7 +25136,7 @@
       </c>
       <c r="G215" s="18"/>
       <c r="H215" s="18" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I215" s="18" t="s">
         <v>1376</v>
@@ -25075,19 +25159,22 @@
         <v>691</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>305</v>
       </c>
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="56" t="s">
         <v>1373</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="F216" s="21" t="s">
         <v>1102</v>
       </c>
       <c r="G216" s="21"/>
       <c r="H216" s="21" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="I216" s="21" t="s">
         <v>1372</v>
@@ -25110,17 +25197,19 @@
         <v>691</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>306</v>
       </c>
-      <c r="B217" s="18" t="s">
+      <c r="B217" s="57" t="s">
         <v>1369</v>
       </c>
       <c r="F217" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G217" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G217" s="18" t="s">
+        <v>2269</v>
+      </c>
       <c r="H217" s="18" t="s">
         <v>612</v>
       </c>
@@ -25145,12 +25234,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>307</v>
       </c>
-      <c r="B218" s="21" t="s">
+      <c r="B218" s="4" t="s">
         <v>552</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F218" s="21" t="s">
         <v>1102</v>
@@ -25180,12 +25272,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>308</v>
       </c>
-      <c r="B219" s="18" t="s">
+      <c r="B219" s="3" t="s">
         <v>514</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F219" s="18" t="s">
         <v>1102</v>
@@ -25215,12 +25310,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>309</v>
       </c>
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="4" t="s">
         <v>556</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F220" s="21" t="s">
         <v>1102</v>
@@ -25250,42 +25348,42 @@
         <v>691</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221" spans="1:16" s="58" customFormat="1" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A221" s="58">
         <v>310</v>
       </c>
-      <c r="B221" s="18" t="s">
+      <c r="B221" s="59" t="s">
         <v>1365</v>
       </c>
-      <c r="F221" s="18" t="s">
+      <c r="F221" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18" t="s">
-        <v>612</v>
-      </c>
-      <c r="I221" s="18" t="s">
+      <c r="G221" s="59"/>
+      <c r="H221" s="59" t="s">
+        <v>598</v>
+      </c>
+      <c r="I221" s="59" t="s">
         <v>1364</v>
       </c>
-      <c r="J221" s="18" t="s">
+      <c r="J221" s="59" t="s">
         <v>1363</v>
       </c>
-      <c r="K221" s="18" t="s">
+      <c r="K221" s="59" t="s">
         <v>1362</v>
       </c>
-      <c r="L221" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M221" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N221" s="18"/>
-      <c r="O221" s="18"/>
-      <c r="P221" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L221" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M221" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N221" s="59"/>
+      <c r="O221" s="59"/>
+      <c r="P221" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>311</v>
       </c>
@@ -25323,7 +25421,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>312</v>
       </c>
@@ -25361,7 +25459,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="53">
         <v>313</v>
       </c>
@@ -25403,7 +25501,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>314</v>
       </c>
@@ -25438,7 +25536,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>315</v>
       </c>
@@ -25473,12 +25571,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>316</v>
       </c>
       <c r="B227" s="18" t="s">
         <v>53</v>
+      </c>
+      <c r="C227" s="27" t="s">
+        <v>496</v>
       </c>
       <c r="F227" s="18" t="s">
         <v>1102</v>
@@ -25508,7 +25609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>317</v>
       </c>
@@ -25543,7 +25644,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>318</v>
       </c>
@@ -25551,9 +25652,11 @@
         <v>1345</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G229" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G229" s="18" t="s">
+        <v>2267</v>
+      </c>
       <c r="H229" s="18" t="s">
         <v>598</v>
       </c>
@@ -25578,12 +25681,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>319</v>
       </c>
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F230" s="21" t="s">
         <v>1102</v>
@@ -25613,12 +25719,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>320</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="B231" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F231" s="18" t="s">
         <v>1102</v>
@@ -25648,12 +25757,15 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>321</v>
       </c>
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1202</v>
       </c>
       <c r="F232" s="21" t="s">
         <v>1102</v>
@@ -25683,7 +25795,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>322</v>
       </c>
@@ -25716,7 +25828,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>323</v>
       </c>
@@ -25749,7 +25861,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>324</v>
       </c>
@@ -25788,7 +25900,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>325</v>
       </c>
@@ -25827,7 +25939,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>328</v>
       </c>
@@ -25866,7 +25978,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>329</v>
       </c>
@@ -25905,7 +26017,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>331</v>
       </c>
@@ -25917,9 +26029,11 @@
       </c>
       <c r="D239" s="52"/>
       <c r="F239" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G239" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G239" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H239" s="18" t="s">
         <v>598</v>
       </c>
@@ -25944,7 +26058,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>332</v>
       </c>
@@ -25979,7 +26093,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>333</v>
       </c>
@@ -26017,7 +26131,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>334</v>
       </c>
@@ -26052,7 +26166,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>335</v>
       </c>
@@ -26090,7 +26204,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>336</v>
       </c>
@@ -26128,7 +26242,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>337</v>
       </c>
@@ -26166,7 +26280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>338</v>
       </c>
@@ -26201,7 +26315,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>339</v>
       </c>
@@ -26209,9 +26323,11 @@
         <v>1288</v>
       </c>
       <c r="F247" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G247" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G247" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H247" s="18" t="s">
         <v>598</v>
       </c>
@@ -26236,7 +26352,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>341</v>
       </c>
@@ -26274,7 +26390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>342</v>
       </c>
@@ -26312,7 +26428,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>343</v>
       </c>
@@ -26320,9 +26436,11 @@
         <v>1278</v>
       </c>
       <c r="F250" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G250" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G250" s="18" t="s">
+        <v>2265</v>
+      </c>
       <c r="H250" s="18" t="s">
         <v>598</v>
       </c>
@@ -26347,7 +26465,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>344</v>
       </c>
@@ -26382,7 +26500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>345</v>
       </c>
@@ -26420,7 +26538,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>346</v>
       </c>
@@ -26458,42 +26576,42 @@
         <v>691</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="254" spans="1:16" s="58" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A254" s="58">
         <v>347</v>
       </c>
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="60" t="s">
         <v>1266</v>
       </c>
-      <c r="F254" s="18" t="s">
+      <c r="F254" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G254" s="18"/>
-      <c r="H254" s="18" t="s">
+      <c r="G254" s="59"/>
+      <c r="H254" s="59" t="s">
         <v>598</v>
       </c>
-      <c r="I254" s="21" t="s">
+      <c r="I254" s="60" t="s">
         <v>1265</v>
       </c>
-      <c r="J254" s="21" t="s">
+      <c r="J254" s="60" t="s">
         <v>1264</v>
       </c>
-      <c r="K254" s="21" t="s">
+      <c r="K254" s="60" t="s">
         <v>1263</v>
       </c>
-      <c r="L254" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M254" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N254" s="27"/>
-      <c r="O254" s="27"/>
-      <c r="P254" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L254" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M254" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N254" s="59"/>
+      <c r="O254" s="59"/>
+      <c r="P254" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>348</v>
       </c>
@@ -26531,7 +26649,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>349</v>
       </c>
@@ -26569,7 +26687,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>350</v>
       </c>
@@ -26577,9 +26695,11 @@
         <v>1258</v>
       </c>
       <c r="F257" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G257" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G257" s="18" t="s">
+        <v>2266</v>
+      </c>
       <c r="H257" s="18" t="s">
         <v>598</v>
       </c>
@@ -26604,7 +26724,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>351</v>
       </c>
@@ -26639,7 +26759,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="53">
         <v>352</v>
       </c>
@@ -26681,7 +26801,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>354</v>
       </c>
@@ -26716,7 +26836,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>355</v>
       </c>
@@ -26757,7 +26877,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>356</v>
       </c>
@@ -26798,7 +26918,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>359</v>
       </c>
@@ -26833,7 +26953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>360</v>
       </c>
@@ -26868,11 +26988,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="268.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="277.8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>362</v>
       </c>
-      <c r="B265" s="18" t="s">
+      <c r="B265" s="37" t="s">
         <v>1233</v>
       </c>
       <c r="F265" s="18" t="s">
@@ -26880,7 +27000,7 @@
       </c>
       <c r="G265" s="18"/>
       <c r="H265" s="18" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="I265" s="18" t="s">
         <v>1232</v>
@@ -26903,7 +27023,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="211.8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>363</v>
       </c>
@@ -26938,7 +27058,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="243" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>364</v>
       </c>
@@ -26981,15 +27101,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>365</v>
       </c>
       <c r="B268" s="21" t="s">
         <v>1222</v>
       </c>
+      <c r="C268" s="1" t="s">
+        <v>2271</v>
+      </c>
       <c r="F268" s="21" t="s">
-        <v>1102</v>
+        <v>1210</v>
       </c>
       <c r="G268" s="21"/>
       <c r="H268" s="21" t="s">
@@ -27016,7 +27139,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>366</v>
       </c>
@@ -27054,7 +27177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>367</v>
       </c>
@@ -27092,7 +27215,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>368</v>
       </c>
@@ -27130,7 +27253,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>369</v>
       </c>
@@ -27138,7 +27261,7 @@
         <v>1215</v>
       </c>
       <c r="F272" s="21" t="s">
-        <v>1102</v>
+        <v>1210</v>
       </c>
       <c r="G272" s="21"/>
       <c r="H272" s="21" t="s">
@@ -27165,7 +27288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>370</v>
       </c>
@@ -27200,7 +27323,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>371</v>
       </c>
@@ -27238,7 +27361,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>372</v>
       </c>
@@ -27276,7 +27399,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>373</v>
       </c>
@@ -27284,7 +27407,7 @@
         <v>16</v>
       </c>
       <c r="F276" s="21" t="s">
-        <v>1102</v>
+        <v>1210</v>
       </c>
       <c r="G276" s="21"/>
       <c r="H276" s="21" t="s">
@@ -27311,7 +27434,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>374</v>
       </c>
@@ -27346,7 +27469,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>375</v>
       </c>
@@ -27381,7 +27504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>376</v>
       </c>
@@ -27416,7 +27539,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>377</v>
       </c>
@@ -27451,7 +27574,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>378</v>
       </c>
@@ -27486,7 +27609,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>379</v>
       </c>
@@ -27521,42 +27644,42 @@
         <v>691</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row r="283" spans="1:16" s="58" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A283" s="58">
         <v>380</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="59" t="s">
         <v>1175</v>
       </c>
-      <c r="F283" s="18" t="s">
+      <c r="F283" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G283" s="18"/>
-      <c r="H283" s="18" t="s">
+      <c r="G283" s="59"/>
+      <c r="H283" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="I283" s="18" t="s">
+      <c r="I283" s="59" t="s">
         <v>1174</v>
       </c>
-      <c r="J283" s="18" t="s">
+      <c r="J283" s="59" t="s">
         <v>1173</v>
       </c>
-      <c r="K283" s="18" t="s">
+      <c r="K283" s="59" t="s">
         <v>1172</v>
       </c>
-      <c r="L283" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M283" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N283" s="18"/>
-      <c r="O283" s="18"/>
-      <c r="P283" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="L283" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M283" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N283" s="59"/>
+      <c r="O283" s="59"/>
+      <c r="P283" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>381</v>
       </c>
@@ -27597,7 +27720,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>382</v>
       </c>
@@ -27632,7 +27755,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="53">
         <v>385</v>
       </c>
@@ -27674,7 +27797,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>386</v>
       </c>
@@ -27710,7 +27833,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="53">
         <v>387</v>
       </c>
@@ -27752,7 +27875,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>388</v>
       </c>
@@ -27793,7 +27916,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>389</v>
       </c>
@@ -27828,7 +27951,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="53">
         <v>390</v>
       </c>
@@ -27872,7 +27995,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="102.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>391</v>
       </c>
@@ -27913,7 +28036,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>392</v>
       </c>
@@ -27954,7 +28077,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>393</v>
       </c>
@@ -27989,7 +28112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>394</v>
       </c>
@@ -28030,7 +28153,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>395</v>
       </c>
@@ -28071,42 +28194,42 @@
         <v>691</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="297" spans="1:16" s="58" customFormat="1" ht="79.8" x14ac:dyDescent="0.3">
+      <c r="A297" s="58">
         <v>396</v>
       </c>
-      <c r="B297" s="18" t="s">
+      <c r="B297" s="59" t="s">
         <v>1122</v>
       </c>
-      <c r="F297" s="18" t="s">
+      <c r="F297" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G297" s="18"/>
-      <c r="H297" s="18" t="s">
+      <c r="G297" s="59"/>
+      <c r="H297" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="I297" s="18" t="s">
+      <c r="I297" s="59" t="s">
         <v>1121</v>
       </c>
-      <c r="J297" s="18" t="s">
+      <c r="J297" s="59" t="s">
         <v>1120</v>
       </c>
-      <c r="K297" s="18" t="s">
+      <c r="K297" s="59" t="s">
         <v>1119</v>
       </c>
-      <c r="L297" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M297" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N297" s="18"/>
-      <c r="O297" s="18"/>
-      <c r="P297" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="298" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L297" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M297" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N297" s="59"/>
+      <c r="O297" s="59"/>
+      <c r="P297" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>397</v>
       </c>
@@ -28147,7 +28270,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>398</v>
       </c>
@@ -28182,7 +28305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>399</v>
       </c>
@@ -28217,7 +28340,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>400</v>
       </c>
@@ -28252,7 +28375,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>401</v>
       </c>
@@ -28293,7 +28416,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>402</v>
       </c>
@@ -28330,7 +28453,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>403</v>
       </c>
@@ -28367,7 +28490,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>404</v>
       </c>
@@ -28404,7 +28527,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>405</v>
       </c>
@@ -28441,7 +28564,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>406</v>
       </c>
@@ -28478,7 +28601,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>407</v>
       </c>
@@ -28515,7 +28638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>408</v>
       </c>
@@ -28552,7 +28675,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>409</v>
       </c>
@@ -28589,7 +28712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>410</v>
       </c>
@@ -28626,7 +28749,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>411</v>
       </c>
@@ -28663,7 +28786,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>412</v>
       </c>
@@ -28700,7 +28823,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>413</v>
       </c>
@@ -28735,7 +28858,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>415</v>
       </c>
@@ -28770,7 +28893,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>417</v>
       </c>
@@ -28807,7 +28930,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="27" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>418</v>
       </c>
@@ -28844,7 +28967,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>419</v>
       </c>
@@ -28853,9 +28976,7 @@
       </c>
       <c r="C318" s="27"/>
       <c r="D318" s="27"/>
-      <c r="F318" s="21" t="s">
-        <v>1102</v>
-      </c>
+      <c r="F318" s="21"/>
       <c r="G318" s="21"/>
       <c r="H318" s="21" t="s">
         <v>689</v>
@@ -28881,81 +29002,81 @@
         <v>691</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="319" spans="1:16" s="58" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A319" s="58">
         <v>420</v>
       </c>
-      <c r="B319" s="18" t="s">
+      <c r="B319" s="59" t="s">
         <v>1041</v>
       </c>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="F319" s="21" t="s">
+      <c r="C319" s="59"/>
+      <c r="D319" s="59"/>
+      <c r="F319" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G319" s="18"/>
-      <c r="H319" s="18" t="s">
+      <c r="G319" s="59"/>
+      <c r="H319" s="59" t="s">
         <v>689</v>
       </c>
-      <c r="I319" s="18" t="s">
+      <c r="I319" s="59" t="s">
         <v>1040</v>
       </c>
-      <c r="J319" s="18" t="s">
+      <c r="J319" s="59" t="s">
         <v>1039</v>
       </c>
-      <c r="K319" s="18" t="s">
+      <c r="K319" s="59" t="s">
         <v>1038</v>
       </c>
-      <c r="L319" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M319" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N319" s="18"/>
-      <c r="O319" s="18"/>
-      <c r="P319" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+      <c r="L319" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M319" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N319" s="59"/>
+      <c r="O319" s="59"/>
+      <c r="P319" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="58">
         <v>421</v>
       </c>
-      <c r="B320" s="21" t="s">
+      <c r="B320" s="60" t="s">
         <v>1037</v>
       </c>
-      <c r="C320" s="27"/>
-      <c r="D320" s="27"/>
-      <c r="F320" s="21" t="s">
+      <c r="C320" s="59"/>
+      <c r="D320" s="59"/>
+      <c r="F320" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G320" s="21"/>
-      <c r="H320" s="21" t="s">
+      <c r="G320" s="60"/>
+      <c r="H320" s="60" t="s">
         <v>598</v>
       </c>
-      <c r="I320" s="21" t="s">
+      <c r="I320" s="60" t="s">
         <v>1036</v>
       </c>
-      <c r="J320" s="21" t="s">
+      <c r="J320" s="60" t="s">
         <v>1035</v>
       </c>
-      <c r="K320" s="21" t="s">
+      <c r="K320" s="60" t="s">
         <v>1031</v>
       </c>
-      <c r="L320" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M320" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N320" s="27"/>
-      <c r="O320" s="27"/>
-      <c r="P320" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L320" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M320" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N320" s="59"/>
+      <c r="O320" s="59"/>
+      <c r="P320" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>422</v>
       </c>
@@ -28965,9 +29086,11 @@
       <c r="C321" s="18"/>
       <c r="D321" s="18"/>
       <c r="F321" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G321" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G321" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H321" s="18" t="s">
         <v>598</v>
       </c>
@@ -28992,44 +29115,44 @@
         <v>691</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row r="322" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="58">
         <v>423</v>
       </c>
-      <c r="B322" s="21" t="s">
+      <c r="B322" s="60" t="s">
         <v>1030</v>
       </c>
-      <c r="C322" s="27"/>
-      <c r="D322" s="27"/>
-      <c r="F322" s="21" t="s">
+      <c r="C322" s="59"/>
+      <c r="D322" s="59"/>
+      <c r="F322" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G322" s="21"/>
-      <c r="H322" s="21" t="s">
+      <c r="G322" s="60"/>
+      <c r="H322" s="60" t="s">
         <v>689</v>
       </c>
-      <c r="I322" s="21" t="s">
+      <c r="I322" s="60" t="s">
         <v>1029</v>
       </c>
-      <c r="J322" s="21" t="s">
+      <c r="J322" s="60" t="s">
         <v>1028</v>
       </c>
-      <c r="K322" s="21" t="s">
+      <c r="K322" s="60" t="s">
         <v>1027</v>
       </c>
-      <c r="L322" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M322" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N322" s="27"/>
-      <c r="O322" s="27"/>
-      <c r="P322" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L322" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M322" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N322" s="59"/>
+      <c r="O322" s="59"/>
+      <c r="P322" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>424</v>
       </c>
@@ -29039,9 +29162,11 @@
       <c r="C323" s="18"/>
       <c r="D323" s="18"/>
       <c r="F323" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G323" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G323" s="18" t="s">
+        <v>2268</v>
+      </c>
       <c r="H323" s="18" t="s">
         <v>689</v>
       </c>
@@ -29066,7 +29191,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>426</v>
       </c>
@@ -29101,7 +29226,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>427</v>
       </c>
@@ -29136,14 +29261,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>429</v>
       </c>
       <c r="B326" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="C326" s="27"/>
+      <c r="C326" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="D326" s="27"/>
       <c r="F326" s="18" t="s">
         <v>1102</v>
@@ -29173,7 +29300,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>430</v>
       </c>
@@ -29183,9 +29310,11 @@
       <c r="C327" s="18"/>
       <c r="D327" s="18"/>
       <c r="F327" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G327" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G327" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H327" s="18" t="s">
         <v>598</v>
       </c>
@@ -29210,7 +29339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>431</v>
       </c>
@@ -29247,7 +29376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>432</v>
       </c>
@@ -29257,9 +29386,11 @@
       <c r="C329" s="18"/>
       <c r="D329" s="18"/>
       <c r="F329" s="18" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G329" s="18"/>
+        <v>1210</v>
+      </c>
+      <c r="G329" s="18" t="s">
+        <v>2264</v>
+      </c>
       <c r="H329" s="18" t="s">
         <v>598</v>
       </c>
@@ -29284,14 +29415,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>433</v>
       </c>
       <c r="B330" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C330" s="27"/>
+      <c r="C330" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="D330" s="27"/>
       <c r="F330" s="21" t="s">
         <v>1102</v>
@@ -29321,7 +29454,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>434</v>
       </c>
@@ -29358,7 +29491,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>435</v>
       </c>
@@ -29393,7 +29526,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>436</v>
       </c>
@@ -29428,7 +29561,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>437</v>
       </c>
@@ -29463,14 +29596,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>440</v>
       </c>
       <c r="B335" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C335" s="18"/>
+      <c r="C335" s="18" t="s">
+        <v>496</v>
+      </c>
       <c r="D335" s="18"/>
       <c r="F335" s="18" t="s">
         <v>1102</v>
@@ -29500,7 +29635,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>441</v>
       </c>
@@ -29541,14 +29676,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>442</v>
       </c>
       <c r="B337" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C337" s="18"/>
+      <c r="C337" s="18" t="s">
+        <v>496</v>
+      </c>
       <c r="D337" s="18"/>
       <c r="F337" s="18" t="s">
         <v>1102</v>
@@ -29578,14 +29715,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>443</v>
       </c>
       <c r="B338" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="C338" s="27"/>
+      <c r="C338" s="27" t="s">
+        <v>496</v>
+      </c>
       <c r="D338" s="27"/>
       <c r="F338" s="21" t="s">
         <v>1102</v>
@@ -29615,7 +29754,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>444</v>
       </c>
@@ -29656,7 +29795,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>445</v>
       </c>
@@ -29693,7 +29832,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>448</v>
       </c>
@@ -29730,15 +29869,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="115.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" ht="119.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>449</v>
       </c>
-      <c r="B342" s="21" t="s">
+      <c r="B342" s="4" t="s">
         <v>203</v>
       </c>
       <c r="C342" s="27"/>
       <c r="D342" s="27"/>
+      <c r="E342" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="F342" s="21" t="s">
         <v>1102</v>
       </c>
@@ -29767,44 +29909,44 @@
         <v>691</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="343" spans="1:16" s="58" customFormat="1" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A343" s="58">
         <v>450</v>
       </c>
-      <c r="B343" s="18" t="s">
+      <c r="B343" s="59" t="s">
         <v>962</v>
       </c>
-      <c r="C343" s="18"/>
-      <c r="D343" s="18"/>
-      <c r="F343" s="18" t="s">
+      <c r="C343" s="59"/>
+      <c r="D343" s="59"/>
+      <c r="F343" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G343" s="18"/>
-      <c r="H343" s="18" t="s">
+      <c r="G343" s="59"/>
+      <c r="H343" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="I343" s="18" t="s">
+      <c r="I343" s="59" t="s">
         <v>961</v>
       </c>
-      <c r="J343" s="18" t="s">
+      <c r="J343" s="59" t="s">
         <v>960</v>
       </c>
-      <c r="K343" s="18" t="s">
+      <c r="K343" s="59" t="s">
         <v>959</v>
       </c>
-      <c r="L343" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M343" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N343" s="18"/>
-      <c r="O343" s="18"/>
-      <c r="P343" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L343" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M343" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N343" s="59"/>
+      <c r="O343" s="59"/>
+      <c r="P343" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" ht="93" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>451</v>
       </c>
@@ -29841,7 +29983,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>452</v>
       </c>
@@ -29850,6 +29992,9 @@
       </c>
       <c r="C345" s="18"/>
       <c r="D345" s="18"/>
+      <c r="E345" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="F345" s="18" t="s">
         <v>1102</v>
       </c>
@@ -29878,81 +30023,81 @@
         <v>691</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row r="346" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="58">
         <v>453</v>
       </c>
-      <c r="B346" s="21" t="s">
+      <c r="B346" s="60" t="s">
         <v>953</v>
       </c>
-      <c r="C346" s="27"/>
-      <c r="D346" s="27"/>
-      <c r="F346" s="21" t="s">
+      <c r="C346" s="59"/>
+      <c r="D346" s="59"/>
+      <c r="F346" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G346" s="21"/>
-      <c r="H346" s="21" t="s">
+      <c r="G346" s="60"/>
+      <c r="H346" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="I346" s="60" t="s">
+        <v>952</v>
+      </c>
+      <c r="J346" s="60" t="s">
+        <v>951</v>
+      </c>
+      <c r="K346" s="60" t="s">
+        <v>950</v>
+      </c>
+      <c r="L346" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M346" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N346" s="59"/>
+      <c r="O346" s="59"/>
+      <c r="P346" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" s="58" customFormat="1" ht="106.2" x14ac:dyDescent="0.3">
+      <c r="A347" s="58">
+        <v>455</v>
+      </c>
+      <c r="B347" s="60" t="s">
+        <v>949</v>
+      </c>
+      <c r="C347" s="59"/>
+      <c r="D347" s="59"/>
+      <c r="F347" s="60" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G347" s="60"/>
+      <c r="H347" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="I346" s="21" t="s">
-        <v>952</v>
-      </c>
-      <c r="J346" s="21" t="s">
-        <v>951</v>
-      </c>
-      <c r="K346" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="L346" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M346" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N346" s="27"/>
-      <c r="O346" s="27"/>
-      <c r="P346" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
-        <v>455</v>
-      </c>
-      <c r="B347" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="C347" s="27"/>
-      <c r="D347" s="27"/>
-      <c r="F347" s="21" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G347" s="21"/>
-      <c r="H347" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="I347" s="21" t="s">
+      <c r="I347" s="60" t="s">
         <v>948</v>
       </c>
-      <c r="J347" s="21" t="s">
+      <c r="J347" s="60" t="s">
         <v>947</v>
       </c>
-      <c r="K347" s="21" t="s">
+      <c r="K347" s="60" t="s">
         <v>946</v>
       </c>
-      <c r="L347" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M347" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N347" s="27"/>
-      <c r="O347" s="27"/>
-      <c r="P347" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L347" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M347" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N347" s="59"/>
+      <c r="O347" s="59"/>
+      <c r="P347" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>456</v>
       </c>
@@ -29993,7 +30138,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>457</v>
       </c>
@@ -30034,21 +30179,23 @@
         <v>691</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="26.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>458</v>
       </c>
       <c r="B350" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C350" s="18"/>
+      <c r="C350" s="18" t="s">
+        <v>496</v>
+      </c>
       <c r="D350" s="18"/>
       <c r="F350" s="18" t="s">
         <v>1102</v>
       </c>
       <c r="G350" s="18"/>
       <c r="H350" s="18" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="I350" s="18" t="s">
         <v>21</v>
@@ -30071,15 +30218,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>459</v>
       </c>
-      <c r="B351" s="21" t="s">
+      <c r="B351" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C351" s="27"/>
       <c r="D351" s="27"/>
+      <c r="E351" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="F351" s="21" t="s">
         <v>1102</v>
       </c>
@@ -30108,7 +30258,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="64.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="66.599999999999994" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>460</v>
       </c>
@@ -30145,7 +30295,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>461</v>
       </c>
@@ -30182,44 +30332,44 @@
         <v>691</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row r="354" spans="1:16" s="58" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A354" s="58">
         <v>463</v>
       </c>
-      <c r="B354" s="21" t="s">
+      <c r="B354" s="60" t="s">
         <v>925</v>
       </c>
-      <c r="C354" s="27"/>
-      <c r="D354" s="27"/>
-      <c r="F354" s="21" t="s">
+      <c r="C354" s="59"/>
+      <c r="D354" s="59"/>
+      <c r="F354" s="60" t="s">
         <v>1102</v>
       </c>
-      <c r="G354" s="21"/>
-      <c r="H354" s="21" t="s">
+      <c r="G354" s="60"/>
+      <c r="H354" s="60" t="s">
         <v>612</v>
       </c>
-      <c r="I354" s="21" t="s">
+      <c r="I354" s="60" t="s">
         <v>924</v>
       </c>
-      <c r="J354" s="21" t="s">
+      <c r="J354" s="60" t="s">
         <v>923</v>
       </c>
-      <c r="K354" s="21" t="s">
+      <c r="K354" s="60" t="s">
         <v>922</v>
       </c>
-      <c r="L354" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="M354" s="21" t="s">
-        <v>692</v>
-      </c>
-      <c r="N354" s="27"/>
-      <c r="O354" s="27"/>
-      <c r="P354" s="27" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L354" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M354" s="60" t="s">
+        <v>692</v>
+      </c>
+      <c r="N354" s="59"/>
+      <c r="O354" s="59"/>
+      <c r="P354" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>464</v>
       </c>
@@ -30260,7 +30410,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>465</v>
       </c>
@@ -30301,15 +30451,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>469</v>
       </c>
-      <c r="B357" s="21" t="s">
+      <c r="B357" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C357" s="27"/>
       <c r="D357" s="27"/>
+      <c r="E357" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="F357" s="21" t="s">
         <v>1102</v>
       </c>
@@ -30338,15 +30491,18 @@
         <v>691</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>470</v>
       </c>
-      <c r="B358" s="18" t="s">
+      <c r="B358" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C358" s="18"/>
       <c r="D358" s="18"/>
+      <c r="E358" s="1" t="s">
+        <v>1202</v>
+      </c>
       <c r="F358" s="18" t="s">
         <v>1102</v>
       </c>
@@ -30375,7 +30531,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="39" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>471</v>
       </c>
@@ -30416,44 +30572,44 @@
         <v>691</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="39" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row r="360" spans="1:16" s="58" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A360" s="58">
         <v>472</v>
       </c>
-      <c r="B360" s="18" t="s">
+      <c r="B360" s="59" t="s">
         <v>907</v>
       </c>
-      <c r="C360" s="18"/>
-      <c r="D360" s="18"/>
-      <c r="F360" s="18" t="s">
+      <c r="C360" s="59"/>
+      <c r="D360" s="59"/>
+      <c r="F360" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G360" s="18"/>
-      <c r="H360" s="18" t="s">
+      <c r="G360" s="59"/>
+      <c r="H360" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="I360" s="18" t="s">
+      <c r="I360" s="59" t="s">
         <v>906</v>
       </c>
-      <c r="J360" s="18" t="s">
+      <c r="J360" s="59" t="s">
         <v>905</v>
       </c>
-      <c r="K360" s="18" t="s">
+      <c r="K360" s="59" t="s">
         <v>904</v>
       </c>
-      <c r="L360" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M360" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N360" s="18"/>
-      <c r="O360" s="18"/>
-      <c r="P360" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L360" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M360" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N360" s="59"/>
+      <c r="O360" s="59"/>
+      <c r="P360" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" ht="40.200000000000003" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>473</v>
       </c>
@@ -30490,44 +30646,44 @@
         <v>691</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row r="362" spans="1:16" s="58" customFormat="1" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A362" s="58">
         <v>474</v>
       </c>
-      <c r="B362" s="18" t="s">
+      <c r="B362" s="59" t="s">
         <v>899</v>
       </c>
-      <c r="C362" s="18"/>
-      <c r="D362" s="18"/>
-      <c r="F362" s="18" t="s">
+      <c r="C362" s="59"/>
+      <c r="D362" s="59"/>
+      <c r="F362" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G362" s="18"/>
-      <c r="H362" s="18" t="s">
+      <c r="G362" s="59"/>
+      <c r="H362" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="I362" s="18" t="s">
+      <c r="I362" s="59" t="s">
         <v>898</v>
       </c>
-      <c r="J362" s="18" t="s">
+      <c r="J362" s="59" t="s">
         <v>897</v>
       </c>
-      <c r="K362" s="18" t="s">
+      <c r="K362" s="59" t="s">
         <v>896</v>
       </c>
-      <c r="L362" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M362" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N362" s="18"/>
-      <c r="O362" s="18"/>
-      <c r="P362" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" ht="51.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L362" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M362" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N362" s="59"/>
+      <c r="O362" s="59"/>
+      <c r="P362" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" ht="53.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>475</v>
       </c>
@@ -30564,7 +30720,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>476</v>
       </c>
@@ -30601,7 +30757,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="77.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="79.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>477</v>
       </c>
@@ -30642,7 +30798,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>479</v>
       </c>
@@ -30677,7 +30833,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>480</v>
       </c>
@@ -30712,7 +30868,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>481</v>
       </c>
@@ -30747,7 +30903,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="243" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="251.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>482</v>
       </c>
@@ -30782,7 +30938,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>483</v>
       </c>
@@ -30819,7 +30975,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>484</v>
       </c>
@@ -30854,7 +31010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="102.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="106.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>485</v>
       </c>
@@ -30889,7 +31045,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="141" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="145.80000000000001" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>486</v>
       </c>
@@ -30924,7 +31080,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="396" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="383.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>487</v>
       </c>
@@ -30959,7 +31115,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>489</v>
       </c>
@@ -30994,7 +31150,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="332.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>490</v>
       </c>
@@ -31029,7 +31185,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="408.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>491</v>
       </c>
@@ -31064,7 +31220,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="370.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="383.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>492</v>
       </c>
@@ -31099,7 +31255,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="396" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>493</v>
       </c>
@@ -31134,7 +31290,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="192" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>494</v>
       </c>
@@ -31169,7 +31325,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="153.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="159" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>495</v>
       </c>
@@ -31204,7 +31360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="211.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>498</v>
       </c>
@@ -31239,7 +31395,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>499</v>
       </c>
@@ -31274,7 +31430,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="179.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="185.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>500</v>
       </c>
@@ -31309,7 +31465,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="370.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="383.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>501</v>
       </c>
@@ -31344,7 +31500,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="217.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="225" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>503</v>
       </c>
@@ -31379,7 +31535,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="330.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>504</v>
       </c>
@@ -31414,7 +31570,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="357" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>505</v>
       </c>
@@ -31449,40 +31605,40 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+    <row r="389" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="58">
         <v>506</v>
       </c>
-      <c r="B389" s="18" t="s">
+      <c r="B389" s="59" t="s">
         <v>841</v>
       </c>
-      <c r="C389" s="18"/>
-      <c r="D389" s="18"/>
-      <c r="F389" s="18" t="s">
+      <c r="C389" s="59"/>
+      <c r="D389" s="59"/>
+      <c r="F389" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G389" s="18"/>
-      <c r="H389" s="18" t="s">
+      <c r="G389" s="59"/>
+      <c r="H389" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="I389" s="18" t="s">
+      <c r="I389" s="59" t="s">
         <v>840</v>
       </c>
-      <c r="J389" s="18"/>
-      <c r="K389" s="18"/>
-      <c r="L389" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M389" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N389" s="18"/>
-      <c r="O389" s="18"/>
-      <c r="P389" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J389" s="59"/>
+      <c r="K389" s="59"/>
+      <c r="L389" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M389" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N389" s="59"/>
+      <c r="O389" s="59"/>
+      <c r="P389" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>507</v>
       </c>
@@ -31513,40 +31669,40 @@
         <v>691</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+    <row r="391" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="58">
         <v>508</v>
       </c>
-      <c r="B391" s="18" t="s">
+      <c r="B391" s="59" t="s">
         <v>837</v>
       </c>
-      <c r="C391" s="18"/>
-      <c r="D391" s="18"/>
-      <c r="F391" s="18" t="s">
+      <c r="C391" s="59"/>
+      <c r="D391" s="59"/>
+      <c r="F391" s="59" t="s">
         <v>1102</v>
       </c>
-      <c r="G391" s="18"/>
-      <c r="H391" s="18" t="s">
+      <c r="G391" s="59"/>
+      <c r="H391" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="I391" s="18" t="s">
+      <c r="I391" s="59" t="s">
         <v>836</v>
       </c>
-      <c r="J391" s="18"/>
-      <c r="K391" s="18"/>
-      <c r="L391" s="18" t="s">
-        <v>693</v>
-      </c>
-      <c r="M391" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="N391" s="18"/>
-      <c r="O391" s="18"/>
-      <c r="P391" s="18" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J391" s="59"/>
+      <c r="K391" s="59"/>
+      <c r="L391" s="59" t="s">
+        <v>693</v>
+      </c>
+      <c r="M391" s="59" t="s">
+        <v>692</v>
+      </c>
+      <c r="N391" s="59"/>
+      <c r="O391" s="59"/>
+      <c r="P391" s="59" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" ht="132.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>509</v>
       </c>
@@ -31587,7 +31743,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="277.89999999999998" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="277.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>510</v>
       </c>
@@ -31628,7 +31784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="332.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="343.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" s="18" t="s">
         <v>2243</v>
       </c>
@@ -31660,7 +31816,7 @@
       <c r="O394" s="18"/>
       <c r="P394" s="18"/>
     </row>
-    <row r="395" spans="1:16" ht="166.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="172.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" s="18" t="s">
         <v>2244</v>
       </c>
@@ -31694,7 +31850,7 @@
       <c r="O395" s="18"/>
       <c r="P395" s="18"/>
     </row>
-    <row r="396" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="93" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>511</v>
       </c>
@@ -31731,14 +31887,16 @@
         <v>691</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="255.75" hidden="1" x14ac:dyDesc